--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -519,7 +519,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +627,7 @@
         <v>45144</v>
       </c>
       <c r="I4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>16</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD730ABB-91AF-4743-BC0F-696B1D5FB548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F2A14-3287-43A9-B10A-AD6DB12CAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -79,48 +79,9 @@
     <t>CA</t>
   </si>
   <si>
-    <t>FCS-3</t>
-  </si>
-  <si>
     <t>D_CA23_ECDC-9_31</t>
   </si>
   <si>
-    <t>D_FCS323_42_24</t>
-  </si>
-  <si>
-    <t>Carnarvon</t>
-  </si>
-  <si>
-    <t>EDC-91</t>
-  </si>
-  <si>
-    <t>EDC-40</t>
-  </si>
-  <si>
-    <t>EDC-42</t>
-  </si>
-  <si>
-    <t>Carnarvon N-1X</t>
-  </si>
-  <si>
-    <t>EDC-53</t>
-  </si>
-  <si>
-    <t>OAKHIL-1X</t>
-  </si>
-  <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>D_DRP23_53_97</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
@@ -130,45 +91,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Only one PAD SET FOR AED (automated external defibrillator) used for CPR in the clinic found expired from 17-4-2023, new valid sets need to be provided ASAP</t>
-  </si>
-  <si>
-    <t>5.9.22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MP no.1 (high pressure hose Vibrator Hose) between H.P surface line and stand pipe damaged in outer rubber shield and the metal shield is corroded, in need to be replaced as per API STD clear mention. </t>
-  </si>
-  <si>
-    <t>2.3.61</t>
-  </si>
-  <si>
-    <t>Two BOP control system lines damaged in outer shield and there is a damage in metal shield, all BOP control line has to be fire resistance and manufacture according API 16 D in need to be replaced.</t>
-  </si>
-  <si>
-    <t>3.1.35</t>
-  </si>
-  <si>
-    <t>4.10.63</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highly greased oil observed accumulated below the Kitchen fryer also the oil pans below fryers observed full of oil that present a serious fire hazard, require a deep cleaning and empty the pans periodically </t>
-  </si>
-  <si>
-    <t>5.8.92</t>
-  </si>
-  <si>
-    <t>Fuel purifier AC motor isn’t EX-type, need to be replaced by EX-type motor.</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> During carrying out F/T for Diesel Fire Pump, the water flow rate observed as pulses and the gauge giving fluctuated reading not a stable reading which should be (minimum accepted flow rate pressure 75 Psi), maintenance required ASAP. </t>
-  </si>
-  <si>
-    <t>There is inline receptacle used to supply diesel heater not Ex-type and it is left unused and without its protection cap HIPO of short circuit or spark to be happened.</t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -176,6 +98,42 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>EDC-92</t>
+  </si>
+  <si>
+    <t>EDC-62</t>
+  </si>
+  <si>
+    <t>PTAH-48</t>
+  </si>
+  <si>
+    <t>Kalabsha</t>
+  </si>
+  <si>
+    <t>RA-3</t>
+  </si>
+  <si>
+    <t>D_RA23_62_99999</t>
+  </si>
+  <si>
+    <t>EDC-48</t>
+  </si>
+  <si>
+    <t>-	Multiple of Non-conformity for derrick climber system assembly as following:
+* Counter weight attached on mast guy line.
+* Moveable wire rope sling for climber assist create cross and friction condition with guy line wire.
+* Individually guide line for counter weight not available.
+All above may lead for severe injuries and property damage, in case of wind gusts exist and personal using the system for climbing there will be an wind effect and force on mast and guy lines lead the guy lines slightly shacking included the attached climber system that's effects will pass to the user.
+Property damage may happen for the guy line wire and movable climb assist wire rope sling due to the friction condition.
+Recommendations:
+* Remove the climber assist counter weight from guy line.
+* Providing the rig with proper climber assist guide line as per the OEM recommendation and fixed individually.
+* 3rd party to inspect the guy line affected by friction condition and moveable wire rope sling attached with counter weight.
+* Proper method of clamping and to use the fist grip clamp.
+* Providing Climber assist COC, manual and thorough examination.
+(Zone#5 – Item No: 5.6.57).</t>
   </si>
 </sst>
 </file>
@@ -183,7 +141,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -313,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,9 +279,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -345,10 +300,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -654,8 +609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" activeCellId="1" sqref="F7 G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,34 +629,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -709,145 +664,126 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="10">
+        <v>45150</v>
+      </c>
+      <c r="I2" s="7">
+        <v>5</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="11">
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10">
         <v>45150</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>2</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>21</v>
+      <c r="J3" s="7" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="11">
-        <v>45144</v>
-      </c>
-      <c r="I4" s="8">
-        <v>7</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="11">
-        <v>45148</v>
-      </c>
-      <c r="I5" s="8">
-        <v>3</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>30</v>
-      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>3</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
@@ -867,146 +803,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="11.7109375" style="14" customWidth="1"/>
+    <col min="3" max="3" width="45" style="15" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>49</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="19"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{971F2A14-3287-43A9-B10A-AD6DB12CAED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C4D29-5AC8-42DD-BA90-6834D2EA62F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -134,6 +134,18 @@
 * Proper method of clamping and to use the fist grip clamp.
 * Providing Climber assist COC, manual and thorough examination.
 (Zone#5 – Item No: 5.6.57).</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>fldklghkdfhkghsdkuhfkushdfk</t>
   </si>
 </sst>
 </file>
@@ -609,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" activeCellId="1" sqref="F7 G9"/>
     </sheetView>
   </sheetViews>
@@ -803,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,6 +870,48 @@
         <v>20</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7C4D29-5AC8-42DD-BA90-6834D2EA62F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16A67DF-6370-40EB-A252-6B511BEDB9AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>5</t>
@@ -680,19 +677,19 @@
         <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H2" s="10">
         <v>45150</v>
@@ -701,7 +698,7 @@
         <v>5</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -733,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -815,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +836,7 @@
         <v>19</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
@@ -847,41 +844,30 @@
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -889,13 +875,13 @@
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -903,13 +889,13 @@
         <v>13</v>
       </c>
       <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="D6" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0D7B5F-1836-4065-87F8-BFF0EF1E6A75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A1CFA-40BE-4917-9E1A-7541413BA959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -130,9 +130,6 @@
 (Zone#5 – Item No: 5.6.57).</t>
   </si>
   <si>
-    <t>fldklghkdfhkghsdkuhfkushdfk</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -143,6 +140,15 @@
   </si>
   <si>
     <t>2.4.5</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -813,7 +819,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,7 +850,7 @@
         <v>13</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>29</v>
@@ -858,10 +864,10 @@
         <v>13</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>21</v>
@@ -872,10 +878,10 @@
         <v>13</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>21</v>
@@ -886,10 +892,10 @@
         <v>13</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>21</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646A1CFA-40BE-4917-9E1A-7541413BA959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78541EA-71E0-46F7-972F-6B92382424D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -133,22 +133,10 @@
     <t>5.1</t>
   </si>
   <si>
-    <t>1.2.3</t>
-  </si>
-  <si>
-    <t>1.3.4</t>
-  </si>
-  <si>
-    <t>2.4.5</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+    <t>EDC-42</t>
+  </si>
+  <si>
+    <t>4</t>
   </si>
 </sst>
 </file>
@@ -819,7 +807,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,44 +849,46 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>21</v>
+      <c r="C4" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>21</v>
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78541EA-71E0-46F7-972F-6B92382424D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123707F-4657-4B94-B1DD-97C13BF3276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -137,6 +137,33 @@
   </si>
   <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -807,7 +834,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,10 +879,13 @@
         <v>31</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>32</v>
+        <v>36</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -863,10 +893,13 @@
         <v>31</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -874,10 +907,13 @@
         <v>31</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -888,7 +924,10 @@
         <v>32</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>32</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7123707F-4657-4B94-B1DD-97C13BF3276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA677E-E526-4345-9C90-DD7CF35B12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams_Follow_Up" sheetId="1" r:id="rId1"/>
     <sheet name="Critical_Points_Follow_Up" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -164,6 +176,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Closure %</t>
   </si>
 </sst>
 </file>
@@ -301,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -356,6 +371,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" activeCellId="1" sqref="F7 G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,7 +676,7 @@
     <col min="11" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -689,8 +707,11 @@
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -721,8 +742,11 @@
       <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="19">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -753,8 +777,11 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="19">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -768,8 +795,9 @@
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -783,8 +811,9 @@
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -798,8 +827,9 @@
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -814,8 +844,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,4 +972,42 @@
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B80112F9-CFCD-4B70-882E-2BB689B71AC5}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91EA677E-E526-4345-9C90-DD7CF35B12DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4E1A6-67DF-4BB9-ABDC-0C05EA99A8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -176,9 +176,6 @@
   </si>
   <si>
     <t>In Progress</t>
-  </si>
-  <si>
-    <t>Closure %</t>
   </si>
 </sst>
 </file>
@@ -316,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -371,9 +368,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +670,7 @@
     <col min="11" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -707,11 +701,8 @@
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -742,11 +733,8 @@
       <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="19">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -777,11 +765,8 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="19">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -795,9 +780,8 @@
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -811,9 +795,8 @@
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -827,9 +810,8 @@
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -844,9 +826,8 @@
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C4E1A6-67DF-4BB9-ABDC-0C05EA99A8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ABA27D-AC4A-4A7D-A8DA-18F8C400EE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -176,6 +176,9 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Closure %</t>
   </si>
 </sst>
 </file>
@@ -649,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,11 +669,11 @@
     <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="1"/>
-    <col min="10" max="10" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.85546875" style="1"/>
+    <col min="10" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -701,8 +704,11 @@
       <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -733,8 +739,11 @@
       <c r="J2" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -765,8 +774,11 @@
       <c r="J3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -780,8 +792,9 @@
       <c r="H4" s="10"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -795,8 +808,9 @@
       <c r="H5" s="10"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="7"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -810,8 +824,9 @@
       <c r="H6" s="10"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -826,8 +841,9 @@
       <c r="H7" s="11"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>0</v>
       </c>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869492D5-75BB-4ECA-A9C1-67CF8096FBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E484F7-9FE7-4601-B2D9-403B4870723B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Teams_Follow_Up" sheetId="1" r:id="rId1"/>
-    <sheet name="Critical_Points_Follow_Up" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
+    <sheet name="Drops_Teams_Follow_Up" sheetId="5" r:id="rId2"/>
+    <sheet name="Critical_Points_Follow_Up" sheetId="2" r:id="rId3"/>
+    <sheet name="Rigs_Follow_UP" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Rigs_Follow_UP!$A$1:$G$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,17 +42,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="133">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="170">
   <si>
     <t>Team No.</t>
   </si>
   <si>
-    <t>Audit/Drops</t>
-  </si>
-  <si>
     <t>Rig No.</t>
   </si>
   <si>
@@ -61,9 +59,6 @@
     <t>Job Type</t>
   </si>
   <si>
-    <t>Job No.</t>
-  </si>
-  <si>
     <t>Starting Date</t>
   </si>
   <si>
@@ -73,21 +68,9 @@
     <t>Expected Rig</t>
   </si>
   <si>
-    <t>Audit</t>
-  </si>
-  <si>
     <t>ECDC-9</t>
   </si>
   <si>
-    <t>SIWA-V1X (ST)</t>
-  </si>
-  <si>
-    <t>Fagora</t>
-  </si>
-  <si>
-    <t>D_CA23_ECDC-9_31</t>
-  </si>
-  <si>
     <t>Point</t>
   </si>
   <si>
@@ -112,9 +95,6 @@
     <t>RA-3</t>
   </si>
   <si>
-    <t>D_RA23_62_99999</t>
-  </si>
-  <si>
     <t>EDC-48</t>
   </si>
   <si>
@@ -148,27 +128,18 @@
     <t>The mast during rig up piston razing stop in 45° in critical point and no more up try 4 time in these cases, need check and repair to avoid mast failure</t>
   </si>
   <si>
-    <t>CLosed</t>
-  </si>
-  <si>
     <t>1.5.7</t>
   </si>
   <si>
     <t>Kelly hose, have mechanical defection such as kinks, crushed sections, and cover with excessive damage which exposes reinforcement will eventually break down the reinforcement and lead to a hose failure</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Discharge manifold connection flanges not same thickness. Upper flange 30 mm and lower flange 36 mm which is the flanges thickness should be 55.6 mm for 5000 psi working pressure as required by API standerd, also noticed local welding area.</t>
   </si>
   <si>
     <t>Pump Pressure hose, have mechanical defection such as kinks, crushed sections, and cover with excessive damage which exposes reinforcement will eventually break down the reinforcement and lead to a hose failure</t>
   </si>
   <si>
-    <t>During test mud pump PRV the gauge failure in 3800psi mud pump pressure gauge thread type, in need to change to flange type for mud pump and stand pipe.</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -244,9 +215,6 @@
     <t>4.2.11</t>
   </si>
   <si>
-    <t>BCS malfunction during the audit time, need to be inspected by rig maintenance teem</t>
-  </si>
-  <si>
     <t>4.5.9</t>
   </si>
   <si>
@@ -262,9 +230,6 @@
     <t>4.7.2</t>
   </si>
   <si>
-    <t>The fluorescent lights in Koomy unit need to be replaced, It's not compatible for zone 1 classification. Can be using only in zone 2</t>
-  </si>
-  <si>
     <t>4.10.1</t>
   </si>
   <si>
@@ -329,12 +294,6 @@
   </si>
   <si>
     <t>Earth rod not buried to the ground . Need to be buried</t>
-  </si>
-  <si>
-    <t>5.2.3</t>
-  </si>
-  <si>
-    <t>There is no fixed gas system (H2S AND LEL) at rig location that need to be provided.</t>
   </si>
   <si>
     <t>5.2.4</t>
@@ -411,24 +370,6 @@
 - Button release the emergency shut down button stuck.</t>
   </si>
   <si>
-    <t>5.7.18</t>
-  </si>
-  <si>
-    <t>Found front right tire for forklift worn-out (in bad condition) with deep holes, should to be replaced immediately.</t>
-  </si>
-  <si>
-    <t>5.7.19</t>
-  </si>
-  <si>
-    <t>Found Wire ropes for air winch and ODS hydraulic winch kinked, require to be changed immediately</t>
-  </si>
-  <si>
-    <t>5.7.20</t>
-  </si>
-  <si>
-    <t>Observed vertical lifeline for mast ladder (falling protection system) worn-out, kinked, crushing and require to be removed from service and replace it immediately</t>
-  </si>
-  <si>
     <t>5.8.3</t>
   </si>
   <si>
@@ -453,7 +394,181 @@
     <t>Kitchen wall mounted ventilator and ventilation outer duct  &amp; Air curtain show excessive grease which present a series fire hazard and required to be cleaned periodically</t>
   </si>
   <si>
-    <t>Closing Audit</t>
+    <t>Location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power tong </t>
+  </si>
+  <si>
+    <t>Sub-base</t>
+  </si>
+  <si>
+    <t>Tubing board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mast </t>
+  </si>
+  <si>
+    <t>HP line</t>
+  </si>
+  <si>
+    <t>2.4.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M/P  </t>
+  </si>
+  <si>
+    <t>2.4.16</t>
+  </si>
+  <si>
+    <t>H. Pressure hose</t>
+  </si>
+  <si>
+    <t>2.4.18</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>2.4.19</t>
+  </si>
+  <si>
+    <t>BOP HPU</t>
+  </si>
+  <si>
+    <t>Kill Line</t>
+  </si>
+  <si>
+    <t>BOP Closing Unit</t>
+  </si>
+  <si>
+    <t>Choke Manifold</t>
+  </si>
+  <si>
+    <t>Lighting panel</t>
+  </si>
+  <si>
+    <t>BCS</t>
+  </si>
+  <si>
+    <t>Lighting</t>
+  </si>
+  <si>
+    <t>Fly camp</t>
+  </si>
+  <si>
+    <t>Fly camp - Earth rod</t>
+  </si>
+  <si>
+    <t>Welding Workshop</t>
+  </si>
+  <si>
+    <t>Main &amp; Fly Camp</t>
+  </si>
+  <si>
+    <t>Rig Location</t>
+  </si>
+  <si>
+    <t>Distribution panel</t>
+  </si>
+  <si>
+    <t>Galley</t>
+  </si>
+  <si>
+    <t>Main Camp</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>Point No.</t>
+  </si>
+  <si>
+    <t>Rig</t>
+  </si>
+  <si>
+    <t>FCS-1</t>
+  </si>
+  <si>
+    <t>RA-1</t>
+  </si>
+  <si>
+    <t>During test mud pump PRV the gauge failure in 3800psi mud pump pressure gauge thread type, in need to change to flange type</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>BCS malfunction during the audit time, need to be inspected by rig maintanence teem</t>
+  </si>
+  <si>
+    <t>The fluorescent lights in Koomey unit need to be replaced, It's not compatible for zone 1 classification. Can be using only in zone 2</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Zone</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>MENES-58</t>
+  </si>
+  <si>
+    <t>Menes</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>EDC-40</t>
+  </si>
+  <si>
+    <t>BRIDGE 1-X</t>
+  </si>
+  <si>
+    <t>Zarif</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>Team_1</t>
+  </si>
+  <si>
+    <t>Team_2</t>
+  </si>
+  <si>
+    <t>Team_3</t>
+  </si>
+  <si>
+    <t>Campaign No.</t>
+  </si>
+  <si>
+    <t>###</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Campaign </t>
+  </si>
+  <si>
+    <t>Mast Availability</t>
+  </si>
+  <si>
+    <t>Non Availability Reasons</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Reasons </t>
   </si>
 </sst>
 </file>
@@ -463,7 +578,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +598,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -492,7 +614,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -507,48 +629,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -581,24 +661,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -607,28 +680,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -640,16 +695,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -658,9 +713,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2 3" xfId="1" xr:uid="{68651359-177A-425A-A734-A4537FDA1E95}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -938,184 +1006,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="1"/>
-    <col min="10" max="11" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.85546875" style="1"/>
+    <col min="1" max="2" width="9.85546875" style="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1"/>
+    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45150</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F3" s="3">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45151</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="17">
+        <v>60</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45151</v>
+      </c>
+      <c r="H4" s="17">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F9CF5-13B4-4690-BDEB-645D85FD3262}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="9.85546875" style="1"/>
+    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="10">
-        <v>45150</v>
-      </c>
-      <c r="I2" s="7">
-        <v>5</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="7">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="C1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="10">
-        <v>45150</v>
-      </c>
-      <c r="I3" s="7">
-        <v>2</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>0</v>
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="18">
+        <v>45151</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1127,55 +1280,55 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="15"/>
-    <col min="2" max="2" width="11.7109375" style="15" customWidth="1"/>
-    <col min="3" max="3" width="45" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="14"/>
+    <col min="1" max="1" width="9.140625" style="10"/>
+    <col min="2" max="2" width="11.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45" style="11" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>18</v>
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>111</v>
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1186,600 +1339,1159 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C47A02F-EB85-4494-AE8A-69EB18F7BB37}">
-  <dimension ref="F5:H57"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{009015CD-1017-4D13-9B4A-4F9ED134BFC8}">
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:H57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.140625" style="16"/>
+    <col min="4" max="4" width="27.5703125" style="16" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="16"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F5" t="s">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G2" s="16" t="str">
+        <f>"Zone " &amp; LEFT(B2,1)</f>
+        <v>Zone 1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="16" t="str">
+        <f t="shared" ref="G3:G49" si="0">"Zone " &amp; LEFT(B3,1)</f>
+        <v>Zone 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G5" t="s">
+      <c r="E5" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="C6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+      <c r="E6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
+      <c r="E7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F7" t="s">
+      <c r="E8" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F8" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F8" t="s">
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="G8" t="s">
+      <c r="C11" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="H8" t="s">
+      <c r="E11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G11" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F9" t="s">
+      <c r="C12" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F10" t="s">
+      <c r="C13" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="G10" t="s">
+      <c r="E13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C14" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="H11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H12" t="s">
+      <c r="C15" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="13" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E15" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
+      <c r="C16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G14" t="s">
+      <c r="E16" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G16" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F15" t="s">
+      <c r="C17" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G15" t="s">
+      <c r="E17" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F16" t="s">
+      <c r="C18" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="G16" t="s">
+      <c r="E18" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G18" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
+      <c r="C19" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="G17" t="s">
+      <c r="E19" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
+      <c r="C20" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="G18" t="s">
+      <c r="E20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
+      <c r="C21" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="G19" t="s">
+      <c r="E21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
+      <c r="C22" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="G20" t="s">
+      <c r="C23" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
+      <c r="E23" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="G21" t="s">
+      <c r="C24" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="H21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
+      <c r="E24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="G22" t="s">
+      <c r="C25" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="H22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
+      <c r="C26" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="E26" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
+      <c r="C27" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="G24" t="s">
+      <c r="E27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="H24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
+      <c r="C28" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="D28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G25" t="s">
+      <c r="E28" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="H25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
+      <c r="C29" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="G26" t="s">
+      <c r="E29" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="H26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
+      <c r="C30" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="G27" t="s">
+      <c r="E30" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="H27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
+      <c r="C31" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G28" t="s">
+      <c r="E31" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+      <c r="C32" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="G29" t="s">
+      <c r="E32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="H29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
+      <c r="C33" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="G30" t="s">
+      <c r="E33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="H30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
+      <c r="C34" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="G31" t="s">
+      <c r="E34" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="H31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F32" t="s">
+      <c r="C35" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G32" t="s">
+      <c r="E35" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="H32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+      <c r="C36" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="G33" t="s">
+      <c r="E36" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="G36" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
+      <c r="D37" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="G34" t="s">
+      <c r="E37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="H34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
+      <c r="D38" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="G35" t="s">
+      <c r="E38" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
+      <c r="D39" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="G36" t="s">
+      <c r="E39" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="H36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
+      <c r="D40" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="G37" t="s">
+      <c r="E40" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="H37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
+      <c r="D41" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="G38" t="s">
+      <c r="E41" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G41" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G42" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G43" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G44" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A46" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G46" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G47" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A48" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="G48" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F39" t="s">
+      <c r="D49" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G39" t="s">
+      <c r="E49" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F40" t="s">
-        <v>97</v>
-      </c>
-      <c r="G40" t="s">
-        <v>98</v>
-      </c>
-      <c r="H40" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" t="s">
-        <v>100</v>
-      </c>
-      <c r="H41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>101</v>
-      </c>
-      <c r="G42" t="s">
-        <v>102</v>
-      </c>
-      <c r="H42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>103</v>
-      </c>
-      <c r="G43" t="s">
-        <v>104</v>
-      </c>
-      <c r="H43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>105</v>
-      </c>
-      <c r="G44" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" t="s">
-        <v>108</v>
-      </c>
-      <c r="H45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G46" t="s">
-        <v>39</v>
-      </c>
-      <c r="H46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G47" t="s">
-        <v>110</v>
-      </c>
-      <c r="H47" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F48" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" t="s">
-        <v>113</v>
-      </c>
-      <c r="H48" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F49" t="s">
-        <v>114</v>
-      </c>
-      <c r="G49" t="s">
-        <v>115</v>
-      </c>
-      <c r="H49" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F50" t="s">
-        <v>116</v>
-      </c>
-      <c r="G50" t="s">
-        <v>117</v>
-      </c>
-      <c r="H50" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F51" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" t="s">
-        <v>119</v>
-      </c>
-      <c r="H51" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F52" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" t="s">
-        <v>121</v>
-      </c>
-      <c r="H52" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F53" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F54" t="s">
-        <v>124</v>
-      </c>
-      <c r="G54" t="s">
-        <v>125</v>
-      </c>
-      <c r="H54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F55" t="s">
-        <v>126</v>
-      </c>
-      <c r="G55" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F56" t="s">
-        <v>128</v>
-      </c>
-      <c r="G56" t="s">
-        <v>129</v>
-      </c>
-      <c r="H56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G57" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" t="s">
-        <v>29</v>
+      <c r="F49" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G49" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v>Zone 5</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G48" xr:uid="{009015CD-1017-4D13-9B4A-4F9ED134BFC8}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8F5C9D-ECEB-4FFA-BAAA-D6843CF6D8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09150EA1-90E8-4E38-9D2B-BFBEDD570681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t xml:space="preserve">Description </t>
   </si>
   <si>
-    <t>Rig</t>
-  </si>
-  <si>
     <t>FCS-1</t>
   </si>
   <si>
@@ -244,6 +241,9 @@
   </si>
   <si>
     <t>Diesel Fire Pump</t>
+  </si>
+  <si>
+    <t>Rig_No.</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>9</v>
@@ -1275,7 +1275,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1284,10 +1284,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="F3" s="3">
         <v>55</v>
@@ -1299,24 +1299,24 @@
         <v>3</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="F4" s="8">
         <v>60</v>
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F9CF5-13B4-4690-BDEB-645D85FD3262}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,16 +1369,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>2</v>
@@ -1389,80 +1389,80 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4" s="9">
         <v>45151</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1497,10 +1497,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>16</v>
@@ -1509,16 +1509,16 @@
         <v>17</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>48</v>
-      </c>
       <c r="H1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
@@ -1526,25 +1526,25 @@
         <v>9</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="E2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="F2" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="210" x14ac:dyDescent="0.25">
@@ -1552,25 +1552,25 @@
         <v>9</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="D3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>52</v>
-      </c>
       <c r="G3" s="28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
@@ -1578,77 +1578,77 @@
         <v>9</v>
       </c>
       <c r="B4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="25" t="s">
         <v>55</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>59</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>60</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>65</v>
-      </c>
       <c r="H6" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09150EA1-90E8-4E38-9D2B-BFBEDD570681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AE8BC-679B-474B-8D1D-7748970F5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,10 +182,6 @@
     <t>Ref.</t>
   </si>
   <si>
-    <t xml:space="preserve">Final
-Status </t>
-  </si>
-  <si>
     <t>4.2.14</t>
   </si>
   <si>
@@ -244,6 +240,10 @@
   </si>
   <si>
     <t>Rig_No.</t>
+  </si>
+  <si>
+    <t>Final
+Status</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -489,14 +489,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -509,27 +501,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -553,10 +526,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -573,10 +542,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -590,6 +555,44 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1479,175 +1482,175 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="26" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="26" customWidth="1"/>
-    <col min="4" max="4" width="20" style="26" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="26" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="26" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="32" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="14" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="32" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>20</v>
+      <c r="C3" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="19" t="s">
+      <c r="B4" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="32" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+    <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="D5" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="G5" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="F6" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="32" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813AE8BC-679B-474B-8D1D-7748970F5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338E2FF-4BBD-46E8-8FB4-68BED3FEE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1482,12 +1482,12 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="32" customWidth="1"/>
+    <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="32" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" style="32" customWidth="1"/>
     <col min="4" max="4" width="30.28515625" style="32" customWidth="1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D338E2FF-4BBD-46E8-8FB4-68BED3FEE71A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497FB2A-A225-4410-8144-D36018948359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,7 +242,7 @@
     <t>Rig_No.</t>
   </si>
   <si>
-    <t>Final
+    <t>Final_
 Status</t>
   </si>
 </sst>
@@ -254,7 +254,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,18 +280,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -322,33 +310,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -449,7 +419,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -469,9 +439,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -481,15 +448,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -497,48 +456,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -546,7 +472,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -554,22 +480,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -577,24 +496,67 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1309,25 +1271,25 @@
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>60</v>
       </c>
       <c r="G4" s="5">
         <v>45151</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>7</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -1446,25 +1408,25 @@
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>45151</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1482,175 +1444,175 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="32" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="9" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="25" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="25" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="38" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="25" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="18" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+      <c r="A4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="25" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="25" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F6" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="30" t="s">
+      <c r="G6" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="32" t="s">
+      <c r="H6" s="25" t="s">
         <v>18</v>
       </c>
     </row>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F497FB2A-A225-4410-8144-D36018948359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139649A-E83F-451F-8940-D1F3768B6466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Drops_Teams_Follow_Up" sheetId="5" r:id="rId2"/>
     <sheet name="Critical_Points_Follow_Up" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Critical_Points_Follow_Up!$A$1:$H$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -254,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,13 +283,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -324,7 +320,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="62"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,7 +409,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,7 +438,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -456,15 +446,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -472,7 +458,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -480,70 +466,62 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -551,7 +529,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1444,201 +1422,181 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="25" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="25" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" style="25" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="38" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="25" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="9" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="22" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="22" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="35" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="15" t="s">
         <v>41</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="114" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="57" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="22" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H6" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1">
-    <cfRule type="cellIs" dxfId="40" priority="42" operator="equal">
-      <formula>"Critical"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="43" operator="equal">
-      <formula>"Minor"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="44" operator="equal">
-      <formula>"Major"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="open">
-      <formula>NOT(ISERROR(SEARCH("open",F1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G1:H1">
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="CLOSED">
-      <formula>NOT(ISERROR(SEARCH("CLOSED",G1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G2">
     <cfRule type="containsText" dxfId="35" priority="37" operator="containsText" text="0">
       <formula>NOT(ISERROR(SEARCH("0",G2)))</formula>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7139649A-E83F-451F-8940-D1F3768B6466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B86B69C-1BD9-4331-B617-2B25DD3E610D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -482,10 +482,10 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -521,11 +521,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -533,7 +533,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,7 +543,7 @@
     <cellStyle name="Normal 2 3" xfId="1" xr:uid="{68651359-177A-425A-A734-A4537FDA1E95}"/>
     <cellStyle name="Normal 2 4" xfId="3" xr:uid="{C45F03D8-AAB5-49C9-9D14-C48153FF2D94}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="36">
     <dxf>
       <font>
         <b/>
@@ -822,45 +822,6 @@
     <dxf>
       <font>
         <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -1142,7 +1103,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1264,7 +1225,7 @@
       <c r="F4" s="7">
         <v>60</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <v>45151</v>
       </c>
       <c r="H4" s="7">
@@ -1289,7 +1250,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1421,8 +1382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9112D255-00BC-4B2E-B466-E60E808DE6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB4715B-3ACE-412A-B095-F5D430F64B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -15369,7 +15369,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15515,8 +15515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F9CF5-13B4-4690-BDEB-645D85FD3262}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15648,8 +15648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A341258B-A6C6-4385-955E-3DA9D164F66D}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16268,8 +16268,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N66" sqref="N66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD062D83-E96D-4680-B5BF-8536A0C7444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9747214-B665-4F9A-9818-954F160094FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
     <sheet name="Drops_Teams_Follow_Up" sheetId="5" r:id="rId2"/>
     <sheet name="Active_Critical_Points" sheetId="2" r:id="rId3"/>
     <sheet name="All_Critical_Points" sheetId="6" r:id="rId4"/>
+    <sheet name="phases" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Active_Critical_Points!$A$1:$H$6</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="870">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="872">
   <si>
     <t>Team No.</t>
   </si>
@@ -3057,6 +3058,12 @@
   </si>
   <si>
     <t>No Reference</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>PHASES</t>
   </si>
 </sst>
 </file>
@@ -16270,8 +16277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29893,4 +29900,62 @@
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53464A0D-446B-45E6-9884-778D80AFEFA8}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9747214-B665-4F9A-9818-954F160094FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C8EAA-3C07-4375-8AB5-DE41EDD1BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="873">
   <si>
     <t>Team No.</t>
   </si>
@@ -3064,6 +3064,9 @@
   </si>
   <si>
     <t>PHASES</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -29904,10 +29907,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53464A0D-446B-45E6-9884-778D80AFEFA8}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29919,36 +29922,41 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>872</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>870</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>844</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>92</v>
+        <v>844</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5C8EAA-3C07-4375-8AB5-DE41EDD1BF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C361B046-02C5-4099-905E-0635A8971D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2655" uniqueCount="831">
   <si>
     <t>Team No.</t>
   </si>
@@ -2047,132 +2047,6 @@
   </si>
   <si>
     <t>NFPA 13,16</t>
-  </si>
-  <si>
-    <t>FCS-4</t>
-  </si>
-  <si>
-    <t>FCS-5</t>
-  </si>
-  <si>
-    <t>FCS-6</t>
-  </si>
-  <si>
-    <t>FCS-7</t>
-  </si>
-  <si>
-    <t>FCS-8</t>
-  </si>
-  <si>
-    <t>FCS-9</t>
-  </si>
-  <si>
-    <t>FCS-10</t>
-  </si>
-  <si>
-    <t>FCS-11</t>
-  </si>
-  <si>
-    <t>FCS-12</t>
-  </si>
-  <si>
-    <t>FCS-13</t>
-  </si>
-  <si>
-    <t>FCS-14</t>
-  </si>
-  <si>
-    <t>FCS-15</t>
-  </si>
-  <si>
-    <t>FCS-16</t>
-  </si>
-  <si>
-    <t>FCS-17</t>
-  </si>
-  <si>
-    <t>FCS-18</t>
-  </si>
-  <si>
-    <t>FCS-19</t>
-  </si>
-  <si>
-    <t>FCS-20</t>
-  </si>
-  <si>
-    <t>FCS-21</t>
-  </si>
-  <si>
-    <t>FCS-22</t>
-  </si>
-  <si>
-    <t>FCS-23</t>
-  </si>
-  <si>
-    <t>FCS-24</t>
-  </si>
-  <si>
-    <t>FCS-25</t>
-  </si>
-  <si>
-    <t>FCS-26</t>
-  </si>
-  <si>
-    <t>FCS-27</t>
-  </si>
-  <si>
-    <t>FCS-28</t>
-  </si>
-  <si>
-    <t>FCS-29</t>
-  </si>
-  <si>
-    <t>FCS-30</t>
-  </si>
-  <si>
-    <t>FCS-31</t>
-  </si>
-  <si>
-    <t>FCS-32</t>
-  </si>
-  <si>
-    <t>FCS-33</t>
-  </si>
-  <si>
-    <t>FCS-34</t>
-  </si>
-  <si>
-    <t>FCS-35</t>
-  </si>
-  <si>
-    <t>FCS-36</t>
-  </si>
-  <si>
-    <t>FCS-37</t>
-  </si>
-  <si>
-    <t>FCS-38</t>
-  </si>
-  <si>
-    <t>FCS-39</t>
-  </si>
-  <si>
-    <t>FCS-40</t>
-  </si>
-  <si>
-    <t>FCS-41</t>
-  </si>
-  <si>
-    <t>FCS-42</t>
-  </si>
-  <si>
-    <t>FCS-43</t>
-  </si>
-  <si>
-    <t>FCS-44</t>
-  </si>
-  <si>
-    <t>FCS-45</t>
   </si>
   <si>
     <t>SDF</t>
@@ -15555,7 +15429,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
@@ -16280,8 +16154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
   <dimension ref="A1:J259"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16338,25 +16212,25 @@
         <v>64</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>313</v>
@@ -16816,25 +16690,25 @@
         <v>314</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>313</v>
@@ -17388,25 +17262,25 @@
         <v>13</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I35" s="18" t="s">
         <v>313</v>
@@ -17608,25 +17482,25 @@
         <v>204</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I42" s="18" t="s">
         <v>313</v>
@@ -18876,25 +18750,25 @@
         <v>322</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I82" s="18" t="s">
         <v>313</v>
@@ -19000,25 +18874,25 @@
         <v>333</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I86" s="18" t="s">
         <v>313</v>
@@ -19248,25 +19122,25 @@
         <v>356</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I94" s="18" t="s">
         <v>313</v>
@@ -19292,7 +19166,7 @@
         <v>39</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G95" s="18" t="s">
         <v>18</v>
@@ -19324,7 +19198,7 @@
         <v>39</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G96" s="148" t="s">
         <v>14</v>
@@ -19356,7 +19230,7 @@
         <v>39</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G97" s="148" t="s">
         <v>14</v>
@@ -19388,7 +19262,7 @@
         <v>39</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G98" s="152" t="s">
         <v>14</v>
@@ -19420,7 +19294,7 @@
         <v>39</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G99" s="152" t="s">
         <v>18</v>
@@ -19452,7 +19326,7 @@
         <v>39</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G100" s="18" t="s">
         <v>60</v>
@@ -19482,7 +19356,7 @@
         <v>39</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G101" s="18" t="s">
         <v>60</v>
@@ -19514,7 +19388,7 @@
         <v>39</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G102" s="18" t="s">
         <v>60</v>
@@ -19546,7 +19420,7 @@
         <v>39</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G103" s="18" t="s">
         <v>14</v>
@@ -19578,7 +19452,7 @@
         <v>39</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G104" s="18" t="s">
         <v>14</v>
@@ -19610,7 +19484,7 @@
         <v>58</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G105" s="18" t="s">
         <v>14</v>
@@ -19642,7 +19516,7 @@
         <v>39</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G106" s="155" t="s">
         <v>14</v>
@@ -19674,7 +19548,7 @@
         <v>39</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G107" s="155" t="s">
         <v>14</v>
@@ -19706,7 +19580,7 @@
         <v>39</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G108" s="155" t="s">
         <v>14</v>
@@ -19738,7 +19612,7 @@
         <v>39</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G109" s="156" t="s">
         <v>14</v>
@@ -19768,7 +19642,7 @@
         <v>58</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G110" s="18" t="s">
         <v>14</v>
@@ -19798,7 +19672,7 @@
         <v>58</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G111" s="18" t="s">
         <v>14</v>
@@ -19828,7 +19702,7 @@
         <v>39</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G112" s="18" t="s">
         <v>14</v>
@@ -19858,7 +19732,7 @@
         <v>39</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="G113" s="18" t="s">
         <v>14</v>
@@ -19878,25 +19752,25 @@
         <v>8</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="I114" s="18" t="s">
         <v>313</v>
@@ -19946,7 +19820,7 @@
         <v>408</v>
       </c>
       <c r="D116" s="72" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
       <c r="E116" s="135" t="s">
         <v>39</v>
@@ -20525,7 +20399,7 @@
     </row>
     <row r="135" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B135" s="49" t="s">
         <v>465</v>
@@ -20549,7 +20423,7 @@
         <v>17</v>
       </c>
       <c r="I135" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J135" s="18" t="s">
         <v>105</v>
@@ -20557,7 +20431,7 @@
     </row>
     <row r="136" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B136" s="49" t="s">
         <v>467</v>
@@ -20578,10 +20452,10 @@
         <v>14</v>
       </c>
       <c r="H136" s="18" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="I136" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J136" s="18" t="s">
         <v>105</v>
@@ -20589,7 +20463,7 @@
     </row>
     <row r="137" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A137" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B137" s="49" t="s">
         <v>471</v>
@@ -20610,10 +20484,10 @@
         <v>14</v>
       </c>
       <c r="H137" s="18" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I137" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J137" s="18" t="s">
         <v>105</v>
@@ -20621,7 +20495,7 @@
     </row>
     <row r="138" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B138" s="87" t="s">
         <v>473</v>
@@ -20642,10 +20516,10 @@
         <v>14</v>
       </c>
       <c r="H138" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I138" s="18" t="s">
         <v>583</v>
-      </c>
-      <c r="I138" s="18" t="s">
-        <v>625</v>
       </c>
       <c r="J138" s="18" t="s">
         <v>105</v>
@@ -20653,7 +20527,7 @@
     </row>
     <row r="139" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A139" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B139" s="87" t="s">
         <v>477</v>
@@ -20674,10 +20548,10 @@
         <v>14</v>
       </c>
       <c r="H139" s="18" t="s">
-        <v>584</v>
+        <v>17</v>
       </c>
       <c r="I139" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J139" s="18" t="s">
         <v>105</v>
@@ -20685,7 +20559,7 @@
     </row>
     <row r="140" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A140" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B140" s="87" t="s">
         <v>480</v>
@@ -20706,10 +20580,10 @@
         <v>14</v>
       </c>
       <c r="H140" s="18" t="s">
-        <v>585</v>
+        <v>17</v>
       </c>
       <c r="I140" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J140" s="18" t="s">
         <v>105</v>
@@ -20717,7 +20591,7 @@
     </row>
     <row r="141" spans="1:10" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A141" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B141" s="87" t="s">
         <v>482</v>
@@ -20738,10 +20612,10 @@
         <v>14</v>
       </c>
       <c r="H141" s="18" t="s">
-        <v>586</v>
+        <v>17</v>
       </c>
       <c r="I141" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J141" s="18" t="s">
         <v>105</v>
@@ -20749,7 +20623,7 @@
     </row>
     <row r="142" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A142" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B142" s="87" t="s">
         <v>484</v>
@@ -20770,10 +20644,10 @@
         <v>14</v>
       </c>
       <c r="H142" s="18" t="s">
-        <v>587</v>
+        <v>17</v>
       </c>
       <c r="I142" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J142" s="18" t="s">
         <v>105</v>
@@ -20781,7 +20655,7 @@
     </row>
     <row r="143" spans="1:10" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A143" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B143" s="87" t="s">
         <v>487</v>
@@ -20802,10 +20676,10 @@
         <v>14</v>
       </c>
       <c r="H143" s="18" t="s">
-        <v>588</v>
+        <v>17</v>
       </c>
       <c r="I143" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J143" s="18" t="s">
         <v>105</v>
@@ -20813,7 +20687,7 @@
     </row>
     <row r="144" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A144" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B144" s="87" t="s">
         <v>489</v>
@@ -20834,10 +20708,10 @@
         <v>14</v>
       </c>
       <c r="H144" s="18" t="s">
-        <v>589</v>
+        <v>17</v>
       </c>
       <c r="I144" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J144" s="18" t="s">
         <v>105</v>
@@ -20845,7 +20719,7 @@
     </row>
     <row r="145" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A145" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B145" s="87" t="s">
         <v>491</v>
@@ -20866,10 +20740,10 @@
         <v>14</v>
       </c>
       <c r="H145" s="18" t="s">
-        <v>590</v>
+        <v>17</v>
       </c>
       <c r="I145" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J145" s="18" t="s">
         <v>105</v>
@@ -20877,7 +20751,7 @@
     </row>
     <row r="146" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A146" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B146" s="87" t="s">
         <v>493</v>
@@ -20898,10 +20772,10 @@
         <v>14</v>
       </c>
       <c r="H146" s="18" t="s">
-        <v>591</v>
+        <v>17</v>
       </c>
       <c r="I146" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J146" s="18" t="s">
         <v>105</v>
@@ -20909,7 +20783,7 @@
     </row>
     <row r="147" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A147" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B147" s="87" t="s">
         <v>495</v>
@@ -20930,10 +20804,10 @@
         <v>14</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>592</v>
+        <v>17</v>
       </c>
       <c r="I147" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J147" s="18" t="s">
         <v>105</v>
@@ -20941,7 +20815,7 @@
     </row>
     <row r="148" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A148" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B148" s="87" t="s">
         <v>497</v>
@@ -20962,10 +20836,10 @@
         <v>14</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>593</v>
+        <v>17</v>
       </c>
       <c r="I148" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J148" s="18" t="s">
         <v>105</v>
@@ -20973,7 +20847,7 @@
     </row>
     <row r="149" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A149" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B149" s="87" t="s">
         <v>499</v>
@@ -20994,10 +20868,10 @@
         <v>14</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>594</v>
+        <v>17</v>
       </c>
       <c r="I149" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J149" s="18" t="s">
         <v>105</v>
@@ -21005,7 +20879,7 @@
     </row>
     <row r="150" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A150" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B150" s="87" t="s">
         <v>501</v>
@@ -21026,10 +20900,10 @@
         <v>14</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>595</v>
+        <v>17</v>
       </c>
       <c r="I150" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J150" s="18" t="s">
         <v>105</v>
@@ -21037,7 +20911,7 @@
     </row>
     <row r="151" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A151" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B151" s="87" t="s">
         <v>503</v>
@@ -21058,10 +20932,10 @@
         <v>14</v>
       </c>
       <c r="H151" s="18" t="s">
-        <v>596</v>
+        <v>17</v>
       </c>
       <c r="I151" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J151" s="18" t="s">
         <v>105</v>
@@ -21069,7 +20943,7 @@
     </row>
     <row r="152" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A152" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B152" s="87" t="s">
         <v>507</v>
@@ -21090,10 +20964,10 @@
         <v>14</v>
       </c>
       <c r="H152" s="18" t="s">
-        <v>597</v>
+        <v>17</v>
       </c>
       <c r="I152" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J152" s="18" t="s">
         <v>105</v>
@@ -21101,7 +20975,7 @@
     </row>
     <row r="153" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A153" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B153" s="87" t="s">
         <v>511</v>
@@ -21122,10 +20996,10 @@
         <v>60</v>
       </c>
       <c r="H153" s="18" t="s">
-        <v>598</v>
+        <v>17</v>
       </c>
       <c r="I153" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J153" s="18" t="s">
         <v>105</v>
@@ -21133,7 +21007,7 @@
     </row>
     <row r="154" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A154" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B154" s="87" t="s">
         <v>514</v>
@@ -21154,10 +21028,10 @@
         <v>60</v>
       </c>
       <c r="H154" s="18" t="s">
-        <v>599</v>
+        <v>17</v>
       </c>
       <c r="I154" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J154" s="18" t="s">
         <v>105</v>
@@ -21165,7 +21039,7 @@
     </row>
     <row r="155" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A155" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B155" s="87" t="s">
         <v>517</v>
@@ -21186,10 +21060,10 @@
         <v>60</v>
       </c>
       <c r="H155" s="18" t="s">
-        <v>600</v>
+        <v>17</v>
       </c>
       <c r="I155" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J155" s="18" t="s">
         <v>105</v>
@@ -21197,7 +21071,7 @@
     </row>
     <row r="156" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A156" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B156" s="87" t="s">
         <v>520</v>
@@ -21218,10 +21092,10 @@
         <v>14</v>
       </c>
       <c r="H156" s="18" t="s">
-        <v>601</v>
+        <v>17</v>
       </c>
       <c r="I156" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J156" s="18" t="s">
         <v>105</v>
@@ -21229,7 +21103,7 @@
     </row>
     <row r="157" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A157" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B157" s="87" t="s">
         <v>524</v>
@@ -21250,10 +21124,10 @@
         <v>14</v>
       </c>
       <c r="H157" s="18" t="s">
-        <v>602</v>
+        <v>17</v>
       </c>
       <c r="I157" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J157" s="18" t="s">
         <v>105</v>
@@ -21261,7 +21135,7 @@
     </row>
     <row r="158" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A158" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B158" s="87" t="s">
         <v>527</v>
@@ -21282,10 +21156,10 @@
         <v>14</v>
       </c>
       <c r="H158" s="18" t="s">
-        <v>603</v>
+        <v>17</v>
       </c>
       <c r="I158" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J158" s="18" t="s">
         <v>105</v>
@@ -21293,7 +21167,7 @@
     </row>
     <row r="159" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A159" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B159" s="87" t="s">
         <v>529</v>
@@ -21314,10 +21188,10 @@
         <v>14</v>
       </c>
       <c r="H159" s="18" t="s">
-        <v>604</v>
+        <v>17</v>
       </c>
       <c r="I159" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J159" s="18" t="s">
         <v>105</v>
@@ -21325,7 +21199,7 @@
     </row>
     <row r="160" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A160" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B160" s="87" t="s">
         <v>532</v>
@@ -21346,10 +21220,10 @@
         <v>14</v>
       </c>
       <c r="H160" s="18" t="s">
-        <v>605</v>
+        <v>17</v>
       </c>
       <c r="I160" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J160" s="18" t="s">
         <v>105</v>
@@ -21357,7 +21231,7 @@
     </row>
     <row r="161" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A161" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B161" s="87" t="s">
         <v>534</v>
@@ -21378,10 +21252,10 @@
         <v>14</v>
       </c>
       <c r="H161" s="18" t="s">
-        <v>606</v>
+        <v>17</v>
       </c>
       <c r="I161" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J161" s="18" t="s">
         <v>105</v>
@@ -21389,7 +21263,7 @@
     </row>
     <row r="162" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A162" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B162" s="87" t="s">
         <v>536</v>
@@ -21410,10 +21284,10 @@
         <v>60</v>
       </c>
       <c r="H162" s="18" t="s">
-        <v>607</v>
+        <v>17</v>
       </c>
       <c r="I162" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J162" s="18" t="s">
         <v>105</v>
@@ -21421,7 +21295,7 @@
     </row>
     <row r="163" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A163" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B163" s="87" t="s">
         <v>538</v>
@@ -21442,10 +21316,10 @@
         <v>14</v>
       </c>
       <c r="H163" s="18" t="s">
-        <v>608</v>
+        <v>17</v>
       </c>
       <c r="I163" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J163" s="18" t="s">
         <v>105</v>
@@ -21453,7 +21327,7 @@
     </row>
     <row r="164" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A164" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B164" s="87" t="s">
         <v>541</v>
@@ -21474,10 +21348,10 @@
         <v>14</v>
       </c>
       <c r="H164" s="18" t="s">
-        <v>609</v>
+        <v>17</v>
       </c>
       <c r="I164" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J164" s="18" t="s">
         <v>105</v>
@@ -21485,7 +21359,7 @@
     </row>
     <row r="165" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B165" s="87" t="s">
         <v>545</v>
@@ -21506,10 +21380,10 @@
         <v>14</v>
       </c>
       <c r="H165" s="18" t="s">
-        <v>610</v>
+        <v>17</v>
       </c>
       <c r="I165" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J165" s="18" t="s">
         <v>105</v>
@@ -21517,7 +21391,7 @@
     </row>
     <row r="166" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A166" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B166" s="87" t="s">
         <v>547</v>
@@ -21538,10 +21412,10 @@
         <v>14</v>
       </c>
       <c r="H166" s="18" t="s">
-        <v>611</v>
+        <v>17</v>
       </c>
       <c r="I166" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J166" s="18" t="s">
         <v>105</v>
@@ -21549,7 +21423,7 @@
     </row>
     <row r="167" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A167" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B167" s="87" t="s">
         <v>550</v>
@@ -21570,10 +21444,10 @@
         <v>60</v>
       </c>
       <c r="H167" s="18" t="s">
-        <v>612</v>
+        <v>17</v>
       </c>
       <c r="I167" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J167" s="18" t="s">
         <v>105</v>
@@ -21581,7 +21455,7 @@
     </row>
     <row r="168" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A168" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B168" s="87" t="s">
         <v>552</v>
@@ -21602,10 +21476,10 @@
         <v>60</v>
       </c>
       <c r="H168" s="18" t="s">
-        <v>613</v>
+        <v>17</v>
       </c>
       <c r="I168" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J168" s="18" t="s">
         <v>105</v>
@@ -21613,7 +21487,7 @@
     </row>
     <row r="169" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A169" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B169" s="87" t="s">
         <v>555</v>
@@ -21634,10 +21508,10 @@
         <v>60</v>
       </c>
       <c r="H169" s="18" t="s">
-        <v>614</v>
+        <v>17</v>
       </c>
       <c r="I169" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J169" s="18" t="s">
         <v>105</v>
@@ -21645,7 +21519,7 @@
     </row>
     <row r="170" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A170" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B170" s="87" t="s">
         <v>558</v>
@@ -21666,10 +21540,10 @@
         <v>60</v>
       </c>
       <c r="H170" s="18" t="s">
-        <v>615</v>
+        <v>17</v>
       </c>
       <c r="I170" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J170" s="18" t="s">
         <v>105</v>
@@ -21677,7 +21551,7 @@
     </row>
     <row r="171" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B171" s="87" t="s">
         <v>560</v>
@@ -21698,10 +21572,10 @@
         <v>60</v>
       </c>
       <c r="H171" s="18" t="s">
-        <v>616</v>
+        <v>17</v>
       </c>
       <c r="I171" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J171" s="18" t="s">
         <v>105</v>
@@ -21709,7 +21583,7 @@
     </row>
     <row r="172" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B172" s="87" t="s">
         <v>563</v>
@@ -21730,10 +21604,10 @@
         <v>60</v>
       </c>
       <c r="H172" s="18" t="s">
-        <v>617</v>
+        <v>17</v>
       </c>
       <c r="I172" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J172" s="18" t="s">
         <v>105</v>
@@ -21741,7 +21615,7 @@
     </row>
     <row r="173" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B173" s="87" t="s">
         <v>566</v>
@@ -21762,10 +21636,10 @@
         <v>60</v>
       </c>
       <c r="H173" s="18" t="s">
-        <v>618</v>
+        <v>17</v>
       </c>
       <c r="I173" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J173" s="18" t="s">
         <v>105</v>
@@ -21773,7 +21647,7 @@
     </row>
     <row r="174" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B174" s="87" t="s">
         <v>569</v>
@@ -21794,10 +21668,10 @@
         <v>60</v>
       </c>
       <c r="H174" s="18" t="s">
-        <v>619</v>
+        <v>17</v>
       </c>
       <c r="I174" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J174" s="18" t="s">
         <v>105</v>
@@ -21805,7 +21679,7 @@
     </row>
     <row r="175" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A175" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B175" s="87" t="s">
         <v>354</v>
@@ -21826,10 +21700,10 @@
         <v>60</v>
       </c>
       <c r="H175" s="18" t="s">
-        <v>620</v>
+        <v>17</v>
       </c>
       <c r="I175" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J175" s="18" t="s">
         <v>105</v>
@@ -21837,7 +21711,7 @@
     </row>
     <row r="176" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A176" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B176" s="87" t="s">
         <v>572</v>
@@ -21858,10 +21732,10 @@
         <v>60</v>
       </c>
       <c r="H176" s="18" t="s">
-        <v>621</v>
+        <v>17</v>
       </c>
       <c r="I176" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J176" s="18" t="s">
         <v>105</v>
@@ -21869,7 +21743,7 @@
     </row>
     <row r="177" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A177" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B177" s="87" t="s">
         <v>89</v>
@@ -21890,10 +21764,10 @@
         <v>60</v>
       </c>
       <c r="H177" s="18" t="s">
-        <v>622</v>
+        <v>17</v>
       </c>
       <c r="I177" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J177" s="18" t="s">
         <v>105</v>
@@ -21901,7 +21775,7 @@
     </row>
     <row r="178" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A178" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B178" s="87" t="s">
         <v>577</v>
@@ -21922,10 +21796,10 @@
         <v>60</v>
       </c>
       <c r="H178" s="18" t="s">
-        <v>623</v>
+        <v>17</v>
       </c>
       <c r="I178" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J178" s="18" t="s">
         <v>105</v>
@@ -21933,7 +21807,7 @@
     </row>
     <row r="179" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A179" s="18" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="B179" s="87" t="s">
         <v>580</v>
@@ -21954,10 +21828,10 @@
         <v>60</v>
       </c>
       <c r="H179" s="18" t="s">
-        <v>624</v>
+        <v>17</v>
       </c>
       <c r="I179" s="18" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="J179" s="18" t="s">
         <v>105</v>
@@ -21965,22 +21839,22 @@
     </row>
     <row r="180" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A180" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B180" s="31" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="C180" s="88" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="D180" s="62" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="E180" s="168" t="s">
         <v>39</v>
       </c>
       <c r="F180" s="15" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="G180" s="28" t="s">
         <v>14</v>
@@ -21989,7 +21863,7 @@
         <v>17</v>
       </c>
       <c r="I180" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J180" s="18" t="s">
         <v>84</v>
@@ -21997,22 +21871,22 @@
     </row>
     <row r="181" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A181" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="C181" s="88" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="D181" s="62" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="E181" s="168" t="s">
         <v>39</v>
       </c>
       <c r="F181" s="15" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="G181" s="28" t="s">
         <v>14</v>
@@ -22021,7 +21895,7 @@
         <v>17</v>
       </c>
       <c r="I181" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J181" s="18" t="s">
         <v>84</v>
@@ -22029,22 +21903,22 @@
     </row>
     <row r="182" spans="1:10" ht="171" x14ac:dyDescent="0.25">
       <c r="A182" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B182" s="26" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="C182" s="89" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="D182" s="109" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="E182" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F182" s="15" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="G182" s="134" t="s">
         <v>14</v>
@@ -22053,7 +21927,7 @@
         <v>41</v>
       </c>
       <c r="I182" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J182" s="18" t="s">
         <v>84</v>
@@ -22061,22 +21935,22 @@
     </row>
     <row r="183" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A183" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B183" s="132" t="s">
-        <v>640</v>
+        <v>598</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>641</v>
+        <v>599</v>
       </c>
       <c r="D183" s="95" t="s">
-        <v>642</v>
+        <v>600</v>
       </c>
       <c r="E183" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F183" s="11" t="s">
-        <v>643</v>
+        <v>601</v>
       </c>
       <c r="G183" s="28" t="s">
         <v>14</v>
@@ -22085,7 +21959,7 @@
         <v>92</v>
       </c>
       <c r="I183" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J183" s="18" t="s">
         <v>84</v>
@@ -22093,22 +21967,22 @@
     </row>
     <row r="184" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A184" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B184" s="132" t="s">
-        <v>644</v>
+        <v>602</v>
       </c>
       <c r="C184" s="24" t="s">
-        <v>645</v>
+        <v>603</v>
       </c>
       <c r="D184" s="10" t="s">
-        <v>646</v>
+        <v>604</v>
       </c>
       <c r="E184" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F184" s="90" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="G184" s="28" t="s">
         <v>14</v>
@@ -22117,7 +21991,7 @@
         <v>41</v>
       </c>
       <c r="I184" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J184" s="18" t="s">
         <v>84</v>
@@ -22125,22 +21999,22 @@
     </row>
     <row r="185" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A185" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B185" s="133" t="s">
-        <v>648</v>
+        <v>606</v>
       </c>
       <c r="C185" s="24" t="s">
-        <v>649</v>
+        <v>607</v>
       </c>
       <c r="D185" s="95" t="s">
-        <v>650</v>
+        <v>608</v>
       </c>
       <c r="E185" s="109" t="s">
         <v>39</v>
       </c>
       <c r="F185" s="11" t="s">
-        <v>651</v>
+        <v>609</v>
       </c>
       <c r="G185" s="28" t="s">
         <v>14</v>
@@ -22149,7 +22023,7 @@
         <v>41</v>
       </c>
       <c r="I185" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J185" s="18" t="s">
         <v>84</v>
@@ -22157,22 +22031,22 @@
     </row>
     <row r="186" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A186" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B186" s="133" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="C186" s="24" t="s">
-        <v>653</v>
+        <v>611</v>
       </c>
       <c r="D186" s="10" t="s">
-        <v>654</v>
+        <v>612</v>
       </c>
       <c r="E186" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F186" s="90" t="s">
-        <v>647</v>
+        <v>605</v>
       </c>
       <c r="G186" s="28" t="s">
         <v>14</v>
@@ -22181,7 +22055,7 @@
         <v>41</v>
       </c>
       <c r="I186" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J186" s="18" t="s">
         <v>84</v>
@@ -22189,20 +22063,20 @@
     </row>
     <row r="187" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A187" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B187" s="91" t="s">
-        <v>655</v>
+        <v>613</v>
       </c>
       <c r="C187" s="91"/>
       <c r="D187" s="128" t="s">
-        <v>656</v>
+        <v>614</v>
       </c>
       <c r="E187" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F187" s="128" t="s">
-        <v>657</v>
+        <v>615</v>
       </c>
       <c r="G187" s="134" t="s">
         <v>60</v>
@@ -22211,7 +22085,7 @@
         <v>41</v>
       </c>
       <c r="I187" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J187" s="18" t="s">
         <v>84</v>
@@ -22219,20 +22093,20 @@
     </row>
     <row r="188" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A188" s="18" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="B188" s="92" t="s">
-        <v>658</v>
+        <v>616</v>
       </c>
       <c r="C188" s="92"/>
       <c r="D188" s="128" t="s">
-        <v>659</v>
+        <v>617</v>
       </c>
       <c r="E188" s="169" t="s">
         <v>39</v>
       </c>
       <c r="F188" s="93" t="s">
-        <v>660</v>
+        <v>618</v>
       </c>
       <c r="G188" s="28" t="s">
         <v>14</v>
@@ -22241,7 +22115,7 @@
         <v>41</v>
       </c>
       <c r="I188" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J188" s="18" t="s">
         <v>84</v>
@@ -22249,22 +22123,22 @@
     </row>
     <row r="189" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A189" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B189" s="132" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
       <c r="C189" s="24" t="s">
         <v>364</v>
       </c>
       <c r="D189" s="72" t="s">
-        <v>662</v>
+        <v>620</v>
       </c>
       <c r="E189" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F189" s="72" t="s">
-        <v>663</v>
+        <v>621</v>
       </c>
       <c r="G189" s="28" t="s">
         <v>18</v>
@@ -22273,7 +22147,7 @@
         <v>17</v>
       </c>
       <c r="I189" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J189" s="18" t="s">
         <v>84</v>
@@ -22281,22 +22155,22 @@
     </row>
     <row r="190" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A190" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B190" s="94" t="s">
-        <v>665</v>
+        <v>623</v>
       </c>
       <c r="C190" s="94" t="s">
         <v>136</v>
       </c>
       <c r="D190" s="118" t="s">
-        <v>666</v>
+        <v>624</v>
       </c>
       <c r="E190" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F190" s="15" t="s">
-        <v>667</v>
+        <v>625</v>
       </c>
       <c r="G190" s="133" t="s">
         <v>60</v>
@@ -22305,7 +22179,7 @@
         <v>17</v>
       </c>
       <c r="I190" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J190" s="18" t="s">
         <v>84</v>
@@ -22313,22 +22187,22 @@
     </row>
     <row r="191" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A191" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B191" s="94" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="C191" s="24" t="s">
         <v>136</v>
       </c>
       <c r="D191" s="109" t="s">
-        <v>669</v>
+        <v>627</v>
       </c>
       <c r="E191" s="147" t="s">
         <v>39</v>
       </c>
       <c r="F191" s="15" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="G191" s="133" t="s">
         <v>14</v>
@@ -22337,7 +22211,7 @@
         <v>194</v>
       </c>
       <c r="I191" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J191" s="18" t="s">
         <v>84</v>
@@ -22345,16 +22219,16 @@
     </row>
     <row r="192" spans="1:10" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A192" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>671</v>
+        <v>629</v>
       </c>
       <c r="C192" s="88" t="s">
         <v>222</v>
       </c>
       <c r="D192" s="73" t="s">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="E192" s="168" t="s">
         <v>39</v>
@@ -22369,7 +22243,7 @@
         <v>194</v>
       </c>
       <c r="I192" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J192" s="18" t="s">
         <v>84</v>
@@ -22377,22 +22251,22 @@
     </row>
     <row r="193" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A193" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B193" s="133" t="s">
-        <v>672</v>
+        <v>630</v>
       </c>
       <c r="C193" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D193" s="62" t="s">
-        <v>673</v>
+        <v>631</v>
       </c>
       <c r="E193" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F193" s="62" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="G193" s="170" t="s">
         <v>14</v>
@@ -22401,7 +22275,7 @@
         <v>17</v>
       </c>
       <c r="I193" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J193" s="18" t="s">
         <v>84</v>
@@ -22409,22 +22283,22 @@
     </row>
     <row r="194" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A194" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B194" s="133" t="s">
-        <v>675</v>
+        <v>633</v>
       </c>
       <c r="C194" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D194" s="62" t="s">
-        <v>676</v>
+        <v>634</v>
       </c>
       <c r="E194" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F194" s="62" t="s">
-        <v>674</v>
+        <v>632</v>
       </c>
       <c r="G194" s="170" t="s">
         <v>14</v>
@@ -22433,7 +22307,7 @@
         <v>17</v>
       </c>
       <c r="I194" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J194" s="18" t="s">
         <v>84</v>
@@ -22441,22 +22315,22 @@
     </row>
     <row r="195" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A195" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B195" s="133" t="s">
-        <v>677</v>
+        <v>635</v>
       </c>
       <c r="C195" s="31" t="s">
         <v>364</v>
       </c>
       <c r="D195" s="62" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="E195" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F195" s="62" t="s">
-        <v>679</v>
+        <v>637</v>
       </c>
       <c r="G195" s="170" t="s">
         <v>14</v>
@@ -22465,7 +22339,7 @@
         <v>17</v>
       </c>
       <c r="I195" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J195" s="18" t="s">
         <v>84</v>
@@ -22473,22 +22347,22 @@
     </row>
     <row r="196" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A196" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B196" s="133" t="s">
-        <v>680</v>
+        <v>638</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>681</v>
+        <v>639</v>
       </c>
       <c r="D196" s="62" t="s">
-        <v>682</v>
+        <v>640</v>
       </c>
       <c r="E196" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F196" s="62" t="s">
-        <v>683</v>
+        <v>641</v>
       </c>
       <c r="G196" s="28" t="s">
         <v>18</v>
@@ -22497,7 +22371,7 @@
         <v>17</v>
       </c>
       <c r="I196" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J196" s="18" t="s">
         <v>84</v>
@@ -22505,22 +22379,22 @@
     </row>
     <row r="197" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A197" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B197" s="132" t="s">
-        <v>684</v>
+        <v>642</v>
       </c>
       <c r="C197" s="24" t="s">
-        <v>685</v>
+        <v>643</v>
       </c>
       <c r="D197" s="95" t="s">
-        <v>686</v>
+        <v>644</v>
       </c>
       <c r="E197" s="30" t="s">
         <v>39</v>
       </c>
       <c r="F197" s="11" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="G197" s="28" t="s">
         <v>18</v>
@@ -22529,7 +22403,7 @@
         <v>17</v>
       </c>
       <c r="I197" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J197" s="18" t="s">
         <v>84</v>
@@ -22537,22 +22411,22 @@
     </row>
     <row r="198" spans="1:10" ht="194.25" x14ac:dyDescent="0.25">
       <c r="A198" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B198" s="133" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="C198" s="31" t="s">
         <v>46</v>
       </c>
       <c r="D198" s="95" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="E198" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F198" s="15" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="G198" s="28" t="s">
         <v>14</v>
@@ -22561,7 +22435,7 @@
         <v>17</v>
       </c>
       <c r="I198" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J198" s="18" t="s">
         <v>84</v>
@@ -22569,22 +22443,22 @@
     </row>
     <row r="199" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A199" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B199" s="132" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D199" s="95" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="E199" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F199" s="15" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="G199" s="28" t="s">
         <v>14</v>
@@ -22593,7 +22467,7 @@
         <v>17</v>
       </c>
       <c r="I199" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J199" s="18" t="s">
         <v>84</v>
@@ -22601,22 +22475,22 @@
     </row>
     <row r="200" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A200" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B200" s="132" t="s">
         <v>53</v>
       </c>
       <c r="C200" s="24" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D200" s="95" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="E200" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="G200" s="28" t="s">
         <v>14</v>
@@ -22625,7 +22499,7 @@
         <v>17</v>
       </c>
       <c r="I200" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J200" s="18" t="s">
         <v>84</v>
@@ -22633,22 +22507,22 @@
     </row>
     <row r="201" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A201" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B201" s="134" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="C201" s="24" t="s">
         <v>257</v>
       </c>
       <c r="D201" s="95" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="E201" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F201" s="11" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="G201" s="28" t="s">
         <v>14</v>
@@ -22657,7 +22531,7 @@
         <v>92</v>
       </c>
       <c r="I201" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J201" s="18" t="s">
         <v>84</v>
@@ -22665,16 +22539,16 @@
     </row>
     <row r="202" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A202" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B202" s="28" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="D202" s="95" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="E202" s="27" t="s">
         <v>39</v>
@@ -22689,7 +22563,7 @@
         <v>17</v>
       </c>
       <c r="I202" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J202" s="18" t="s">
         <v>84</v>
@@ -22697,22 +22571,22 @@
     </row>
     <row r="203" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A203" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B203" s="132" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="C203" s="24" t="s">
         <v>504</v>
       </c>
       <c r="D203" s="109" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="E203" s="147" t="s">
         <v>39</v>
       </c>
       <c r="F203" s="95" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="G203" s="109" t="s">
         <v>14</v>
@@ -22721,7 +22595,7 @@
         <v>194</v>
       </c>
       <c r="I203" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J203" s="18" t="s">
         <v>84</v>
@@ -22729,20 +22603,20 @@
     </row>
     <row r="204" spans="1:10" ht="75" x14ac:dyDescent="0.25">
       <c r="A204" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B204" s="96" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="C204" s="96"/>
       <c r="D204" s="70" t="s">
-        <v>705</v>
+        <v>663</v>
       </c>
       <c r="E204" s="171" t="s">
         <v>39</v>
       </c>
       <c r="F204" s="70" t="s">
-        <v>706</v>
+        <v>664</v>
       </c>
       <c r="G204" s="125" t="s">
         <v>14</v>
@@ -22751,7 +22625,7 @@
         <v>194</v>
       </c>
       <c r="I204" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J204" s="18" t="s">
         <v>84</v>
@@ -22759,20 +22633,20 @@
     </row>
     <row r="205" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B205" s="96" t="s">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="C205" s="96"/>
       <c r="D205" s="70" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E205" s="171" t="s">
         <v>39</v>
       </c>
       <c r="F205" s="70" t="s">
-        <v>709</v>
+        <v>667</v>
       </c>
       <c r="G205" s="125" t="s">
         <v>14</v>
@@ -22781,7 +22655,7 @@
         <v>194</v>
       </c>
       <c r="I205" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J205" s="18" t="s">
         <v>84</v>
@@ -22789,20 +22663,20 @@
     </row>
     <row r="206" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B206" s="96" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="C206" s="96"/>
       <c r="D206" s="70" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="E206" s="172" t="s">
         <v>39</v>
       </c>
       <c r="F206" s="70" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="G206" s="125" t="s">
         <v>14</v>
@@ -22811,7 +22685,7 @@
         <v>194</v>
       </c>
       <c r="I206" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J206" s="18" t="s">
         <v>84</v>
@@ -22819,20 +22693,20 @@
     </row>
     <row r="207" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A207" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B207" s="96" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="C207" s="96"/>
       <c r="D207" s="70" t="s">
-        <v>865</v>
+        <v>823</v>
       </c>
       <c r="E207" s="172" t="s">
         <v>39</v>
       </c>
       <c r="F207" s="70" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="G207" s="125" t="s">
         <v>14</v>
@@ -22841,7 +22715,7 @@
         <v>194</v>
       </c>
       <c r="I207" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J207" s="18" t="s">
         <v>84</v>
@@ -22849,20 +22723,20 @@
     </row>
     <row r="208" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="18" t="s">
-        <v>664</v>
+        <v>622</v>
       </c>
       <c r="B208" s="96" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="C208" s="96"/>
       <c r="D208" s="70" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="E208" s="172" t="s">
         <v>58</v>
       </c>
       <c r="F208" s="97" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="G208" s="173" t="s">
         <v>14</v>
@@ -22871,7 +22745,7 @@
         <v>194</v>
       </c>
       <c r="I208" s="18" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="J208" s="18" t="s">
         <v>84</v>
@@ -22879,22 +22753,22 @@
     </row>
     <row r="209" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A209" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B209" s="49" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="C209" s="49" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="D209" s="49" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="E209" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F209" s="49" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="G209" s="49" t="s">
         <v>14</v>
@@ -22903,7 +22777,7 @@
         <v>17</v>
       </c>
       <c r="I209" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J209" s="18" t="s">
         <v>156</v>
@@ -22911,22 +22785,22 @@
     </row>
     <row r="210" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A210" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B210" s="49" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="C210" s="49" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="D210" s="49" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
       <c r="E210" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F210" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G210" s="49" t="s">
         <v>14</v>
@@ -22935,7 +22809,7 @@
         <v>17</v>
       </c>
       <c r="I210" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J210" s="18" t="s">
         <v>156</v>
@@ -22943,22 +22817,22 @@
     </row>
     <row r="211" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A211" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B211" s="49" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="C211" s="49" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="D211" s="49" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="E211" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F211" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G211" s="49" t="s">
         <v>14</v>
@@ -22967,7 +22841,7 @@
         <v>17</v>
       </c>
       <c r="I211" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J211" s="18" t="s">
         <v>156</v>
@@ -22975,22 +22849,22 @@
     </row>
     <row r="212" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A212" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B212" s="49" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="C212" s="49" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="D212" s="49" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="E212" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F212" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G212" s="49" t="s">
         <v>14</v>
@@ -22999,7 +22873,7 @@
         <v>17</v>
       </c>
       <c r="I212" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J212" s="18" t="s">
         <v>156</v>
@@ -23007,22 +22881,22 @@
     </row>
     <row r="213" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A213" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B213" s="49" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="C213" s="49" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D213" s="49" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="E213" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F213" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G213" s="49" t="s">
         <v>14</v>
@@ -23031,7 +22905,7 @@
         <v>17</v>
       </c>
       <c r="I213" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J213" s="18" t="s">
         <v>156</v>
@@ -23039,22 +22913,22 @@
     </row>
     <row r="214" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A214" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B214" s="49" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="C214" s="49" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D214" s="49" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="E214" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F214" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G214" s="49" t="s">
         <v>14</v>
@@ -23063,7 +22937,7 @@
         <v>17</v>
       </c>
       <c r="I214" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J214" s="18" t="s">
         <v>156</v>
@@ -23071,22 +22945,22 @@
     </row>
     <row r="215" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A215" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B215" s="49" t="s">
-        <v>736</v>
+        <v>694</v>
       </c>
       <c r="C215" s="49" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="D215" s="49" t="s">
-        <v>738</v>
+        <v>696</v>
       </c>
       <c r="E215" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F215" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G215" s="49" t="s">
         <v>14</v>
@@ -23095,7 +22969,7 @@
         <v>17</v>
       </c>
       <c r="I215" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J215" s="18" t="s">
         <v>156</v>
@@ -23103,22 +22977,22 @@
     </row>
     <row r="216" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A216" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B216" s="49" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="C216" s="49" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="D216" s="49" t="s">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="E216" s="49" t="s">
         <v>58</v>
       </c>
       <c r="F216" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G216" s="49" t="s">
         <v>14</v>
@@ -23127,7 +23001,7 @@
         <v>17</v>
       </c>
       <c r="I216" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J216" s="18" t="s">
         <v>156</v>
@@ -23135,22 +23009,22 @@
     </row>
     <row r="217" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A217" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B217" s="49" t="s">
-        <v>742</v>
+        <v>700</v>
       </c>
       <c r="C217" s="49" t="s">
         <v>287</v>
       </c>
       <c r="D217" s="49" t="s">
-        <v>743</v>
+        <v>701</v>
       </c>
       <c r="E217" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F217" s="49" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="G217" s="49" t="s">
         <v>14</v>
@@ -23159,7 +23033,7 @@
         <v>17</v>
       </c>
       <c r="I217" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J217" s="18" t="s">
         <v>156</v>
@@ -23167,16 +23041,16 @@
     </row>
     <row r="218" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A218" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B218" s="74" t="s">
-        <v>744</v>
+        <v>702</v>
       </c>
       <c r="C218" s="74" t="s">
         <v>222</v>
       </c>
       <c r="D218" s="74" t="s">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="E218" s="74" t="s">
         <v>39</v>
@@ -23191,7 +23065,7 @@
         <v>17</v>
       </c>
       <c r="I218" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J218" s="18" t="s">
         <v>156</v>
@@ -23199,16 +23073,16 @@
     </row>
     <row r="219" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A219" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B219" s="74" t="s">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="C219" s="74" t="s">
         <v>222</v>
       </c>
       <c r="D219" s="74" t="s">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="E219" s="74" t="s">
         <v>39</v>
@@ -23223,7 +23097,7 @@
         <v>17</v>
       </c>
       <c r="I219" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J219" s="18" t="s">
         <v>156</v>
@@ -23231,22 +23105,22 @@
     </row>
     <row r="220" spans="1:10" ht="105" x14ac:dyDescent="0.25">
       <c r="A220" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B220" s="74" t="s">
-        <v>748</v>
+        <v>706</v>
       </c>
       <c r="C220" s="74" t="s">
         <v>222</v>
       </c>
       <c r="D220" s="74" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="E220" s="74" t="s">
         <v>39</v>
       </c>
       <c r="F220" s="74" t="s">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="G220" s="74" t="s">
         <v>14</v>
@@ -23255,7 +23129,7 @@
         <v>17</v>
       </c>
       <c r="I220" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J220" s="18" t="s">
         <v>156</v>
@@ -23263,22 +23137,22 @@
     </row>
     <row r="221" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A221" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B221" s="74" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="C221" s="74" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="D221" s="74" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="E221" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F221" s="74" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="G221" s="74" t="s">
         <v>14</v>
@@ -23287,7 +23161,7 @@
         <v>17</v>
       </c>
       <c r="I221" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J221" s="18" t="s">
         <v>156</v>
@@ -23295,22 +23169,22 @@
     </row>
     <row r="222" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A222" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B222" s="74" t="s">
         <v>274</v>
       </c>
       <c r="C222" s="74" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="D222" s="74" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="E222" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F222" s="74" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="G222" s="74" t="s">
         <v>14</v>
@@ -23319,7 +23193,7 @@
         <v>17</v>
       </c>
       <c r="I222" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J222" s="18" t="s">
         <v>156</v>
@@ -23327,22 +23201,22 @@
     </row>
     <row r="223" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A223" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B223" s="74" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="C223" s="74" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="D223" s="74" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="E223" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F223" s="74" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="G223" s="74" t="s">
         <v>14</v>
@@ -23351,7 +23225,7 @@
         <v>17</v>
       </c>
       <c r="I223" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J223" s="18" t="s">
         <v>156</v>
@@ -23359,16 +23233,16 @@
     </row>
     <row r="224" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A224" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B224" s="74" t="s">
         <v>532</v>
       </c>
       <c r="C224" s="74" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="D224" s="74" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="E224" s="74" t="s">
         <v>58</v>
@@ -23383,7 +23257,7 @@
         <v>17</v>
       </c>
       <c r="I224" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J224" s="18" t="s">
         <v>156</v>
@@ -23391,22 +23265,22 @@
     </row>
     <row r="225" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A225" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B225" s="74" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="C225" s="74" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="D225" s="74" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="E225" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F225" s="74" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="G225" s="74" t="s">
         <v>14</v>
@@ -23415,7 +23289,7 @@
         <v>17</v>
       </c>
       <c r="I225" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J225" s="18" t="s">
         <v>156</v>
@@ -23423,22 +23297,22 @@
     </row>
     <row r="226" spans="1:10" ht="195" x14ac:dyDescent="0.25">
       <c r="A226" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B226" s="74" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="C226" s="74" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="D226" s="74" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="E226" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F226" s="74" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="G226" s="74" t="s">
         <v>14</v>
@@ -23447,7 +23321,7 @@
         <v>17</v>
       </c>
       <c r="I226" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J226" s="18" t="s">
         <v>156</v>
@@ -23455,22 +23329,22 @@
     </row>
     <row r="227" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A227" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B227" s="74" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="C227" s="74" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="D227" s="74" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="E227" s="74" t="s">
         <v>58</v>
       </c>
       <c r="F227" s="74" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="G227" s="74" t="s">
         <v>14</v>
@@ -23479,7 +23353,7 @@
         <v>17</v>
       </c>
       <c r="I227" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J227" s="18" t="s">
         <v>156</v>
@@ -23487,7 +23361,7 @@
     </row>
     <row r="228" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B228" s="74" t="s">
         <v>552</v>
@@ -23496,13 +23370,13 @@
         <v>0</v>
       </c>
       <c r="D228" s="74" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="E228" s="74" t="s">
         <v>39</v>
       </c>
       <c r="F228" s="74" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="G228" s="74" t="s">
         <v>60</v>
@@ -23511,7 +23385,7 @@
         <v>17</v>
       </c>
       <c r="I228" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J228" s="18" t="s">
         <v>156</v>
@@ -23519,7 +23393,7 @@
     </row>
     <row r="229" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B229" s="74" t="s">
         <v>148</v>
@@ -23528,7 +23402,7 @@
         <v>0</v>
       </c>
       <c r="D229" s="74" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="E229" s="74" t="s">
         <v>39</v>
@@ -23543,7 +23417,7 @@
         <v>17</v>
       </c>
       <c r="I229" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J229" s="18" t="s">
         <v>156</v>
@@ -23551,16 +23425,16 @@
     </row>
     <row r="230" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A230" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B230" s="74" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="C230" s="74">
         <v>0</v>
       </c>
       <c r="D230" s="74" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="E230" s="74" t="s">
         <v>39</v>
@@ -23575,7 +23449,7 @@
         <v>17</v>
       </c>
       <c r="I230" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J230" s="18" t="s">
         <v>156</v>
@@ -23583,22 +23457,22 @@
     </row>
     <row r="231" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A231" s="18" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="B231" s="74" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="C231" s="74">
         <v>0</v>
       </c>
       <c r="D231" s="74" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="E231" s="74" t="s">
         <v>39</v>
       </c>
       <c r="F231" s="74" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="G231" s="74" t="s">
         <v>60</v>
@@ -23607,7 +23481,7 @@
         <v>17</v>
       </c>
       <c r="I231" s="18" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="J231" s="18" t="s">
         <v>156</v>
@@ -23615,22 +23489,22 @@
     </row>
     <row r="232" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A232" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B232" s="49" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="C232" s="49" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="D232" s="49" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="E232" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F232" s="49" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="G232" s="49" t="s">
         <v>18</v>
@@ -23639,7 +23513,7 @@
         <v>17</v>
       </c>
       <c r="I232" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J232" s="18" t="s">
         <v>105</v>
@@ -23647,22 +23521,22 @@
     </row>
     <row r="233" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A233" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B233" s="49" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="C233" s="49" t="s">
         <v>432</v>
       </c>
       <c r="D233" s="49" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="E233" s="49" t="s">
         <v>39</v>
       </c>
       <c r="F233" s="49" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="G233" s="49" t="s">
         <v>14</v>
@@ -23671,7 +23545,7 @@
         <v>92</v>
       </c>
       <c r="I233" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J233" s="18" t="s">
         <v>105</v>
@@ -23679,16 +23553,16 @@
     </row>
     <row r="234" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A234" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B234" s="87" t="s">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="C234" s="87" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="D234" s="87" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="E234" s="87" t="s">
         <v>39</v>
@@ -23703,7 +23577,7 @@
         <v>17</v>
       </c>
       <c r="I234" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J234" s="18" t="s">
         <v>105</v>
@@ -23711,16 +23585,16 @@
     </row>
     <row r="235" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A235" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B235" s="87" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="C235" s="87" t="s">
         <v>224</v>
       </c>
       <c r="D235" s="87" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
       <c r="E235" s="87" t="s">
         <v>39</v>
@@ -23735,7 +23609,7 @@
         <v>92</v>
       </c>
       <c r="I235" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J235" s="18" t="s">
         <v>105</v>
@@ -23743,7 +23617,7 @@
     </row>
     <row r="236" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A236" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B236" s="87" t="s">
         <v>499</v>
@@ -23752,7 +23626,7 @@
         <v>364</v>
       </c>
       <c r="D236" s="87" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="E236" s="87" t="s">
         <v>39</v>
@@ -23767,7 +23641,7 @@
         <v>17</v>
       </c>
       <c r="I236" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J236" s="18" t="s">
         <v>105</v>
@@ -23775,22 +23649,22 @@
     </row>
     <row r="237" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A237" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B237" s="87" t="s">
-        <v>794</v>
+        <v>752</v>
       </c>
       <c r="C237" s="87" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="D237" s="87" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="E237" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F237" s="87" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="G237" s="87" t="s">
         <v>14</v>
@@ -23799,7 +23673,7 @@
         <v>92</v>
       </c>
       <c r="I237" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J237" s="18" t="s">
         <v>105</v>
@@ -23807,10 +23681,10 @@
     </row>
     <row r="238" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A238" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B238" s="87" t="s">
-        <v>797</v>
+        <v>755</v>
       </c>
       <c r="C238" s="87" t="s">
         <v>287</v>
@@ -23831,7 +23705,7 @@
         <v>17</v>
       </c>
       <c r="I238" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J238" s="18" t="s">
         <v>105</v>
@@ -23839,22 +23713,22 @@
     </row>
     <row r="239" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A239" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B239" s="87" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="C239" s="87" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="D239" s="87" t="s">
-        <v>800</v>
+        <v>758</v>
       </c>
       <c r="E239" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F239" s="87" t="s">
-        <v>801</v>
+        <v>759</v>
       </c>
       <c r="G239" s="87" t="s">
         <v>14</v>
@@ -23863,7 +23737,7 @@
         <v>92</v>
       </c>
       <c r="I239" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J239" s="18" t="s">
         <v>105</v>
@@ -23871,7 +23745,7 @@
     </row>
     <row r="240" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A240" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B240" s="87" t="s">
         <v>195</v>
@@ -23880,7 +23754,7 @@
         <v>54</v>
       </c>
       <c r="D240" s="87" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="E240" s="87" t="s">
         <v>39</v>
@@ -23892,10 +23766,10 @@
         <v>14</v>
       </c>
       <c r="H240" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I240" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J240" s="18" t="s">
         <v>105</v>
@@ -23903,22 +23777,22 @@
     </row>
     <row r="241" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A241" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B241" s="87" t="s">
-        <v>803</v>
+        <v>761</v>
       </c>
       <c r="C241" s="87" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="D241" s="87" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="E241" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F241" s="87" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="G241" s="87" t="s">
         <v>14</v>
@@ -23927,7 +23801,7 @@
         <v>17</v>
       </c>
       <c r="I241" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J241" s="18" t="s">
         <v>105</v>
@@ -23935,22 +23809,22 @@
     </row>
     <row r="242" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A242" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B242" s="87" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="C242" s="87" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="D242" s="87" t="s">
-        <v>809</v>
+        <v>767</v>
       </c>
       <c r="E242" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F242" s="87" t="s">
-        <v>810</v>
+        <v>768</v>
       </c>
       <c r="G242" s="87" t="s">
         <v>14</v>
@@ -23959,7 +23833,7 @@
         <v>17</v>
       </c>
       <c r="I242" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J242" s="18" t="s">
         <v>105</v>
@@ -23967,22 +23841,22 @@
     </row>
     <row r="243" spans="1:10" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A243" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B243" s="87" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="C243" s="87" t="s">
-        <v>812</v>
+        <v>770</v>
       </c>
       <c r="D243" s="87" t="s">
-        <v>813</v>
+        <v>771</v>
       </c>
       <c r="E243" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F243" s="87" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="G243" s="87" t="s">
         <v>14</v>
@@ -23991,7 +23865,7 @@
         <v>92</v>
       </c>
       <c r="I243" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J243" s="18" t="s">
         <v>105</v>
@@ -23999,16 +23873,16 @@
     </row>
     <row r="244" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A244" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B244" s="87" t="s">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="C244" s="87" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
       <c r="D244" s="87" t="s">
-        <v>817</v>
+        <v>775</v>
       </c>
       <c r="E244" s="87" t="s">
         <v>39</v>
@@ -24020,10 +23894,10 @@
         <v>14</v>
       </c>
       <c r="H244" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I244" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J244" s="18" t="s">
         <v>105</v>
@@ -24031,22 +23905,22 @@
     </row>
     <row r="245" spans="1:10" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A245" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B245" s="87" t="s">
-        <v>818</v>
+        <v>776</v>
       </c>
       <c r="C245" s="87">
         <v>0</v>
       </c>
       <c r="D245" s="87" t="s">
-        <v>819</v>
+        <v>777</v>
       </c>
       <c r="E245" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F245" s="87" t="s">
-        <v>820</v>
+        <v>778</v>
       </c>
       <c r="G245" s="87" t="s">
         <v>60</v>
@@ -24055,7 +23929,7 @@
         <v>92</v>
       </c>
       <c r="I245" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J245" s="18" t="s">
         <v>105</v>
@@ -24063,22 +23937,22 @@
     </row>
     <row r="246" spans="1:10" ht="57" x14ac:dyDescent="0.25">
       <c r="A246" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B246" s="87" t="s">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="C246" s="87">
         <v>0</v>
       </c>
       <c r="D246" s="87" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="E246" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F246" s="87" t="s">
-        <v>823</v>
+        <v>781</v>
       </c>
       <c r="G246" s="87" t="s">
         <v>60</v>
@@ -24087,7 +23961,7 @@
         <v>17</v>
       </c>
       <c r="I246" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J246" s="18" t="s">
         <v>105</v>
@@ -24095,31 +23969,31 @@
     </row>
     <row r="247" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A247" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B247" s="87" t="s">
-        <v>824</v>
+        <v>782</v>
       </c>
       <c r="C247" s="87">
         <v>0</v>
       </c>
       <c r="D247" s="87" t="s">
-        <v>825</v>
+        <v>783</v>
       </c>
       <c r="E247" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F247" s="87" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="G247" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H247" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I247" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J247" s="18" t="s">
         <v>105</v>
@@ -24127,31 +24001,31 @@
     </row>
     <row r="248" spans="1:10" ht="171" x14ac:dyDescent="0.25">
       <c r="A248" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B248" s="87" t="s">
-        <v>826</v>
+        <v>784</v>
       </c>
       <c r="C248" s="87">
         <v>0</v>
       </c>
       <c r="D248" s="87" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="E248" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F248" s="87" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="G248" s="87" t="s">
         <v>60</v>
       </c>
       <c r="H248" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I248" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J248" s="18" t="s">
         <v>105</v>
@@ -24159,22 +24033,22 @@
     </row>
     <row r="249" spans="1:10" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A249" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B249" s="87" t="s">
-        <v>829</v>
+        <v>787</v>
       </c>
       <c r="C249" s="87">
         <v>0</v>
       </c>
       <c r="D249" s="87" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="E249" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F249" s="87" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="G249" s="87" t="s">
         <v>60</v>
@@ -24183,7 +24057,7 @@
         <v>92</v>
       </c>
       <c r="I249" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J249" s="18" t="s">
         <v>105</v>
@@ -24191,22 +24065,22 @@
     </row>
     <row r="250" spans="1:10" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A250" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B250" s="87" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="C250" s="87">
         <v>0</v>
       </c>
       <c r="D250" s="87" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="E250" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F250" s="87" t="s">
-        <v>834</v>
+        <v>792</v>
       </c>
       <c r="G250" s="87" t="s">
         <v>60</v>
@@ -24215,7 +24089,7 @@
         <v>92</v>
       </c>
       <c r="I250" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J250" s="18" t="s">
         <v>105</v>
@@ -24223,22 +24097,22 @@
     </row>
     <row r="251" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A251" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B251" s="87" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="C251" s="87">
         <v>0</v>
       </c>
       <c r="D251" s="87" t="s">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="E251" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F251" s="87" t="s">
-        <v>837</v>
+        <v>795</v>
       </c>
       <c r="G251" s="87" t="s">
         <v>60</v>
@@ -24247,7 +24121,7 @@
         <v>92</v>
       </c>
       <c r="I251" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J251" s="18" t="s">
         <v>105</v>
@@ -24255,7 +24129,7 @@
     </row>
     <row r="252" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A252" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B252" s="87" t="s">
         <v>106</v>
@@ -24264,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="D252" s="87" t="s">
-        <v>838</v>
+        <v>796</v>
       </c>
       <c r="E252" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F252" s="87" t="s">
-        <v>839</v>
+        <v>797</v>
       </c>
       <c r="G252" s="87" t="s">
         <v>60</v>
@@ -24279,7 +24153,7 @@
         <v>92</v>
       </c>
       <c r="I252" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J252" s="18" t="s">
         <v>105</v>
@@ -24287,7 +24161,7 @@
     </row>
     <row r="253" spans="1:10" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A253" s="18" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="B253" s="87" t="s">
         <v>127</v>
@@ -24296,13 +24170,13 @@
         <v>0</v>
       </c>
       <c r="D253" s="87" t="s">
-        <v>840</v>
+        <v>798</v>
       </c>
       <c r="E253" s="87" t="s">
         <v>58</v>
       </c>
       <c r="F253" s="87" t="s">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="G253" s="87" t="s">
         <v>60</v>
@@ -24311,7 +24185,7 @@
         <v>17</v>
       </c>
       <c r="I253" s="18" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="J253" s="18" t="s">
         <v>105</v>
@@ -24319,31 +24193,31 @@
     </row>
     <row r="254" spans="1:10" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A254" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B254" s="66" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
       <c r="C254" s="66" t="s">
         <v>384</v>
       </c>
       <c r="D254" s="49" t="s">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="E254" s="168" t="s">
         <v>39</v>
       </c>
       <c r="F254" s="15" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="G254" s="134" t="s">
         <v>14</v>
       </c>
       <c r="H254" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I254" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J254" s="18" t="s">
         <v>105</v>
@@ -24351,31 +24225,31 @@
     </row>
     <row r="255" spans="1:10" ht="114" x14ac:dyDescent="0.25">
       <c r="A255" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>850</v>
+        <v>808</v>
       </c>
       <c r="C255" s="98" t="s">
         <v>364</v>
       </c>
       <c r="D255" s="62" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="E255" s="139" t="s">
         <v>39</v>
       </c>
       <c r="F255" s="10" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="G255" s="134" t="s">
         <v>14</v>
       </c>
       <c r="H255" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I255" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J255" s="18" t="s">
         <v>105</v>
@@ -24383,20 +24257,20 @@
     </row>
     <row r="256" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A256" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B256" s="99" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="C256" s="99"/>
       <c r="D256" s="129" t="s">
-        <v>854</v>
+        <v>812</v>
       </c>
       <c r="E256" s="172" t="s">
         <v>58</v>
       </c>
       <c r="F256" s="73" t="s">
-        <v>855</v>
+        <v>813</v>
       </c>
       <c r="G256" s="134" t="s">
         <v>14</v>
@@ -24405,7 +24279,7 @@
         <v>17</v>
       </c>
       <c r="I256" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J256" s="18" t="s">
         <v>105</v>
@@ -24413,14 +24287,14 @@
     </row>
     <row r="257" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A257" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B257" s="99" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="C257" s="99"/>
       <c r="D257" s="130" t="s">
-        <v>866</v>
+        <v>824</v>
       </c>
       <c r="E257" s="174" t="s">
         <v>39</v>
@@ -24432,10 +24306,10 @@
         <v>60</v>
       </c>
       <c r="H257" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I257" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J257" s="18" t="s">
         <v>105</v>
@@ -24443,14 +24317,14 @@
     </row>
     <row r="258" spans="1:10" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A258" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B258" s="99" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="C258" s="99"/>
       <c r="D258" s="100" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="E258" s="27" t="s">
         <v>39</v>
@@ -24465,7 +24339,7 @@
         <v>17</v>
       </c>
       <c r="I258" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J258" s="18" t="s">
         <v>105</v>
@@ -24473,29 +24347,29 @@
     </row>
     <row r="259" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="18" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="B259" s="99" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="C259" s="99"/>
       <c r="D259" s="131" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="E259" s="27" t="s">
         <v>39</v>
       </c>
       <c r="F259" s="73" t="s">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="G259" s="134" t="s">
         <v>60</v>
       </c>
       <c r="H259" s="18" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="I259" s="18" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="J259" s="18" t="s">
         <v>105</v>
@@ -29909,7 +29783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53464A0D-446B-45E6-9884-778D80AFEFA8}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -29917,12 +29791,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -29932,12 +29806,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C361B046-02C5-4099-905E-0635A8971D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6E961-C26A-4630-BF85-D13A6C2185FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16155,7 +16155,7 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E6E961-C26A-4630-BF85-D13A6C2185FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789A1A4C-EF19-4BB9-92C5-CCA65C1EF001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Active_Critical_Points!$A$1:$H$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">All_Critical_Points!$A$1:$I$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">All_Critical_Points!$A$1:$J$259</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -15536,7 +15536,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16155,7 +16155,7 @@
   <dimension ref="A1:J259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18742,7 +18742,7 @@
         <v>313</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="30" x14ac:dyDescent="0.25">
@@ -24376,7 +24376,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I259" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
+  <autoFilter ref="A1:J259" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G69">
     <cfRule type="containsText" dxfId="1317" priority="1383" operator="containsText" text="0">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2256DF8-B38D-4615-80AD-81B85FA9E15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CF5EA-3DDE-45A1-AF84-35EA4A06969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$K$258</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$258</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3141" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="826">
   <si>
     <t>Team No.</t>
   </si>
@@ -1068,12 +1068,6 @@
   </si>
   <si>
     <t xml:space="preserve">OEM </t>
-  </si>
-  <si>
-    <t>Rig_Owner</t>
-  </si>
-  <si>
-    <t>EDC</t>
   </si>
   <si>
     <t>EDC-31</t>
@@ -1675,9 +1669,6 @@
     <t>NDC-4</t>
   </si>
   <si>
-    <t>NDC</t>
-  </si>
-  <si>
     <t>1.1.7</t>
   </si>
   <si>
@@ -2040,9 +2031,6 @@
     <t>NFPA 13,16</t>
   </si>
   <si>
-    <t>SDF</t>
-  </si>
-  <si>
     <t>SDF-1</t>
   </si>
   <si>
@@ -2072,9 +2060,6 @@
     <t>ST-5</t>
   </si>
   <si>
-    <t>Sino Tharwa</t>
-  </si>
-  <si>
     <t>3.3.34</t>
   </si>
   <si>
@@ -2514,9 +2499,6 @@
     <t xml:space="preserve">OSHA 1926.502 (b)(i)
 &amp; OSHA 1910.140
 </t>
-  </si>
-  <si>
-    <t>DASCO</t>
   </si>
   <si>
     <t>DASCO-31</t>
@@ -2733,9 +2715,6 @@
     <t>API RP 54</t>
   </si>
   <si>
-    <t>HI-Tech</t>
-  </si>
-  <si>
     <t>HT-101</t>
   </si>
   <si>
@@ -2749,9 +2728,6 @@
   </si>
   <si>
     <t xml:space="preserve">IADC, API RP 53 </t>
-  </si>
-  <si>
-    <t>ECDC</t>
   </si>
   <si>
     <t>ECDC-9</t>
@@ -2950,15 +2926,6 @@
   </si>
   <si>
     <t>=COUNTA(C1:C7000)</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -14777,7 +14744,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14950,7 +14917,7 @@
         <v>30</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
@@ -15054,10 +15021,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
-  <dimension ref="A1:K259"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F4" activeCellId="1" sqref="K259 F4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15069,15 +15036,12 @@
     <col min="5" max="5" width="12.42578125" style="194" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" style="194" customWidth="1"/>
     <col min="7" max="7" width="17.7109375" style="194" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" style="194" customWidth="1"/>
-    <col min="9" max="9" width="16" style="194" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="194" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="194"/>
-    <col min="12" max="12" width="24.7109375" style="194" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="194"/>
+    <col min="8" max="9" width="8.140625" style="194" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="194" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="194"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
@@ -15103,51 +15067,39 @@
         <v>19</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>309</v>
-      </c>
-      <c r="J1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="K1" s="73" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
@@ -15173,16 +15125,10 @@
         <v>92</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J3" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K3" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>93</v>
       </c>
@@ -15208,16 +15154,10 @@
         <v>17</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
@@ -15243,16 +15183,10 @@
         <v>92</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
@@ -15278,16 +15212,10 @@
         <v>17</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J6" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K6" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="73" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:9" s="73" customFormat="1" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>94</v>
       </c>
@@ -15311,16 +15239,10 @@
         <v>92</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J7" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
@@ -15346,16 +15268,10 @@
         <v>41</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J8" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K8" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="73" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:9" s="73" customFormat="1" ht="405" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>104</v>
       </c>
@@ -15381,16 +15297,10 @@
         <v>41</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J9" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K9" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>129</v>
       </c>
@@ -15416,16 +15326,10 @@
         <v>12</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J10" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>129</v>
       </c>
@@ -15451,16 +15355,10 @@
         <v>12</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J11" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="73" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" s="73" customFormat="1" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>129</v>
       </c>
@@ -15486,16 +15384,10 @@
         <v>12</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>129</v>
       </c>
@@ -15521,16 +15413,10 @@
         <v>12</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J13" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>129</v>
       </c>
@@ -15556,16 +15442,10 @@
         <v>12</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J14" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K14" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>129</v>
       </c>
@@ -15591,16 +15471,10 @@
         <v>92</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J15" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>129</v>
       </c>
@@ -15626,51 +15500,39 @@
         <v>12</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J16" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K16" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J17" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K17" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>155</v>
       </c>
@@ -15696,16 +15558,10 @@
         <v>92</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J18" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K18" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>155</v>
       </c>
@@ -15731,16 +15587,10 @@
         <v>92</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J19" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K19" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>155</v>
       </c>
@@ -15766,16 +15616,10 @@
         <v>92</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J20" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K20" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>155</v>
       </c>
@@ -15801,16 +15645,10 @@
         <v>92</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J21" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K21" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>155</v>
       </c>
@@ -15836,16 +15674,10 @@
         <v>17</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J22" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K22" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="73" customFormat="1" ht="177" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" s="73" customFormat="1" ht="177" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -15871,16 +15703,10 @@
         <v>17</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J23" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K23" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -15906,16 +15732,10 @@
         <v>17</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J24" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="73" customFormat="1" ht="133.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" s="73" customFormat="1" ht="133.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -15941,16 +15761,10 @@
         <v>17</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J25" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K25" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -15976,16 +15790,10 @@
         <v>17</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J26" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K26" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -16009,16 +15817,10 @@
         <v>17</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J27" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K27" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>174</v>
       </c>
@@ -16044,16 +15846,10 @@
         <v>92</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J28" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K28" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>174</v>
       </c>
@@ -16079,16 +15875,10 @@
         <v>41</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J29" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K29" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>174</v>
       </c>
@@ -16114,16 +15904,10 @@
         <v>41</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K30" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>174</v>
       </c>
@@ -16149,16 +15933,10 @@
         <v>92</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J31" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K31" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>174</v>
       </c>
@@ -16184,16 +15962,10 @@
         <v>41</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J32" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K32" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>174</v>
       </c>
@@ -16217,51 +15989,39 @@
         <v>41</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K33" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I34" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J34" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K34" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>185</v>
       </c>
@@ -16287,16 +16047,10 @@
         <v>92</v>
       </c>
       <c r="I35" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J35" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K35" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>185</v>
       </c>
@@ -16322,16 +16076,10 @@
         <v>92</v>
       </c>
       <c r="I36" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J36" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K36" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>186</v>
       </c>
@@ -16357,16 +16105,10 @@
         <v>191</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J37" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>186</v>
       </c>
@@ -16392,16 +16134,10 @@
         <v>17</v>
       </c>
       <c r="I38" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J38" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K38" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -16425,16 +16161,10 @@
         <v>41</v>
       </c>
       <c r="I39" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J39" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K39" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>186</v>
       </c>
@@ -16458,51 +16188,39 @@
         <v>41</v>
       </c>
       <c r="I40" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J40" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K40" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>201</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H41" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I41" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J41" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K41" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>233</v>
       </c>
@@ -16528,16 +16246,10 @@
         <v>17</v>
       </c>
       <c r="I42" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J42" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K42" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>233</v>
       </c>
@@ -16563,16 +16275,10 @@
         <v>41</v>
       </c>
       <c r="I43" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J43" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K43" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>233</v>
       </c>
@@ -16598,16 +16304,10 @@
         <v>12</v>
       </c>
       <c r="I44" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J44" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K44" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>233</v>
       </c>
@@ -16633,16 +16333,10 @@
         <v>41</v>
       </c>
       <c r="I45" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J45" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K45" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>233</v>
       </c>
@@ -16668,16 +16362,10 @@
         <v>191</v>
       </c>
       <c r="I46" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J46" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K46" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>233</v>
       </c>
@@ -16703,16 +16391,10 @@
         <v>41</v>
       </c>
       <c r="I47" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J47" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K47" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>233</v>
       </c>
@@ -16738,16 +16420,10 @@
         <v>41</v>
       </c>
       <c r="I48" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J48" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K48" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>233</v>
       </c>
@@ -16773,16 +16449,10 @@
         <v>12</v>
       </c>
       <c r="I49" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J49" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K49" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>233</v>
       </c>
@@ -16808,16 +16478,10 @@
         <v>12</v>
       </c>
       <c r="I50" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J50" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K50" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>233</v>
       </c>
@@ -16843,16 +16507,10 @@
         <v>12</v>
       </c>
       <c r="I51" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J51" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K51" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>234</v>
       </c>
@@ -16863,7 +16521,7 @@
         <v>236</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E52" s="133" t="s">
         <v>39</v>
@@ -16878,16 +16536,10 @@
         <v>12</v>
       </c>
       <c r="I52" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J52" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K52" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="73" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" s="73" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>234</v>
       </c>
@@ -16913,16 +16565,10 @@
         <v>12</v>
       </c>
       <c r="I53" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J53" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K53" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
@@ -16946,16 +16592,10 @@
         <v>92</v>
       </c>
       <c r="I54" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J54" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K54" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>243</v>
       </c>
@@ -16979,16 +16619,10 @@
         <v>12</v>
       </c>
       <c r="I55" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J55" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K55" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>243</v>
       </c>
@@ -17014,16 +16648,10 @@
         <v>12</v>
       </c>
       <c r="I56" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J56" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>243</v>
       </c>
@@ -17047,16 +16675,10 @@
         <v>12</v>
       </c>
       <c r="I57" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J57" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K57" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>243</v>
       </c>
@@ -17082,16 +16704,10 @@
         <v>41</v>
       </c>
       <c r="I58" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J58" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K58" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>257</v>
       </c>
@@ -17117,16 +16733,10 @@
         <v>191</v>
       </c>
       <c r="I59" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J59" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K59" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>257</v>
       </c>
@@ -17152,16 +16762,10 @@
         <v>191</v>
       </c>
       <c r="I60" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J60" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K60" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>257</v>
       </c>
@@ -17185,16 +16789,10 @@
         <v>12</v>
       </c>
       <c r="I61" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J61" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K61" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>257</v>
       </c>
@@ -17218,16 +16816,10 @@
         <v>12</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J62" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K62" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>9</v>
       </c>
@@ -17253,16 +16845,10 @@
         <v>17</v>
       </c>
       <c r="I63" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J63" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K63" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>9</v>
       </c>
@@ -17288,16 +16874,10 @@
         <v>41</v>
       </c>
       <c r="I64" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J64" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K64" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>9</v>
       </c>
@@ -17323,16 +16903,10 @@
         <v>17</v>
       </c>
       <c r="I65" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J65" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K65" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>9</v>
       </c>
@@ -17358,16 +16932,10 @@
         <v>41</v>
       </c>
       <c r="I66" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J66" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K66" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>9</v>
       </c>
@@ -17378,7 +16946,7 @@
         <v>287</v>
       </c>
       <c r="D67" s="57" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E67" s="25" t="s">
         <v>39</v>
@@ -17393,16 +16961,10 @@
         <v>12</v>
       </c>
       <c r="I67" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J67" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K67" s="73" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>82</v>
       </c>
@@ -17428,16 +16990,10 @@
         <v>17</v>
       </c>
       <c r="I68" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J68" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K68" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
@@ -17463,16 +17019,10 @@
         <v>17</v>
       </c>
       <c r="I69" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J69" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K69" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>82</v>
       </c>
@@ -17498,16 +17048,10 @@
         <v>17</v>
       </c>
       <c r="I70" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J70" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K70" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="73" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" s="73" customFormat="1" ht="315" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>82</v>
       </c>
@@ -17533,16 +17077,10 @@
         <v>17</v>
       </c>
       <c r="I71" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J71" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K71" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>82</v>
       </c>
@@ -17568,16 +17106,10 @@
         <v>17</v>
       </c>
       <c r="I72" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J72" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K72" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="73" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" s="73" customFormat="1" ht="345" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -17603,16 +17135,10 @@
         <v>17</v>
       </c>
       <c r="I73" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J73" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K73" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>289</v>
       </c>
@@ -17638,16 +17164,10 @@
         <v>17</v>
       </c>
       <c r="I74" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J74" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K74" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>289</v>
       </c>
@@ -17673,16 +17193,10 @@
         <v>17</v>
       </c>
       <c r="I75" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J75" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K75" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>289</v>
       </c>
@@ -17708,16 +17222,10 @@
         <v>17</v>
       </c>
       <c r="I76" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J76" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K76" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>289</v>
       </c>
@@ -17743,16 +17251,10 @@
         <v>17</v>
       </c>
       <c r="I77" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J77" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K77" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>289</v>
       </c>
@@ -17778,16 +17280,10 @@
         <v>92</v>
       </c>
       <c r="I78" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J78" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K78" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>289</v>
       </c>
@@ -17811,33 +17307,27 @@
         <v>92</v>
       </c>
       <c r="I79" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="J79" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K79" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B80" s="38" t="s">
+      <c r="C80" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="D80" s="108" t="s">
         <v>312</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="D80" s="108" t="s">
-        <v>314</v>
       </c>
       <c r="E80" s="133" t="s">
         <v>58</v>
       </c>
       <c r="F80" s="44" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G80" s="132" t="s">
         <v>14</v>
@@ -17846,62 +17336,50 @@
         <v>17</v>
       </c>
       <c r="I80" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J80" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K80" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H81" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I81" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J81" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K81" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="73" customFormat="1" ht="87" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" s="73" customFormat="1" ht="87" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B82" s="55" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C82" s="49" t="s">
         <v>219</v>
       </c>
       <c r="D82" s="93" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E82" s="137" t="s">
         <v>39</v>
@@ -17916,31 +17394,25 @@
         <v>41</v>
       </c>
       <c r="I82" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J82" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K82" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B83" s="50" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C83" s="51"/>
       <c r="D83" s="52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E83" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F83" s="52" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G83" s="74" t="s">
         <v>14</v>
@@ -17949,31 +17421,25 @@
         <v>41</v>
       </c>
       <c r="I83" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J83" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K83" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C84" s="53"/>
       <c r="D84" s="109" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E84" s="138" t="s">
         <v>58</v>
       </c>
       <c r="F84" s="54" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G84" s="139" t="s">
         <v>247</v>
@@ -17982,60 +17448,48 @@
         <v>92</v>
       </c>
       <c r="I84" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J84" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K84" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I85" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J85" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K85" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B86" s="130" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C86" s="55"/>
       <c r="D86" s="57" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E86" s="28" t="s">
         <v>39</v>
@@ -18050,33 +17504,27 @@
         <v>191</v>
       </c>
       <c r="I86" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J86" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K86" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="C87" s="43" t="s">
         <v>333</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="D87" s="110" t="s">
         <v>334</v>
-      </c>
-      <c r="C87" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="D87" s="110" t="s">
-        <v>336</v>
       </c>
       <c r="E87" s="140" t="s">
         <v>39</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G87" s="132" t="s">
         <v>14</v>
@@ -18085,25 +17533,19 @@
         <v>41</v>
       </c>
       <c r="I87" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J87" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K87" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="73" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" s="73" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B88" s="58" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C88" s="58"/>
       <c r="D88" s="59" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E88" s="28" t="s">
         <v>58</v>
@@ -18118,25 +17560,19 @@
         <v>191</v>
       </c>
       <c r="I88" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J88" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C89" s="33"/>
       <c r="D89" s="59" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E89" s="133" t="s">
         <v>39</v>
@@ -18151,33 +17587,27 @@
         <v>41</v>
       </c>
       <c r="I89" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J89" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B90" s="141" t="s">
+        <v>341</v>
+      </c>
+      <c r="C90" s="141" t="s">
         <v>342</v>
       </c>
-      <c r="B90" s="141" t="s">
+      <c r="D90" s="111" t="s">
         <v>343</v>
-      </c>
-      <c r="C90" s="141" t="s">
-        <v>344</v>
-      </c>
-      <c r="D90" s="111" t="s">
-        <v>345</v>
       </c>
       <c r="E90" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F90" s="56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G90" s="143" t="s">
         <v>14</v>
@@ -18186,33 +17616,27 @@
         <v>41</v>
       </c>
       <c r="I90" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J90" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K90" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" s="73" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:9" s="73" customFormat="1" ht="210" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B91" s="24" t="s">
+        <v>345</v>
+      </c>
+      <c r="C91" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="D91" s="99" t="s">
         <v>347</v>
-      </c>
-      <c r="C91" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="D91" s="99" t="s">
-        <v>349</v>
       </c>
       <c r="E91" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F91" s="60" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G91" s="132" t="s">
         <v>14</v>
@@ -18221,25 +17645,19 @@
         <v>41</v>
       </c>
       <c r="I91" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J91" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K91" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B92" s="38" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C92" s="38"/>
       <c r="D92" s="59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E92" s="28" t="s">
         <v>58</v>
@@ -18254,68 +17672,56 @@
         <v>41</v>
       </c>
       <c r="I92" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J92" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K92" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="G93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="I93" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="73" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+      <c r="A94" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B94" s="62" t="s">
         <v>353</v>
       </c>
-      <c r="B93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="D93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="F93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="I93" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J93" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K93" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="73" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="s">
+      <c r="C94" s="61" t="s">
         <v>354</v>
       </c>
-      <c r="B94" s="62" t="s">
-        <v>355</v>
-      </c>
-      <c r="C94" s="61" t="s">
-        <v>356</v>
-      </c>
       <c r="D94" s="112" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E94" s="144" t="s">
         <v>39</v>
       </c>
       <c r="F94" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G94" s="16" t="s">
         <v>18</v>
@@ -18324,33 +17730,27 @@
         <v>41</v>
       </c>
       <c r="I94" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J94" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K94" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B95" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D95" s="113" t="s">
         <v>357</v>
-      </c>
-      <c r="C95" s="24" t="s">
-        <v>358</v>
-      </c>
-      <c r="D95" s="113" t="s">
-        <v>359</v>
       </c>
       <c r="E95" s="145" t="s">
         <v>39</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G95" s="146" t="s">
         <v>14</v>
@@ -18359,33 +17759,27 @@
         <v>12</v>
       </c>
       <c r="I95" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J95" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K95" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" s="73" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" s="73" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B96" s="45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C96" s="24" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D96" s="147" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E96" s="145" t="s">
         <v>39</v>
       </c>
       <c r="F96" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G96" s="146" t="s">
         <v>14</v>
@@ -18394,33 +17788,27 @@
         <v>12</v>
       </c>
       <c r="I96" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J96" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K96" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B97" s="148" t="s">
         <v>36</v>
       </c>
       <c r="C97" s="62" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D97" s="114" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E97" s="149" t="s">
         <v>39</v>
       </c>
       <c r="F97" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G97" s="150" t="s">
         <v>14</v>
@@ -18429,33 +17817,27 @@
         <v>191</v>
       </c>
       <c r="I97" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J97" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K97" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B98" s="45" t="s">
+        <v>370</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D98" s="115" t="s">
         <v>372</v>
-      </c>
-      <c r="C98" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="D98" s="115" t="s">
-        <v>374</v>
       </c>
       <c r="E98" s="143" t="s">
         <v>39</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G98" s="150" t="s">
         <v>18</v>
@@ -18464,33 +17846,27 @@
         <v>41</v>
       </c>
       <c r="I98" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J98" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K98" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="73" customFormat="1" ht="219.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" s="73" customFormat="1" ht="219.75" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D99" s="116" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E99" s="107" t="s">
         <v>39</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>60</v>
@@ -18499,31 +17875,25 @@
         <v>17</v>
       </c>
       <c r="I99" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J99" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K99" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B100" s="63" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C100" s="63"/>
       <c r="D100" s="117" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E100" s="117" t="s">
         <v>39</v>
       </c>
       <c r="F100" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G100" s="16" t="s">
         <v>60</v>
@@ -18532,33 +17902,27 @@
         <v>12</v>
       </c>
       <c r="I100" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J100" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K100" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B101" s="63" t="s">
+        <v>367</v>
+      </c>
+      <c r="C101" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="D101" s="117" t="s">
         <v>369</v>
-      </c>
-      <c r="C101" s="63" t="s">
-        <v>370</v>
-      </c>
-      <c r="D101" s="117" t="s">
-        <v>371</v>
       </c>
       <c r="E101" s="117" t="s">
         <v>39</v>
       </c>
       <c r="F101" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>60</v>
@@ -18567,18 +17931,12 @@
         <v>41</v>
       </c>
       <c r="I101" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J101" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K101" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>135</v>
@@ -18587,13 +17945,13 @@
         <v>284</v>
       </c>
       <c r="D102" s="107" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E102" s="133" t="s">
         <v>39</v>
       </c>
       <c r="F102" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G102" s="16" t="s">
         <v>14</v>
@@ -18602,33 +17960,27 @@
         <v>191</v>
       </c>
       <c r="I102" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J102" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K102" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B103" s="151" t="s">
         <v>375</v>
       </c>
-      <c r="B103" s="151" t="s">
+      <c r="C103" s="151" t="s">
+        <v>376</v>
+      </c>
+      <c r="D103" s="118" t="s">
         <v>377</v>
-      </c>
-      <c r="C103" s="151" t="s">
-        <v>378</v>
-      </c>
-      <c r="D103" s="118" t="s">
-        <v>379</v>
       </c>
       <c r="E103" s="152" t="s">
         <v>39</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>14</v>
@@ -18637,33 +17989,27 @@
         <v>17</v>
       </c>
       <c r="I103" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J103" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K103" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C104" s="64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D104" s="119" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E104" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G104" s="16" t="s">
         <v>14</v>
@@ -18672,33 +18018,27 @@
         <v>41</v>
       </c>
       <c r="I104" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J104" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K104" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B105" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="D105" s="115" t="s">
         <v>382</v>
-      </c>
-      <c r="C105" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="D105" s="115" t="s">
-        <v>384</v>
       </c>
       <c r="E105" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G105" s="153" t="s">
         <v>14</v>
@@ -18707,33 +18047,27 @@
         <v>41</v>
       </c>
       <c r="I105" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J105" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K105" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B106" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>384</v>
+      </c>
+      <c r="D106" s="115" t="s">
         <v>385</v>
-      </c>
-      <c r="C106" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="D106" s="115" t="s">
-        <v>387</v>
       </c>
       <c r="E106" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G106" s="153" t="s">
         <v>14</v>
@@ -18742,33 +18076,27 @@
         <v>41</v>
       </c>
       <c r="I106" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J106" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K106" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B107" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D107" s="115" t="s">
         <v>388</v>
-      </c>
-      <c r="C107" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="D107" s="115" t="s">
-        <v>390</v>
       </c>
       <c r="E107" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F107" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G107" s="153" t="s">
         <v>14</v>
@@ -18777,33 +18105,27 @@
         <v>92</v>
       </c>
       <c r="I107" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J107" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K107" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B108" s="45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D108" s="115" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E108" s="142" t="s">
         <v>39</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G108" s="154" t="s">
         <v>14</v>
@@ -18812,31 +18134,25 @@
         <v>41</v>
       </c>
       <c r="I108" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J108" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K108" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B109" s="45" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C109" s="155"/>
       <c r="D109" s="108" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E109" s="156" t="s">
         <v>58</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G109" s="16" t="s">
         <v>14</v>
@@ -18845,31 +18161,25 @@
         <v>41</v>
       </c>
       <c r="I109" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J109" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K109" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B110" s="155" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C110" s="155"/>
       <c r="D110" s="108" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E110" s="156" t="s">
         <v>58</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G110" s="16" t="s">
         <v>14</v>
@@ -18878,31 +18188,25 @@
         <v>41</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J110" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K110" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B111" s="155" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C111" s="155"/>
       <c r="D111" s="60" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E111" s="157" t="s">
         <v>39</v>
       </c>
       <c r="F111" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>14</v>
@@ -18911,31 +18215,25 @@
         <v>41</v>
       </c>
       <c r="I111" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J111" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K111" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B112" s="45" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C112" s="45"/>
       <c r="D112" s="120" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E112" s="158" t="s">
         <v>39</v>
       </c>
       <c r="F112" s="16" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="G112" s="16" t="s">
         <v>14</v>
@@ -18944,66 +18242,54 @@
         <v>41</v>
       </c>
       <c r="I112" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J112" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K112" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="D113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="E113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="F113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="G113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="I113" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J113" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K113" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B114" s="130" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C114" s="22"/>
       <c r="D114" s="70" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E114" s="133" t="s">
         <v>39</v>
       </c>
       <c r="F114" s="57" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G114" s="74" t="s">
         <v>14</v>
@@ -19012,27 +18298,21 @@
         <v>41</v>
       </c>
       <c r="I114" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J114" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K114" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:9" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B115" s="55" t="s">
+        <v>402</v>
+      </c>
+      <c r="C115" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="55" t="s">
-        <v>404</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>405</v>
-      </c>
       <c r="D115" s="70" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="E115" s="133" t="s">
         <v>39</v>
@@ -19047,31 +18327,25 @@
         <v>41</v>
       </c>
       <c r="I115" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J115" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K115" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C116" s="66"/>
       <c r="D116" s="121" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E116" s="159" t="s">
         <v>39</v>
       </c>
       <c r="F116" s="78" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G116" s="76" t="s">
         <v>14</v>
@@ -19080,31 +18354,25 @@
         <v>191</v>
       </c>
       <c r="I116" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J116" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K116" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B117" s="67" t="s">
         <v>125</v>
       </c>
       <c r="C117" s="67"/>
       <c r="D117" s="122" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E117" s="157" t="s">
         <v>39</v>
       </c>
       <c r="F117" s="68" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G117" s="79" t="s">
         <v>60</v>
@@ -19113,31 +18381,25 @@
         <v>92</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J117" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K117" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B118" s="67" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C118" s="67"/>
       <c r="D118" s="123" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="E118" s="157" t="s">
         <v>39</v>
       </c>
       <c r="F118" s="79" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G118" s="160" t="s">
         <v>14</v>
@@ -19146,31 +18408,25 @@
         <v>92</v>
       </c>
       <c r="I118" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J118" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K118" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B119" s="67" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="70" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E119" s="133" t="s">
         <v>39</v>
       </c>
       <c r="F119" s="57" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G119" s="160" t="s">
         <v>14</v>
@@ -19179,18 +18435,12 @@
         <v>41</v>
       </c>
       <c r="I119" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J119" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K119" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B120" s="161" t="s">
         <v>303</v>
@@ -19199,13 +18449,13 @@
         <v>219</v>
       </c>
       <c r="D120" s="124" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E120" s="162" t="s">
         <v>39</v>
       </c>
       <c r="F120" s="80" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G120" s="163" t="s">
         <v>18</v>
@@ -19214,27 +18464,21 @@
         <v>41</v>
       </c>
       <c r="I120" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J120" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K120" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="B121" s="81" t="s">
+        <v>418</v>
+      </c>
+      <c r="C121" s="81" t="s">
         <v>419</v>
       </c>
-      <c r="B121" s="81" t="s">
+      <c r="D121" s="125" t="s">
         <v>420</v>
-      </c>
-      <c r="C121" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D121" s="125" t="s">
-        <v>422</v>
       </c>
       <c r="E121" s="138" t="s">
         <v>39</v>
@@ -19249,33 +18493,27 @@
         <v>17</v>
       </c>
       <c r="I121" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J121" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K121" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="B122" s="130" t="s">
+        <v>422</v>
+      </c>
+      <c r="C122" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B122" s="130" t="s">
+      <c r="D122" s="57" t="s">
         <v>424</v>
-      </c>
-      <c r="C122" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="D122" s="57" t="s">
-        <v>426</v>
       </c>
       <c r="E122" s="164" t="s">
         <v>39</v>
       </c>
       <c r="F122" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="G122" s="104" t="s">
         <v>14</v>
@@ -19284,33 +18522,27 @@
         <v>41</v>
       </c>
       <c r="I122" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J122" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K122" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B123" s="130" t="s">
+        <v>426</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D123" s="20" t="s">
         <v>428</v>
-      </c>
-      <c r="C123" s="22" t="s">
-        <v>429</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>430</v>
       </c>
       <c r="E123" s="164" t="s">
         <v>39</v>
       </c>
       <c r="F123" s="70" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="G123" s="104" t="s">
         <v>14</v>
@@ -19319,33 +18551,27 @@
         <v>41</v>
       </c>
       <c r="I123" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J123" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K123" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B124" s="165" t="s">
+        <v>430</v>
+      </c>
+      <c r="C124" s="43" t="s">
+        <v>431</v>
+      </c>
+      <c r="D124" s="57" t="s">
         <v>432</v>
-      </c>
-      <c r="C124" s="43" t="s">
-        <v>433</v>
-      </c>
-      <c r="D124" s="57" t="s">
-        <v>434</v>
       </c>
       <c r="E124" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F124" s="83" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G124" s="132" t="s">
         <v>14</v>
@@ -19354,33 +18580,27 @@
         <v>17</v>
       </c>
       <c r="I124" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J124" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K124" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B125" s="130" t="s">
+        <v>434</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D125" s="57" t="s">
         <v>436</v>
-      </c>
-      <c r="C125" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="D125" s="57" t="s">
-        <v>438</v>
       </c>
       <c r="E125" s="164" t="s">
         <v>39</v>
       </c>
       <c r="F125" s="15" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="G125" s="74" t="s">
         <v>14</v>
@@ -19389,33 +18609,27 @@
         <v>41</v>
       </c>
       <c r="I125" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J125" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K125" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B126" s="130" t="s">
+        <v>438</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="D126" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="C126" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="D126" s="10" t="s">
-        <v>442</v>
       </c>
       <c r="E126" s="133" t="s">
         <v>39</v>
       </c>
       <c r="F126" s="71" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G126" s="74" t="s">
         <v>18</v>
@@ -19424,31 +18638,25 @@
         <v>92</v>
       </c>
       <c r="I126" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J126" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K126" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C127" s="38"/>
       <c r="D127" s="108" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E127" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F127" s="44" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G127" s="132" t="s">
         <v>14</v>
@@ -19457,31 +18665,25 @@
         <v>17</v>
       </c>
       <c r="I127" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J127" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K127" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C128" s="22"/>
       <c r="D128" s="108" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E128" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F128" s="84" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="G128" s="26" t="s">
         <v>14</v>
@@ -19490,25 +18692,19 @@
         <v>41</v>
       </c>
       <c r="I128" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J128" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K128" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C129" s="22"/>
       <c r="D129" s="108" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E129" s="28" t="s">
         <v>58</v>
@@ -19523,25 +18719,19 @@
         <v>41</v>
       </c>
       <c r="I129" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J129" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K129" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" s="73" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:9" s="73" customFormat="1" ht="360" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B130" s="38" t="s">
         <v>109</v>
       </c>
       <c r="C130" s="22"/>
       <c r="D130" s="108" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E130" s="28" t="s">
         <v>58</v>
@@ -19556,25 +18746,19 @@
         <v>41</v>
       </c>
       <c r="I130" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J130" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K130" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B131" s="38" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C131" s="22"/>
       <c r="D131" s="59" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E131" s="133" t="s">
         <v>39</v>
@@ -19589,31 +18773,25 @@
         <v>41</v>
       </c>
       <c r="I131" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J131" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K131" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C132" s="22"/>
       <c r="D132" s="59" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E132" s="133" t="s">
         <v>39</v>
       </c>
       <c r="F132" s="59" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G132" s="132" t="s">
         <v>14</v>
@@ -19622,27 +18800,21 @@
         <v>41</v>
       </c>
       <c r="I132" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="J132" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K132" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B133" s="130" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C133" s="22" t="s">
         <v>284</v>
       </c>
       <c r="D133" s="60" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E133" s="25" t="s">
         <v>39</v>
@@ -19657,27 +18829,21 @@
         <v>17</v>
       </c>
       <c r="I133" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="J133" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K133" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B134" s="47" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C134" s="47" t="s">
         <v>236</v>
       </c>
       <c r="D134" s="47" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E134" s="47" t="s">
         <v>39</v>
@@ -19692,33 +18858,27 @@
         <v>17</v>
       </c>
       <c r="I134" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J134" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K134" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B135" s="47" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C135" s="47" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E135" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F135" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G135" s="47" t="s">
         <v>14</v>
@@ -19727,33 +18887,27 @@
         <v>17</v>
       </c>
       <c r="I135" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J135" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K135" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B136" s="47" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C136" s="47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E136" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F136" s="47" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="G136" s="47" t="s">
         <v>14</v>
@@ -19762,33 +18916,27 @@
         <v>17</v>
       </c>
       <c r="I136" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J136" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K136" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B137" s="85" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C137" s="85" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="D137" s="85" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E137" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F137" s="85" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G137" s="85" t="s">
         <v>14</v>
@@ -19797,33 +18945,27 @@
         <v>17</v>
       </c>
       <c r="I137" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J137" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K137" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B138" s="85" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="C138" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D138" s="85" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E138" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F138" s="85" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G138" s="85" t="s">
         <v>14</v>
@@ -19832,33 +18974,27 @@
         <v>17</v>
       </c>
       <c r="I138" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J138" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K138" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B139" s="85" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C139" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D139" s="85" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E139" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F139" s="85" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G139" s="85" t="s">
         <v>14</v>
@@ -19867,27 +19003,21 @@
         <v>17</v>
       </c>
       <c r="I139" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J139" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K139" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" s="73" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:9" s="73" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B140" s="85" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C140" s="85" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D140" s="85" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E140" s="85" t="s">
         <v>39</v>
@@ -19902,33 +19032,27 @@
         <v>17</v>
       </c>
       <c r="I140" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J140" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K140" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B141" s="85" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C141" s="85">
         <v>0</v>
       </c>
       <c r="D141" s="85" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E141" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F141" s="85" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="G141" s="85" t="s">
         <v>14</v>
@@ -19937,27 +19061,21 @@
         <v>17</v>
       </c>
       <c r="I141" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J141" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K141" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B142" s="85" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C142" s="85" t="s">
         <v>219</v>
       </c>
       <c r="D142" s="85" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E142" s="85" t="s">
         <v>39</v>
@@ -19972,27 +19090,21 @@
         <v>17</v>
       </c>
       <c r="I142" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J142" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K142" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B143" s="85" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C143" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D143" s="85" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E143" s="85" t="s">
         <v>39</v>
@@ -20007,27 +19119,21 @@
         <v>17</v>
       </c>
       <c r="I143" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J143" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K143" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B144" s="85" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C144" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D144" s="85" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E144" s="85" t="s">
         <v>39</v>
@@ -20042,27 +19148,21 @@
         <v>17</v>
       </c>
       <c r="I144" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J144" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K144" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B145" s="85" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C145" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D145" s="85" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E145" s="85" t="s">
         <v>39</v>
@@ -20077,27 +19177,21 @@
         <v>17</v>
       </c>
       <c r="I145" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J145" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K145" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B146" s="85" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C146" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D146" s="85" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E146" s="85" t="s">
         <v>39</v>
@@ -20112,27 +19206,21 @@
         <v>17</v>
       </c>
       <c r="I146" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J146" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K146" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B147" s="85" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C147" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D147" s="85" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E147" s="85" t="s">
         <v>39</v>
@@ -20147,27 +19235,21 @@
         <v>17</v>
       </c>
       <c r="I147" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J147" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K147" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B148" s="85" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C148" s="85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D148" s="85" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E148" s="85" t="s">
         <v>39</v>
@@ -20182,27 +19264,21 @@
         <v>17</v>
       </c>
       <c r="I148" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J148" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K148" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B149" s="85" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="C149" s="85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D149" s="85" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E149" s="85" t="s">
         <v>39</v>
@@ -20217,33 +19293,27 @@
         <v>17</v>
       </c>
       <c r="I149" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J149" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K149" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B150" s="85" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C150" s="85" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D150" s="85" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E150" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G150" s="85" t="s">
         <v>14</v>
@@ -20252,33 +19322,27 @@
         <v>17</v>
       </c>
       <c r="I150" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J150" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K150" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B151" s="85" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C151" s="85" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D151" s="85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E151" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F151" s="85" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G151" s="85" t="s">
         <v>14</v>
@@ -20287,33 +19351,27 @@
         <v>17</v>
       </c>
       <c r="I151" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J151" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K151" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B152" s="85" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C152" s="85" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D152" s="85" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E152" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F152" s="85" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="G152" s="85" t="s">
         <v>60</v>
@@ -20322,33 +19380,27 @@
         <v>17</v>
       </c>
       <c r="I152" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J152" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K152" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B153" s="85" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C153" s="85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D153" s="85" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E153" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F153" s="85" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G153" s="85" t="s">
         <v>60</v>
@@ -20357,33 +19409,27 @@
         <v>17</v>
       </c>
       <c r="I153" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J153" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K153" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B154" s="85" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C154" s="85" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D154" s="85" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E154" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F154" s="85" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="G154" s="85" t="s">
         <v>60</v>
@@ -20392,33 +19438,27 @@
         <v>17</v>
       </c>
       <c r="I154" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J154" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K154" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B155" s="85" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C155" s="85" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="D155" s="85" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E155" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F155" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G155" s="85" t="s">
         <v>14</v>
@@ -20427,33 +19467,27 @@
         <v>17</v>
       </c>
       <c r="I155" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J155" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K155" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B156" s="85" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C156" s="85" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D156" s="85" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E156" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F156" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G156" s="85" t="s">
         <v>14</v>
@@ -20462,33 +19496,27 @@
         <v>17</v>
       </c>
       <c r="I156" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J156" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K156" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B157" s="85" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C157" s="85" t="s">
+        <v>519</v>
+      </c>
+      <c r="D157" s="85" t="s">
         <v>522</v>
-      </c>
-      <c r="D157" s="85" t="s">
-        <v>525</v>
       </c>
       <c r="E157" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F157" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G157" s="85" t="s">
         <v>14</v>
@@ -20497,33 +19525,27 @@
         <v>17</v>
       </c>
       <c r="I157" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J157" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K157" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B158" s="85" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="C158" s="85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D158" s="85" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E158" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G158" s="85" t="s">
         <v>14</v>
@@ -20532,33 +19554,27 @@
         <v>17</v>
       </c>
       <c r="I158" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J158" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K158" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B159" s="85" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C159" s="85" t="s">
+        <v>524</v>
+      </c>
+      <c r="D159" s="85" t="s">
         <v>527</v>
-      </c>
-      <c r="D159" s="85" t="s">
-        <v>530</v>
       </c>
       <c r="E159" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F159" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G159" s="85" t="s">
         <v>14</v>
@@ -20567,33 +19583,27 @@
         <v>17</v>
       </c>
       <c r="I159" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J159" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K159" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B160" s="85" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C160" s="85" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D160" s="85" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E160" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F160" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G160" s="85" t="s">
         <v>14</v>
@@ -20602,33 +19612,27 @@
         <v>17</v>
       </c>
       <c r="I160" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J160" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K160" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B161" s="85" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C161" s="85" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D161" s="85" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E161" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F161" s="85" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="G161" s="85" t="s">
         <v>60</v>
@@ -20637,27 +19641,21 @@
         <v>17</v>
       </c>
       <c r="I161" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J161" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K161" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="162" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B162" s="85" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="C162" s="85" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="D162" s="85" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E162" s="85" t="s">
         <v>39</v>
@@ -20672,33 +19670,27 @@
         <v>17</v>
       </c>
       <c r="I162" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J162" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K162" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="163" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B163" s="85" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C163" s="85" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D163" s="85" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E163" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F163" s="85" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G163" s="85" t="s">
         <v>14</v>
@@ -20707,33 +19699,27 @@
         <v>17</v>
       </c>
       <c r="I163" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J163" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K163" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="164" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B164" s="85" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C164" s="85" t="s">
         <v>254</v>
       </c>
       <c r="D164" s="85" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E164" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F164" s="85" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G164" s="85" t="s">
         <v>14</v>
@@ -20742,33 +19728,27 @@
         <v>17</v>
       </c>
       <c r="I164" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J164" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K164" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B165" s="85" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C165" s="85" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D165" s="85" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E165" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F165" s="85" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G165" s="85" t="s">
         <v>14</v>
@@ -20777,27 +19757,21 @@
         <v>17</v>
       </c>
       <c r="I165" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J165" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K165" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B166" s="85" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C166" s="85">
         <v>0</v>
       </c>
       <c r="D166" s="85" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E166" s="85" t="s">
         <v>58</v>
@@ -20812,33 +19786,27 @@
         <v>17</v>
       </c>
       <c r="I166" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J166" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K166" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B167" s="85" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C167" s="85">
         <v>0</v>
       </c>
       <c r="D167" s="85" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E167" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F167" s="85" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="G167" s="85" t="s">
         <v>60</v>
@@ -20847,33 +19815,27 @@
         <v>17</v>
       </c>
       <c r="I167" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J167" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K167" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B168" s="85" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C168" s="85">
         <v>0</v>
       </c>
       <c r="D168" s="85" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E168" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F168" s="85" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="G168" s="85" t="s">
         <v>60</v>
@@ -20882,27 +19844,21 @@
         <v>17</v>
       </c>
       <c r="I168" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J168" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K168" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B169" s="85" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C169" s="85">
         <v>0</v>
       </c>
       <c r="D169" s="85" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E169" s="85" t="s">
         <v>58</v>
@@ -20917,33 +19873,27 @@
         <v>17</v>
       </c>
       <c r="I169" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J169" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K169" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B170" s="85" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C170" s="85">
         <v>0</v>
       </c>
       <c r="D170" s="85" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E170" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F170" s="85" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G170" s="85" t="s">
         <v>60</v>
@@ -20952,33 +19902,27 @@
         <v>17</v>
       </c>
       <c r="I170" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J170" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K170" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B171" s="85" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="C171" s="85">
         <v>0</v>
       </c>
       <c r="D171" s="85" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E171" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F171" s="85" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="G171" s="85" t="s">
         <v>60</v>
@@ -20987,33 +19931,27 @@
         <v>17</v>
       </c>
       <c r="I171" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J171" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K171" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B172" s="85" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C172" s="85">
         <v>0</v>
       </c>
       <c r="D172" s="85" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E172" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F172" s="85" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="G172" s="85" t="s">
         <v>60</v>
@@ -21022,33 +19960,27 @@
         <v>17</v>
       </c>
       <c r="I172" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J172" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K172" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B173" s="85" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C173" s="85">
         <v>0</v>
       </c>
       <c r="D173" s="85" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E173" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F173" s="85" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G173" s="85" t="s">
         <v>60</v>
@@ -21057,33 +19989,27 @@
         <v>17</v>
       </c>
       <c r="I173" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J173" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K173" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B174" s="85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C174" s="85">
         <v>0</v>
       </c>
       <c r="D174" s="85" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E174" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F174" s="85" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G174" s="85" t="s">
         <v>60</v>
@@ -21092,33 +20018,27 @@
         <v>17</v>
       </c>
       <c r="I174" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J174" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K174" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B175" s="85" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C175" s="85">
         <v>0</v>
       </c>
       <c r="D175" s="85" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E175" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F175" s="85" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="G175" s="85" t="s">
         <v>60</v>
@@ -21127,18 +20047,12 @@
         <v>17</v>
       </c>
       <c r="I175" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J175" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K175" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B176" s="85" t="s">
         <v>89</v>
@@ -21147,13 +20061,13 @@
         <v>0</v>
       </c>
       <c r="D176" s="85" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E176" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F176" s="85" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="G176" s="85" t="s">
         <v>60</v>
@@ -21162,33 +20076,27 @@
         <v>17</v>
       </c>
       <c r="I176" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J176" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K176" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B177" s="85" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C177" s="85">
         <v>0</v>
       </c>
       <c r="D177" s="85" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E177" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F177" s="85" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="G177" s="85" t="s">
         <v>60</v>
@@ -21197,33 +20105,27 @@
         <v>17</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>580</v>
-      </c>
-      <c r="J177" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K177" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B178" s="85" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C178" s="85">
         <v>0</v>
       </c>
       <c r="D178" s="85" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E178" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F178" s="85" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="G178" s="85" t="s">
         <v>60</v>
@@ -21232,33 +20134,27 @@
         <v>17</v>
       </c>
       <c r="I178" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+      <c r="A179" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B179" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="C179" s="86" t="s">
+        <v>579</v>
+      </c>
+      <c r="D179" s="60" t="s">
         <v>580</v>
-      </c>
-      <c r="J178" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K178" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
-      <c r="A179" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="B179" s="29" t="s">
-        <v>582</v>
-      </c>
-      <c r="C179" s="86" t="s">
-        <v>583</v>
-      </c>
-      <c r="D179" s="60" t="s">
-        <v>584</v>
       </c>
       <c r="E179" s="166" t="s">
         <v>39</v>
       </c>
       <c r="F179" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G179" s="26" t="s">
         <v>14</v>
@@ -21267,33 +20163,27 @@
         <v>17</v>
       </c>
       <c r="I179" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J179" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K179" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B180" s="29" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="C180" s="86" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D180" s="60" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="E180" s="166" t="s">
         <v>39</v>
       </c>
       <c r="F180" s="13" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G180" s="26" t="s">
         <v>14</v>
@@ -21302,33 +20192,27 @@
         <v>17</v>
       </c>
       <c r="I180" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J180" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K180" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C181" s="87" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D181" s="107" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="E181" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F181" s="13" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G181" s="132" t="s">
         <v>14</v>
@@ -21337,33 +20221,27 @@
         <v>41</v>
       </c>
       <c r="I181" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A182" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B182" s="130" t="s">
         <v>590</v>
       </c>
-      <c r="J181" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K181" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
-      <c r="A182" s="16" t="s">
-        <v>589</v>
-      </c>
-      <c r="B182" s="130" t="s">
-        <v>595</v>
-      </c>
       <c r="C182" s="29" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="D182" s="93" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="E182" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F182" s="11" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G182" s="26" t="s">
         <v>14</v>
@@ -21372,33 +20250,27 @@
         <v>92</v>
       </c>
       <c r="I182" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J182" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K182" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B183" s="130" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="E183" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F183" s="88" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G183" s="26" t="s">
         <v>14</v>
@@ -21407,33 +20279,27 @@
         <v>41</v>
       </c>
       <c r="I183" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J183" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K183" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="184" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B184" s="131" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D184" s="93" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E184" s="107" t="s">
         <v>39</v>
       </c>
       <c r="F184" s="11" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="G184" s="26" t="s">
         <v>14</v>
@@ -21442,33 +20308,27 @@
         <v>41</v>
       </c>
       <c r="I184" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J184" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K184" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B185" s="131" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="E185" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F185" s="88" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="G185" s="26" t="s">
         <v>14</v>
@@ -21477,31 +20337,25 @@
         <v>41</v>
       </c>
       <c r="I185" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J185" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K185" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B186" s="89" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C186" s="89"/>
       <c r="D186" s="126" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E186" s="140" t="s">
         <v>39</v>
       </c>
       <c r="F186" s="126" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="G186" s="132" t="s">
         <v>60</v>
@@ -21510,31 +20364,25 @@
         <v>41</v>
       </c>
       <c r="I186" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J186" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K186" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B187" s="90" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C187" s="90"/>
       <c r="D187" s="126" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E187" s="167" t="s">
         <v>39</v>
       </c>
       <c r="F187" s="91" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="G187" s="26" t="s">
         <v>14</v>
@@ -21543,33 +20391,27 @@
         <v>41</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J187" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K187" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B188" s="130" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D188" s="70" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E188" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F188" s="70" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="G188" s="26" t="s">
         <v>18</v>
@@ -21578,33 +20420,27 @@
         <v>17</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J188" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K188" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="189" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B189" s="92" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C189" s="92" t="s">
         <v>136</v>
       </c>
       <c r="D189" s="116" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="E189" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F189" s="13" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G189" s="131" t="s">
         <v>60</v>
@@ -21613,33 +20449,27 @@
         <v>17</v>
       </c>
       <c r="I189" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J189" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K189" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="190" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B190" s="92" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C190" s="22" t="s">
         <v>136</v>
       </c>
       <c r="D190" s="107" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="E190" s="145" t="s">
         <v>39</v>
       </c>
       <c r="F190" s="13" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G190" s="131" t="s">
         <v>14</v>
@@ -21648,27 +20478,21 @@
         <v>191</v>
       </c>
       <c r="I190" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J190" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K190" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="191" spans="1:11" s="73" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:9" s="73" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B191" s="29" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C191" s="86" t="s">
         <v>219</v>
       </c>
       <c r="D191" s="71" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="E191" s="166" t="s">
         <v>39</v>
@@ -21683,33 +20507,27 @@
         <v>191</v>
       </c>
       <c r="I191" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J191" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K191" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B192" s="131" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C192" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D192" s="60" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="E192" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F192" s="60" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G192" s="168" t="s">
         <v>14</v>
@@ -21718,33 +20536,27 @@
         <v>17</v>
       </c>
       <c r="I192" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J192" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K192" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B193" s="131" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C193" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D193" s="60" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="E193" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F193" s="60" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="G193" s="168" t="s">
         <v>14</v>
@@ -21753,33 +20565,27 @@
         <v>17</v>
       </c>
       <c r="I193" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J193" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K193" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="194" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B194" s="131" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C194" s="29" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D194" s="60" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="E194" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F194" s="60" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G194" s="168" t="s">
         <v>14</v>
@@ -21788,33 +20594,27 @@
         <v>17</v>
       </c>
       <c r="I194" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J194" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K194" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B195" s="131" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C195" s="29" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="D195" s="60" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="E195" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F195" s="60" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G195" s="26" t="s">
         <v>18</v>
@@ -21823,33 +20623,27 @@
         <v>17</v>
       </c>
       <c r="I195" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J195" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K195" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B196" s="130" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C196" s="22" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="D196" s="93" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="E196" s="28" t="s">
         <v>39</v>
       </c>
       <c r="F196" s="11" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="G196" s="26" t="s">
         <v>18</v>
@@ -21858,33 +20652,27 @@
         <v>17</v>
       </c>
       <c r="I196" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J196" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K196" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" s="73" customFormat="1" ht="194.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:9" s="73" customFormat="1" ht="194.25" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B197" s="131" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C197" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D197" s="93" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="E197" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F197" s="13" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="G197" s="26" t="s">
         <v>14</v>
@@ -21893,33 +20681,27 @@
         <v>17</v>
       </c>
       <c r="I197" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J197" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K197" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B198" s="130" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C198" s="22" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D198" s="93" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="E198" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F198" s="13" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G198" s="26" t="s">
         <v>14</v>
@@ -21928,33 +20710,27 @@
         <v>17</v>
       </c>
       <c r="I198" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J198" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K198" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B199" s="130" t="s">
         <v>53</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="D199" s="93" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="E199" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F199" s="13" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G199" s="26" t="s">
         <v>14</v>
@@ -21963,33 +20739,27 @@
         <v>17</v>
       </c>
       <c r="I199" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J199" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K199" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B200" s="132" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C200" s="22" t="s">
         <v>254</v>
       </c>
       <c r="D200" s="93" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="E200" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F200" s="11" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G200" s="26" t="s">
         <v>14</v>
@@ -21998,27 +20768,21 @@
         <v>92</v>
       </c>
       <c r="I200" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J200" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K200" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C201" s="29" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="D201" s="93" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E201" s="25" t="s">
         <v>39</v>
@@ -22033,33 +20797,27 @@
         <v>17</v>
       </c>
       <c r="I201" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J201" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K201" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="202" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B202" s="130" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D202" s="107" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="E202" s="145" t="s">
         <v>39</v>
       </c>
       <c r="F202" s="93" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="G202" s="107" t="s">
         <v>14</v>
@@ -22068,31 +20826,25 @@
         <v>191</v>
       </c>
       <c r="I202" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J202" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K202" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="203" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B203" s="94" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="C203" s="94"/>
       <c r="D203" s="68" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="E203" s="169" t="s">
         <v>39</v>
       </c>
       <c r="F203" s="68" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="G203" s="123" t="s">
         <v>14</v>
@@ -22101,31 +20853,25 @@
         <v>191</v>
       </c>
       <c r="I203" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J203" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K203" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B204" s="94" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C204" s="94"/>
       <c r="D204" s="68" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="E204" s="169" t="s">
         <v>39</v>
       </c>
       <c r="F204" s="68" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G204" s="123" t="s">
         <v>14</v>
@@ -22134,31 +20880,25 @@
         <v>191</v>
       </c>
       <c r="I204" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J204" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K204" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B205" s="94" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C205" s="94"/>
       <c r="D205" s="68" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="E205" s="170" t="s">
         <v>39</v>
       </c>
       <c r="F205" s="68" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G205" s="123" t="s">
         <v>14</v>
@@ -22167,31 +20907,25 @@
         <v>191</v>
       </c>
       <c r="I205" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J205" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K205" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B206" s="94" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C206" s="94"/>
       <c r="D206" s="68" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E206" s="170" t="s">
         <v>39</v>
       </c>
       <c r="F206" s="68" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G206" s="123" t="s">
         <v>14</v>
@@ -22200,31 +20934,25 @@
         <v>191</v>
       </c>
       <c r="I206" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J206" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K206" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="207" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B207" s="94" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C207" s="94"/>
       <c r="D207" s="68" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="E207" s="170" t="s">
         <v>58</v>
       </c>
       <c r="F207" s="95" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="G207" s="171" t="s">
         <v>14</v>
@@ -22233,33 +20961,27 @@
         <v>191</v>
       </c>
       <c r="I207" s="16" t="s">
-        <v>590</v>
-      </c>
-      <c r="J207" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K207" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="208" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B208" s="47" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C208" s="47" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="D208" s="47" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="E208" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F208" s="47" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="G208" s="47" t="s">
         <v>14</v>
@@ -22268,33 +20990,27 @@
         <v>17</v>
       </c>
       <c r="I208" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J208" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K208" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="209" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B209" s="47" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C209" s="47" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="D209" s="47" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="E209" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F209" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G209" s="47" t="s">
         <v>14</v>
@@ -22303,33 +21019,27 @@
         <v>17</v>
       </c>
       <c r="I209" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J209" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K209" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="210" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B210" s="47" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C210" s="47" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D210" s="47" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="E210" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F210" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G210" s="47" t="s">
         <v>14</v>
@@ -22338,33 +21048,27 @@
         <v>17</v>
       </c>
       <c r="I210" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J210" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K210" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B211" s="47" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C211" s="47" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="D211" s="47" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="E211" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F211" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G211" s="47" t="s">
         <v>14</v>
@@ -22373,33 +21077,27 @@
         <v>17</v>
       </c>
       <c r="I211" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J211" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K211" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="212" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B212" s="47" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C212" s="47" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D212" s="47" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="E212" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F212" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G212" s="47" t="s">
         <v>14</v>
@@ -22408,33 +21106,27 @@
         <v>17</v>
       </c>
       <c r="I212" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J212" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K212" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="213" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B213" s="47" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C213" s="47" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="D213" s="47" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="E213" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F213" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G213" s="47" t="s">
         <v>14</v>
@@ -22443,33 +21135,27 @@
         <v>17</v>
       </c>
       <c r="I213" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J213" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K213" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="214" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B214" s="47" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C214" s="47" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="D214" s="47" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="E214" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F214" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G214" s="47" t="s">
         <v>14</v>
@@ -22478,33 +21164,27 @@
         <v>17</v>
       </c>
       <c r="I214" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J214" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K214" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="215" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B215" s="47" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C215" s="47" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="D215" s="47" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="E215" s="47" t="s">
         <v>58</v>
       </c>
       <c r="F215" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G215" s="47" t="s">
         <v>14</v>
@@ -22513,33 +21193,27 @@
         <v>17</v>
       </c>
       <c r="I215" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J215" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K215" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="216" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B216" s="47" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C216" s="47" t="s">
         <v>284</v>
       </c>
       <c r="D216" s="47" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E216" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F216" s="47" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="G216" s="47" t="s">
         <v>14</v>
@@ -22548,27 +21222,21 @@
         <v>17</v>
       </c>
       <c r="I216" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J216" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K216" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="217" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B217" s="72" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C217" s="72" t="s">
         <v>219</v>
       </c>
       <c r="D217" s="72" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="E217" s="72" t="s">
         <v>39</v>
@@ -22583,27 +21251,21 @@
         <v>17</v>
       </c>
       <c r="I217" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J217" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K217" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="218" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B218" s="72" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C218" s="72" t="s">
         <v>219</v>
       </c>
       <c r="D218" s="72" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="E218" s="72" t="s">
         <v>39</v>
@@ -22618,33 +21280,27 @@
         <v>17</v>
       </c>
       <c r="I218" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J218" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K218" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="219" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B219" s="72" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C219" s="72" t="s">
         <v>219</v>
       </c>
       <c r="D219" s="72" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="E219" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F219" s="72" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="G219" s="72" t="s">
         <v>14</v>
@@ -22653,33 +21309,27 @@
         <v>17</v>
       </c>
       <c r="I219" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J219" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K219" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="220" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B220" s="72" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C220" s="72" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="D220" s="72" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E220" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F220" s="72" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G220" s="72" t="s">
         <v>14</v>
@@ -22688,33 +21338,27 @@
         <v>17</v>
       </c>
       <c r="I220" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J220" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K220" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="221" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B221" s="72" t="s">
         <v>271</v>
       </c>
       <c r="C221" s="72" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D221" s="72" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="E221" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F221" s="72" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G221" s="72" t="s">
         <v>14</v>
@@ -22723,33 +21367,27 @@
         <v>17</v>
       </c>
       <c r="I221" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J221" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K221" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="222" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B222" s="72" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C222" s="72" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="D222" s="72" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="E222" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F222" s="72" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G222" s="72" t="s">
         <v>14</v>
@@ -22758,27 +21396,21 @@
         <v>17</v>
       </c>
       <c r="I222" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J222" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K222" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="223" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B223" s="72" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C223" s="72" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="D223" s="72" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="E223" s="72" t="s">
         <v>58</v>
@@ -22793,33 +21425,27 @@
         <v>17</v>
       </c>
       <c r="I223" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J223" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K223" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="224" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B224" s="72" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C224" s="72" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="D224" s="72" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="E224" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F224" s="72" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G224" s="72" t="s">
         <v>14</v>
@@ -22828,33 +21454,27 @@
         <v>17</v>
       </c>
       <c r="I224" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J224" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K224" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="225" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B225" s="72" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C225" s="72" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="D225" s="72" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="E225" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F225" s="72" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="G225" s="72" t="s">
         <v>14</v>
@@ -22863,33 +21483,27 @@
         <v>17</v>
       </c>
       <c r="I225" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J225" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K225" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="226" spans="1:11" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B226" s="72" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="C226" s="72" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="D226" s="72" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="E226" s="72" t="s">
         <v>58</v>
       </c>
       <c r="F226" s="72" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="G226" s="72" t="s">
         <v>14</v>
@@ -22898,33 +21512,27 @@
         <v>17</v>
       </c>
       <c r="I226" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J226" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K226" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="227" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B227" s="72" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C227" s="72">
         <v>0</v>
       </c>
       <c r="D227" s="72" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="E227" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F227" s="72" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="G227" s="72" t="s">
         <v>60</v>
@@ -22933,18 +21541,12 @@
         <v>17</v>
       </c>
       <c r="I227" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J227" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K227" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="228" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B228" s="72" t="s">
         <v>148</v>
@@ -22953,13 +21555,13 @@
         <v>0</v>
       </c>
       <c r="D228" s="72" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="E228" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F228" s="72" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G228" s="72" t="s">
         <v>60</v>
@@ -22968,33 +21570,27 @@
         <v>17</v>
       </c>
       <c r="I228" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J228" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K228" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    </row>
+    <row r="229" spans="1:9" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B229" s="72" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="C229" s="72">
         <v>0</v>
       </c>
       <c r="D229" s="72" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E229" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F229" s="72" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G229" s="72" t="s">
         <v>60</v>
@@ -23003,33 +21599,27 @@
         <v>17</v>
       </c>
       <c r="I229" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J229" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K229" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="230" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B230" s="72" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="C230" s="72">
         <v>0</v>
       </c>
       <c r="D230" s="72" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="E230" s="72" t="s">
         <v>39</v>
       </c>
       <c r="F230" s="72" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G230" s="72" t="s">
         <v>60</v>
@@ -23038,33 +21628,27 @@
         <v>17</v>
       </c>
       <c r="I230" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="J230" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="K230" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="231" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B231" s="47" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="C231" s="47" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="D231" s="47" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E231" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F231" s="47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G231" s="47" t="s">
         <v>18</v>
@@ -23073,33 +21657,27 @@
         <v>17</v>
       </c>
       <c r="I231" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J231" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K231" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="232" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B232" s="47" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="C232" s="47" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D232" s="47" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="E232" s="47" t="s">
         <v>39</v>
       </c>
       <c r="F232" s="47" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="G232" s="47" t="s">
         <v>14</v>
@@ -23108,33 +21686,27 @@
         <v>92</v>
       </c>
       <c r="I232" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J232" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K232" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="233" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B233" s="85" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="C233" s="85" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D233" s="85" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="E233" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F233" s="85" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G233" s="85" t="s">
         <v>18</v>
@@ -23143,27 +21715,21 @@
         <v>17</v>
       </c>
       <c r="I233" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J233" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K233" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="234" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B234" s="85" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="C234" s="85" t="s">
         <v>221</v>
       </c>
       <c r="D234" s="85" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="E234" s="85" t="s">
         <v>39</v>
@@ -23178,27 +21744,21 @@
         <v>92</v>
       </c>
       <c r="I234" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J234" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K234" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="235" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B235" s="85" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C235" s="85" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D235" s="85" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="E235" s="85" t="s">
         <v>39</v>
@@ -23213,33 +21773,27 @@
         <v>17</v>
       </c>
       <c r="I235" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J235" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K235" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="236" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B236" s="85" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="C236" s="85" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="D236" s="85" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="E236" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F236" s="85" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G236" s="85" t="s">
         <v>14</v>
@@ -23248,27 +21802,21 @@
         <v>92</v>
       </c>
       <c r="I236" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J236" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K236" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="237" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="237" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B237" s="85" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="C237" s="85" t="s">
         <v>284</v>
       </c>
       <c r="D237" s="85" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E237" s="85" t="s">
         <v>39</v>
@@ -23283,33 +21831,27 @@
         <v>17</v>
       </c>
       <c r="I237" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J237" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K237" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="238" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B238" s="85" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="C238" s="85" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="D238" s="85" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="E238" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F238" s="85" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="G238" s="85" t="s">
         <v>14</v>
@@ -23318,18 +21860,12 @@
         <v>92</v>
       </c>
       <c r="I238" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J238" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K238" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="239" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B239" s="85" t="s">
         <v>192</v>
@@ -23338,7 +21874,7 @@
         <v>54</v>
       </c>
       <c r="D239" s="85" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="E239" s="85" t="s">
         <v>39</v>
@@ -23350,36 +21886,30 @@
         <v>14</v>
       </c>
       <c r="H239" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I239" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J239" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K239" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="240" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B240" s="85" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="C240" s="85" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="D240" s="85" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="E240" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F240" s="85" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="G240" s="85" t="s">
         <v>14</v>
@@ -23388,33 +21918,27 @@
         <v>17</v>
       </c>
       <c r="I240" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J240" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K240" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="241" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B241" s="85" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="C241" s="85" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="D241" s="85" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="E241" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F241" s="85" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="G241" s="85" t="s">
         <v>14</v>
@@ -23423,33 +21947,27 @@
         <v>17</v>
       </c>
       <c r="I241" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J241" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K241" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" s="73" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:9" s="73" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B242" s="85" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="C242" s="85" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="D242" s="85" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="E242" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F242" s="85" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="G242" s="85" t="s">
         <v>14</v>
@@ -23458,27 +21976,21 @@
         <v>92</v>
       </c>
       <c r="I242" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J242" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K242" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="243" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B243" s="85" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="C243" s="85" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="D243" s="85" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="E243" s="85" t="s">
         <v>39</v>
@@ -23490,36 +22002,30 @@
         <v>14</v>
       </c>
       <c r="H243" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I243" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J243" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K243" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B244" s="85" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="C244" s="85">
         <v>0</v>
       </c>
       <c r="D244" s="85" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="E244" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F244" s="85" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="G244" s="85" t="s">
         <v>60</v>
@@ -23528,33 +22034,27 @@
         <v>92</v>
       </c>
       <c r="I244" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J244" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K244" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    </row>
+    <row r="245" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B245" s="85" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C245" s="85">
         <v>0</v>
       </c>
       <c r="D245" s="85" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="E245" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F245" s="85" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="G245" s="85" t="s">
         <v>60</v>
@@ -23563,103 +22063,85 @@
         <v>17</v>
       </c>
       <c r="I245" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J245" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K245" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="246" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B246" s="85" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="C246" s="85">
         <v>0</v>
       </c>
       <c r="D246" s="85" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="E246" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F246" s="85" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="G246" s="85" t="s">
         <v>60</v>
       </c>
       <c r="H246" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I246" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J246" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K246" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    </row>
+    <row r="247" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B247" s="85" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="C247" s="85">
         <v>0</v>
       </c>
       <c r="D247" s="85" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="E247" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F247" s="85" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="G247" s="85" t="s">
         <v>60</v>
       </c>
       <c r="H247" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I247" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J247" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K247" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="248" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B248" s="85" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="C248" s="85">
         <v>0</v>
       </c>
       <c r="D248" s="85" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="E248" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F248" s="85" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="G248" s="85" t="s">
         <v>60</v>
@@ -23668,33 +22150,27 @@
         <v>92</v>
       </c>
       <c r="I248" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J248" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K248" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="249" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B249" s="85" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="C249" s="85">
         <v>0</v>
       </c>
       <c r="D249" s="85" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="E249" s="85" t="s">
         <v>39</v>
       </c>
       <c r="F249" s="85" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="G249" s="85" t="s">
         <v>60</v>
@@ -23703,33 +22179,27 @@
         <v>92</v>
       </c>
       <c r="I249" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J249" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K249" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="250" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B250" s="85" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="C250" s="85">
         <v>0</v>
       </c>
       <c r="D250" s="85" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="E250" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F250" s="85" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G250" s="85" t="s">
         <v>60</v>
@@ -23738,18 +22208,12 @@
         <v>92</v>
       </c>
       <c r="I250" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J250" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K250" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="251" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B251" s="85" t="s">
         <v>106</v>
@@ -23758,13 +22222,13 @@
         <v>0</v>
       </c>
       <c r="D251" s="85" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="E251" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F251" s="85" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="G251" s="85" t="s">
         <v>60</v>
@@ -23773,18 +22237,12 @@
         <v>92</v>
       </c>
       <c r="I251" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J251" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K251" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="252" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B252" s="85" t="s">
         <v>127</v>
@@ -23793,13 +22251,13 @@
         <v>0</v>
       </c>
       <c r="D252" s="85" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="E252" s="85" t="s">
         <v>58</v>
       </c>
       <c r="F252" s="85" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="G252" s="85" t="s">
         <v>60</v>
@@ -23808,101 +22266,83 @@
         <v>17</v>
       </c>
       <c r="I252" s="16" t="s">
-        <v>797</v>
-      </c>
-      <c r="J252" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K252" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="253" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B253" s="64" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="C253" s="64" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="E253" s="166" t="s">
         <v>39</v>
       </c>
       <c r="F253" s="13" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="G253" s="132" t="s">
         <v>14</v>
       </c>
       <c r="H253" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I253" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="J253" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K253" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    </row>
+    <row r="254" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B254" s="55" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="C254" s="96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D254" s="60" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="E254" s="137" t="s">
         <v>39</v>
       </c>
       <c r="F254" s="10" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="G254" s="132" t="s">
         <v>14</v>
       </c>
       <c r="H254" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I254" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="J254" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K254" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="255" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B255" s="97" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="C255" s="97"/>
       <c r="D255" s="127" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="E255" s="170" t="s">
         <v>58</v>
       </c>
       <c r="F255" s="71" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="G255" s="132" t="s">
         <v>14</v>
@@ -23911,25 +22351,19 @@
         <v>17</v>
       </c>
       <c r="I255" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A256" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B256" s="97" t="s">
         <v>803</v>
-      </c>
-      <c r="J255" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="K255" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A256" s="16" t="s">
-        <v>804</v>
-      </c>
-      <c r="B256" s="97" t="s">
-        <v>811</v>
       </c>
       <c r="C256" s="97"/>
       <c r="D256" s="128" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="E256" s="172" t="s">
         <v>39</v>
@@ -23941,28 +22375,22 @@
         <v>60</v>
       </c>
       <c r="H256" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I256" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="J256" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K256" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="257" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
+        <v>796</v>
+      </c>
+      <c r="B257" s="97" t="s">
         <v>804</v>
-      </c>
-      <c r="B257" s="97" t="s">
-        <v>812</v>
       </c>
       <c r="C257" s="97"/>
       <c r="D257" s="98" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="E257" s="25" t="s">
         <v>39</v>
@@ -23977,51 +22405,39 @@
         <v>17</v>
       </c>
       <c r="I257" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="J257" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K257" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" s="73" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:9" s="73" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B258" s="97" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="C258" s="97"/>
       <c r="D258" s="129" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="E258" s="25" t="s">
         <v>39</v>
       </c>
       <c r="F258" s="71" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="G258" s="132" t="s">
         <v>60</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="I258" s="16" t="s">
-        <v>803</v>
-      </c>
-      <c r="J258" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="K258" s="73" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="259" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:K258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
+  <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G68">
     <cfRule type="containsText" dxfId="1317" priority="1383" operator="containsText" text="0">
@@ -29436,12 +27852,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -29451,7 +27867,7 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -29508,12 +27924,12 @@
         <v>19</v>
       </c>
       <c r="C1" s="179" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B2" s="173" t="s">
         <v>17</v>
@@ -29524,7 +27940,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3" s="173" t="s">
         <v>17</v>
@@ -29555,7 +27971,7 @@
         <v>44307</v>
       </c>
       <c r="E5" s="73" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -29582,7 +27998,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B8" s="173" t="s">
         <v>17</v>
@@ -29604,7 +28020,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B10" s="173" t="s">
         <v>17</v>
@@ -29626,7 +28042,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B12" s="173" t="s">
         <v>17</v>
@@ -29637,7 +28053,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B13" s="173" t="s">
         <v>17</v>
@@ -29648,7 +28064,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B14" s="173" t="s">
         <v>17</v>
@@ -29692,7 +28108,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B18" s="173" t="s">
         <v>17</v>
@@ -29703,7 +28119,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B19" s="173" t="s">
         <v>17</v>
@@ -29714,7 +28130,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B20" s="173" t="s">
         <v>17</v>
@@ -29725,7 +28141,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B21" s="173" t="s">
         <v>17</v>
@@ -29769,7 +28185,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B25" s="173" t="s">
         <v>17</v>
@@ -29802,10 +28218,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="174" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C28" s="187">
         <v>44556</v>
@@ -29813,10 +28229,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="174" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C29" s="187">
         <v>44589</v>
@@ -29827,7 +28243,7 @@
         <v>243</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C30" s="187">
         <v>44552</v>
@@ -29838,7 +28254,7 @@
         <v>9</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C31" s="187">
         <v>44589</v>
@@ -29849,7 +28265,7 @@
         <v>104</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C32" s="187">
         <v>44669</v>
@@ -29860,7 +28276,7 @@
         <v>234</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C33" s="187">
         <v>44550</v>
@@ -29868,10 +28284,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="174" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C34" s="187">
         <v>44544</v>
@@ -29882,7 +28298,7 @@
         <v>233</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C35" s="187">
         <v>44546</v>
@@ -29890,10 +28306,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="174" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C36" s="187">
         <v>44592</v>
@@ -29904,7 +28320,7 @@
         <v>129</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C37" s="187">
         <v>44547</v>
@@ -29912,10 +28328,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C38" s="187">
         <v>44586</v>
@@ -29923,10 +28339,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="174" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C39" s="187">
         <v>44554</v>
@@ -29934,10 +28350,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C40" s="187">
         <v>44558</v>
@@ -29948,7 +28364,7 @@
         <v>257</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C41" s="187">
         <v>44548</v>
@@ -29959,7 +28375,7 @@
         <v>201</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C42" s="187">
         <v>44581</v>
@@ -29970,7 +28386,7 @@
         <v>155</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C43" s="187">
         <v>44591</v>
@@ -29978,10 +28394,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C44" s="187">
         <v>44580</v>
@@ -29989,10 +28405,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="174" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C45" s="187">
         <v>44583</v>
@@ -30000,10 +28416,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="176" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C46" s="188">
         <v>44736</v>
@@ -30011,10 +28427,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="176" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C47" s="188">
         <v>44818</v>
@@ -30025,7 +28441,7 @@
         <v>174</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C48" s="187">
         <v>44666</v>
@@ -30036,7 +28452,7 @@
         <v>13</v>
       </c>
       <c r="B49" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C49" s="187">
         <v>44622</v>
@@ -30047,7 +28463,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C50" s="188">
         <v>44821</v>
@@ -30055,10 +28471,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="176" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C51" s="188">
         <v>44918</v>
@@ -30069,7 +28485,7 @@
         <v>64</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C52" s="188">
         <v>44791</v>
@@ -30080,7 +28496,7 @@
         <v>94</v>
       </c>
       <c r="B53" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C53" s="188">
         <v>44852</v>
@@ -30088,7 +28504,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="178" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B54" s="55" t="s">
         <v>92</v>
@@ -30099,7 +28515,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B55" s="55" t="s">
         <v>92</v>
@@ -30154,7 +28570,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="174" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B60" s="55" t="s">
         <v>92</v>
@@ -30176,7 +28592,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="174" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>92</v>
@@ -30198,7 +28614,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="174" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B64" s="55" t="s">
         <v>92</v>
@@ -30209,7 +28625,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="178" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B65" s="55" t="s">
         <v>92</v>
@@ -30220,7 +28636,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="174" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B66" s="55" t="s">
         <v>92</v>
@@ -30264,7 +28680,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="174" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B70" s="55" t="s">
         <v>92</v>
@@ -30275,7 +28691,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B71" s="55" t="s">
         <v>92</v>
@@ -30286,7 +28702,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="174" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B72" s="55" t="s">
         <v>92</v>
@@ -30297,7 +28713,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="174" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B73" s="55" t="s">
         <v>92</v>
@@ -30341,7 +28757,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="174" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B77" s="55" t="s">
         <v>92</v>
@@ -30407,7 +28823,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="182" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B83" s="181" t="s">
         <v>17</v>
@@ -30429,7 +28845,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B85" s="181" t="s">
         <v>41</v>
@@ -30462,7 +28878,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="180" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B88" s="181" t="s">
         <v>191</v>
@@ -30484,7 +28900,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B90" s="181" t="s">
         <v>41</v>
@@ -30495,7 +28911,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="182" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B91" s="181" t="s">
         <v>17</v>
@@ -30506,7 +28922,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="182" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B92" s="181" t="s">
         <v>41</v>
@@ -30517,7 +28933,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="180" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B93" s="183" t="s">
         <v>41</v>
@@ -30561,7 +28977,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="182" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B97" s="181" t="s">
         <v>92</v>
@@ -30572,7 +28988,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="180" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B98" s="181" t="s">
         <v>41</v>
@@ -30605,7 +29021,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="182" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B101" s="181" t="s">
         <v>41</v>
@@ -30616,7 +29032,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="180" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B102" s="181" t="s">
         <v>41</v>
@@ -30638,7 +29054,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="182" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B104" s="185" t="s">
         <v>41</v>
@@ -30660,7 +29076,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="182" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B106" s="181" t="s">
         <v>41</v>
@@ -30671,7 +29087,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="180" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B107" s="181" t="s">
         <v>41</v>
@@ -30682,7 +29098,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="182" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B108" s="181" t="s">
         <v>41</v>
@@ -30693,7 +29109,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="182" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B109" s="181" t="s">
         <v>41</v>
@@ -30726,7 +29142,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="182" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B112" s="181" t="s">
         <v>92</v>
@@ -30737,7 +29153,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="180" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B113" s="183" t="s">
         <v>41</v>
@@ -30748,7 +29164,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="B114" s="183" t="s">
         <v>17</v>
@@ -30759,7 +29175,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="180" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="B115" s="183" t="s">
         <v>17</v>
@@ -30814,10 +29230,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="182" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="B120" s="181" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C120" s="189">
         <v>45126</v>
@@ -30836,7 +29252,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="180" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B122" s="181" t="s">
         <v>12</v>
@@ -30880,7 +29296,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B126" s="181" t="s">
         <v>12</v>
@@ -30891,7 +29307,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B127" s="173" t="s">
         <v>17</v>
@@ -30902,10 +29318,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C128" s="186">
         <v>44881</v>
@@ -30916,7 +29332,7 @@
         <v>185</v>
       </c>
       <c r="B129" s="173" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C129" s="193">
         <v>44958</v>
@@ -30946,10 +29362,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="182" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C132" s="186">
         <v>45002</v>
@@ -30957,7 +29373,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="182" t="s">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="B133" s="16" t="s">
         <v>17</v>
@@ -30968,10 +29384,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B134" s="173" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C134" s="193">
         <v>44461</v>
@@ -30979,7 +29395,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B135" s="173" t="s">
         <v>191</v>
@@ -31001,7 +29417,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B137" s="173" t="s">
         <v>191</v>
@@ -31012,7 +29428,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B138" s="173" t="s">
         <v>191</v>
@@ -31023,7 +29439,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="180" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>191</v>
@@ -31034,7 +29450,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>191</v>
@@ -31051,15 +29467,15 @@
         <v>191</v>
       </c>
       <c r="C141" s="186" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C142" s="186">
         <v>44949</v>
@@ -31067,7 +29483,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="B143" s="16" t="s">
         <v>17</v>
@@ -31081,7 +29497,7 @@
         <v>289</v>
       </c>
       <c r="B144" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C144" s="186">
         <v>44953</v>
@@ -31111,7 +29527,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B147" s="16" t="s">
         <v>191</v>
@@ -31125,7 +29541,7 @@
         <v>186</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C148" s="186">
         <v>44706</v>
@@ -31139,7 +29555,7 @@
         <v>17</v>
       </c>
       <c r="C149" s="186" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -31166,7 +29582,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>191</v>
@@ -31177,7 +29593,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="182" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>191</v>
@@ -31243,7 +29659,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>191</v>
@@ -31254,7 +29670,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="180" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B160" s="16" t="s">
         <v>191</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6CF5EA-3DDE-45A1-AF84-35EA4A06969C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C90BA-4B75-48BC-B212-163957288ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2625" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="825">
   <si>
     <t>Team No.</t>
   </si>
@@ -2923,9 +2923,6 @@
   </si>
   <si>
     <t>14-10-21</t>
-  </si>
-  <si>
-    <t>=COUNTA(C1:C7000)</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3402,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4081,9 +4078,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{D054C9F1-3C1D-460E-81B3-5271225944FC}"/>
@@ -14744,7 +14738,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14890,8 +14884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F9CF5-13B4-4690-BDEB-645D85FD3262}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14936,53 +14930,25 @@
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>31</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -15021,27 +14987,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
-  <dimension ref="A1:I259"/>
+  <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A257" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="A259" sqref="A259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="194" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" style="194" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="194" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" style="194" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="194" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="194" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="194" customWidth="1"/>
-    <col min="8" max="9" width="8.140625" style="194" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="194" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="194"/>
+    <col min="1" max="1" width="9" style="73" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="73" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="73" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="73" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="73" customWidth="1"/>
+    <col min="8" max="9" width="8.140625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="73" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
@@ -15070,7 +15036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>64</v>
       </c>
@@ -15099,7 +15065,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
@@ -15128,7 +15094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>93</v>
       </c>
@@ -15157,7 +15123,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>94</v>
       </c>
@@ -15186,7 +15152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
@@ -15215,7 +15181,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="73" customFormat="1" ht="270" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>94</v>
       </c>
@@ -15242,7 +15208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>104</v>
       </c>
@@ -15271,7 +15237,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="73" customFormat="1" ht="405" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="405" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>104</v>
       </c>
@@ -15300,7 +15266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>129</v>
       </c>
@@ -15329,7 +15295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>129</v>
       </c>
@@ -15358,7 +15324,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="73" customFormat="1" ht="300" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="300" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>129</v>
       </c>
@@ -15387,7 +15353,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>129</v>
       </c>
@@ -15416,7 +15382,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>129</v>
       </c>
@@ -15445,7 +15411,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>129</v>
       </c>
@@ -15474,7 +15440,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>129</v>
       </c>
@@ -15503,7 +15469,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>309</v>
       </c>
@@ -15532,7 +15498,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>155</v>
       </c>
@@ -15561,7 +15527,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>155</v>
       </c>
@@ -15590,7 +15556,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>155</v>
       </c>
@@ -15619,7 +15585,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>155</v>
       </c>
@@ -15648,7 +15614,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>155</v>
       </c>
@@ -15677,7 +15643,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="73" customFormat="1" ht="177" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="177" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -15706,7 +15672,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -15735,7 +15701,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="73" customFormat="1" ht="133.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="133.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -15764,7 +15730,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -15793,7 +15759,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -15820,7 +15786,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>174</v>
       </c>
@@ -15849,7 +15815,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="73" customFormat="1" ht="285" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>174</v>
       </c>
@@ -15878,7 +15844,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>174</v>
       </c>
@@ -15907,7 +15873,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>174</v>
       </c>
@@ -15936,7 +15902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>174</v>
       </c>
@@ -15965,7 +15931,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>174</v>
       </c>
@@ -15992,7 +15958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>13</v>
       </c>
@@ -16021,7 +15987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>185</v>
       </c>
@@ -16050,7 +16016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>185</v>
       </c>
@@ -16079,7 +16045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>186</v>
       </c>
@@ -16108,7 +16074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>186</v>
       </c>
@@ -16137,7 +16103,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" s="73" customFormat="1" ht="225" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -16164,7 +16130,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>186</v>
       </c>
@@ -16191,7 +16157,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>201</v>
       </c>
@@ -16220,7 +16186,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>233</v>
       </c>
@@ -16249,7 +16215,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>233</v>
       </c>
@@ -16278,7 +16244,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>233</v>
       </c>
@@ -16307,7 +16273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>233</v>
       </c>
@@ -16336,7 +16302,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>233</v>
       </c>
@@ -16365,7 +16331,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>233</v>
       </c>
@@ -16394,7 +16360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>233</v>
       </c>
@@ -16423,7 +16389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:9" s="73" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>233</v>
       </c>
@@ -16452,7 +16418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>233</v>
       </c>
@@ -16481,7 +16447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>233</v>
       </c>
@@ -16510,7 +16476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:9" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>234</v>
       </c>
@@ -16539,7 +16505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" s="73" customFormat="1" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>234</v>
       </c>
@@ -16568,7 +16534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
@@ -16595,7 +16561,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>243</v>
       </c>
@@ -16622,7 +16588,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>243</v>
       </c>
@@ -16651,7 +16617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>243</v>
       </c>
@@ -16678,7 +16644,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>243</v>
       </c>
@@ -16707,7 +16673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>257</v>
       </c>
@@ -16736,7 +16702,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
         <v>257</v>
       </c>
@@ -16765,7 +16731,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
         <v>257</v>
       </c>
@@ -16792,7 +16758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
         <v>257</v>
       </c>
@@ -16819,7 +16785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>9</v>
       </c>
@@ -16848,7 +16814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>9</v>
       </c>
@@ -16877,7 +16843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>9</v>
       </c>
@@ -16906,7 +16872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>9</v>
       </c>
@@ -16935,7 +16901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>9</v>
       </c>
@@ -16964,7 +16930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>82</v>
       </c>
@@ -16993,7 +16959,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
@@ -17022,7 +16988,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>82</v>
       </c>
@@ -17051,7 +17017,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:9" s="73" customFormat="1" ht="315" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>82</v>
       </c>
@@ -17080,7 +17046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>82</v>
       </c>
@@ -17109,7 +17075,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:9" s="73" customFormat="1" ht="345" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -17138,7 +17104,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>289</v>
       </c>
@@ -17167,7 +17133,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>289</v>
       </c>
@@ -17196,7 +17162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>289</v>
       </c>
@@ -17225,7 +17191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>289</v>
       </c>
@@ -17254,7 +17220,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>289</v>
       </c>
@@ -17283,7 +17249,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>289</v>
       </c>
@@ -17310,7 +17276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>314</v>
       </c>
@@ -17339,7 +17305,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>317</v>
       </c>
@@ -17368,7 +17334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="73" customFormat="1" ht="87" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>320</v>
       </c>
@@ -17397,7 +17363,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>320</v>
       </c>
@@ -17424,7 +17390,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>327</v>
       </c>
@@ -17451,7 +17417,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>328</v>
       </c>
@@ -17480,7 +17446,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>331</v>
       </c>
@@ -17507,7 +17473,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>331</v>
       </c>
@@ -17536,7 +17502,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:9" s="73" customFormat="1" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>331</v>
       </c>
@@ -17563,7 +17529,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>331</v>
       </c>
@@ -17590,7 +17556,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>340</v>
       </c>
@@ -17619,7 +17585,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" s="73" customFormat="1" ht="210" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>340</v>
       </c>
@@ -17648,7 +17614,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" s="73" customFormat="1" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>340</v>
       </c>
@@ -17675,7 +17641,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>351</v>
       </c>
@@ -17704,7 +17670,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:9" s="73" customFormat="1" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>352</v>
       </c>
@@ -17733,7 +17699,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>352</v>
       </c>
@@ -17762,7 +17728,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" s="73" customFormat="1" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>352</v>
       </c>
@@ -17791,7 +17757,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>352</v>
       </c>
@@ -17820,7 +17786,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>352</v>
       </c>
@@ -17849,7 +17815,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="73" customFormat="1" ht="219.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="219.75" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>352</v>
       </c>
@@ -17878,7 +17844,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>352</v>
       </c>
@@ -17905,7 +17871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>352</v>
       </c>
@@ -17934,7 +17900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="16" t="s">
         <v>373</v>
       </c>
@@ -17963,7 +17929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A103" s="16" t="s">
         <v>373</v>
       </c>
@@ -17992,7 +17958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A104" s="16" t="s">
         <v>373</v>
       </c>
@@ -18021,7 +17987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A105" s="16" t="s">
         <v>373</v>
       </c>
@@ -18050,7 +18016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A106" s="16" t="s">
         <v>373</v>
       </c>
@@ -18079,7 +18045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A107" s="16" t="s">
         <v>373</v>
       </c>
@@ -18108,7 +18074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A108" s="16" t="s">
         <v>373</v>
       </c>
@@ -18137,7 +18103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A109" s="16" t="s">
         <v>373</v>
       </c>
@@ -18164,7 +18130,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="73" customFormat="1" ht="180" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A110" s="16" t="s">
         <v>373</v>
       </c>
@@ -18191,7 +18157,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A111" s="16" t="s">
         <v>373</v>
       </c>
@@ -18218,7 +18184,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="228" x14ac:dyDescent="0.25">
       <c r="A112" s="16" t="s">
         <v>373</v>
       </c>
@@ -18245,7 +18211,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="73" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>8</v>
       </c>
@@ -18274,7 +18240,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>401</v>
       </c>
@@ -18301,7 +18267,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="73" customFormat="1" ht="228" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="228" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>401</v>
       </c>
@@ -18330,7 +18296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>401</v>
       </c>
@@ -18357,7 +18323,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>401</v>
       </c>
@@ -18384,7 +18350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>401</v>
       </c>
@@ -18411,7 +18377,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>401</v>
       </c>
@@ -18438,7 +18404,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>417</v>
       </c>
@@ -18467,7 +18433,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>417</v>
       </c>
@@ -18496,7 +18462,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>421</v>
       </c>
@@ -18525,7 +18491,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>421</v>
       </c>
@@ -18554,7 +18520,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>421</v>
       </c>
@@ -18583,7 +18549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>421</v>
       </c>
@@ -18612,7 +18578,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>421</v>
       </c>
@@ -18641,7 +18607,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>421</v>
       </c>
@@ -18668,7 +18634,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>421</v>
       </c>
@@ -18695,7 +18661,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="73" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>421</v>
       </c>
@@ -18722,7 +18688,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="73" customFormat="1" ht="360" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>421</v>
       </c>
@@ -18749,7 +18715,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>421</v>
       </c>
@@ -18776,7 +18742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>421</v>
       </c>
@@ -18803,7 +18769,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>458</v>
       </c>
@@ -18832,7 +18798,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>577</v>
       </c>
@@ -18861,7 +18827,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>577</v>
       </c>
@@ -18890,7 +18856,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>577</v>
       </c>
@@ -18919,7 +18885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>577</v>
       </c>
@@ -18948,7 +18914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A138" s="16" t="s">
         <v>577</v>
       </c>
@@ -18977,7 +18943,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A139" s="16" t="s">
         <v>577</v>
       </c>
@@ -19006,7 +18972,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="73" customFormat="1" ht="299.25" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="299.25" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>577</v>
       </c>
@@ -19035,7 +19001,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A141" s="16" t="s">
         <v>577</v>
       </c>
@@ -19064,7 +19030,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A142" s="16" t="s">
         <v>577</v>
       </c>
@@ -19093,7 +19059,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A143" s="16" t="s">
         <v>577</v>
       </c>
@@ -19122,7 +19088,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A144" s="16" t="s">
         <v>577</v>
       </c>
@@ -19151,7 +19117,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A145" s="16" t="s">
         <v>577</v>
       </c>
@@ -19180,7 +19146,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A146" s="16" t="s">
         <v>577</v>
       </c>
@@ -19209,7 +19175,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A147" s="16" t="s">
         <v>577</v>
       </c>
@@ -19238,7 +19204,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A148" s="16" t="s">
         <v>577</v>
       </c>
@@ -19267,7 +19233,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A149" s="16" t="s">
         <v>577</v>
       </c>
@@ -19296,7 +19262,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A150" s="16" t="s">
         <v>577</v>
       </c>
@@ -19325,7 +19291,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>577</v>
       </c>
@@ -19354,7 +19320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A152" s="16" t="s">
         <v>577</v>
       </c>
@@ -19383,7 +19349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A153" s="16" t="s">
         <v>577</v>
       </c>
@@ -19412,7 +19378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A154" s="16" t="s">
         <v>577</v>
       </c>
@@ -19441,7 +19407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="155" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>577</v>
       </c>
@@ -19470,7 +19436,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A156" s="16" t="s">
         <v>577</v>
       </c>
@@ -19499,7 +19465,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>577</v>
       </c>
@@ -19528,7 +19494,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A158" s="16" t="s">
         <v>577</v>
       </c>
@@ -19557,7 +19523,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>577</v>
       </c>
@@ -19586,7 +19552,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A160" s="16" t="s">
         <v>577</v>
       </c>
@@ -19615,7 +19581,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A161" s="16" t="s">
         <v>577</v>
       </c>
@@ -19644,7 +19610,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A162" s="16" t="s">
         <v>577</v>
       </c>
@@ -19673,7 +19639,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A163" s="16" t="s">
         <v>577</v>
       </c>
@@ -19702,7 +19668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A164" s="16" t="s">
         <v>577</v>
       </c>
@@ -19731,7 +19697,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A165" s="16" t="s">
         <v>577</v>
       </c>
@@ -19760,7 +19726,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A166" s="16" t="s">
         <v>577</v>
       </c>
@@ -19789,7 +19755,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A167" s="16" t="s">
         <v>577</v>
       </c>
@@ -19818,7 +19784,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A168" s="16" t="s">
         <v>577</v>
       </c>
@@ -19847,7 +19813,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A169" s="16" t="s">
         <v>577</v>
       </c>
@@ -19876,7 +19842,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A170" s="16" t="s">
         <v>577</v>
       </c>
@@ -19905,7 +19871,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
         <v>577</v>
       </c>
@@ -19934,7 +19900,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A172" s="16" t="s">
         <v>577</v>
       </c>
@@ -19963,7 +19929,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A173" s="16" t="s">
         <v>577</v>
       </c>
@@ -19992,7 +19958,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A174" s="16" t="s">
         <v>577</v>
       </c>
@@ -20021,7 +19987,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A175" s="16" t="s">
         <v>577</v>
       </c>
@@ -20050,7 +20016,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A176" s="16" t="s">
         <v>577</v>
       </c>
@@ -20079,7 +20045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
         <v>577</v>
       </c>
@@ -20108,7 +20074,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
         <v>577</v>
       </c>
@@ -20137,7 +20103,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>585</v>
       </c>
@@ -20166,7 +20132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
         <v>585</v>
       </c>
@@ -20195,7 +20161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>585</v>
       </c>
@@ -20224,7 +20190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>585</v>
       </c>
@@ -20253,7 +20219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>585</v>
       </c>
@@ -20282,7 +20248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
         <v>585</v>
       </c>
@@ -20311,7 +20277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>585</v>
       </c>
@@ -20340,7 +20306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>585</v>
       </c>
@@ -20367,7 +20333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>585</v>
       </c>
@@ -20394,7 +20360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>614</v>
       </c>
@@ -20423,7 +20389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>614</v>
       </c>
@@ -20452,7 +20418,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>614</v>
       </c>
@@ -20481,7 +20447,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="73" customFormat="1" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>614</v>
       </c>
@@ -20510,7 +20476,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
         <v>614</v>
       </c>
@@ -20539,7 +20505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>614</v>
       </c>
@@ -20568,7 +20534,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>614</v>
       </c>
@@ -20597,7 +20563,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>614</v>
       </c>
@@ -20626,7 +20592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
         <v>614</v>
       </c>
@@ -20655,7 +20621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="73" customFormat="1" ht="194.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="194.25" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>614</v>
       </c>
@@ -20684,7 +20650,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
         <v>614</v>
       </c>
@@ -20713,7 +20679,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>614</v>
       </c>
@@ -20742,7 +20708,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>614</v>
       </c>
@@ -20771,7 +20737,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>614</v>
       </c>
@@ -20800,7 +20766,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>614</v>
       </c>
@@ -20829,7 +20795,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="73" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>614</v>
       </c>
@@ -20856,7 +20822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>614</v>
       </c>
@@ -20883,7 +20849,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>614</v>
       </c>
@@ -20910,7 +20876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>614</v>
       </c>
@@ -20937,7 +20903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>614</v>
       </c>
@@ -20964,7 +20930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A208" s="16" t="s">
         <v>731</v>
       </c>
@@ -20993,7 +20959,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A209" s="16" t="s">
         <v>731</v>
       </c>
@@ -21022,7 +20988,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
         <v>731</v>
       </c>
@@ -21051,7 +21017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="211" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
         <v>731</v>
       </c>
@@ -21080,7 +21046,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A212" s="16" t="s">
         <v>731</v>
       </c>
@@ -21109,7 +21075,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
         <v>731</v>
       </c>
@@ -21138,7 +21104,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A214" s="16" t="s">
         <v>731</v>
       </c>
@@ -21167,7 +21133,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A215" s="16" t="s">
         <v>731</v>
       </c>
@@ -21196,7 +21162,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A216" s="16" t="s">
         <v>731</v>
       </c>
@@ -21225,7 +21191,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="16" t="s">
         <v>731</v>
       </c>
@@ -21254,7 +21220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A218" s="16" t="s">
         <v>731</v>
       </c>
@@ -21283,7 +21249,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="73" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
         <v>731</v>
       </c>
@@ -21312,7 +21278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
         <v>731</v>
       </c>
@@ -21341,7 +21307,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>731</v>
       </c>
@@ -21370,7 +21336,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="73" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A222" s="16" t="s">
         <v>731</v>
       </c>
@@ -21399,7 +21365,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="16" t="s">
         <v>731</v>
       </c>
@@ -21428,7 +21394,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="73" customFormat="1" ht="165" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A224" s="16" t="s">
         <v>731</v>
       </c>
@@ -21457,7 +21423,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="225" spans="1:9" s="73" customFormat="1" ht="195" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="195" x14ac:dyDescent="0.25">
       <c r="A225" s="16" t="s">
         <v>731</v>
       </c>
@@ -21486,7 +21452,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="226" spans="1:9" s="73" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A226" s="16" t="s">
         <v>731</v>
       </c>
@@ -21515,7 +21481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="73" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A227" s="16" t="s">
         <v>731</v>
       </c>
@@ -21544,7 +21510,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="73" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="16" t="s">
         <v>731</v>
       </c>
@@ -21573,7 +21539,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="73" customFormat="1" ht="255" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A229" s="16" t="s">
         <v>731</v>
       </c>
@@ -21602,7 +21568,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="230" spans="1:9" s="73" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A230" s="16" t="s">
         <v>731</v>
       </c>
@@ -21631,7 +21597,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>791</v>
       </c>
@@ -21660,7 +21626,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>791</v>
       </c>
@@ -21689,7 +21655,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A233" s="16" t="s">
         <v>791</v>
       </c>
@@ -21718,7 +21684,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>791</v>
       </c>
@@ -21747,7 +21713,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A235" s="16" t="s">
         <v>791</v>
       </c>
@@ -21776,7 +21742,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A236" s="16" t="s">
         <v>791</v>
       </c>
@@ -21805,7 +21771,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A237" s="16" t="s">
         <v>791</v>
       </c>
@@ -21834,7 +21800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="238" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A238" s="16" t="s">
         <v>791</v>
       </c>
@@ -21863,7 +21829,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A239" s="16" t="s">
         <v>791</v>
       </c>
@@ -21892,7 +21858,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
         <v>791</v>
       </c>
@@ -21921,7 +21887,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="241" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
         <v>791</v>
       </c>
@@ -21950,7 +21916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="242" spans="1:9" s="73" customFormat="1" ht="313.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
         <v>791</v>
       </c>
@@ -21979,7 +21945,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
         <v>791</v>
       </c>
@@ -22008,7 +21974,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="73" customFormat="1" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
         <v>791</v>
       </c>
@@ -22037,7 +22003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="73" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
         <v>791</v>
       </c>
@@ -22066,7 +22032,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
         <v>791</v>
       </c>
@@ -22095,7 +22061,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="73" customFormat="1" ht="171" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A247" s="16" t="s">
         <v>791</v>
       </c>
@@ -22124,7 +22090,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="73" customFormat="1" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
         <v>791</v>
       </c>
@@ -22153,7 +22119,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="73" customFormat="1" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A249" s="16" t="s">
         <v>791</v>
       </c>
@@ -22182,7 +22148,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A250" s="16" t="s">
         <v>791</v>
       </c>
@@ -22211,7 +22177,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A251" s="16" t="s">
         <v>791</v>
       </c>
@@ -22240,7 +22206,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="73" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A252" s="16" t="s">
         <v>791</v>
       </c>
@@ -22269,7 +22235,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="73" customFormat="1" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>796</v>
       </c>
@@ -22298,7 +22264,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="73" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>796</v>
       </c>
@@ -22327,7 +22293,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="73" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>796</v>
       </c>
@@ -22354,7 +22320,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="73" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>796</v>
       </c>
@@ -22381,7 +22347,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="73" customFormat="1" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>796</v>
       </c>
@@ -22408,7 +22374,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="73" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>796</v>
       </c>
@@ -22435,7 +22401,6 @@
         <v>105</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="73" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -27845,7 +27810,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27900,10 +27865,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E165" sqref="E165"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27916,7 +27881,7 @@
     <col min="6" max="16384" width="9.140625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>61</v>
       </c>
@@ -27927,7 +27892,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>373</v>
       </c>
@@ -27938,7 +27903,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>352</v>
       </c>
@@ -27949,7 +27914,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>243</v>
       </c>
@@ -27960,7 +27925,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="174" t="s">
         <v>9</v>
       </c>
@@ -27970,11 +27935,8 @@
       <c r="C5" s="191">
         <v>44307</v>
       </c>
-      <c r="E5" s="73" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>104</v>
       </c>
@@ -27985,7 +27947,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="174" t="s">
         <v>234</v>
       </c>
@@ -27996,7 +27958,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
         <v>421</v>
       </c>
@@ -28007,7 +27969,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
         <v>233</v>
       </c>
@@ -28018,7 +27980,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
         <v>401</v>
       </c>
@@ -28029,7 +27991,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
         <v>129</v>
       </c>
@@ -28040,7 +28002,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
         <v>331</v>
       </c>
@@ -28051,7 +28013,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>417</v>
       </c>
@@ -28062,7 +28024,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>340</v>
       </c>
@@ -28073,7 +28035,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>257</v>
       </c>
@@ -28084,7 +28046,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>201</v>
       </c>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{587C90BA-4B75-48BC-B212-163957288ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98460A-402D-4745-9698-1D62CC946F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="825">
   <si>
     <t>Team No.</t>
   </si>
@@ -14885,7 +14885,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H3"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14927,9 +14927,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>27</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="8"/>
@@ -14939,9 +14937,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="8"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B98460A-402D-4745-9698-1D62CC946F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5152E7C-6F15-461F-872E-3D3762E2981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
     <sheet name="Drops_Teams_Follow_Up" sheetId="5" r:id="rId2"/>
     <sheet name="All_Critical_Points" sheetId="6" r:id="rId3"/>
-    <sheet name="phases" sheetId="7" r:id="rId4"/>
+    <sheet name="phases" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
@@ -14738,7 +14738,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14884,8 +14884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D3F9CF5-13B4-4690-BDEB-645D85FD3262}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14985,8 +14985,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView topLeftCell="A257" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A259" sqref="A259"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27806,7 +27807,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27863,8 +27864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H153" sqref="H153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5152E7C-6F15-461F-872E-3D3762E2981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA30E4A-DDEF-45CC-8546-9C02A511A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$159</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="824">
   <si>
     <t>Team No.</t>
   </si>
@@ -2917,9 +2917,6 @@
   </si>
   <si>
     <t>12-24-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDC-9 </t>
   </si>
   <si>
     <t>14-10-21</t>
@@ -3402,7 +3399,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="194">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4078,6 +4075,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{D054C9F1-3C1D-460E-81B3-5271225944FC}"/>
@@ -27862,10 +27862,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H153" sqref="H153"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27889,7 +27890,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>373</v>
       </c>
@@ -27900,7 +27901,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>352</v>
       </c>
@@ -27911,7 +27912,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>243</v>
       </c>
@@ -27922,7 +27923,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="174" t="s">
         <v>9</v>
       </c>
@@ -27933,7 +27934,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>104</v>
       </c>
@@ -27944,7 +27945,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="174" t="s">
         <v>234</v>
       </c>
@@ -27955,7 +27956,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
         <v>421</v>
       </c>
@@ -27966,7 +27967,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
         <v>233</v>
       </c>
@@ -27977,7 +27978,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
         <v>401</v>
       </c>
@@ -27988,7 +27989,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
         <v>129</v>
       </c>
@@ -27999,7 +28000,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
         <v>331</v>
       </c>
@@ -28010,7 +28011,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>417</v>
       </c>
@@ -28021,7 +28022,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>340</v>
       </c>
@@ -28032,7 +28033,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>257</v>
       </c>
@@ -28043,7 +28044,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>201</v>
       </c>
@@ -28054,7 +28055,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="174" t="s">
         <v>155</v>
       </c>
@@ -28065,7 +28066,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>351</v>
       </c>
@@ -28076,7 +28077,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>328</v>
       </c>
@@ -28087,7 +28088,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
         <v>585</v>
       </c>
@@ -28098,7 +28099,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
         <v>320</v>
       </c>
@@ -28109,7 +28110,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174" t="s">
         <v>174</v>
       </c>
@@ -28120,7 +28121,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="174" t="s">
         <v>13</v>
       </c>
@@ -28131,7 +28132,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="174" t="s">
         <v>8</v>
       </c>
@@ -28142,7 +28143,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
         <v>614</v>
       </c>
@@ -28153,7 +28154,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="175" t="s">
         <v>64</v>
       </c>
@@ -28164,7 +28165,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="174" t="s">
         <v>94</v>
       </c>
@@ -28175,7 +28176,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="174" t="s">
         <v>373</v>
       </c>
@@ -28186,7 +28187,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="174" t="s">
         <v>352</v>
       </c>
@@ -28197,7 +28198,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="174" t="s">
         <v>243</v>
       </c>
@@ -28208,7 +28209,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
         <v>9</v>
       </c>
@@ -28219,7 +28220,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="174" t="s">
         <v>104</v>
       </c>
@@ -28230,7 +28231,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="174" t="s">
         <v>234</v>
       </c>
@@ -28241,7 +28242,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="174" t="s">
         <v>421</v>
       </c>
@@ -28252,7 +28253,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="174" t="s">
         <v>233</v>
       </c>
@@ -28263,7 +28264,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="174" t="s">
         <v>401</v>
       </c>
@@ -28274,7 +28275,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="174" t="s">
         <v>129</v>
       </c>
@@ -28285,7 +28286,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="174" t="s">
         <v>331</v>
       </c>
@@ -28296,7 +28297,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="174" t="s">
         <v>417</v>
       </c>
@@ -28307,7 +28308,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="174" t="s">
         <v>340</v>
       </c>
@@ -28318,7 +28319,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="174" t="s">
         <v>257</v>
       </c>
@@ -28329,7 +28330,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="174" t="s">
         <v>201</v>
       </c>
@@ -28340,7 +28341,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="174" t="s">
         <v>155</v>
       </c>
@@ -28351,7 +28352,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="174" t="s">
         <v>351</v>
       </c>
@@ -28362,7 +28363,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="174" t="s">
         <v>328</v>
       </c>
@@ -28373,7 +28374,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="176" t="s">
         <v>585</v>
       </c>
@@ -28384,7 +28385,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="176" t="s">
         <v>320</v>
       </c>
@@ -28395,7 +28396,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="174" t="s">
         <v>174</v>
       </c>
@@ -28406,7 +28407,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="174" t="s">
         <v>13</v>
       </c>
@@ -28417,7 +28418,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="176" t="s">
         <v>8</v>
       </c>
@@ -28428,7 +28429,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="176" t="s">
         <v>614</v>
       </c>
@@ -28439,7 +28440,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="177" t="s">
         <v>64</v>
       </c>
@@ -28450,7 +28451,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="176" t="s">
         <v>94</v>
       </c>
@@ -28461,7 +28462,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="178" t="s">
         <v>373</v>
       </c>
@@ -28472,7 +28473,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="178" t="s">
         <v>352</v>
       </c>
@@ -28483,7 +28484,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="178" t="s">
         <v>243</v>
       </c>
@@ -28494,7 +28495,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="174" t="s">
         <v>9</v>
       </c>
@@ -28505,7 +28506,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="174" t="s">
         <v>104</v>
       </c>
@@ -28516,7 +28517,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="178" t="s">
         <v>234</v>
       </c>
@@ -28527,7 +28528,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="174" t="s">
         <v>421</v>
       </c>
@@ -28538,7 +28539,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="178" t="s">
         <v>233</v>
       </c>
@@ -28549,7 +28550,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="174" t="s">
         <v>401</v>
       </c>
@@ -28560,7 +28561,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="174" t="s">
         <v>129</v>
       </c>
@@ -28571,7 +28572,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="174" t="s">
         <v>331</v>
       </c>
@@ -28582,7 +28583,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178" t="s">
         <v>417</v>
       </c>
@@ -28593,7 +28594,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="174" t="s">
         <v>340</v>
       </c>
@@ -28604,7 +28605,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="178" t="s">
         <v>257</v>
       </c>
@@ -28615,7 +28616,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="174" t="s">
         <v>201</v>
       </c>
@@ -28626,7 +28627,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="174" t="s">
         <v>155</v>
       </c>
@@ -28637,7 +28638,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="174" t="s">
         <v>351</v>
       </c>
@@ -28648,7 +28649,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
         <v>328</v>
       </c>
@@ -28659,7 +28660,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="174" t="s">
         <v>585</v>
       </c>
@@ -28670,7 +28671,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="174" t="s">
         <v>320</v>
       </c>
@@ -28681,7 +28682,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="174" t="s">
         <v>174</v>
       </c>
@@ -28692,7 +28693,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="174" t="s">
         <v>13</v>
       </c>
@@ -28703,7 +28704,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="174" t="s">
         <v>8</v>
       </c>
@@ -28714,7 +28715,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="174" t="s">
         <v>614</v>
       </c>
@@ -28725,7 +28726,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="175" t="s">
         <v>64</v>
       </c>
@@ -28736,7 +28737,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="174" t="s">
         <v>94</v>
       </c>
@@ -28747,7 +28748,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="180" t="s">
         <v>234</v>
       </c>
@@ -28758,42 +28759,42 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="180" t="s">
-        <v>64</v>
+        <v>243</v>
       </c>
       <c r="B81" s="181" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C81" s="189">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="180" t="s">
-        <v>243</v>
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="182" t="s">
+        <v>796</v>
       </c>
       <c r="B82" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C82" s="189">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="180" t="s">
+        <v>129</v>
+      </c>
+      <c r="B83" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="C82" s="189">
-        <v>44940</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="182" t="s">
-        <v>796</v>
-      </c>
-      <c r="B83" s="181" t="s">
-        <v>17</v>
-      </c>
       <c r="C83" s="189">
-        <v>44950</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="180" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="B84" s="181" t="s">
         <v>41</v>
@@ -28802,855 +28803,849 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="B85" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C85" s="189">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="180" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B86" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C86" s="189">
-        <v>44969</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="180" t="s">
-        <v>257</v>
+        <v>614</v>
       </c>
       <c r="B87" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C87" s="189">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="180" t="s">
+        <v>9</v>
+      </c>
+      <c r="B88" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="C87" s="189">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="180" t="s">
-        <v>614</v>
-      </c>
-      <c r="B88" s="181" t="s">
-        <v>191</v>
-      </c>
       <c r="C88" s="189">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="180" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="B89" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C89" s="189">
-        <v>44976</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="180" t="s">
-        <v>352</v>
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="182" t="s">
+        <v>458</v>
       </c>
       <c r="B90" s="181" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="189">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="182" t="s">
+        <v>585</v>
+      </c>
+      <c r="B91" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="189">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="182" t="s">
-        <v>458</v>
-      </c>
-      <c r="B91" s="181" t="s">
-        <v>17</v>
-      </c>
       <c r="C91" s="189">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="182" t="s">
-        <v>585</v>
-      </c>
-      <c r="B92" s="181" t="s">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="180" t="s">
+        <v>309</v>
+      </c>
+      <c r="B92" s="183" t="s">
         <v>41</v>
       </c>
       <c r="C92" s="189">
-        <v>44994</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="180" t="s">
-        <v>309</v>
-      </c>
-      <c r="B93" s="183" t="s">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="182" t="s">
+        <v>8</v>
+      </c>
+      <c r="B93" s="184" t="s">
         <v>41</v>
       </c>
       <c r="C93" s="189">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="B94" s="184" t="s">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="180" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C94" s="189">
-        <v>44997</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="180" t="s">
-        <v>13</v>
-      </c>
-      <c r="B95" s="181" t="s">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="184" t="s">
         <v>41</v>
       </c>
       <c r="C95" s="189">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="182" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96" s="184" t="s">
+        <v>314</v>
+      </c>
+      <c r="B96" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="189">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="180" t="s">
+        <v>373</v>
+      </c>
+      <c r="B97" s="181" t="s">
         <v>41</v>
       </c>
-      <c r="C96" s="189">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="182" t="s">
-        <v>314</v>
-      </c>
-      <c r="B97" s="181" t="s">
+      <c r="C97" s="189">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="182" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" s="181" t="s">
         <v>92</v>
       </c>
-      <c r="C97" s="189">
-        <v>45004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="180" t="s">
-        <v>373</v>
-      </c>
-      <c r="B98" s="181" t="s">
-        <v>41</v>
-      </c>
       <c r="C98" s="189">
-        <v>45005</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="182" t="s">
-        <v>289</v>
+      <c r="A99" s="180" t="s">
+        <v>93</v>
       </c>
       <c r="B99" s="181" t="s">
         <v>92</v>
       </c>
       <c r="C99" s="189">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="180" t="s">
-        <v>93</v>
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="182" t="s">
+        <v>317</v>
       </c>
       <c r="B100" s="181" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="C100" s="189">
-        <v>45024</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="182" t="s">
-        <v>317</v>
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="180" t="s">
+        <v>417</v>
       </c>
       <c r="B101" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C101" s="189">
-        <v>45029</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="180" t="s">
-        <v>417</v>
-      </c>
-      <c r="B102" s="181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="183" t="s">
+        <v>92</v>
+      </c>
+      <c r="C102" s="189">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="182" t="s">
+        <v>328</v>
+      </c>
+      <c r="B103" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="C102" s="189">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="180" t="s">
-        <v>185</v>
-      </c>
-      <c r="B103" s="183" t="s">
-        <v>92</v>
-      </c>
       <c r="C103" s="189">
-        <v>45043</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="182" t="s">
-        <v>328</v>
-      </c>
-      <c r="B104" s="185" t="s">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="180" t="s">
+        <v>201</v>
+      </c>
+      <c r="B104" s="183" t="s">
         <v>41</v>
       </c>
       <c r="C104" s="189">
-        <v>45046</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="180" t="s">
-        <v>201</v>
-      </c>
-      <c r="B105" s="183" t="s">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="182" t="s">
+        <v>331</v>
+      </c>
+      <c r="B105" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C105" s="189">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="182" t="s">
-        <v>331</v>
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="180" t="s">
+        <v>320</v>
       </c>
       <c r="B106" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C106" s="189">
-        <v>45067</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="180" t="s">
-        <v>320</v>
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="182" t="s">
+        <v>340</v>
       </c>
       <c r="B107" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C107" s="189">
-        <v>45068</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="182" t="s">
-        <v>340</v>
+        <v>421</v>
       </c>
       <c r="B108" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C108" s="189">
-        <v>45072</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="182" t="s">
-        <v>421</v>
+        <v>174</v>
       </c>
       <c r="B109" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C109" s="189">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="182" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B110" s="181" t="s">
         <v>41</v>
       </c>
       <c r="C110" s="189">
-        <v>45144</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="182" t="s">
-        <v>186</v>
+        <v>791</v>
       </c>
       <c r="B111" s="181" t="s">
+        <v>92</v>
+      </c>
+      <c r="C111" s="189">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="180" t="s">
+        <v>401</v>
+      </c>
+      <c r="B112" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="C111" s="189">
-        <v>45080</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="182" t="s">
-        <v>791</v>
-      </c>
-      <c r="B112" s="181" t="s">
-        <v>92</v>
-      </c>
       <c r="C112" s="189">
-        <v>45087</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="180" t="s">
-        <v>401</v>
+        <v>820</v>
       </c>
       <c r="B113" s="183" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C113" s="189">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B114" s="183" t="s">
         <v>17</v>
       </c>
       <c r="C114" s="189">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="180" t="s">
-        <v>821</v>
+        <v>82</v>
       </c>
       <c r="B115" s="183" t="s">
         <v>17</v>
       </c>
       <c r="C115" s="189">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="180" t="s">
-        <v>82</v>
-      </c>
-      <c r="B116" s="183" t="s">
-        <v>17</v>
+        <v>234</v>
+      </c>
+      <c r="B116" s="181" t="s">
+        <v>12</v>
       </c>
       <c r="C116" s="189">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="180" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="B117" s="181" t="s">
+        <v>191</v>
+      </c>
+      <c r="C117" s="189">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="180" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="C117" s="189">
-        <v>45144</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="180" t="s">
-        <v>64</v>
-      </c>
-      <c r="B118" s="181" t="s">
-        <v>191</v>
-      </c>
       <c r="C118" s="189">
-        <v>45112</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="180" t="s">
-        <v>243</v>
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="182" t="s">
+        <v>796</v>
       </c>
       <c r="B119" s="181" t="s">
+        <v>792</v>
+      </c>
+      <c r="C119" s="189">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="180" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="181" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="189">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="182" t="s">
-        <v>796</v>
-      </c>
-      <c r="B120" s="181" t="s">
-        <v>792</v>
-      </c>
       <c r="C120" s="189">
-        <v>45126</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="180" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="B121" s="181" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="189">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="180" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="B122" s="181" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="189">
-        <v>45122</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="180" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B123" s="181" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="189">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="180" t="s">
-        <v>257</v>
+        <v>9</v>
       </c>
       <c r="B124" s="181" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="189">
-        <v>45118</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="180" t="s">
-        <v>9</v>
+        <v>352</v>
       </c>
       <c r="B125" s="181" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="189">
-        <v>45150</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="180" t="s">
-        <v>352</v>
-      </c>
-      <c r="B126" s="181" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="189">
         <v>45123</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="191">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="B127" s="173" t="s">
-        <v>17</v>
-      </c>
-      <c r="C127" s="193">
-        <v>44699</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C127" s="186">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="B128" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B128" s="173" t="s">
         <v>792</v>
       </c>
-      <c r="C128" s="186">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="193">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B129" s="173" t="s">
+        <v>17</v>
+      </c>
+      <c r="C129" s="193">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="186">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="194" t="s">
+        <v>791</v>
+      </c>
+      <c r="B131" s="16" t="s">
         <v>792</v>
       </c>
-      <c r="C129" s="193">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B130" s="173" t="s">
-        <v>17</v>
-      </c>
-      <c r="C130" s="193">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="C131" s="186">
-        <v>45151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="182" t="s">
         <v>791</v>
       </c>
       <c r="B132" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C132" s="186">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="73" t="s">
+        <v>317</v>
+      </c>
+      <c r="B133" s="173" t="s">
         <v>792</v>
       </c>
-      <c r="C132" s="186">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="182" t="s">
-        <v>791</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C133" s="186">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="193">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>317</v>
       </c>
       <c r="B134" s="173" t="s">
-        <v>792</v>
+        <v>191</v>
       </c>
       <c r="C134" s="193">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B135" s="173" t="s">
+        <v>13</v>
+      </c>
+      <c r="B135" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C135" s="193">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="186">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B136" s="16" t="s">
+        <v>585</v>
+      </c>
+      <c r="B136" s="173" t="s">
         <v>191</v>
       </c>
-      <c r="C136" s="186">
-        <v>44917</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="193">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
-        <v>585</v>
+        <v>328</v>
       </c>
       <c r="B137" s="173" t="s">
         <v>191</v>
       </c>
       <c r="C137" s="193">
-        <v>44913</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B138" s="173" t="s">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="174" t="s">
+        <v>401</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C138" s="193">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="180" t="s">
-        <v>401</v>
+      <c r="C138" s="186">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="73" t="s">
+        <v>331</v>
       </c>
       <c r="B139" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C139" s="186">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
-        <v>331</v>
+        <v>201</v>
       </c>
       <c r="B140" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C140" s="186">
-        <v>45000</v>
+      <c r="C140" s="186" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="16" t="s">
-        <v>201</v>
+      <c r="A141" s="180" t="s">
+        <v>93</v>
       </c>
       <c r="B141" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C141" s="186">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="180" t="s">
+        <v>93</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" s="186">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="194" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C143" s="186">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="B144" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C141" s="186" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="s">
+      <c r="C144" s="186">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="73" t="s">
+        <v>417</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C145" s="186">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>792</v>
+      </c>
+      <c r="C146" s="186">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="194" t="s">
+        <v>186</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C147" s="186" t="s">
         <v>823</v>
       </c>
-      <c r="B142" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="C142" s="186">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="16" t="s">
-        <v>823</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C143" s="186">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="182" t="s">
-        <v>289</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>792</v>
-      </c>
-      <c r="C144" s="186">
-        <v>44953</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="182" t="s">
-        <v>289</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="C145" s="186">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C146" s="186">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="16" t="s">
-        <v>417</v>
-      </c>
-      <c r="B147" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C147" s="186">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="182" t="s">
         <v>186</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>792</v>
+        <v>92</v>
       </c>
       <c r="C148" s="186">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="182" t="s">
         <v>186</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C149" s="186" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="182" t="s">
-        <v>186</v>
+        <v>191</v>
+      </c>
+      <c r="C149" s="186">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="73" t="s">
+        <v>373</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>92</v>
+        <v>191</v>
       </c>
       <c r="C150" s="186">
-        <v>44882</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="182" t="s">
-        <v>186</v>
+        <v>421</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C151" s="186">
-        <v>44994</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="s">
-        <v>373</v>
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="194" t="s">
+        <v>201</v>
       </c>
       <c r="B152" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C152" s="186">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="182" t="s">
-        <v>421</v>
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="73" t="s">
+        <v>9</v>
       </c>
       <c r="B153" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C153" s="186">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="182" t="s">
-        <v>201</v>
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="73" t="s">
+        <v>233</v>
       </c>
       <c r="B154" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C154" s="186">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
-        <v>9</v>
+        <v>129</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C155" s="186">
-        <v>44856</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="16" t="s">
-        <v>233</v>
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="174" t="s">
+        <v>257</v>
       </c>
       <c r="B156" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C156" s="186">
-        <v>44856</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
-        <v>129</v>
+        <v>351</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C157" s="186">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="180" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="B158" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C158" s="186">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
-        <v>351</v>
+        <v>234</v>
       </c>
       <c r="B159" s="16" t="s">
         <v>191</v>
       </c>
       <c r="C159" s="186">
-        <v>44847</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="180" t="s">
-        <v>352</v>
-      </c>
-      <c r="B160" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C160" s="186">
-        <v>44880</v>
-      </c>
+      <c r="A160"/>
+      <c r="B160"/>
+      <c r="C160"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="16" t="s">
-        <v>234</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="C161" s="186">
-        <v>44672</v>
-      </c>
+      <c r="A161"/>
+      <c r="B161"/>
+      <c r="C161"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C161" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}"/>
+  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EDC-9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA30E4A-DDEF-45CC-8546-9C02A511A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BA6E21-F5E0-4943-82DF-879922AC3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="All_Critical_Points" sheetId="6" r:id="rId3"/>
     <sheet name="phases" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
+    <sheet name="Plan" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$258</definedName>
@@ -14983,11 +14984,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15062,7 +15064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
@@ -15091,7 +15093,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>93</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>155</v>
       </c>
@@ -15524,7 +15526,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>155</v>
       </c>
@@ -15553,7 +15555,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>155</v>
       </c>
@@ -15582,7 +15584,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>155</v>
       </c>
@@ -15611,7 +15613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>155</v>
       </c>
@@ -15640,7 +15642,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="177" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="177" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -15669,7 +15671,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -15698,7 +15700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="133.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="133.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -15727,7 +15729,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -15756,7 +15758,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -15783,7 +15785,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>174</v>
       </c>
@@ -15812,7 +15814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="285" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>174</v>
       </c>
@@ -15841,7 +15843,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>174</v>
       </c>
@@ -15870,7 +15872,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>174</v>
       </c>
@@ -15899,7 +15901,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>174</v>
       </c>
@@ -15928,7 +15930,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>174</v>
       </c>
@@ -15955,7 +15957,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>13</v>
       </c>
@@ -15984,7 +15986,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>185</v>
       </c>
@@ -16013,7 +16015,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>185</v>
       </c>
@@ -16042,7 +16044,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>186</v>
       </c>
@@ -16071,7 +16073,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>186</v>
       </c>
@@ -16100,7 +16102,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -16127,7 +16129,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>186</v>
       </c>
@@ -16154,7 +16156,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>201</v>
       </c>
@@ -16183,7 +16185,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>233</v>
       </c>
@@ -16212,7 +16214,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="255" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>233</v>
       </c>
@@ -16241,7 +16243,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>233</v>
       </c>
@@ -16270,7 +16272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>233</v>
       </c>
@@ -16299,7 +16301,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>233</v>
       </c>
@@ -16328,7 +16330,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>233</v>
       </c>
@@ -16357,7 +16359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>233</v>
       </c>
@@ -16386,7 +16388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="240" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>233</v>
       </c>
@@ -16415,7 +16417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>233</v>
       </c>
@@ -16444,7 +16446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>233</v>
       </c>
@@ -16473,7 +16475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>234</v>
       </c>
@@ -16502,7 +16504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="256.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="256.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>234</v>
       </c>
@@ -16531,7 +16533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
@@ -16558,7 +16560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>243</v>
       </c>
@@ -16585,7 +16587,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>243</v>
       </c>
@@ -16614,7 +16616,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>243</v>
       </c>
@@ -16641,7 +16643,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>243</v>
       </c>
@@ -16782,7 +16784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>9</v>
       </c>
@@ -16811,7 +16813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>9</v>
       </c>
@@ -16840,7 +16842,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>9</v>
       </c>
@@ -16869,7 +16871,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>9</v>
       </c>
@@ -16898,7 +16900,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>9</v>
       </c>
@@ -16927,7 +16929,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>82</v>
       </c>
@@ -16956,7 +16958,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
@@ -16985,7 +16987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>82</v>
       </c>
@@ -17014,7 +17016,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="315" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>82</v>
       </c>
@@ -17043,7 +17045,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>82</v>
       </c>
@@ -17072,7 +17074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="345" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -17101,7 +17103,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>289</v>
       </c>
@@ -17130,7 +17132,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>289</v>
       </c>
@@ -17159,7 +17161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>289</v>
       </c>
@@ -17188,7 +17190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>289</v>
       </c>
@@ -17217,7 +17219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>289</v>
       </c>
@@ -17246,7 +17248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>289</v>
       </c>
@@ -17273,7 +17275,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>314</v>
       </c>
@@ -17302,7 +17304,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>317</v>
       </c>
@@ -17331,7 +17333,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="87" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="87" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>320</v>
       </c>
@@ -17360,7 +17362,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>320</v>
       </c>
@@ -17387,7 +17389,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>327</v>
       </c>
@@ -17414,7 +17416,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>328</v>
       </c>
@@ -17443,7 +17445,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>331</v>
       </c>
@@ -17470,7 +17472,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>331</v>
       </c>
@@ -17499,7 +17501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="213.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>331</v>
       </c>
@@ -17526,7 +17528,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>331</v>
       </c>
@@ -17553,7 +17555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>340</v>
       </c>
@@ -17582,7 +17584,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>340</v>
       </c>
@@ -17611,7 +17613,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>340</v>
       </c>
@@ -17638,7 +17640,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>351</v>
       </c>
@@ -17667,7 +17669,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="187.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>352</v>
       </c>
@@ -17696,7 +17698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>352</v>
       </c>
@@ -17725,7 +17727,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="130.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>352</v>
       </c>
@@ -17754,7 +17756,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>352</v>
       </c>
@@ -17783,7 +17785,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>352</v>
       </c>
@@ -17812,7 +17814,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="219.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="219.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>352</v>
       </c>
@@ -17841,7 +17843,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>352</v>
       </c>
@@ -17868,7 +17870,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>352</v>
       </c>
@@ -18208,7 +18210,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>8</v>
       </c>
@@ -18237,7 +18239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>401</v>
       </c>
@@ -18264,7 +18266,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="228" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="228" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>401</v>
       </c>
@@ -18293,7 +18295,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>401</v>
       </c>
@@ -18320,7 +18322,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>401</v>
       </c>
@@ -18347,7 +18349,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="171" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>401</v>
       </c>
@@ -18374,7 +18376,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>401</v>
       </c>
@@ -18401,7 +18403,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>417</v>
       </c>
@@ -18430,7 +18432,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>417</v>
       </c>
@@ -18459,7 +18461,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>421</v>
       </c>
@@ -18488,7 +18490,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>421</v>
       </c>
@@ -18517,7 +18519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>421</v>
       </c>
@@ -18546,7 +18548,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>421</v>
       </c>
@@ -18575,7 +18577,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>421</v>
       </c>
@@ -18604,7 +18606,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>421</v>
       </c>
@@ -18631,7 +18633,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>421</v>
       </c>
@@ -18658,7 +18660,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>421</v>
       </c>
@@ -18685,7 +18687,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="360" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>421</v>
       </c>
@@ -18712,7 +18714,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>421</v>
       </c>
@@ -18739,7 +18741,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>421</v>
       </c>
@@ -18766,7 +18768,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>458</v>
       </c>
@@ -20100,7 +20102,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>585</v>
       </c>
@@ -20129,7 +20131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
         <v>585</v>
       </c>
@@ -20158,7 +20160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="171" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="171" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>585</v>
       </c>
@@ -20187,7 +20189,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>585</v>
       </c>
@@ -20216,7 +20218,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>585</v>
       </c>
@@ -20245,7 +20247,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
         <v>585</v>
       </c>
@@ -20274,7 +20276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>585</v>
       </c>
@@ -20303,7 +20305,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>585</v>
       </c>
@@ -20330,7 +20332,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>585</v>
       </c>
@@ -20357,7 +20359,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>614</v>
       </c>
@@ -20386,7 +20388,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>614</v>
       </c>
@@ -20415,7 +20417,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="57" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>614</v>
       </c>
@@ -20444,7 +20446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>614</v>
       </c>
@@ -20473,7 +20475,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
         <v>614</v>
       </c>
@@ -20502,7 +20504,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>614</v>
       </c>
@@ -20531,7 +20533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>614</v>
       </c>
@@ -20560,7 +20562,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>614</v>
       </c>
@@ -20589,7 +20591,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
         <v>614</v>
       </c>
@@ -20618,7 +20620,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="194.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="194.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>614</v>
       </c>
@@ -20647,7 +20649,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
         <v>614</v>
       </c>
@@ -20676,7 +20678,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>614</v>
       </c>
@@ -20705,7 +20707,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>614</v>
       </c>
@@ -20734,7 +20736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>614</v>
       </c>
@@ -20763,7 +20765,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>614</v>
       </c>
@@ -20792,7 +20794,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>614</v>
       </c>
@@ -20819,7 +20821,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>614</v>
       </c>
@@ -20846,7 +20848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>614</v>
       </c>
@@ -20873,7 +20875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>614</v>
       </c>
@@ -20900,7 +20902,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>614</v>
       </c>
@@ -22232,7 +22234,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>796</v>
       </c>
@@ -22261,7 +22263,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="114" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>796</v>
       </c>
@@ -22290,7 +22292,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>796</v>
       </c>
@@ -22317,7 +22319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>796</v>
       </c>
@@ -22344,7 +22346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>796</v>
       </c>
@@ -22371,7 +22373,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>796</v>
       </c>
@@ -22399,7 +22401,22 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
+  <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DASCO-31"/>
+        <filter val="EDC-1"/>
+        <filter val="EDC-11"/>
+        <filter val="EDC-12"/>
+        <filter val="EDC-17"/>
+        <filter val="EDC-31"/>
+        <filter val="EDC-61"/>
+        <filter val="EDC-91"/>
+        <filter val="HT-101"/>
+        <filter val="SDF-1"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G68">
     <cfRule type="containsText" dxfId="1317" priority="1383" operator="containsText" text="0">
@@ -27807,7 +27824,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27862,11 +27879,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A142" sqref="A142"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27890,7 +27906,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>373</v>
       </c>
@@ -27901,7 +27917,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>352</v>
       </c>
@@ -27912,7 +27928,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>243</v>
       </c>
@@ -27923,7 +27939,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="174" t="s">
         <v>9</v>
       </c>
@@ -27934,7 +27950,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>104</v>
       </c>
@@ -27945,7 +27961,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="174" t="s">
         <v>234</v>
       </c>
@@ -27956,7 +27972,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
         <v>421</v>
       </c>
@@ -27967,7 +27983,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
         <v>233</v>
       </c>
@@ -27978,7 +27994,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
         <v>401</v>
       </c>
@@ -27989,7 +28005,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
         <v>129</v>
       </c>
@@ -28000,7 +28016,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
         <v>331</v>
       </c>
@@ -28011,7 +28027,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>417</v>
       </c>
@@ -28022,7 +28038,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>340</v>
       </c>
@@ -28033,7 +28049,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>257</v>
       </c>
@@ -28044,7 +28060,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>201</v>
       </c>
@@ -28055,7 +28071,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="174" t="s">
         <v>155</v>
       </c>
@@ -28066,7 +28082,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>351</v>
       </c>
@@ -28077,7 +28093,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>328</v>
       </c>
@@ -28088,7 +28104,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
         <v>585</v>
       </c>
@@ -28099,7 +28115,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
         <v>320</v>
       </c>
@@ -28110,7 +28126,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="174" t="s">
         <v>174</v>
       </c>
@@ -28121,7 +28137,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="174" t="s">
         <v>13</v>
       </c>
@@ -28132,7 +28148,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="174" t="s">
         <v>8</v>
       </c>
@@ -28143,7 +28159,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
         <v>614</v>
       </c>
@@ -28154,7 +28170,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="175" t="s">
         <v>64</v>
       </c>
@@ -28165,7 +28181,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="174" t="s">
         <v>94</v>
       </c>
@@ -28176,7 +28192,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="174" t="s">
         <v>373</v>
       </c>
@@ -28187,7 +28203,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="174" t="s">
         <v>352</v>
       </c>
@@ -28198,7 +28214,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="174" t="s">
         <v>243</v>
       </c>
@@ -28209,7 +28225,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
         <v>9</v>
       </c>
@@ -28220,7 +28236,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="174" t="s">
         <v>104</v>
       </c>
@@ -28231,7 +28247,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="174" t="s">
         <v>234</v>
       </c>
@@ -28242,7 +28258,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="174" t="s">
         <v>421</v>
       </c>
@@ -28253,7 +28269,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="174" t="s">
         <v>233</v>
       </c>
@@ -28264,7 +28280,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="174" t="s">
         <v>401</v>
       </c>
@@ -28275,7 +28291,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="174" t="s">
         <v>129</v>
       </c>
@@ -28286,7 +28302,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="174" t="s">
         <v>331</v>
       </c>
@@ -28297,7 +28313,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="174" t="s">
         <v>417</v>
       </c>
@@ -28308,7 +28324,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="174" t="s">
         <v>340</v>
       </c>
@@ -28319,7 +28335,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="174" t="s">
         <v>257</v>
       </c>
@@ -28330,7 +28346,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="174" t="s">
         <v>201</v>
       </c>
@@ -28341,7 +28357,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="174" t="s">
         <v>155</v>
       </c>
@@ -28352,7 +28368,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="174" t="s">
         <v>351</v>
       </c>
@@ -28363,7 +28379,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="174" t="s">
         <v>328</v>
       </c>
@@ -28374,7 +28390,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="176" t="s">
         <v>585</v>
       </c>
@@ -28385,7 +28401,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="176" t="s">
         <v>320</v>
       </c>
@@ -28396,7 +28412,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="174" t="s">
         <v>174</v>
       </c>
@@ -28407,7 +28423,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="174" t="s">
         <v>13</v>
       </c>
@@ -28418,7 +28434,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="176" t="s">
         <v>8</v>
       </c>
@@ -28429,7 +28445,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="176" t="s">
         <v>614</v>
       </c>
@@ -28440,7 +28456,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="177" t="s">
         <v>64</v>
       </c>
@@ -28451,7 +28467,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="176" t="s">
         <v>94</v>
       </c>
@@ -28462,7 +28478,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="178" t="s">
         <v>373</v>
       </c>
@@ -28473,7 +28489,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="178" t="s">
         <v>352</v>
       </c>
@@ -28484,7 +28500,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="178" t="s">
         <v>243</v>
       </c>
@@ -28495,7 +28511,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="174" t="s">
         <v>9</v>
       </c>
@@ -28506,7 +28522,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="174" t="s">
         <v>104</v>
       </c>
@@ -28517,7 +28533,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="178" t="s">
         <v>234</v>
       </c>
@@ -28528,7 +28544,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="174" t="s">
         <v>421</v>
       </c>
@@ -28539,7 +28555,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="178" t="s">
         <v>233</v>
       </c>
@@ -28550,7 +28566,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="174" t="s">
         <v>401</v>
       </c>
@@ -28561,7 +28577,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="174" t="s">
         <v>129</v>
       </c>
@@ -28572,7 +28588,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="174" t="s">
         <v>331</v>
       </c>
@@ -28583,7 +28599,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="178" t="s">
         <v>417</v>
       </c>
@@ -28594,7 +28610,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="174" t="s">
         <v>340</v>
       </c>
@@ -28605,7 +28621,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="178" t="s">
         <v>257</v>
       </c>
@@ -28616,7 +28632,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="174" t="s">
         <v>201</v>
       </c>
@@ -28627,7 +28643,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="174" t="s">
         <v>155</v>
       </c>
@@ -28638,7 +28654,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="174" t="s">
         <v>351</v>
       </c>
@@ -28649,7 +28665,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
         <v>328</v>
       </c>
@@ -28660,7 +28676,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="174" t="s">
         <v>585</v>
       </c>
@@ -28671,7 +28687,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="174" t="s">
         <v>320</v>
       </c>
@@ -28682,7 +28698,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="174" t="s">
         <v>174</v>
       </c>
@@ -28693,7 +28709,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="174" t="s">
         <v>13</v>
       </c>
@@ -28704,7 +28720,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="174" t="s">
         <v>8</v>
       </c>
@@ -28715,7 +28731,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="174" t="s">
         <v>614</v>
       </c>
@@ -28726,7 +28742,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="175" t="s">
         <v>64</v>
       </c>
@@ -28737,7 +28753,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="174" t="s">
         <v>94</v>
       </c>
@@ -28748,7 +28764,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="180" t="s">
         <v>234</v>
       </c>
@@ -28759,7 +28775,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="180" t="s">
         <v>243</v>
       </c>
@@ -28770,7 +28786,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="182" t="s">
         <v>796</v>
       </c>
@@ -28781,7 +28797,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="180" t="s">
         <v>129</v>
       </c>
@@ -28792,7 +28808,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="180" t="s">
         <v>351</v>
       </c>
@@ -28803,7 +28819,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
         <v>233</v>
       </c>
@@ -28814,7 +28830,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="180" t="s">
         <v>257</v>
       </c>
@@ -28825,7 +28841,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="180" t="s">
         <v>614</v>
       </c>
@@ -28836,7 +28852,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="180" t="s">
         <v>9</v>
       </c>
@@ -28847,7 +28863,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="180" t="s">
         <v>352</v>
       </c>
@@ -28858,7 +28874,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="182" t="s">
         <v>458</v>
       </c>
@@ -28869,7 +28885,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="182" t="s">
         <v>585</v>
       </c>
@@ -28880,7 +28896,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="180" t="s">
         <v>309</v>
       </c>
@@ -28891,7 +28907,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="182" t="s">
         <v>8</v>
       </c>
@@ -28902,7 +28918,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="180" t="s">
         <v>13</v>
       </c>
@@ -28913,7 +28929,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="182" t="s">
         <v>104</v>
       </c>
@@ -28924,7 +28940,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="182" t="s">
         <v>314</v>
       </c>
@@ -28935,7 +28951,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="180" t="s">
         <v>373</v>
       </c>
@@ -28946,7 +28962,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="182" t="s">
         <v>289</v>
       </c>
@@ -28968,7 +28984,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="182" t="s">
         <v>317</v>
       </c>
@@ -28979,7 +28995,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="180" t="s">
         <v>417</v>
       </c>
@@ -28990,7 +29006,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="180" t="s">
         <v>185</v>
       </c>
@@ -29001,7 +29017,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="182" t="s">
         <v>328</v>
       </c>
@@ -29012,7 +29028,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="180" t="s">
         <v>201</v>
       </c>
@@ -29023,7 +29039,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="182" t="s">
         <v>331</v>
       </c>
@@ -29034,7 +29050,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="180" t="s">
         <v>320</v>
       </c>
@@ -29045,7 +29061,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="182" t="s">
         <v>340</v>
       </c>
@@ -29056,7 +29072,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="182" t="s">
         <v>421</v>
       </c>
@@ -29067,7 +29083,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="182" t="s">
         <v>174</v>
       </c>
@@ -29078,7 +29094,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="182" t="s">
         <v>186</v>
       </c>
@@ -29089,7 +29105,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="182" t="s">
         <v>791</v>
       </c>
@@ -29100,7 +29116,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="180" t="s">
         <v>401</v>
       </c>
@@ -29111,7 +29127,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="180" t="s">
         <v>820</v>
       </c>
@@ -29122,7 +29138,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
         <v>821</v>
       </c>
@@ -29133,7 +29149,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="180" t="s">
         <v>82</v>
       </c>
@@ -29144,7 +29160,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="180" t="s">
         <v>234</v>
       </c>
@@ -29155,7 +29171,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="180" t="s">
         <v>64</v>
       </c>
@@ -29166,7 +29182,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="180" t="s">
         <v>243</v>
       </c>
@@ -29177,7 +29193,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="182" t="s">
         <v>796</v>
       </c>
@@ -29188,7 +29204,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="180" t="s">
         <v>129</v>
       </c>
@@ -29199,7 +29215,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="180" t="s">
         <v>351</v>
       </c>
@@ -29210,7 +29226,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="180" t="s">
         <v>233</v>
       </c>
@@ -29221,7 +29237,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="180" t="s">
         <v>257</v>
       </c>
@@ -29232,7 +29248,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="180" t="s">
         <v>9</v>
       </c>
@@ -29243,7 +29259,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="180" t="s">
         <v>352</v>
       </c>
@@ -29254,7 +29270,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="73" t="s">
         <v>314</v>
       </c>
@@ -29265,7 +29281,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>314</v>
       </c>
@@ -29276,7 +29292,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>185</v>
       </c>
@@ -29287,7 +29303,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>185</v>
       </c>
@@ -29298,7 +29314,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>23</v>
       </c>
@@ -29309,7 +29325,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="194" t="s">
         <v>791</v>
       </c>
@@ -29320,7 +29336,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="182" t="s">
         <v>791</v>
       </c>
@@ -29331,7 +29347,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="73" t="s">
         <v>317</v>
       </c>
@@ -29342,7 +29358,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>317</v>
       </c>
@@ -29353,7 +29369,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>13</v>
       </c>
@@ -29364,7 +29380,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>585</v>
       </c>
@@ -29375,7 +29391,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>328</v>
       </c>
@@ -29386,7 +29402,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="174" t="s">
         <v>401</v>
       </c>
@@ -29397,7 +29413,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="73" t="s">
         <v>331</v>
       </c>
@@ -29408,7 +29424,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>201</v>
       </c>
@@ -29441,7 +29457,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="194" t="s">
         <v>289</v>
       </c>
@@ -29452,7 +29468,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="73" t="s">
         <v>174</v>
       </c>
@@ -29463,7 +29479,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="73" t="s">
         <v>417</v>
       </c>
@@ -29474,7 +29490,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="194" t="s">
         <v>186</v>
       </c>
@@ -29485,7 +29501,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="194" t="s">
         <v>186</v>
       </c>
@@ -29496,7 +29512,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="182" t="s">
         <v>186</v>
       </c>
@@ -29507,7 +29523,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="182" t="s">
         <v>186</v>
       </c>
@@ -29518,7 +29534,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="73" t="s">
         <v>373</v>
       </c>
@@ -29529,7 +29545,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="182" t="s">
         <v>421</v>
       </c>
@@ -29540,7 +29556,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="194" t="s">
         <v>201</v>
       </c>
@@ -29551,7 +29567,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="73" t="s">
         <v>9</v>
       </c>
@@ -29562,7 +29578,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="73" t="s">
         <v>233</v>
       </c>
@@ -29573,7 +29589,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>129</v>
       </c>
@@ -29584,7 +29600,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="174" t="s">
         <v>257</v>
       </c>
@@ -29595,7 +29611,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>351</v>
       </c>
@@ -29606,7 +29622,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="180" t="s">
         <v>352</v>
       </c>
@@ -29617,7 +29633,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>234</v>
       </c>
@@ -29639,17 +29655,29 @@
       <c r="C161"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="EDC-9"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765CD41-2561-419E-8CED-6FB3C8F61CD3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BA6E21-F5E0-4943-82DF-879922AC3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF57BAE-9B1C-4DB8-8AAF-6C84831E02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2606" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="826">
   <si>
     <t>Team No.</t>
   </si>
@@ -2921,6 +2921,12 @@
   </si>
   <si>
     <t>14-10-21</t>
+  </si>
+  <si>
+    <t>Incident Investigation</t>
+  </si>
+  <si>
+    <t>ra-3</t>
   </si>
 </sst>
 </file>
@@ -14738,14 +14744,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.85546875" style="1"/>
-    <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -14792,7 +14798,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>825</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -14821,7 +14827,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>824</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -14886,7 +14892,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14984,12 +14990,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I258"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15064,7 +15069,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>93</v>
       </c>
@@ -15093,7 +15098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>93</v>
       </c>
@@ -15497,7 +15502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>155</v>
       </c>
@@ -15526,7 +15531,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>155</v>
       </c>
@@ -15555,7 +15560,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>155</v>
       </c>
@@ -15584,7 +15589,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>155</v>
       </c>
@@ -15613,7 +15618,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>155</v>
       </c>
@@ -15642,7 +15647,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="177" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="177" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>23</v>
       </c>
@@ -15671,7 +15676,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>23</v>
       </c>
@@ -15700,7 +15705,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="133.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="133.5" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>23</v>
       </c>
@@ -15729,7 +15734,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>23</v>
       </c>
@@ -15758,7 +15763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>23</v>
       </c>
@@ -15785,7 +15790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>174</v>
       </c>
@@ -15814,7 +15819,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="285" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="285" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>174</v>
       </c>
@@ -15843,7 +15848,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>174</v>
       </c>
@@ -15872,7 +15877,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>174</v>
       </c>
@@ -15901,7 +15906,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>174</v>
       </c>
@@ -15930,7 +15935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>174</v>
       </c>
@@ -15957,7 +15962,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>13</v>
       </c>
@@ -15986,7 +15991,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>185</v>
       </c>
@@ -16015,7 +16020,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>185</v>
       </c>
@@ -16044,7 +16049,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>186</v>
       </c>
@@ -16073,7 +16078,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>186</v>
       </c>
@@ -16102,7 +16107,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>186</v>
       </c>
@@ -16129,7 +16134,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>186</v>
       </c>
@@ -16156,7 +16161,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>201</v>
       </c>
@@ -16185,7 +16190,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>233</v>
       </c>
@@ -16214,7 +16219,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="255" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
         <v>233</v>
       </c>
@@ -16243,7 +16248,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
         <v>233</v>
       </c>
@@ -16272,7 +16277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A45" s="16" t="s">
         <v>233</v>
       </c>
@@ -16301,7 +16306,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
         <v>233</v>
       </c>
@@ -16330,7 +16335,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A47" s="16" t="s">
         <v>233</v>
       </c>
@@ -16359,7 +16364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
         <v>233</v>
       </c>
@@ -16388,7 +16393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="240" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
         <v>233</v>
       </c>
@@ -16417,7 +16422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
         <v>233</v>
       </c>
@@ -16446,7 +16451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
         <v>233</v>
       </c>
@@ -16475,7 +16480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
         <v>234</v>
       </c>
@@ -16504,7 +16509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="256.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="256.5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
         <v>234</v>
       </c>
@@ -16533,7 +16538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
         <v>234</v>
       </c>
@@ -16560,7 +16565,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
         <v>243</v>
       </c>
@@ -16587,7 +16592,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
         <v>243</v>
       </c>
@@ -16616,7 +16621,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
         <v>243</v>
       </c>
@@ -16643,7 +16648,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
         <v>243</v>
       </c>
@@ -16784,7 +16789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>9</v>
       </c>
@@ -16813,7 +16818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>9</v>
       </c>
@@ -16842,7 +16847,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
         <v>9</v>
       </c>
@@ -16871,7 +16876,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
         <v>9</v>
       </c>
@@ -16900,7 +16905,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
         <v>9</v>
       </c>
@@ -16929,7 +16934,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
         <v>82</v>
       </c>
@@ -16958,7 +16963,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
         <v>82</v>
       </c>
@@ -16987,7 +16992,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
         <v>82</v>
       </c>
@@ -17016,7 +17021,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="315" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="315" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
         <v>82</v>
       </c>
@@ -17045,7 +17050,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
         <v>82</v>
       </c>
@@ -17074,7 +17079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="345" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="345" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
         <v>82</v>
       </c>
@@ -17103,7 +17108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
         <v>289</v>
       </c>
@@ -17132,7 +17137,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
         <v>289</v>
       </c>
@@ -17161,7 +17166,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
         <v>289</v>
       </c>
@@ -17190,7 +17195,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
         <v>289</v>
       </c>
@@ -17219,7 +17224,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
         <v>289</v>
       </c>
@@ -17248,7 +17253,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A79" s="16" t="s">
         <v>289</v>
       </c>
@@ -17275,7 +17280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="16" t="s">
         <v>314</v>
       </c>
@@ -17304,7 +17309,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="16" t="s">
         <v>317</v>
       </c>
@@ -17333,7 +17338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="87" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A82" s="16" t="s">
         <v>320</v>
       </c>
@@ -17362,7 +17367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A83" s="16" t="s">
         <v>320</v>
       </c>
@@ -17389,7 +17394,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
         <v>327</v>
       </c>
@@ -17416,7 +17421,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
         <v>328</v>
       </c>
@@ -17445,7 +17450,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A86" s="16" t="s">
         <v>331</v>
       </c>
@@ -17472,7 +17477,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A87" s="16" t="s">
         <v>331</v>
       </c>
@@ -17501,7 +17506,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="213.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="213.75" x14ac:dyDescent="0.25">
       <c r="A88" s="16" t="s">
         <v>331</v>
       </c>
@@ -17528,7 +17533,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A89" s="16" t="s">
         <v>331</v>
       </c>
@@ -17555,7 +17560,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A90" s="16" t="s">
         <v>340</v>
       </c>
@@ -17584,7 +17589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="210" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="210" x14ac:dyDescent="0.25">
       <c r="A91" s="16" t="s">
         <v>340</v>
       </c>
@@ -17613,7 +17618,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="270.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="270.75" x14ac:dyDescent="0.25">
       <c r="A92" s="16" t="s">
         <v>340</v>
       </c>
@@ -17640,7 +17645,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="16" t="s">
         <v>351</v>
       </c>
@@ -17669,7 +17674,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="187.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="187.5" x14ac:dyDescent="0.25">
       <c r="A94" s="16" t="s">
         <v>352</v>
       </c>
@@ -17698,7 +17703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A95" s="16" t="s">
         <v>352</v>
       </c>
@@ -17727,7 +17732,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="130.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="130.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16" t="s">
         <v>352</v>
       </c>
@@ -17756,7 +17761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A97" s="16" t="s">
         <v>352</v>
       </c>
@@ -17785,7 +17790,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A98" s="16" t="s">
         <v>352</v>
       </c>
@@ -17814,7 +17819,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="219.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="219.75" x14ac:dyDescent="0.25">
       <c r="A99" s="16" t="s">
         <v>352</v>
       </c>
@@ -17843,7 +17848,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A100" s="16" t="s">
         <v>352</v>
       </c>
@@ -17870,7 +17875,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A101" s="16" t="s">
         <v>352</v>
       </c>
@@ -18210,7 +18215,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="16" t="s">
         <v>8</v>
       </c>
@@ -18239,7 +18244,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A114" s="16" t="s">
         <v>401</v>
       </c>
@@ -18266,7 +18271,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="228" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="228" x14ac:dyDescent="0.25">
       <c r="A115" s="16" t="s">
         <v>401</v>
       </c>
@@ -18295,7 +18300,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A116" s="16" t="s">
         <v>401</v>
       </c>
@@ -18322,7 +18327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A117" s="16" t="s">
         <v>401</v>
       </c>
@@ -18349,7 +18354,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A118" s="16" t="s">
         <v>401</v>
       </c>
@@ -18376,7 +18381,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A119" s="16" t="s">
         <v>401</v>
       </c>
@@ -18403,7 +18408,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A120" s="16" t="s">
         <v>417</v>
       </c>
@@ -18432,7 +18437,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A121" s="16" t="s">
         <v>417</v>
       </c>
@@ -18461,7 +18466,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A122" s="16" t="s">
         <v>421</v>
       </c>
@@ -18490,7 +18495,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A123" s="16" t="s">
         <v>421</v>
       </c>
@@ -18519,7 +18524,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="156.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="156.75" x14ac:dyDescent="0.25">
       <c r="A124" s="16" t="s">
         <v>421</v>
       </c>
@@ -18548,7 +18553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A125" s="16" t="s">
         <v>421</v>
       </c>
@@ -18577,7 +18582,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A126" s="16" t="s">
         <v>421</v>
       </c>
@@ -18606,7 +18611,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>421</v>
       </c>
@@ -18633,7 +18638,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>421</v>
       </c>
@@ -18660,7 +18665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>421</v>
       </c>
@@ -18687,7 +18692,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="360" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="360" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>421</v>
       </c>
@@ -18714,7 +18719,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A131" s="16" t="s">
         <v>421</v>
       </c>
@@ -18741,7 +18746,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A132" s="16" t="s">
         <v>421</v>
       </c>
@@ -18768,7 +18773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A133" s="16" t="s">
         <v>458</v>
       </c>
@@ -20102,7 +20107,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>585</v>
       </c>
@@ -20131,7 +20136,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A180" s="16" t="s">
         <v>585</v>
       </c>
@@ -20160,7 +20165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="171" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="171" x14ac:dyDescent="0.25">
       <c r="A181" s="16" t="s">
         <v>585</v>
       </c>
@@ -20189,7 +20194,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A182" s="16" t="s">
         <v>585</v>
       </c>
@@ -20218,7 +20223,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A183" s="16" t="s">
         <v>585</v>
       </c>
@@ -20247,7 +20252,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="99.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="99.75" x14ac:dyDescent="0.25">
       <c r="A184" s="16" t="s">
         <v>585</v>
       </c>
@@ -20276,7 +20281,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A185" s="16" t="s">
         <v>585</v>
       </c>
@@ -20305,7 +20310,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A186" s="16" t="s">
         <v>585</v>
       </c>
@@ -20332,7 +20337,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A187" s="16" t="s">
         <v>585</v>
       </c>
@@ -20359,7 +20364,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A188" s="16" t="s">
         <v>614</v>
       </c>
@@ -20388,7 +20393,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
         <v>614</v>
       </c>
@@ -20417,7 +20422,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="57" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
         <v>614</v>
       </c>
@@ -20446,7 +20451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="236.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="236.25" x14ac:dyDescent="0.25">
       <c r="A191" s="16" t="s">
         <v>614</v>
       </c>
@@ -20475,7 +20480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
         <v>614</v>
       </c>
@@ -20504,7 +20509,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A193" s="16" t="s">
         <v>614</v>
       </c>
@@ -20533,7 +20538,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="128.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="128.25" x14ac:dyDescent="0.25">
       <c r="A194" s="16" t="s">
         <v>614</v>
       </c>
@@ -20562,7 +20567,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A195" s="16" t="s">
         <v>614</v>
       </c>
@@ -20591,7 +20596,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A196" s="16" t="s">
         <v>614</v>
       </c>
@@ -20620,7 +20625,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="194.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="194.25" x14ac:dyDescent="0.25">
       <c r="A197" s="16" t="s">
         <v>614</v>
       </c>
@@ -20649,7 +20654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
         <v>614</v>
       </c>
@@ -20678,7 +20683,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
         <v>614</v>
       </c>
@@ -20707,7 +20712,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>614</v>
       </c>
@@ -20736,7 +20741,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A201" s="16" t="s">
         <v>614</v>
       </c>
@@ -20765,7 +20770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A202" s="16" t="s">
         <v>614</v>
       </c>
@@ -20794,7 +20799,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A203" s="16" t="s">
         <v>614</v>
       </c>
@@ -20821,7 +20826,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" s="16" t="s">
         <v>614</v>
       </c>
@@ -20848,7 +20853,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A205" s="16" t="s">
         <v>614</v>
       </c>
@@ -20875,7 +20880,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A206" s="16" t="s">
         <v>614</v>
       </c>
@@ -20902,7 +20907,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A207" s="16" t="s">
         <v>614</v>
       </c>
@@ -22234,7 +22239,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="85.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="85.5" x14ac:dyDescent="0.25">
       <c r="A253" s="16" t="s">
         <v>796</v>
       </c>
@@ -22263,7 +22268,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="114" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="114" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
         <v>796</v>
       </c>
@@ -22292,7 +22297,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A255" s="16" t="s">
         <v>796</v>
       </c>
@@ -22319,7 +22324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="409.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A256" s="16" t="s">
         <v>796</v>
       </c>
@@ -22346,7 +22351,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="185.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="185.25" x14ac:dyDescent="0.25">
       <c r="A257" s="16" t="s">
         <v>796</v>
       </c>
@@ -22373,7 +22378,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16" t="s">
         <v>796</v>
       </c>
@@ -22401,22 +22406,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DASCO-31"/>
-        <filter val="EDC-1"/>
-        <filter val="EDC-11"/>
-        <filter val="EDC-12"/>
-        <filter val="EDC-17"/>
-        <filter val="EDC-31"/>
-        <filter val="EDC-61"/>
-        <filter val="EDC-91"/>
-        <filter val="HT-101"/>
-        <filter val="SDF-1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I258" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="G68">
     <cfRule type="containsText" dxfId="1317" priority="1383" operator="containsText" text="0">
@@ -29666,15 +29656,34 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765CD41-2561-419E-8CED-6FB3C8F61CD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF57BAE-9B1C-4DB8-8AAF-6C84831E02CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDF6BB0-AF5E-45C4-828C-093041669FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2923,10 +2923,10 @@
     <t>14-10-21</t>
   </si>
   <si>
-    <t>Incident Investigation</t>
-  </si>
-  <si>
     <t>ra-3</t>
+  </si>
+  <si>
+    <t>Incident_Investigation</t>
   </si>
 </sst>
 </file>
@@ -14745,7 +14745,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14798,7 +14798,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -14827,7 +14827,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472E2939-9AFD-47FF-81BB-9EF67F660F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD55B6-1678-4983-8A33-7FA616B1730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="824">
   <si>
     <t>Team No.</t>
   </si>
@@ -3400,7 +3400,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4079,6 +4079,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{D054C9F1-3C1D-460E-81B3-5271225944FC}"/>
@@ -14738,7 +14741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -27850,10 +27853,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27877,7 +27881,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>372</v>
       </c>
@@ -27888,7 +27892,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>351</v>
       </c>
@@ -27899,7 +27903,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>242</v>
       </c>
@@ -27910,7 +27914,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="174" t="s">
         <v>9</v>
       </c>
@@ -27921,7 +27925,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>103</v>
       </c>
@@ -27932,7 +27936,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="174" t="s">
         <v>233</v>
       </c>
@@ -27943,7 +27947,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
         <v>420</v>
       </c>
@@ -27954,7 +27958,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
         <v>232</v>
       </c>
@@ -27965,7 +27969,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
         <v>400</v>
       </c>
@@ -27976,7 +27980,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
         <v>128</v>
       </c>
@@ -27987,7 +27991,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
         <v>330</v>
       </c>
@@ -27998,7 +28002,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>416</v>
       </c>
@@ -28009,7 +28013,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>339</v>
       </c>
@@ -28020,7 +28024,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>256</v>
       </c>
@@ -28031,7 +28035,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>200</v>
       </c>
@@ -28042,7 +28046,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="174" t="s">
         <v>154</v>
       </c>
@@ -28053,7 +28057,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>350</v>
       </c>
@@ -28064,7 +28068,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>327</v>
       </c>
@@ -28075,7 +28079,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
         <v>584</v>
       </c>
@@ -28086,7 +28090,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
         <v>319</v>
       </c>
@@ -28097,7 +28101,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="174" t="s">
         <v>173</v>
       </c>
@@ -28108,7 +28112,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="174" t="s">
         <v>13</v>
       </c>
@@ -28119,7 +28123,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="174" t="s">
         <v>8</v>
       </c>
@@ -28130,7 +28134,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
         <v>613</v>
       </c>
@@ -28141,7 +28145,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="175" t="s">
         <v>63</v>
       </c>
@@ -28152,7 +28156,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="174" t="s">
         <v>93</v>
       </c>
@@ -28163,7 +28167,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="174" t="s">
         <v>372</v>
       </c>
@@ -28174,7 +28178,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="174" t="s">
         <v>351</v>
       </c>
@@ -28185,7 +28189,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="174" t="s">
         <v>242</v>
       </c>
@@ -28196,7 +28200,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
         <v>9</v>
       </c>
@@ -28207,7 +28211,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="174" t="s">
         <v>103</v>
       </c>
@@ -28218,7 +28222,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="174" t="s">
         <v>233</v>
       </c>
@@ -28229,7 +28233,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="174" t="s">
         <v>420</v>
       </c>
@@ -28240,7 +28244,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="174" t="s">
         <v>232</v>
       </c>
@@ -28251,7 +28255,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="174" t="s">
         <v>400</v>
       </c>
@@ -28262,7 +28266,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="174" t="s">
         <v>128</v>
       </c>
@@ -28273,7 +28277,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="174" t="s">
         <v>330</v>
       </c>
@@ -28284,7 +28288,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="174" t="s">
         <v>416</v>
       </c>
@@ -28295,7 +28299,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="174" t="s">
         <v>339</v>
       </c>
@@ -28306,7 +28310,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="174" t="s">
         <v>256</v>
       </c>
@@ -28317,7 +28321,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="174" t="s">
         <v>200</v>
       </c>
@@ -28328,7 +28332,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="174" t="s">
         <v>154</v>
       </c>
@@ -28339,7 +28343,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="174" t="s">
         <v>350</v>
       </c>
@@ -28350,7 +28354,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="174" t="s">
         <v>327</v>
       </c>
@@ -28361,7 +28365,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="176" t="s">
         <v>584</v>
       </c>
@@ -28372,7 +28376,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="176" t="s">
         <v>319</v>
       </c>
@@ -28383,7 +28387,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="174" t="s">
         <v>173</v>
       </c>
@@ -28394,7 +28398,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="174" t="s">
         <v>13</v>
       </c>
@@ -28405,7 +28409,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="176" t="s">
         <v>8</v>
       </c>
@@ -28416,7 +28420,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="176" t="s">
         <v>613</v>
       </c>
@@ -28427,7 +28431,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="177" t="s">
         <v>63</v>
       </c>
@@ -28438,7 +28442,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="176" t="s">
         <v>93</v>
       </c>
@@ -28449,7 +28453,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="178" t="s">
         <v>372</v>
       </c>
@@ -28460,7 +28464,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="178" t="s">
         <v>351</v>
       </c>
@@ -28471,7 +28475,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="178" t="s">
         <v>242</v>
       </c>
@@ -28482,7 +28486,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="174" t="s">
         <v>9</v>
       </c>
@@ -28493,7 +28497,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="174" t="s">
         <v>103</v>
       </c>
@@ -28504,7 +28508,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="178" t="s">
         <v>233</v>
       </c>
@@ -28515,7 +28519,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="174" t="s">
         <v>420</v>
       </c>
@@ -28526,7 +28530,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="178" t="s">
         <v>232</v>
       </c>
@@ -28537,7 +28541,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="174" t="s">
         <v>400</v>
       </c>
@@ -28548,7 +28552,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="174" t="s">
         <v>128</v>
       </c>
@@ -28559,7 +28563,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="174" t="s">
         <v>330</v>
       </c>
@@ -28570,7 +28574,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="178" t="s">
         <v>416</v>
       </c>
@@ -28581,7 +28585,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="174" t="s">
         <v>339</v>
       </c>
@@ -28592,7 +28596,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="178" t="s">
         <v>256</v>
       </c>
@@ -28603,7 +28607,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="174" t="s">
         <v>200</v>
       </c>
@@ -28614,7 +28618,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="174" t="s">
         <v>154</v>
       </c>
@@ -28625,7 +28629,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="174" t="s">
         <v>350</v>
       </c>
@@ -28636,7 +28640,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
         <v>327</v>
       </c>
@@ -28647,7 +28651,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="174" t="s">
         <v>584</v>
       </c>
@@ -28658,7 +28662,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="174" t="s">
         <v>319</v>
       </c>
@@ -28669,7 +28673,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="174" t="s">
         <v>173</v>
       </c>
@@ -28680,7 +28684,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="174" t="s">
         <v>13</v>
       </c>
@@ -28691,7 +28695,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="174" t="s">
         <v>8</v>
       </c>
@@ -28702,7 +28706,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="174" t="s">
         <v>613</v>
       </c>
@@ -28713,7 +28717,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="175" t="s">
         <v>63</v>
       </c>
@@ -28724,7 +28728,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="174" t="s">
         <v>93</v>
       </c>
@@ -28735,7 +28739,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="180" t="s">
         <v>233</v>
       </c>
@@ -28746,7 +28750,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="180" t="s">
         <v>242</v>
       </c>
@@ -28757,7 +28761,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="182" t="s">
         <v>795</v>
       </c>
@@ -28768,7 +28772,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="180" t="s">
         <v>128</v>
       </c>
@@ -28779,7 +28783,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="180" t="s">
         <v>350</v>
       </c>
@@ -28790,7 +28794,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
         <v>232</v>
       </c>
@@ -28801,7 +28805,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="180" t="s">
         <v>256</v>
       </c>
@@ -28812,7 +28816,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="180" t="s">
         <v>613</v>
       </c>
@@ -28823,7 +28827,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="180" t="s">
         <v>9</v>
       </c>
@@ -28834,7 +28838,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="180" t="s">
         <v>351</v>
       </c>
@@ -28845,7 +28849,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="182" t="s">
         <v>457</v>
       </c>
@@ -28856,7 +28860,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="182" t="s">
         <v>584</v>
       </c>
@@ -28867,7 +28871,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="180" t="s">
         <v>308</v>
       </c>
@@ -28878,7 +28882,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="182" t="s">
         <v>8</v>
       </c>
@@ -28889,7 +28893,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="180" t="s">
         <v>13</v>
       </c>
@@ -28900,7 +28904,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="182" t="s">
         <v>103</v>
       </c>
@@ -28911,7 +28915,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="182" t="s">
         <v>313</v>
       </c>
@@ -28922,7 +28926,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="180" t="s">
         <v>372</v>
       </c>
@@ -28944,7 +28948,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="180" t="s">
         <v>92</v>
       </c>
@@ -28955,7 +28959,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="182" t="s">
         <v>316</v>
       </c>
@@ -28966,7 +28970,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="180" t="s">
         <v>416</v>
       </c>
@@ -28977,7 +28981,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="180" t="s">
         <v>184</v>
       </c>
@@ -28988,7 +28992,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="182" t="s">
         <v>327</v>
       </c>
@@ -28999,7 +29003,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="180" t="s">
         <v>200</v>
       </c>
@@ -29010,7 +29014,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="182" t="s">
         <v>330</v>
       </c>
@@ -29021,7 +29025,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="180" t="s">
         <v>319</v>
       </c>
@@ -29032,7 +29036,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="182" t="s">
         <v>339</v>
       </c>
@@ -29043,7 +29047,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="182" t="s">
         <v>420</v>
       </c>
@@ -29054,7 +29058,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="182" t="s">
         <v>173</v>
       </c>
@@ -29065,7 +29069,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="182" t="s">
         <v>185</v>
       </c>
@@ -29076,7 +29080,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="182" t="s">
         <v>790</v>
       </c>
@@ -29087,7 +29091,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="180" t="s">
         <v>400</v>
       </c>
@@ -29098,7 +29102,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="180" t="s">
         <v>819</v>
       </c>
@@ -29109,7 +29113,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
         <v>820</v>
       </c>
@@ -29120,7 +29124,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="180" t="s">
         <v>81</v>
       </c>
@@ -29131,7 +29135,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="180" t="s">
         <v>233</v>
       </c>
@@ -29142,7 +29146,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="180" t="s">
         <v>63</v>
       </c>
@@ -29153,7 +29157,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="180" t="s">
         <v>242</v>
       </c>
@@ -29164,7 +29168,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="182" t="s">
         <v>795</v>
       </c>
@@ -29175,7 +29179,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="180" t="s">
         <v>128</v>
       </c>
@@ -29186,7 +29190,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="180" t="s">
         <v>350</v>
       </c>
@@ -29197,7 +29201,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="180" t="s">
         <v>232</v>
       </c>
@@ -29208,7 +29212,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="180" t="s">
         <v>256</v>
       </c>
@@ -29219,7 +29223,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="180" t="s">
         <v>9</v>
       </c>
@@ -29230,7 +29234,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="180" t="s">
         <v>351</v>
       </c>
@@ -29241,7 +29245,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="73" t="s">
         <v>313</v>
       </c>
@@ -29252,7 +29256,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>313</v>
       </c>
@@ -29263,7 +29267,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>184</v>
       </c>
@@ -29274,7 +29278,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>184</v>
       </c>
@@ -29285,7 +29289,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>23</v>
       </c>
@@ -29296,7 +29300,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="194" t="s">
         <v>790</v>
       </c>
@@ -29307,7 +29311,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="182" t="s">
         <v>790</v>
       </c>
@@ -29318,7 +29322,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="73" t="s">
         <v>316</v>
       </c>
@@ -29329,7 +29333,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>316</v>
       </c>
@@ -29340,7 +29344,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>13</v>
       </c>
@@ -29351,7 +29355,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>584</v>
       </c>
@@ -29362,7 +29366,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>327</v>
       </c>
@@ -29373,7 +29377,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="174" t="s">
         <v>400</v>
       </c>
@@ -29384,7 +29388,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="73" t="s">
         <v>330</v>
       </c>
@@ -29395,7 +29399,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>200</v>
       </c>
@@ -29406,7 +29410,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="180" t="s">
         <v>92</v>
       </c>
@@ -29417,7 +29421,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="180" t="s">
         <v>92</v>
       </c>
@@ -29439,7 +29443,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="73" t="s">
         <v>173</v>
       </c>
@@ -29450,7 +29454,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="73" t="s">
         <v>416</v>
       </c>
@@ -29461,7 +29465,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="194" t="s">
         <v>185</v>
       </c>
@@ -29472,7 +29476,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="194" t="s">
         <v>185</v>
       </c>
@@ -29483,7 +29487,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="182" t="s">
         <v>185</v>
       </c>
@@ -29494,7 +29498,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="182" t="s">
         <v>185</v>
       </c>
@@ -29505,7 +29509,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="73" t="s">
         <v>372</v>
       </c>
@@ -29516,7 +29520,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="182" t="s">
         <v>420</v>
       </c>
@@ -29527,7 +29531,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="194" t="s">
         <v>200</v>
       </c>
@@ -29538,7 +29542,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="73" t="s">
         <v>9</v>
       </c>
@@ -29549,7 +29553,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="73" t="s">
         <v>232</v>
       </c>
@@ -29560,7 +29564,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>128</v>
       </c>
@@ -29571,7 +29575,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="174" t="s">
         <v>256</v>
       </c>
@@ -29582,7 +29586,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>350</v>
       </c>
@@ -29593,7 +29597,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="180" t="s">
         <v>351</v>
       </c>
@@ -29604,7 +29608,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>233</v>
       </c>
@@ -29616,17 +29620,29 @@
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160"/>
-      <c r="B160"/>
-      <c r="C160"/>
+      <c r="A160" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C160" s="195">
+        <v>44752</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161"/>
-      <c r="B161"/>
-      <c r="C161"/>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}"/>
+  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="EDC-75"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -29637,10 +29653,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765CD41-2561-419E-8CED-6FB3C8F61CD3}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29648,18 +29664,14 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBD55B6-1678-4983-8A33-7FA616B1730E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C901D-A414-4C12-8AC8-1F30A7D5B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,11 @@
     <sheet name="phases" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
     <sheet name="Plan" sheetId="9" r:id="rId6"/>
+    <sheet name="Team_Details" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$258</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="841">
   <si>
     <t>Team No.</t>
   </si>
@@ -2921,6 +2922,57 @@
   </si>
   <si>
     <t>ra-3</t>
+  </si>
+  <si>
+    <t>Rig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit </t>
+  </si>
+  <si>
+    <t>Audit/Drops</t>
+  </si>
+  <si>
+    <t>Audit</t>
+  </si>
+  <si>
+    <t>Job_State</t>
+  </si>
+  <si>
+    <t>Job_Type</t>
+  </si>
+  <si>
+    <t>Departure_Date</t>
+  </si>
+  <si>
+    <t>Arrival_Date</t>
+  </si>
+  <si>
+    <t>Team_No.</t>
+  </si>
+  <si>
+    <t>3rd Campaign</t>
+  </si>
+  <si>
+    <t>Structure_Survey</t>
+  </si>
+  <si>
+    <t>Drops</t>
+  </si>
+  <si>
+    <t>Mohamed</t>
+  </si>
+  <si>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>FFF</t>
+  </si>
+  <si>
+    <t>FFFG</t>
+  </si>
+  <si>
+    <t>Investigation</t>
   </si>
 </sst>
 </file>
@@ -3400,7 +3452,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4082,6 +4134,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{D054C9F1-3C1D-460E-81B3-5271225944FC}"/>
@@ -14742,7 +14803,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14876,7 +14937,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14917,21 +14978,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="8"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="8"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -27853,11 +27914,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27881,7 +27941,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="174" t="s">
         <v>372</v>
       </c>
@@ -27892,7 +27952,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
         <v>351</v>
       </c>
@@ -27903,7 +27963,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="174" t="s">
         <v>242</v>
       </c>
@@ -27914,7 +27974,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="174" t="s">
         <v>9</v>
       </c>
@@ -27925,7 +27985,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="174" t="s">
         <v>103</v>
       </c>
@@ -27936,7 +27996,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="174" t="s">
         <v>233</v>
       </c>
@@ -27947,7 +28007,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="174" t="s">
         <v>420</v>
       </c>
@@ -27958,7 +28018,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="174" t="s">
         <v>232</v>
       </c>
@@ -27969,7 +28029,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="174" t="s">
         <v>400</v>
       </c>
@@ -27980,7 +28040,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="174" t="s">
         <v>128</v>
       </c>
@@ -27991,7 +28051,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="174" t="s">
         <v>330</v>
       </c>
@@ -28002,7 +28062,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="174" t="s">
         <v>416</v>
       </c>
@@ -28013,7 +28073,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="174" t="s">
         <v>339</v>
       </c>
@@ -28024,7 +28084,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="174" t="s">
         <v>256</v>
       </c>
@@ -28035,7 +28095,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="174" t="s">
         <v>200</v>
       </c>
@@ -28046,7 +28106,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="174" t="s">
         <v>154</v>
       </c>
@@ -28057,7 +28117,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="174" t="s">
         <v>350</v>
       </c>
@@ -28068,7 +28128,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="174" t="s">
         <v>327</v>
       </c>
@@ -28079,7 +28139,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="174" t="s">
         <v>584</v>
       </c>
@@ -28090,7 +28150,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="174" t="s">
         <v>319</v>
       </c>
@@ -28101,7 +28161,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="174" t="s">
         <v>173</v>
       </c>
@@ -28112,7 +28172,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="174" t="s">
         <v>13</v>
       </c>
@@ -28123,7 +28183,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="174" t="s">
         <v>8</v>
       </c>
@@ -28134,7 +28194,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="174" t="s">
         <v>613</v>
       </c>
@@ -28145,7 +28205,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="175" t="s">
         <v>63</v>
       </c>
@@ -28156,7 +28216,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="174" t="s">
         <v>93</v>
       </c>
@@ -28167,7 +28227,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="174" t="s">
         <v>372</v>
       </c>
@@ -28178,7 +28238,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="174" t="s">
         <v>351</v>
       </c>
@@ -28189,7 +28249,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="174" t="s">
         <v>242</v>
       </c>
@@ -28200,7 +28260,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="174" t="s">
         <v>9</v>
       </c>
@@ -28211,7 +28271,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="174" t="s">
         <v>103</v>
       </c>
@@ -28222,7 +28282,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="174" t="s">
         <v>233</v>
       </c>
@@ -28233,7 +28293,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="174" t="s">
         <v>420</v>
       </c>
@@ -28244,7 +28304,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="174" t="s">
         <v>232</v>
       </c>
@@ -28255,7 +28315,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="174" t="s">
         <v>400</v>
       </c>
@@ -28266,7 +28326,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="174" t="s">
         <v>128</v>
       </c>
@@ -28277,7 +28337,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="174" t="s">
         <v>330</v>
       </c>
@@ -28288,7 +28348,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="174" t="s">
         <v>416</v>
       </c>
@@ -28299,7 +28359,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="174" t="s">
         <v>339</v>
       </c>
@@ -28310,7 +28370,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="174" t="s">
         <v>256</v>
       </c>
@@ -28321,7 +28381,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="174" t="s">
         <v>200</v>
       </c>
@@ -28332,7 +28392,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="174" t="s">
         <v>154</v>
       </c>
@@ -28343,7 +28403,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="174" t="s">
         <v>350</v>
       </c>
@@ -28354,7 +28414,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="174" t="s">
         <v>327</v>
       </c>
@@ -28365,7 +28425,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="176" t="s">
         <v>584</v>
       </c>
@@ -28376,7 +28436,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="176" t="s">
         <v>319</v>
       </c>
@@ -28387,7 +28447,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="174" t="s">
         <v>173</v>
       </c>
@@ -28398,7 +28458,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="174" t="s">
         <v>13</v>
       </c>
@@ -28409,7 +28469,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="176" t="s">
         <v>8</v>
       </c>
@@ -28420,7 +28480,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="176" t="s">
         <v>613</v>
       </c>
@@ -28431,7 +28491,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="177" t="s">
         <v>63</v>
       </c>
@@ -28442,7 +28502,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="176" t="s">
         <v>93</v>
       </c>
@@ -28453,7 +28513,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="178" t="s">
         <v>372</v>
       </c>
@@ -28464,7 +28524,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="178" t="s">
         <v>351</v>
       </c>
@@ -28475,7 +28535,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="178" t="s">
         <v>242</v>
       </c>
@@ -28486,7 +28546,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="174" t="s">
         <v>9</v>
       </c>
@@ -28497,7 +28557,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="174" t="s">
         <v>103</v>
       </c>
@@ -28508,7 +28568,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="178" t="s">
         <v>233</v>
       </c>
@@ -28519,7 +28579,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="174" t="s">
         <v>420</v>
       </c>
@@ -28530,7 +28590,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="178" t="s">
         <v>232</v>
       </c>
@@ -28541,7 +28601,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="174" t="s">
         <v>400</v>
       </c>
@@ -28552,7 +28612,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="174" t="s">
         <v>128</v>
       </c>
@@ -28563,7 +28623,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="174" t="s">
         <v>330</v>
       </c>
@@ -28574,7 +28634,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="178" t="s">
         <v>416</v>
       </c>
@@ -28585,7 +28645,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="174" t="s">
         <v>339</v>
       </c>
@@ -28596,7 +28656,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="178" t="s">
         <v>256</v>
       </c>
@@ -28607,7 +28667,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="174" t="s">
         <v>200</v>
       </c>
@@ -28618,7 +28678,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="174" t="s">
         <v>154</v>
       </c>
@@ -28629,7 +28689,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="174" t="s">
         <v>350</v>
       </c>
@@ -28640,7 +28700,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="178" t="s">
         <v>327</v>
       </c>
@@ -28651,7 +28711,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="174" t="s">
         <v>584</v>
       </c>
@@ -28662,7 +28722,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="174" t="s">
         <v>319</v>
       </c>
@@ -28673,7 +28733,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="174" t="s">
         <v>173</v>
       </c>
@@ -28684,7 +28744,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="174" t="s">
         <v>13</v>
       </c>
@@ -28695,7 +28755,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="174" t="s">
         <v>8</v>
       </c>
@@ -28706,7 +28766,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="174" t="s">
         <v>613</v>
       </c>
@@ -28717,7 +28777,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="175" t="s">
         <v>63</v>
       </c>
@@ -28728,7 +28788,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="174" t="s">
         <v>93</v>
       </c>
@@ -28739,7 +28799,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="180" t="s">
         <v>233</v>
       </c>
@@ -28750,7 +28810,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="180" t="s">
         <v>242</v>
       </c>
@@ -28761,7 +28821,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="182" t="s">
         <v>795</v>
       </c>
@@ -28772,7 +28832,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="180" t="s">
         <v>128</v>
       </c>
@@ -28783,7 +28843,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="180" t="s">
         <v>350</v>
       </c>
@@ -28794,7 +28854,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="180" t="s">
         <v>232</v>
       </c>
@@ -28805,7 +28865,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="180" t="s">
         <v>256</v>
       </c>
@@ -28816,7 +28876,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="180" t="s">
         <v>613</v>
       </c>
@@ -28827,7 +28887,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="180" t="s">
         <v>9</v>
       </c>
@@ -28838,7 +28898,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="180" t="s">
         <v>351</v>
       </c>
@@ -28849,7 +28909,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="182" t="s">
         <v>457</v>
       </c>
@@ -28860,7 +28920,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="182" t="s">
         <v>584</v>
       </c>
@@ -28871,7 +28931,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="180" t="s">
         <v>308</v>
       </c>
@@ -28882,7 +28942,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="182" t="s">
         <v>8</v>
       </c>
@@ -28893,7 +28953,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="180" t="s">
         <v>13</v>
       </c>
@@ -28904,7 +28964,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="182" t="s">
         <v>103</v>
       </c>
@@ -28915,7 +28975,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="182" t="s">
         <v>313</v>
       </c>
@@ -28926,7 +28986,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="180" t="s">
         <v>372</v>
       </c>
@@ -28948,7 +29008,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="180" t="s">
         <v>92</v>
       </c>
@@ -28959,7 +29019,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="182" t="s">
         <v>316</v>
       </c>
@@ -28970,7 +29030,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="180" t="s">
         <v>416</v>
       </c>
@@ -28981,7 +29041,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="180" t="s">
         <v>184</v>
       </c>
@@ -28992,7 +29052,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="182" t="s">
         <v>327</v>
       </c>
@@ -29003,7 +29063,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="180" t="s">
         <v>200</v>
       </c>
@@ -29014,7 +29074,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="182" t="s">
         <v>330</v>
       </c>
@@ -29025,7 +29085,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="180" t="s">
         <v>319</v>
       </c>
@@ -29036,7 +29096,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="182" t="s">
         <v>339</v>
       </c>
@@ -29047,7 +29107,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="182" t="s">
         <v>420</v>
       </c>
@@ -29058,7 +29118,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="182" t="s">
         <v>173</v>
       </c>
@@ -29069,7 +29129,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="182" t="s">
         <v>185</v>
       </c>
@@ -29080,7 +29140,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="182" t="s">
         <v>790</v>
       </c>
@@ -29091,7 +29151,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="180" t="s">
         <v>400</v>
       </c>
@@ -29102,7 +29162,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="180" t="s">
         <v>819</v>
       </c>
@@ -29113,7 +29173,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="180" t="s">
         <v>820</v>
       </c>
@@ -29124,7 +29184,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="180" t="s">
         <v>81</v>
       </c>
@@ -29135,7 +29195,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="180" t="s">
         <v>233</v>
       </c>
@@ -29146,7 +29206,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="180" t="s">
         <v>63</v>
       </c>
@@ -29157,7 +29217,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="180" t="s">
         <v>242</v>
       </c>
@@ -29168,7 +29228,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="182" t="s">
         <v>795</v>
       </c>
@@ -29179,7 +29239,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="180" t="s">
         <v>128</v>
       </c>
@@ -29190,7 +29250,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="180" t="s">
         <v>350</v>
       </c>
@@ -29201,7 +29261,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="180" t="s">
         <v>232</v>
       </c>
@@ -29212,7 +29272,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="180" t="s">
         <v>256</v>
       </c>
@@ -29223,7 +29283,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="180" t="s">
         <v>9</v>
       </c>
@@ -29234,7 +29294,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="180" t="s">
         <v>351</v>
       </c>
@@ -29245,7 +29305,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="73" t="s">
         <v>313</v>
       </c>
@@ -29256,7 +29316,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="16" t="s">
         <v>313</v>
       </c>
@@ -29267,7 +29327,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="16" t="s">
         <v>184</v>
       </c>
@@ -29278,7 +29338,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="16" t="s">
         <v>184</v>
       </c>
@@ -29289,7 +29349,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="16" t="s">
         <v>23</v>
       </c>
@@ -29300,7 +29360,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="194" t="s">
         <v>790</v>
       </c>
@@ -29311,7 +29371,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="182" t="s">
         <v>790</v>
       </c>
@@ -29322,7 +29382,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="73" t="s">
         <v>316</v>
       </c>
@@ -29333,7 +29393,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="16" t="s">
         <v>316</v>
       </c>
@@ -29344,7 +29404,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="16" t="s">
         <v>13</v>
       </c>
@@ -29355,7 +29415,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="16" t="s">
         <v>584</v>
       </c>
@@ -29366,7 +29426,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="16" t="s">
         <v>327</v>
       </c>
@@ -29377,7 +29437,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="174" t="s">
         <v>400</v>
       </c>
@@ -29388,7 +29448,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="73" t="s">
         <v>330</v>
       </c>
@@ -29399,7 +29459,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="16" t="s">
         <v>200</v>
       </c>
@@ -29410,7 +29470,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="180" t="s">
         <v>92</v>
       </c>
@@ -29421,7 +29481,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="180" t="s">
         <v>92</v>
       </c>
@@ -29443,7 +29503,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="73" t="s">
         <v>173</v>
       </c>
@@ -29454,7 +29514,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="73" t="s">
         <v>416</v>
       </c>
@@ -29465,7 +29525,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="194" t="s">
         <v>185</v>
       </c>
@@ -29476,7 +29536,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="194" t="s">
         <v>185</v>
       </c>
@@ -29487,7 +29547,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="182" t="s">
         <v>185</v>
       </c>
@@ -29498,7 +29558,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="182" t="s">
         <v>185</v>
       </c>
@@ -29509,7 +29569,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="73" t="s">
         <v>372</v>
       </c>
@@ -29520,7 +29580,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="182" t="s">
         <v>420</v>
       </c>
@@ -29531,7 +29591,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="194" t="s">
         <v>200</v>
       </c>
@@ -29542,7 +29602,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="73" t="s">
         <v>9</v>
       </c>
@@ -29553,7 +29613,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="73" t="s">
         <v>232</v>
       </c>
@@ -29564,7 +29624,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="16" t="s">
         <v>128</v>
       </c>
@@ -29575,7 +29635,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="174" t="s">
         <v>256</v>
       </c>
@@ -29586,7 +29646,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="16" t="s">
         <v>350</v>
       </c>
@@ -29597,7 +29657,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="180" t="s">
         <v>351</v>
       </c>
@@ -29608,7 +29668,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="16" t="s">
         <v>233</v>
       </c>
@@ -29636,13 +29696,7 @@
       <c r="C161" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C159" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="EDC-75"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:C160" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -29653,26 +29707,249 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765CD41-2561-419E-8CED-6FB3C8F61CD3}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="4" width="17" style="173" customWidth="1"/>
+    <col min="5" max="6" width="17" style="193" customWidth="1"/>
+    <col min="7" max="7" width="17" style="173" customWidth="1"/>
+    <col min="8" max="12" width="17" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>831</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>830</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="196" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="196" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" s="196" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="196">
+        <v>-1</v>
+      </c>
+      <c r="E2" s="197">
+        <v>45150</v>
+      </c>
+      <c r="F2" s="197">
+        <v>45173</v>
+      </c>
+      <c r="G2" s="196" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="173" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="173" t="s">
+        <v>827</v>
+      </c>
+      <c r="C3" s="173" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="173">
+        <v>0</v>
+      </c>
+      <c r="E3" s="193">
+        <v>45155</v>
+      </c>
+      <c r="F3" s="193">
+        <v>45181</v>
+      </c>
+      <c r="G3" s="173" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="173" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B4" s="173" t="s">
+        <v>835</v>
+      </c>
+      <c r="C4" s="173" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="173">
+        <v>1</v>
+      </c>
+      <c r="E4" s="193">
+        <v>45151</v>
+      </c>
+      <c r="F4" s="193">
+        <v>45182</v>
+      </c>
+      <c r="G4" s="173" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="196" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="173" t="s">
+        <v>825</v>
+      </c>
+      <c r="C5" s="173" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="196">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="197">
+        <v>45150</v>
+      </c>
+      <c r="F5" s="197">
+        <v>45173</v>
+      </c>
+      <c r="G5" s="173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="173" t="s">
         <v>29</v>
+      </c>
+      <c r="B6" s="173" t="s">
+        <v>825</v>
+      </c>
+      <c r="C6" s="173" t="s">
+        <v>326</v>
+      </c>
+      <c r="D6" s="173">
+        <v>0</v>
+      </c>
+      <c r="E6" s="193">
+        <v>45155</v>
+      </c>
+      <c r="F6" s="193">
+        <v>45181</v>
+      </c>
+      <c r="G6" s="173" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="173" t="s">
+        <v>836</v>
+      </c>
+      <c r="B7" s="173" t="s">
+        <v>827</v>
+      </c>
+      <c r="C7" s="173" t="s">
+        <v>327</v>
+      </c>
+      <c r="D7" s="173">
+        <v>1</v>
+      </c>
+      <c r="E7" s="193">
+        <v>45151</v>
+      </c>
+      <c r="F7" s="193">
+        <v>45182</v>
+      </c>
+      <c r="G7" s="173" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="173" t="s">
+        <v>837</v>
+      </c>
+      <c r="B8" s="173" t="s">
+        <v>827</v>
+      </c>
+      <c r="C8" s="173" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="196">
+        <v>-1</v>
+      </c>
+      <c r="E8" s="197">
+        <v>45150</v>
+      </c>
+      <c r="F8" s="197">
+        <v>45173</v>
+      </c>
+      <c r="G8" s="173" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="173" t="s">
+        <v>838</v>
+      </c>
+      <c r="B9" s="173" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="173" t="s">
+        <v>339</v>
+      </c>
+      <c r="D9" s="173">
+        <v>0</v>
+      </c>
+      <c r="E9" s="193">
+        <v>45155</v>
+      </c>
+      <c r="F9" s="193">
+        <v>45181</v>
+      </c>
+      <c r="G9" s="173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="173" t="s">
+        <v>839</v>
+      </c>
+      <c r="B10" s="173" t="s">
+        <v>827</v>
+      </c>
+      <c r="C10" s="173" t="s">
+        <v>350</v>
+      </c>
+      <c r="D10" s="173">
+        <v>1</v>
+      </c>
+      <c r="E10" s="193">
+        <v>45151</v>
+      </c>
+      <c r="F10" s="193">
+        <v>45182</v>
+      </c>
+      <c r="G10" s="173" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -29682,4 +29959,19 @@
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11382C-A366-4929-81D9-7D33540661EF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057C901D-A414-4C12-8AC8-1F30A7D5B017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8DA8D-84A7-43A2-A6AB-0E07C9508F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2650" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="846">
   <si>
     <t>Team No.</t>
   </si>
@@ -2973,6 +2973,21 @@
   </si>
   <si>
     <t>Investigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QHSE Auditor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electrical Auditor </t>
+  </si>
+  <si>
+    <t>Mechanical Auditor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural Auditor </t>
+  </si>
+  <si>
+    <t>INCIDENT_INVESTIGATION</t>
   </si>
 </sst>
 </file>
@@ -14802,8 +14817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14878,7 +14893,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>845</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -29709,8 +29724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C765CD41-2561-419E-8CED-6FB3C8F61CD3}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29963,12 +29978,59 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11382C-A366-4929-81D9-7D33540661EF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\Material\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8DA8D-84A7-43A2-A6AB-0E07C9508F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7445628-EDF1-4DDF-8988-6B9E67785D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="847">
   <si>
     <t>Team No.</t>
   </si>
@@ -2981,13 +2981,16 @@
     <t xml:space="preserve">Electrical Auditor </t>
   </si>
   <si>
-    <t>Mechanical Auditor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Structural Auditor </t>
   </si>
   <si>
-    <t>INCIDENT_INVESTIGATION</t>
+    <t>Ahmed</t>
+  </si>
+  <si>
+    <t>Mahmoud</t>
+  </si>
+  <si>
+    <t>Engineer Name</t>
   </si>
 </sst>
 </file>
@@ -14817,8 +14820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14893,7 +14896,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>845</v>
+        <v>17</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -15052,9 +15055,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29981,25 +29984,23 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>842</v>
@@ -30008,7 +30009,7 @@
         <v>841</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>835</v>
@@ -30018,15 +30019,60 @@
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>836</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>845</v>
       </c>
     </row>
   </sheetData>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7445628-EDF1-4DDF-8988-6B9E67785D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{012F3496-BF9A-4C1E-A11E-BADA53CE762C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2674" uniqueCount="849">
   <si>
     <t>Team No.</t>
   </si>
@@ -2991,6 +2991,12 @@
   </si>
   <si>
     <t>Engineer Name</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Incident_Investigation</t>
   </si>
 </sst>
 </file>
@@ -14821,7 +14827,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14896,7 +14902,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>848</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -14955,7 +14961,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15055,9 +15061,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D92473-FE1C-4ED8-A4FD-CA608ACABA5E}">
   <dimension ref="A1:I258"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D258" sqref="D258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27935,7 +27941,7 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29728,7 +29734,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29983,8 +29989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11382C-A366-4929-81D9-7D33540661EF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30002,6 +30008,9 @@
       <c r="A1" s="1" t="s">
         <v>846</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>847</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>842</v>
       </c>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B8DA8D-84A7-43A2-A6AB-0E07C9508F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8296B-9283-415D-B5C8-93A20C768BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14818,7 +14818,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\Material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB8296B-9283-415D-B5C8-93A20C768BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8786EE6-94ED-428D-AC5C-71502B674514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2659" uniqueCount="845">
   <si>
     <t>Team No.</t>
   </si>
@@ -2919,9 +2919,6 @@
   </si>
   <si>
     <t>14-10-21</t>
-  </si>
-  <si>
-    <t>ra-3</t>
   </si>
   <si>
     <t>Rig</t>
@@ -14818,7 +14815,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14867,7 +14864,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>823</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -14893,7 +14890,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>20</v>
@@ -29739,25 +29736,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>830</v>
+      </c>
+      <c r="F1" s="198" t="s">
+        <v>829</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>828</v>
-      </c>
-      <c r="E1" s="198" t="s">
-        <v>831</v>
-      </c>
-      <c r="F1" s="198" t="s">
-        <v>830</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -29765,7 +29762,7 @@
         <v>27</v>
       </c>
       <c r="B2" s="196" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C2" s="196" t="s">
         <v>103</v>
@@ -29788,7 +29785,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="173" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C3" s="173" t="s">
         <v>313</v>
@@ -29811,7 +29808,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="173" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C4" s="173" t="s">
         <v>316</v>
@@ -29826,7 +29823,7 @@
         <v>45182</v>
       </c>
       <c r="G4" s="173" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -29834,7 +29831,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C5" s="173" t="s">
         <v>308</v>
@@ -29857,7 +29854,7 @@
         <v>29</v>
       </c>
       <c r="B6" s="173" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C6" s="173" t="s">
         <v>326</v>
@@ -29877,10 +29874,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="173" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B7" s="173" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C7" s="173" t="s">
         <v>327</v>
@@ -29895,15 +29892,15 @@
         <v>45182</v>
       </c>
       <c r="G7" s="173" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="173" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B8" s="173" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C8" s="173" t="s">
         <v>330</v>
@@ -29918,15 +29915,15 @@
         <v>45173</v>
       </c>
       <c r="G8" s="173" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="173" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" s="173" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C9" s="173" t="s">
         <v>339</v>
@@ -29946,10 +29943,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="173" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B10" s="173" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C10" s="173" t="s">
         <v>350</v>
@@ -29999,19 +29996,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>844</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA68DAC3-A5FC-48F3-A8E8-4FB476ABAE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDCE50-16BE-474F-B63A-BEE0EA5564BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -14518,8 +14518,8 @@
   <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H268" sqref="H268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27243,10 +27243,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C163" sqref="C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27270,7 +27271,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>346</v>
       </c>
@@ -27281,7 +27282,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>325</v>
       </c>
@@ -27292,7 +27293,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170" t="s">
         <v>232</v>
       </c>
@@ -27303,7 +27304,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
@@ -27314,7 +27315,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
@@ -27325,7 +27326,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170" t="s">
         <v>223</v>
       </c>
@@ -27336,7 +27337,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>394</v>
       </c>
@@ -27347,7 +27348,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>222</v>
       </c>
@@ -27358,7 +27359,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>374</v>
       </c>
@@ -27369,7 +27370,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
         <v>118</v>
       </c>
@@ -27380,7 +27381,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
         <v>304</v>
       </c>
@@ -27391,7 +27392,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>390</v>
       </c>
@@ -27402,7 +27403,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>313</v>
       </c>
@@ -27413,7 +27414,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>246</v>
       </c>
@@ -27424,7 +27425,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>190</v>
       </c>
@@ -27435,7 +27436,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>144</v>
       </c>
@@ -27446,7 +27447,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
         <v>324</v>
       </c>
@@ -27457,7 +27458,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="170" t="s">
         <v>301</v>
       </c>
@@ -27468,7 +27469,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="170" t="s">
         <v>558</v>
       </c>
@@ -27479,7 +27480,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="170" t="s">
         <v>293</v>
       </c>
@@ -27490,7 +27491,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="170" t="s">
         <v>163</v>
       </c>
@@ -27501,7 +27502,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="170" t="s">
         <v>11</v>
       </c>
@@ -27512,7 +27513,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="170" t="s">
         <v>8</v>
       </c>
@@ -27523,7 +27524,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
         <v>587</v>
       </c>
@@ -27534,7 +27535,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="171" t="s">
         <v>53</v>
       </c>
@@ -27545,7 +27546,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
         <v>83</v>
       </c>
@@ -27556,7 +27557,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
         <v>346</v>
       </c>
@@ -27567,7 +27568,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
         <v>325</v>
       </c>
@@ -27578,7 +27579,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
         <v>232</v>
       </c>
@@ -27589,7 +27590,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
         <v>9</v>
       </c>
@@ -27600,7 +27601,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
         <v>93</v>
       </c>
@@ -27611,7 +27612,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
         <v>223</v>
       </c>
@@ -27622,7 +27623,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
         <v>394</v>
       </c>
@@ -27633,7 +27634,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
         <v>222</v>
       </c>
@@ -27644,7 +27645,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
         <v>374</v>
       </c>
@@ -27655,7 +27656,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
         <v>118</v>
       </c>
@@ -27666,7 +27667,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
         <v>304</v>
       </c>
@@ -27677,7 +27678,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
         <v>390</v>
       </c>
@@ -27688,7 +27689,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
         <v>313</v>
       </c>
@@ -27699,7 +27700,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
         <v>246</v>
       </c>
@@ -27710,7 +27711,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
         <v>190</v>
       </c>
@@ -27721,7 +27722,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="170" t="s">
         <v>144</v>
       </c>
@@ -27732,7 +27733,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="170" t="s">
         <v>324</v>
       </c>
@@ -27743,7 +27744,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="170" t="s">
         <v>301</v>
       </c>
@@ -27754,7 +27755,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="172" t="s">
         <v>558</v>
       </c>
@@ -27765,7 +27766,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="172" t="s">
         <v>293</v>
       </c>
@@ -27776,7 +27777,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="170" t="s">
         <v>163</v>
       </c>
@@ -27787,7 +27788,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="170" t="s">
         <v>11</v>
       </c>
@@ -27798,7 +27799,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="172" t="s">
         <v>8</v>
       </c>
@@ -27809,7 +27810,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="172" t="s">
         <v>587</v>
       </c>
@@ -27820,7 +27821,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="173" t="s">
         <v>53</v>
       </c>
@@ -27831,7 +27832,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="172" t="s">
         <v>83</v>
       </c>
@@ -27842,7 +27843,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="174" t="s">
         <v>346</v>
       </c>
@@ -27853,7 +27854,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="174" t="s">
         <v>325</v>
       </c>
@@ -27864,7 +27865,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="174" t="s">
         <v>232</v>
       </c>
@@ -27875,7 +27876,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="170" t="s">
         <v>9</v>
       </c>
@@ -27886,7 +27887,7 @@
         <v>37551</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="170" t="s">
         <v>93</v>
       </c>
@@ -27897,7 +27898,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="174" t="s">
         <v>223</v>
       </c>
@@ -27908,7 +27909,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
         <v>394</v>
       </c>
@@ -27919,7 +27920,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="174" t="s">
         <v>222</v>
       </c>
@@ -27930,7 +27931,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="170" t="s">
         <v>374</v>
       </c>
@@ -27941,7 +27942,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="170" t="s">
         <v>118</v>
       </c>
@@ -27952,7 +27953,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="170" t="s">
         <v>304</v>
       </c>
@@ -27963,7 +27964,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="174" t="s">
         <v>390</v>
       </c>
@@ -27974,7 +27975,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="170" t="s">
         <v>313</v>
       </c>
@@ -27985,7 +27986,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="174" t="s">
         <v>246</v>
       </c>
@@ -27996,7 +27997,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="170" t="s">
         <v>190</v>
       </c>
@@ -28007,7 +28008,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="170" t="s">
         <v>144</v>
       </c>
@@ -28018,7 +28019,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
         <v>324</v>
       </c>
@@ -28029,7 +28030,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="174" t="s">
         <v>301</v>
       </c>
@@ -28040,7 +28041,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="170" t="s">
         <v>558</v>
       </c>
@@ -28051,7 +28052,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="170" t="s">
         <v>293</v>
       </c>
@@ -28062,7 +28063,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="170" t="s">
         <v>163</v>
       </c>
@@ -28073,7 +28074,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
         <v>11</v>
       </c>
@@ -28084,7 +28085,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
         <v>8</v>
       </c>
@@ -28095,7 +28096,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="170" t="s">
         <v>587</v>
       </c>
@@ -28106,7 +28107,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="171" t="s">
         <v>53</v>
       </c>
@@ -28117,7 +28118,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="170" t="s">
         <v>83</v>
       </c>
@@ -28128,7 +28129,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="176" t="s">
         <v>223</v>
       </c>
@@ -28139,7 +28140,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="176" t="s">
         <v>232</v>
       </c>
@@ -28150,7 +28151,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="178" t="s">
         <v>769</v>
       </c>
@@ -28161,7 +28162,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="176" t="s">
         <v>118</v>
       </c>
@@ -28172,7 +28173,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="176" t="s">
         <v>324</v>
       </c>
@@ -28183,7 +28184,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="176" t="s">
         <v>222</v>
       </c>
@@ -28194,7 +28195,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="176" t="s">
         <v>246</v>
       </c>
@@ -28205,7 +28206,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="176" t="s">
         <v>587</v>
       </c>
@@ -28216,7 +28217,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="176" t="s">
         <v>9</v>
       </c>
@@ -28227,7 +28228,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="176" t="s">
         <v>325</v>
       </c>
@@ -28238,7 +28239,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="178" t="s">
         <v>431</v>
       </c>
@@ -28249,7 +28250,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="178" t="s">
         <v>558</v>
       </c>
@@ -28260,7 +28261,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="176" t="s">
         <v>283</v>
       </c>
@@ -28271,7 +28272,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="178" t="s">
         <v>8</v>
       </c>
@@ -28282,7 +28283,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="176" t="s">
         <v>11</v>
       </c>
@@ -28293,7 +28294,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="178" t="s">
         <v>93</v>
       </c>
@@ -28304,7 +28305,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="178" t="s">
         <v>288</v>
       </c>
@@ -28315,7 +28316,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="176" t="s">
         <v>346</v>
       </c>
@@ -28326,7 +28327,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="178" t="s">
         <v>263</v>
       </c>
@@ -28337,7 +28338,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="176" t="s">
         <v>82</v>
       </c>
@@ -28348,7 +28349,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="178" t="s">
         <v>290</v>
       </c>
@@ -28359,7 +28360,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="176" t="s">
         <v>390</v>
       </c>
@@ -28370,7 +28371,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="176" t="s">
         <v>174</v>
       </c>
@@ -28381,7 +28382,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="178" t="s">
         <v>301</v>
       </c>
@@ -28392,7 +28393,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="176" t="s">
         <v>190</v>
       </c>
@@ -28403,7 +28404,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="178" t="s">
         <v>304</v>
       </c>
@@ -28414,7 +28415,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="176" t="s">
         <v>293</v>
       </c>
@@ -28425,7 +28426,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="178" t="s">
         <v>313</v>
       </c>
@@ -28436,7 +28437,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="178" t="s">
         <v>394</v>
       </c>
@@ -28447,7 +28448,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="178" t="s">
         <v>163</v>
       </c>
@@ -28458,7 +28459,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="178" t="s">
         <v>175</v>
       </c>
@@ -28480,7 +28481,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="176" t="s">
         <v>374</v>
       </c>
@@ -28491,7 +28492,7 @@
         <v>45093</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="176" t="s">
         <v>793</v>
       </c>
@@ -28502,7 +28503,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="176" t="s">
         <v>794</v>
       </c>
@@ -28513,7 +28514,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="176" t="s">
         <v>71</v>
       </c>
@@ -28524,7 +28525,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="176" t="s">
         <v>223</v>
       </c>
@@ -28535,7 +28536,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="176" t="s">
         <v>53</v>
       </c>
@@ -28546,7 +28547,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="176" t="s">
         <v>232</v>
       </c>
@@ -28557,7 +28558,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="178" t="s">
         <v>769</v>
       </c>
@@ -28568,7 +28569,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="176" t="s">
         <v>118</v>
       </c>
@@ -28579,7 +28580,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="176" t="s">
         <v>324</v>
       </c>
@@ -28590,7 +28591,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="176" t="s">
         <v>222</v>
       </c>
@@ -28601,7 +28602,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="176" t="s">
         <v>246</v>
       </c>
@@ -28612,7 +28613,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="176" t="s">
         <v>9</v>
       </c>
@@ -28623,7 +28624,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="176" t="s">
         <v>325</v>
       </c>
@@ -28634,7 +28635,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>288</v>
       </c>
@@ -28645,7 +28646,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="14" t="s">
         <v>288</v>
       </c>
@@ -28656,7 +28657,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="14" t="s">
         <v>174</v>
       </c>
@@ -28667,7 +28668,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="14" t="s">
         <v>174</v>
       </c>
@@ -28678,7 +28679,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="14" t="s">
         <v>19</v>
       </c>
@@ -28708,10 +28709,10 @@
         <v>15</v>
       </c>
       <c r="C132" s="182">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="70" t="s">
         <v>290</v>
       </c>
@@ -28722,7 +28723,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="14" t="s">
         <v>290</v>
       </c>
@@ -28733,7 +28734,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="14" t="s">
         <v>11</v>
       </c>
@@ -28744,7 +28745,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="14" t="s">
         <v>558</v>
       </c>
@@ -28755,7 +28756,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="14" t="s">
         <v>301</v>
       </c>
@@ -28766,7 +28767,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="170" t="s">
         <v>374</v>
       </c>
@@ -28777,7 +28778,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="70" t="s">
         <v>304</v>
       </c>
@@ -28788,7 +28789,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="14" t="s">
         <v>190</v>
       </c>
@@ -28799,7 +28800,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="176" t="s">
         <v>82</v>
       </c>
@@ -28810,7 +28811,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="176" t="s">
         <v>82</v>
       </c>
@@ -28821,7 +28822,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="190" t="s">
         <v>263</v>
       </c>
@@ -28832,7 +28833,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="70" t="s">
         <v>163</v>
       </c>
@@ -28843,7 +28844,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="70" t="s">
         <v>390</v>
       </c>
@@ -28854,7 +28855,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="190" t="s">
         <v>175</v>
       </c>
@@ -28865,7 +28866,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="190" t="s">
         <v>175</v>
       </c>
@@ -28876,7 +28877,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="178" t="s">
         <v>175</v>
       </c>
@@ -28887,7 +28888,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="178" t="s">
         <v>175</v>
       </c>
@@ -28898,7 +28899,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="70" t="s">
         <v>346</v>
       </c>
@@ -28909,7 +28910,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="178" t="s">
         <v>394</v>
       </c>
@@ -28920,7 +28921,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="190" t="s">
         <v>190</v>
       </c>
@@ -28931,7 +28932,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="70" t="s">
         <v>9</v>
       </c>
@@ -28942,7 +28943,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="70" t="s">
         <v>222</v>
       </c>
@@ -28953,7 +28954,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="14" t="s">
         <v>118</v>
       </c>
@@ -28964,7 +28965,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="170" t="s">
         <v>246</v>
       </c>
@@ -28975,7 +28976,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="14" t="s">
         <v>324</v>
       </c>
@@ -28986,7 +28987,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="176" t="s">
         <v>325</v>
       </c>
@@ -28997,7 +28998,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
         <v>223</v>
       </c>
@@ -29008,7 +29009,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>263</v>
       </c>
@@ -29019,7 +29020,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>93</v>
       </c>
@@ -29030,7 +29031,7 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="14" t="s">
         <v>8</v>
       </c>
@@ -29042,7 +29043,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C162" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}"/>
+  <autoFilter ref="A1:C162" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="HT-101"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -29453,8 +29460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D11382C-A366-4929-81D9-7D33540661EF}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EDCE50-16BE-474F-B63A-BEE0EA5564BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F0A7FB-1933-491C-9250-F9F24BA323E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3429,7 +3429,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="208">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4033,38 +4033,14 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="33" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="9" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="10" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4075,14 +4051,8 @@
     <xf numFmtId="164" fontId="33" fillId="9" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="10" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4093,9 +4063,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4103,6 +4070,79 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="33" fillId="11" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="11" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="9" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="9" borderId="4" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="11" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -27243,18 +27283,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C163" sqref="C163"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" style="182" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" style="174" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="70"/>
     <col min="5" max="5" width="24.7109375" style="70" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="70"/>
@@ -27267,1788 +27306,1786 @@
       <c r="B1" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="175" t="s">
+      <c r="C1" s="173" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>346</v>
       </c>
       <c r="B2" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="183">
+      <c r="C2" s="175">
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>325</v>
       </c>
       <c r="B3" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="175">
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="170" t="s">
         <v>232</v>
       </c>
       <c r="B4" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="186">
+      <c r="C4" s="177">
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="187">
+      <c r="C5" s="200">
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
       <c r="B6" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="175">
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="170" t="s">
         <v>223</v>
       </c>
       <c r="B7" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="175">
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>394</v>
       </c>
       <c r="B8" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="175">
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>222</v>
       </c>
       <c r="B9" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="183">
+      <c r="C9" s="175">
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>374</v>
       </c>
       <c r="B10" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="183">
+      <c r="C10" s="175">
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
-        <v>118</v>
+        <v>304</v>
       </c>
       <c r="B11" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="183">
-        <v>44347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="175">
+        <v>44345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
-        <v>304</v>
+        <v>118</v>
       </c>
       <c r="B12" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="183">
-        <v>44345</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="175">
+        <v>44347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>390</v>
       </c>
       <c r="B13" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="183">
+      <c r="C13" s="175">
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>313</v>
       </c>
       <c r="B14" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="183">
+      <c r="C14" s="175">
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>246</v>
       </c>
       <c r="B15" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="183">
+      <c r="C15" s="175">
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>190</v>
       </c>
       <c r="B16" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="183">
+      <c r="C16" s="175">
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>144</v>
       </c>
       <c r="B17" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="183">
+      <c r="C17" s="175">
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
         <v>324</v>
       </c>
       <c r="B18" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="183">
+      <c r="C18" s="175">
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="170" t="s">
         <v>301</v>
       </c>
       <c r="B19" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="183">
+      <c r="C19" s="175">
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="170" t="s">
         <v>558</v>
       </c>
       <c r="B20" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="183">
+      <c r="C20" s="175">
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="170" t="s">
         <v>293</v>
       </c>
       <c r="B21" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="183">
+      <c r="C21" s="175">
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="170" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B22" s="169" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" s="179">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="170" t="s">
         <v>163</v>
-      </c>
-      <c r="B22" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="183">
-        <v>44483</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="170" t="s">
-        <v>11</v>
       </c>
       <c r="B23" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="183">
-        <v>44509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="175">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="170" t="s">
         <v>8</v>
       </c>
       <c r="B24" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="175">
         <v>44504</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
-        <v>587</v>
+        <v>11</v>
       </c>
       <c r="B25" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="186">
-        <v>44708</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="171" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="183">
-        <v>44615</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="175">
+        <v>44509</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="186" t="s">
+        <v>394</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C26" s="175">
+        <v>44544</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="183">
-        <v>44712</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C27" s="175">
+        <v>44546</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
-        <v>346</v>
+        <v>118</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C28" s="183">
-        <v>44556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="175">
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C29" s="183">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="175">
+        <v>44548</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C30" s="183">
-        <v>44552</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="175">
+        <v>44550</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C31" s="183">
-        <v>44589</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="175">
+        <v>44552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C32" s="183">
-        <v>44669</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="175">
+        <v>44554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
-        <v>223</v>
+        <v>346</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C33" s="183">
-        <v>44550</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="175">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
-        <v>394</v>
+        <v>313</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C34" s="183">
-        <v>44544</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="175">
+        <v>44558</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C35" s="183">
-        <v>44546</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="175">
+        <v>44580</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
-        <v>374</v>
+        <v>190</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C36" s="183">
-        <v>44592</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="175">
+        <v>44581</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
-        <v>118</v>
+        <v>301</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C37" s="183">
-        <v>44547</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="175">
+        <v>44583</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
         <v>304</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C38" s="183">
+      <c r="C38" s="175">
         <v>44586</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
-        <v>390</v>
+        <v>325</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C39" s="183">
-        <v>44554</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="175">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
-        <v>313</v>
+        <v>9</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C40" s="183">
-        <v>44558</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="175">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
-        <v>246</v>
+        <v>144</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C41" s="183">
-        <v>44548</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="175">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
-        <v>190</v>
+        <v>374</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C42" s="183">
-        <v>44581</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="170" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C43" s="183">
-        <v>44591</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="170" t="s">
-        <v>324</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C44" s="183">
-        <v>44580</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="170" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C45" s="183">
-        <v>44583</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="172" t="s">
-        <v>558</v>
+      <c r="C42" s="175">
+        <v>44592</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="172" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="178">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="172" t="s">
+        <v>325</v>
+      </c>
+      <c r="B44" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="178">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="185" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="175">
+        <v>44615</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="170" t="s">
+        <v>11</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C46" s="184">
-        <v>44736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="175">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="172" t="s">
-        <v>293</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C47" s="184">
-        <v>44818</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="170" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="178">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="B48" s="169" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="179">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="172" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="178">
+        <v>44652</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="170" t="s">
         <v>163</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C48" s="183">
-        <v>44666</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C49" s="183">
-        <v>44622</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="172" t="s">
-        <v>8</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C50" s="184">
-        <v>44821</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="172" t="s">
-        <v>587</v>
+      <c r="C50" s="175">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="170" t="s">
+        <v>93</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C51" s="184">
-        <v>44918</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="173" t="s">
-        <v>53</v>
+      <c r="C51" s="175">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="201" t="s">
+        <v>223</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C52" s="184">
-        <v>44791</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>180</v>
+      </c>
+      <c r="C52" s="174">
+        <v>44672</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="172" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C53" s="184">
-        <v>44852</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="174" t="s">
-        <v>346</v>
+        <v>246</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C53" s="178">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="172" t="s">
+        <v>223</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="188">
-        <v>44612</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="174" t="s">
-        <v>325</v>
+      <c r="C54" s="178">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="172" t="s">
+        <v>222</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C55" s="188">
-        <v>44613</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="174" t="s">
-        <v>232</v>
+      <c r="C55" s="178">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="172" t="s">
+        <v>390</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="188">
-        <v>44652</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="170" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C57" s="183">
-        <v>37551</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="170" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" s="169" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="189">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="174" t="s">
-        <v>223</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C59" s="188">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="178">
+        <v>44697</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="179">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C58" s="174">
+        <v>44706</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="170" t="s">
+        <v>587</v>
+      </c>
+      <c r="B59" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59" s="177">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
-        <v>394</v>
-      </c>
-      <c r="B60" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="183">
-        <v>44811</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="174" t="s">
-        <v>222</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="188">
-        <v>44680</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="B60" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="175">
+        <v>44712</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="180" t="s">
+        <v>764</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="174">
+        <v>44726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="170" t="s">
-        <v>374</v>
+        <v>118</v>
       </c>
       <c r="B62" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="183">
-        <v>44826</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="170" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="183">
+      <c r="C62" s="175">
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="171" t="s">
+        <v>558</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C63" s="176">
+        <v>44736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="170" t="s">
         <v>304</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="183">
+      <c r="C64" s="175">
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="174" t="s">
-        <v>390</v>
-      </c>
-      <c r="B65" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C65" s="188">
-        <v>44697</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="169" t="s">
+        <v>263</v>
+      </c>
+      <c r="B65" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65" s="207">
+        <v>44752</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="170" t="s">
-        <v>313</v>
+        <v>190</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C66" s="183">
-        <v>44828</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="174" t="s">
-        <v>246</v>
+      <c r="C66" s="175">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="170" t="s">
+        <v>11</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C67" s="188">
-        <v>44673</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="170" t="s">
-        <v>190</v>
-      </c>
-      <c r="B68" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C68" s="183">
+      <c r="C67" s="175">
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="202" t="s">
+        <v>53</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C68" s="176">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="170" t="s">
-        <v>144</v>
+        <v>394</v>
       </c>
       <c r="B69" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="183">
-        <v>44826</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="175">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
-        <v>324</v>
+        <v>163</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C70" s="183">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="174" t="s">
-        <v>301</v>
+      <c r="C70" s="175">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="170" t="s">
+        <v>558</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="188">
-        <v>44639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="170" t="s">
-        <v>558</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C72" s="183">
+      <c r="C71" s="175">
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="170" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="171" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="183">
-        <v>44977</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C72" s="176">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="C73" s="176">
+        <v>44821</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="170" t="s">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="B74" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="183">
-        <v>44816</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="175">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
-        <v>11</v>
+        <v>144</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C75" s="183">
-        <v>44786</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="175">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="183">
-        <v>44877</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="170" t="s">
-        <v>587</v>
-      </c>
-      <c r="B77" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C77" s="183">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="171" t="s">
-        <v>53</v>
+      <c r="C76" s="175">
+        <v>44828</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>346</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C77" s="174">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="186" t="s">
+        <v>324</v>
       </c>
       <c r="B78" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="183">
+      <c r="C78" s="175">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="174">
+        <v>44847</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" s="200">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C81" s="198">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="189" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C82" s="199">
+        <v>44852</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="187" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C83" s="198">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="B84" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="198">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B85" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C85" s="197">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="197">
+        <v>44877</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B87" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C87" s="198">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="187" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C88" s="198">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="184" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="198">
+        <v>44880</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="187" t="s">
+        <v>288</v>
+      </c>
+      <c r="B90" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C90" s="198">
+        <v>44881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="B91" s="187" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" s="198">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B92" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C92" s="198">
+        <v>44890</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="B93" s="187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93" s="198">
+        <v>44894</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="187" t="s">
+        <v>558</v>
+      </c>
+      <c r="B94" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="200">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="187" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C95" s="198">
+        <v>44917</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="189" t="s">
+        <v>587</v>
+      </c>
+      <c r="B96" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C96" s="199">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="188" t="s">
+        <v>53</v>
+      </c>
+      <c r="B97" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C97" s="197">
         <v>44937</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="170" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="187" t="s">
+        <v>301</v>
+      </c>
+      <c r="B98" s="194" t="s">
+        <v>180</v>
+      </c>
+      <c r="C98" s="200">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="B99" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="206">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="187" t="s">
+        <v>163</v>
+      </c>
+      <c r="B100" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C100" s="198">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="187" t="s">
+        <v>390</v>
+      </c>
+      <c r="B101" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="198">
+        <v>44943</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="184" t="s">
+        <v>223</v>
+      </c>
+      <c r="B102" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="206">
+        <v>44946</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="184" t="s">
+        <v>82</v>
+      </c>
+      <c r="B103" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C103" s="198">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="190" t="s">
+        <v>769</v>
+      </c>
+      <c r="B104" s="203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="206">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="190" t="s">
+        <v>263</v>
+      </c>
+      <c r="B105" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C105" s="198">
+        <v>44953</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="187" t="s">
+        <v>174</v>
+      </c>
+      <c r="B106" s="194" t="s">
+        <v>765</v>
+      </c>
+      <c r="C106" s="200">
+        <v>44958</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="206">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="184" t="s">
+        <v>324</v>
+      </c>
+      <c r="B108" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="206">
+        <v>44966</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="184" t="s">
+        <v>222</v>
+      </c>
+      <c r="B109" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="206">
+        <v>44969</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="B110" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="206">
+        <v>44971</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="184" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="206">
+        <v>44976</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="184" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="197">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="184" t="s">
+        <v>587</v>
+      </c>
+      <c r="B113" s="192" t="s">
+        <v>81</v>
+      </c>
+      <c r="C113" s="197">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="184" t="s">
+        <v>325</v>
+      </c>
+      <c r="B114" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="206">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="190" t="s">
+        <v>431</v>
+      </c>
+      <c r="B115" s="203" t="s">
+        <v>15</v>
+      </c>
+      <c r="C115" s="206">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="190" t="s">
+        <v>558</v>
+      </c>
+      <c r="B116" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="206">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="B117" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C117" s="198">
+        <v>44994</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="184" t="s">
+        <v>283</v>
+      </c>
+      <c r="B118" s="205" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="206">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="190" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="204" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="206">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="206">
+        <v>44999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="187" t="s">
+        <v>304</v>
+      </c>
+      <c r="B121" s="187" t="s">
+        <v>180</v>
+      </c>
+      <c r="C121" s="198">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="190" t="s">
+        <v>93</v>
+      </c>
+      <c r="B122" s="204" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="206">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="190" t="s">
+        <v>764</v>
+      </c>
+      <c r="B123" s="187" t="s">
+        <v>765</v>
+      </c>
+      <c r="C123" s="198">
+        <v>45002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="190" t="s">
+        <v>288</v>
+      </c>
+      <c r="B124" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="C124" s="206">
+        <v>45004</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="184" t="s">
+        <v>346</v>
+      </c>
+      <c r="B125" s="203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="206">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="190" t="s">
+        <v>263</v>
+      </c>
+      <c r="B126" s="203" t="s">
+        <v>81</v>
+      </c>
+      <c r="C126" s="206">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B127" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" s="174">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="B128" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C128" s="196">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="180" t="s">
+        <v>290</v>
+      </c>
+      <c r="B129" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="196">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="170" t="s">
+        <v>390</v>
+      </c>
+      <c r="B130" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="196">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="193" t="s">
+        <v>81</v>
+      </c>
+      <c r="C131" s="196">
+        <v>45043</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="190" t="s">
+        <v>301</v>
+      </c>
+      <c r="B132" s="195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="196">
+        <v>45046</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="184" t="s">
         <v>83</v>
       </c>
-      <c r="B79" s="52" t="s">
+      <c r="B133" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C79" s="183">
+      <c r="C133" s="175">
         <v>45048</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="176" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="170" t="s">
+        <v>190</v>
+      </c>
+      <c r="B134" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="196">
+        <v>45062</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="180" t="s">
+        <v>304</v>
+      </c>
+      <c r="B135" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="196">
+        <v>45067</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="170" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="196">
+        <v>45068</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="180" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="196">
+        <v>45072</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B138" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="196">
+        <v>45080</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="184" t="s">
+        <v>232</v>
+      </c>
+      <c r="B139" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="196">
+        <v>45085</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="180" t="s">
+        <v>764</v>
+      </c>
+      <c r="B140" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C140" s="196">
+        <v>45087</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="184" t="s">
+        <v>793</v>
+      </c>
+      <c r="B141" s="193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141" s="196">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="190" t="s">
+        <v>394</v>
+      </c>
+      <c r="B142" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="196">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="170" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143" s="193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="196">
+        <v>45093</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="184" t="s">
+        <v>794</v>
+      </c>
+      <c r="B144" s="193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" s="196">
+        <v>45095</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="184" t="s">
+        <v>53</v>
+      </c>
+      <c r="B145" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="C145" s="196">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="170" t="s">
+        <v>71</v>
+      </c>
+      <c r="B146" s="193" t="s">
+        <v>15</v>
+      </c>
+      <c r="C146" s="196">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="170" t="s">
+        <v>222</v>
+      </c>
+      <c r="B147" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="196">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="184" t="s">
+        <v>587</v>
+      </c>
+      <c r="B148" s="191" t="s">
+        <v>180</v>
+      </c>
+      <c r="C148" s="196">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="184" t="s">
+        <v>246</v>
+      </c>
+      <c r="B149" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="196">
+        <v>45118</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="184" t="s">
+        <v>324</v>
+      </c>
+      <c r="B150" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="196">
+        <v>45122</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="184" t="s">
+        <v>325</v>
+      </c>
+      <c r="B151" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="196">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="180" t="s">
+        <v>769</v>
+      </c>
+      <c r="B152" s="191" t="s">
+        <v>765</v>
+      </c>
+      <c r="C152" s="196">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="B153" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="196">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="187" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C154" s="179">
+        <v>45139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="180" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="196">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="170" t="s">
         <v>223</v>
       </c>
-      <c r="B80" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="185">
-        <v>44946</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="B81" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="185">
-        <v>44940</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="178" t="s">
-        <v>769</v>
-      </c>
-      <c r="B82" s="177" t="s">
+      <c r="B156" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="196">
+        <v>45144</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="170" t="s">
+        <v>9</v>
+      </c>
+      <c r="B157" s="191" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="196">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C82" s="185">
-        <v>44950</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="B83" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="185">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="B84" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="185">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="176" t="s">
-        <v>222</v>
-      </c>
-      <c r="B85" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="185">
-        <v>44969</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="B86" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="185">
-        <v>44971</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="176" t="s">
-        <v>587</v>
-      </c>
-      <c r="B87" s="177" t="s">
+      <c r="C158" s="174">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B159" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="174">
+        <v>45151</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="194" t="s">
+        <v>93</v>
+      </c>
+      <c r="B160" s="194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="198">
+        <v>45158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="187" t="s">
+        <v>190</v>
+      </c>
+      <c r="B161" s="187" t="s">
         <v>180</v>
       </c>
-      <c r="C87" s="185">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="176" t="s">
-        <v>9</v>
-      </c>
-      <c r="B88" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="185">
-        <v>44976</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="B89" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="185">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="178" t="s">
-        <v>431</v>
-      </c>
-      <c r="B90" s="177" t="s">
+      <c r="C161" s="174" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="B162" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C90" s="185">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="178" t="s">
-        <v>558</v>
-      </c>
-      <c r="B91" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" s="185">
-        <v>44994</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="176" t="s">
-        <v>283</v>
-      </c>
-      <c r="B92" s="179" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="185">
-        <v>44995</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="178" t="s">
-        <v>8</v>
-      </c>
-      <c r="B93" s="180" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="185">
-        <v>44997</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="185">
-        <v>44999</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="178" t="s">
-        <v>93</v>
-      </c>
-      <c r="B95" s="180" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="185">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="178" t="s">
-        <v>288</v>
-      </c>
-      <c r="B96" s="177" t="s">
-        <v>81</v>
-      </c>
-      <c r="C96" s="185">
-        <v>45004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="176" t="s">
-        <v>346</v>
-      </c>
-      <c r="B97" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="185">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="178" t="s">
-        <v>263</v>
-      </c>
-      <c r="B98" s="177" t="s">
-        <v>81</v>
-      </c>
-      <c r="C98" s="185">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="176" t="s">
-        <v>82</v>
-      </c>
-      <c r="B99" s="177" t="s">
-        <v>81</v>
-      </c>
-      <c r="C99" s="185">
-        <v>45024</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="178" t="s">
-        <v>290</v>
-      </c>
-      <c r="B100" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="185">
-        <v>45029</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="176" t="s">
-        <v>390</v>
-      </c>
-      <c r="B101" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="185">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="176" t="s">
-        <v>174</v>
-      </c>
-      <c r="B102" s="179" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="185">
-        <v>45043</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="178" t="s">
-        <v>301</v>
-      </c>
-      <c r="B103" s="181" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="185">
-        <v>45046</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="176" t="s">
-        <v>190</v>
-      </c>
-      <c r="B104" s="179" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="185">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="178" t="s">
-        <v>304</v>
-      </c>
-      <c r="B105" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="185">
-        <v>45067</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="176" t="s">
-        <v>293</v>
-      </c>
-      <c r="B106" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="185">
-        <v>45068</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="178" t="s">
-        <v>313</v>
-      </c>
-      <c r="B107" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="185">
-        <v>45072</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="B108" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="185">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="178" t="s">
-        <v>163</v>
-      </c>
-      <c r="B109" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="185">
-        <v>45144</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B110" s="177" t="s">
-        <v>33</v>
-      </c>
-      <c r="C110" s="185">
-        <v>45080</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="178" t="s">
-        <v>764</v>
-      </c>
-      <c r="B111" s="177" t="s">
-        <v>81</v>
-      </c>
-      <c r="C111" s="185">
-        <v>45087</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="176" t="s">
-        <v>374</v>
-      </c>
-      <c r="B112" s="179" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="185">
-        <v>45093</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="176" t="s">
-        <v>793</v>
-      </c>
-      <c r="B113" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="C113" s="185">
-        <v>45090</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="176" t="s">
-        <v>794</v>
-      </c>
-      <c r="B114" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="185">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="176" t="s">
-        <v>71</v>
-      </c>
-      <c r="B115" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="185">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="176" t="s">
-        <v>223</v>
-      </c>
-      <c r="B116" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="185">
-        <v>45144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="176" t="s">
-        <v>53</v>
-      </c>
-      <c r="B117" s="177" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" s="185">
-        <v>45112</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="176" t="s">
-        <v>232</v>
-      </c>
-      <c r="B118" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="185">
-        <v>45085</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="178" t="s">
-        <v>769</v>
-      </c>
-      <c r="B119" s="177" t="s">
-        <v>765</v>
-      </c>
-      <c r="C119" s="185">
-        <v>45126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="176" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="185">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="176" t="s">
-        <v>324</v>
-      </c>
-      <c r="B121" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="185">
-        <v>45122</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="176" t="s">
-        <v>222</v>
-      </c>
-      <c r="B122" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="185">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="176" t="s">
-        <v>246</v>
-      </c>
-      <c r="B123" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="185">
-        <v>45118</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="176" t="s">
-        <v>9</v>
-      </c>
-      <c r="B124" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="185">
-        <v>45150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="B125" s="177" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="185">
-        <v>45123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="70" t="s">
-        <v>288</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C126" s="187">
-        <v>44699</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="14" t="s">
-        <v>288</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C127" s="182">
-        <v>44881</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B128" s="169" t="s">
-        <v>765</v>
-      </c>
-      <c r="C128" s="189">
-        <v>44958</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="B129" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="C129" s="189">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C130" s="182">
-        <v>45151</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="190" t="s">
-        <v>764</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C131" s="182">
-        <v>45002</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="178" t="s">
-        <v>764</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C132" s="182">
-        <v>44726</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="70" t="s">
-        <v>290</v>
-      </c>
-      <c r="B133" s="169" t="s">
-        <v>765</v>
-      </c>
-      <c r="C133" s="189">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B134" s="169" t="s">
-        <v>180</v>
-      </c>
-      <c r="C134" s="189">
-        <v>44640</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C135" s="182">
-        <v>44917</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="B136" s="169" t="s">
-        <v>180</v>
-      </c>
-      <c r="C136" s="189">
-        <v>44913</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B137" s="169" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" s="189">
-        <v>44937</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="170" t="s">
-        <v>374</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C138" s="182">
-        <v>45021</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="70" t="s">
-        <v>304</v>
-      </c>
-      <c r="B139" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C139" s="182">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C140" s="182" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="176" t="s">
-        <v>82</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C141" s="182">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="176" t="s">
-        <v>82</v>
-      </c>
-      <c r="B142" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C142" s="182">
-        <v>44894</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="190" t="s">
-        <v>263</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C143" s="182">
-        <v>44953</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="70" t="s">
-        <v>163</v>
-      </c>
-      <c r="B144" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C144" s="182">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="70" t="s">
-        <v>390</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C145" s="182">
-        <v>44943</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="190" t="s">
-        <v>175</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>765</v>
-      </c>
-      <c r="C146" s="182">
-        <v>44706</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="190" t="s">
-        <v>175</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="182" t="s">
+      <c r="C162" s="174" t="s">
         <v>796</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C148" s="182">
-        <v>44882</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="178" t="s">
-        <v>175</v>
-      </c>
-      <c r="B149" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C149" s="182">
-        <v>44994</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="70" t="s">
-        <v>346</v>
-      </c>
-      <c r="B150" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C150" s="182">
-        <v>44845</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="178" t="s">
-        <v>394</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C151" s="182">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="190" t="s">
-        <v>190</v>
-      </c>
-      <c r="B152" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C152" s="182">
-        <v>44890</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C153" s="182">
-        <v>44856</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C154" s="182">
-        <v>44856</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B155" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C155" s="182">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="170" t="s">
-        <v>246</v>
-      </c>
-      <c r="B156" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C156" s="182">
-        <v>44851</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="B157" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C157" s="182">
-        <v>44847</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="176" t="s">
-        <v>325</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C158" s="182">
-        <v>44880</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="B159" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="C159" s="182">
-        <v>44672</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C160" s="191">
-        <v>44752</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C161" s="182">
-        <v>45158</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C162" s="182">
-        <v>45151</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C162" xr:uid="{1F23E16F-EF47-4620-8A09-696B47D0F196}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="HT-101"/>
-      </filters>
-    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
+      <sortCondition ref="C1:C162"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29070,7 +29107,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="17" style="169" customWidth="1"/>
-    <col min="5" max="6" width="17" style="189" customWidth="1"/>
+    <col min="5" max="6" width="17" style="179" customWidth="1"/>
     <col min="7" max="7" width="17" style="169" customWidth="1"/>
     <col min="8" max="12" width="17" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
@@ -29089,10 +29126,10 @@
       <c r="D1" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="E1" s="194" t="s">
+      <c r="E1" s="183" t="s">
         <v>803</v>
       </c>
-      <c r="F1" s="194" t="s">
+      <c r="F1" s="183" t="s">
         <v>802</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -29100,33 +29137,33 @@
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="192" t="s">
+      <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="181" t="s">
         <v>799</v>
       </c>
-      <c r="C2" s="192" t="s">
+      <c r="C2" s="181" t="s">
         <v>288</v>
       </c>
-      <c r="D2" s="192">
+      <c r="D2" s="181">
         <v>-1</v>
       </c>
-      <c r="E2" s="193">
+      <c r="E2" s="182">
         <v>45155</v>
       </c>
-      <c r="F2" s="193">
+      <c r="F2" s="182">
         <v>45157</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="G2" s="181" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C3" s="169" t="s">
@@ -29135,10 +29172,10 @@
       <c r="D3" s="169">
         <v>-1</v>
       </c>
-      <c r="E3" s="189">
+      <c r="E3" s="179">
         <v>45151</v>
       </c>
-      <c r="F3" s="189">
+      <c r="F3" s="179">
         <v>45153</v>
       </c>
       <c r="G3" s="169" t="s">
@@ -29146,10 +29183,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="192" t="s">
+      <c r="A4" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="192" t="s">
+      <c r="B4" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C4" s="169" t="s">
@@ -29158,10 +29195,10 @@
       <c r="D4" s="169">
         <v>-1</v>
       </c>
-      <c r="E4" s="189">
+      <c r="E4" s="179">
         <v>45151</v>
       </c>
-      <c r="F4" s="189">
+      <c r="F4" s="179">
         <v>45157</v>
       </c>
       <c r="G4" s="169" t="s">
@@ -29169,7 +29206,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="169" t="s">
@@ -29178,13 +29215,13 @@
       <c r="C5" s="169" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="192">
+      <c r="D5" s="181">
         <v>-1</v>
       </c>
-      <c r="E5" s="193">
+      <c r="E5" s="182">
         <v>45148</v>
       </c>
-      <c r="F5" s="193">
+      <c r="F5" s="182">
         <v>45157</v>
       </c>
       <c r="G5" s="169" t="s">
@@ -29192,7 +29229,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="181" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="169" t="s">
@@ -29204,10 +29241,10 @@
       <c r="D6" s="169">
         <v>-1</v>
       </c>
-      <c r="E6" s="189">
+      <c r="E6" s="179">
         <v>45157</v>
       </c>
-      <c r="F6" s="189">
+      <c r="F6" s="179">
         <v>45159</v>
       </c>
       <c r="G6" s="169" t="s">
@@ -29215,22 +29252,22 @@
       </c>
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="192" t="s">
+      <c r="A7" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="192" t="s">
+      <c r="B7" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C7" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="192">
+      <c r="D7" s="181">
         <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>45158</v>
       </c>
-      <c r="F7" s="189">
+      <c r="F7" s="179">
         <f>E7+3</f>
         <v>45161</v>
       </c>
@@ -29239,10 +29276,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="192" t="s">
+      <c r="A8" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="192" t="s">
+      <c r="B8" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C8" s="169" t="s">
@@ -29251,10 +29288,10 @@
       <c r="D8" s="169">
         <v>0</v>
       </c>
-      <c r="E8" s="189">
+      <c r="E8" s="179">
         <v>45154</v>
       </c>
-      <c r="F8" s="189">
+      <c r="F8" s="179">
         <v>45170</v>
       </c>
       <c r="G8" s="169" t="s">
@@ -29262,10 +29299,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="192" t="s">
+      <c r="A9" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="192" t="s">
+      <c r="B9" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C9" s="169" t="s">
@@ -29274,10 +29311,10 @@
       <c r="D9" s="169">
         <v>0</v>
       </c>
-      <c r="E9" s="189">
+      <c r="E9" s="179">
         <v>45158</v>
       </c>
-      <c r="F9" s="189">
+      <c r="F9" s="179">
         <f>E9+15</f>
         <v>45173</v>
       </c>
@@ -29286,7 +29323,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="192" t="s">
+      <c r="A10" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="169" t="s">
@@ -29298,10 +29335,10 @@
       <c r="D10" s="169">
         <v>0</v>
       </c>
-      <c r="E10" s="189">
+      <c r="E10" s="179">
         <v>45157</v>
       </c>
-      <c r="F10" s="189">
+      <c r="F10" s="179">
         <f>E10+3</f>
         <v>45160</v>
       </c>
@@ -29310,7 +29347,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="192" t="s">
+      <c r="A11" s="181" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="169" t="s">
@@ -29322,10 +29359,10 @@
       <c r="D11" s="169">
         <v>0</v>
       </c>
-      <c r="E11" s="189">
+      <c r="E11" s="179">
         <v>45151</v>
       </c>
-      <c r="F11" s="189">
+      <c r="F11" s="179">
         <v>45161</v>
       </c>
       <c r="G11" s="169" t="s">
@@ -29333,7 +29370,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="192" t="s">
+      <c r="A12" s="181" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="169" t="s">
@@ -29345,10 +29382,10 @@
       <c r="D12" s="169">
         <v>0</v>
       </c>
-      <c r="E12" s="189">
+      <c r="E12" s="179">
         <v>45150</v>
       </c>
-      <c r="F12" s="189">
+      <c r="F12" s="179">
         <f>E12+2</f>
         <v>45152</v>
       </c>
@@ -29357,10 +29394,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="192" t="s">
+      <c r="B13" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C13" s="169" t="s">
@@ -29371,10 +29408,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="192" t="s">
+      <c r="A14" s="181" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C14" s="169" t="s">
@@ -29385,10 +29422,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="192" t="s">
+      <c r="A15" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="192" t="s">
+      <c r="B15" s="181" t="s">
         <v>799</v>
       </c>
       <c r="C15" s="169" t="s">
@@ -29399,7 +29436,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="192" t="s">
+      <c r="A16" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="169" t="s">
@@ -29413,7 +29450,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="181" t="s">
         <v>21</v>
       </c>
       <c r="B17" s="169" t="s">
@@ -29427,7 +29464,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="192" t="s">
+      <c r="A18" s="181" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="169" t="s">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12E1AD0-0243-4A83-88C5-D4FE5D5E8759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701AB79-C34B-4816-ADB4-A9CE97B18D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2757" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="842">
   <si>
     <t>Team No.</t>
   </si>
@@ -2948,6 +2948,9 @@
     <t>API RP 54,
 NFPA 30,
 OSHA 1910.106</t>
+  </si>
+  <si>
+    <t>Kitchen Ventilation</t>
   </si>
 </sst>
 </file>
@@ -14831,7 +14834,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22338,7 +22341,9 @@
       <c r="B262" s="210" t="s">
         <v>838</v>
       </c>
-      <c r="C262" s="210"/>
+      <c r="C262" s="210" t="s">
+        <v>841</v>
+      </c>
       <c r="D262" s="211" t="s">
         <v>839</v>
       </c>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3701AB79-C34B-4816-ADB4-A9CE97B18D1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBE2FC-8161-4429-AF89-C2DD77D65398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="844">
   <si>
     <t>Team No.</t>
   </si>
@@ -2951,6 +2951,12 @@
   </si>
   <si>
     <t>Kitchen Ventilation</t>
+  </si>
+  <si>
+    <t>Not Availabilty</t>
+  </si>
+  <si>
+    <t>Fall Prevention System is not safe for the EPIS drops surveyor</t>
   </si>
 </sst>
 </file>
@@ -3430,7 +3436,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4171,6 +4177,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14714,8 +14723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" activeCellId="1" sqref="F3 G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14782,7 +14791,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -14796,10 +14805,10 @@
         <v>45090</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>823</v>
+        <v>842</v>
+      </c>
+      <c r="F3" s="214" t="s">
+        <v>843</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>824</v>
@@ -14832,7 +14841,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I262"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FBE2FC-8161-4429-AF89-C2DD77D65398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5524E-624F-4545-91EE-21D598346004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$160</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Team_Management!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="842">
   <si>
     <t>Team No.</t>
   </si>
@@ -2796,12 +2796,6 @@
   </si>
   <si>
     <t>DASCO 31</t>
-  </si>
-  <si>
-    <t>12-24-22</t>
-  </si>
-  <si>
-    <t>14-10-21</t>
   </si>
   <si>
     <t>Audit/Drops</t>
@@ -3436,7 +3430,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4180,6 +4174,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14674,10 +14680,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="F2" s="5">
         <v>45158</v>
@@ -14723,7 +14729,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" activeCellId="1" sqref="F3 G6"/>
     </sheetView>
   </sheetViews>
@@ -14773,7 +14779,7 @@
         <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D2" s="5">
         <v>45080</v>
@@ -14782,13 +14788,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14799,22 +14805,22 @@
         <v>763</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D3" s="5">
         <v>45090</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F3" s="214" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22029,13 +22035,13 @@
         <v>19</v>
       </c>
       <c r="B251" s="69" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C251" s="69" t="s">
         <v>318</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E251" s="69" t="s">
         <v>31</v>
@@ -22058,19 +22064,19 @@
         <v>19</v>
       </c>
       <c r="B252" s="69" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C252" s="69">
         <v>0</v>
       </c>
       <c r="D252" s="69" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="E252" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="G252" s="69" t="s">
         <v>50</v>
@@ -22093,13 +22099,13 @@
         <v>0</v>
       </c>
       <c r="D253" s="69" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="E253" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="G253" s="69" t="s">
         <v>50</v>
@@ -22122,13 +22128,13 @@
         <v>0</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E254" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G254" s="69" t="s">
         <v>50</v>
@@ -22145,19 +22151,19 @@
         <v>19</v>
       </c>
       <c r="B255" s="69" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C255" s="69">
         <v>0</v>
       </c>
       <c r="D255" s="69" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E255" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="G255" s="69" t="s">
         <v>50</v>
@@ -22180,13 +22186,13 @@
         <v>0</v>
       </c>
       <c r="D256" s="69" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E256" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="G256" s="69" t="s">
         <v>50</v>
@@ -22209,13 +22215,13 @@
         <v>0</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E257" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="G257" s="69" t="s">
         <v>50</v>
@@ -22261,19 +22267,19 @@
         <v>19</v>
       </c>
       <c r="B259" s="69" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C259" s="69">
         <v>0</v>
       </c>
       <c r="D259" s="69" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="E259" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G259" s="69" t="s">
         <v>50</v>
@@ -22290,19 +22296,19 @@
         <v>19</v>
       </c>
       <c r="B260" s="69" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C260" s="69">
         <v>0</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E260" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G260" s="69" t="s">
         <v>50</v>
@@ -22319,13 +22325,13 @@
         <v>93</v>
       </c>
       <c r="B261" s="205" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C261" s="206" t="s">
         <v>124</v>
       </c>
       <c r="D261" s="207" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E261" s="208" t="s">
         <v>31</v>
@@ -22348,19 +22354,19 @@
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C262" s="210" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D262" s="211" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -27740,8 +27746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28008,184 +28014,184 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="170" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="169" t="s">
+      <c r="A24" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="175">
-        <v>44504</v>
+      <c r="C24" s="174">
+        <v>44483</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="169" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="175">
-        <v>44509</v>
+        <v>44504</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="186" t="s">
-        <v>393</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>764</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="169" t="s">
+        <v>15</v>
       </c>
       <c r="C26" s="175">
-        <v>44544</v>
+        <v>44509</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
-        <v>221</v>
+        <v>393</v>
       </c>
       <c r="B27" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C27" s="175">
-        <v>44546</v>
+        <v>44544</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="B28" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C28" s="175">
-        <v>44547</v>
+        <v>44546</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
-        <v>245</v>
+        <v>117</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C29" s="175">
-        <v>44548</v>
+        <v>44547</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B30" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C30" s="175">
-        <v>44550</v>
+        <v>44548</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C31" s="175">
-        <v>44552</v>
+        <v>44550</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
-        <v>389</v>
+        <v>231</v>
       </c>
       <c r="B32" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C32" s="175">
-        <v>44554</v>
+        <v>44552</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="B33" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C33" s="175">
-        <v>44556</v>
+        <v>44554</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C34" s="175">
-        <v>44558</v>
+        <v>44556</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C35" s="175">
-        <v>44580</v>
+        <v>44558</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
-        <v>189</v>
+        <v>323</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C36" s="175">
-        <v>44581</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
-        <v>300</v>
+        <v>189</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C37" s="175">
-        <v>44583</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C38" s="175">
-        <v>44586</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="B39" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C39" s="175">
-        <v>44589</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
-        <v>9</v>
+        <v>324</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>764</v>
@@ -28196,293 +28202,293 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
-        <v>143</v>
+        <v>9</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C41" s="175">
-        <v>44591</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
-        <v>373</v>
+        <v>143</v>
       </c>
       <c r="B42" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C42" s="175">
+        <v>44591</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C43" s="175">
         <v>44592</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="172" t="s">
-        <v>345</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="178">
-        <v>44612</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="B44" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="178">
+        <v>44612</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="178">
         <v>44613</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="185" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="185" t="s">
         <v>53</v>
       </c>
-      <c r="B45" s="169" t="s">
+      <c r="B46" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="175">
+      <c r="C46" s="175">
         <v>44615</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="170" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B47" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C46" s="175">
+      <c r="C47" s="175">
         <v>44622</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="172" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B48" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="178">
+      <c r="C48" s="178">
         <v>44639</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B48" s="169" t="s">
+      <c r="B49" s="169" t="s">
         <v>179</v>
       </c>
-      <c r="C48" s="179">
+      <c r="C49" s="179">
         <v>44640</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="172" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="172" t="s">
         <v>231</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B50" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="178">
+      <c r="C50" s="178">
         <v>44652</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="170" t="s">
-        <v>162</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="C50" s="175">
-        <v>44666</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="170" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="B51" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C51" s="175">
+        <v>44666</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="186" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C52" s="175">
         <v>44669</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="198" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B53" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C52" s="174">
+      <c r="C53" s="174">
         <v>44672</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="172" t="s">
-        <v>245</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C53" s="178">
-        <v>44673</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="172" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="B54" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C54" s="178">
-        <v>44678</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="172" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B55" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C55" s="178">
-        <v>44680</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="172" t="s">
-        <v>389</v>
+        <v>221</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C56" s="178">
+        <v>44680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="172" t="s">
+        <v>389</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="178">
         <v>44697</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="14" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
         <v>287</v>
       </c>
-      <c r="B57" s="169" t="s">
+      <c r="B58" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C57" s="179">
+      <c r="C58" s="179">
         <v>44699</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="180" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="180" t="s">
         <v>174</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B59" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C58" s="174">
+      <c r="C59" s="174">
         <v>44706</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="170" t="s">
-        <v>586</v>
-      </c>
-      <c r="B59" s="169" t="s">
-        <v>15</v>
-      </c>
-      <c r="C59" s="177">
-        <v>44708</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
-        <v>83</v>
+        <v>586</v>
       </c>
       <c r="B60" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="175">
+      <c r="C60" s="177">
+        <v>44708</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="170" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="169" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" s="175">
         <v>44712</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="180" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="180" t="s">
         <v>763</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B62" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C61" s="174">
+      <c r="C62" s="174">
         <v>44726</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="170" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="170" t="s">
         <v>117</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B63" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C62" s="175">
+      <c r="C63" s="175">
         <v>44727</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="171" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="171" t="s">
         <v>557</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B64" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C63" s="176">
+      <c r="C64" s="176">
         <v>44736</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="170" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="170" t="s">
         <v>303</v>
       </c>
-      <c r="B64" s="52" t="s">
+      <c r="B65" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C64" s="175">
+      <c r="C65" s="175">
         <v>44737</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="169" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="169" t="s">
         <v>262</v>
       </c>
-      <c r="B65" s="169" t="s">
+      <c r="B66" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C65" s="204">
+      <c r="C66" s="204">
         <v>44752</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="170" t="s">
-        <v>189</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C66" s="175">
-        <v>44786</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="170" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>81</v>
@@ -28492,85 +28498,85 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="199" t="s">
+      <c r="A68" s="170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="175">
+        <v>44786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="199" t="s">
         <v>53</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B69" s="14" t="s">
         <v>764</v>
       </c>
-      <c r="C68" s="176">
+      <c r="C69" s="176">
         <v>44791</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="170" t="s">
-        <v>393</v>
-      </c>
-      <c r="B69" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="175">
-        <v>44811</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
-        <v>162</v>
+        <v>393</v>
       </c>
       <c r="B70" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C70" s="175">
-        <v>44816</v>
+        <v>44811</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="170" t="s">
-        <v>557</v>
+        <v>162</v>
       </c>
       <c r="B71" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C71" s="175">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="170" t="s">
+        <v>557</v>
+      </c>
+      <c r="B72" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C72" s="175">
         <v>44817</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="171" t="s">
-        <v>292</v>
-      </c>
-      <c r="B72" s="14" t="s">
-        <v>764</v>
-      </c>
-      <c r="C72" s="176">
-        <v>44818</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="171" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="B73" s="14" t="s">
         <v>764</v>
       </c>
       <c r="C73" s="176">
+        <v>44818</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="171" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="C74" s="176">
         <v>44821</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="170" t="s">
-        <v>373</v>
-      </c>
-      <c r="B74" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="C74" s="175">
-        <v>44826</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
-        <v>143</v>
+        <v>373</v>
       </c>
       <c r="B75" s="52" t="s">
         <v>81</v>
@@ -28581,95 +28587,95 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
-        <v>312</v>
+        <v>143</v>
       </c>
       <c r="B76" s="52" t="s">
         <v>81</v>
       </c>
       <c r="C76" s="175">
+        <v>44826</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="170" t="s">
+        <v>312</v>
+      </c>
+      <c r="B77" s="52" t="s">
+        <v>81</v>
+      </c>
+      <c r="C77" s="175">
         <v>44828</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="198" t="s">
         <v>345</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B78" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="174">
+      <c r="C78" s="174">
         <v>44845</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="186" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="170" t="s">
         <v>323</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B79" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C78" s="175">
+      <c r="C79" s="175">
         <v>44847</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="217" t="s">
         <v>323</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B80" s="217" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="174">
+      <c r="C80" s="218">
         <v>44847</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="184" t="s">
-        <v>93</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80" s="197">
-        <v>44851</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="184" t="s">
+        <v>93</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C81" s="197">
+        <v>44851</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="184" t="s">
         <v>245</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B82" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="173">
+      <c r="C82" s="173">
         <v>44851</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="188" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="70" t="s">
+      <c r="B83" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="C82" s="196">
+      <c r="C83" s="196">
         <v>44852</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="B83" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C83" s="173">
-        <v>44856</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
-        <v>221</v>
+        <v>9</v>
       </c>
       <c r="B84" s="70" t="s">
         <v>179</v>
@@ -28679,41 +28685,41 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="184" t="s">
-        <v>9</v>
-      </c>
-      <c r="B85" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="195">
+      <c r="A85" s="70" t="s">
+        <v>221</v>
+      </c>
+      <c r="B85" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="173">
         <v>44856</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B86" s="191" t="s">
         <v>81</v>
       </c>
       <c r="C86" s="195">
+        <v>44856</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="184" t="s">
+        <v>8</v>
+      </c>
+      <c r="B87" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C87" s="195">
         <v>44877</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="189" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="189" t="s">
         <v>393</v>
-      </c>
-      <c r="B87" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C87" s="173">
-        <v>44878</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="70" t="s">
-        <v>117</v>
       </c>
       <c r="B88" s="70" t="s">
         <v>179</v>
@@ -28723,823 +28729,823 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="184" t="s">
-        <v>324</v>
+      <c r="A89" s="70" t="s">
+        <v>117</v>
       </c>
       <c r="B89" s="70" t="s">
         <v>179</v>
       </c>
       <c r="C89" s="173">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="184" t="s">
+        <v>324</v>
+      </c>
+      <c r="B90" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="173">
         <v>44880</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="70" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="70" t="s">
         <v>287</v>
       </c>
-      <c r="B90" s="70" t="s">
+      <c r="B91" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="C90" s="173">
+      <c r="C91" s="173">
         <v>44881</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="189" t="s">
-        <v>174</v>
-      </c>
-      <c r="B91" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C91" s="173">
-        <v>44882</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="189" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" s="173">
+        <v>44882</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="189" t="s">
         <v>189</v>
       </c>
-      <c r="B92" s="70" t="s">
+      <c r="B93" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C92" s="173">
+      <c r="C93" s="173">
         <v>44890</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="184" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="B93" s="70" t="s">
+      <c r="B94" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C93" s="173">
+      <c r="C94" s="173">
         <v>44894</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="70" t="s">
-        <v>557</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C94" s="197">
-        <v>44913</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
+        <v>557</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C95" s="197">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B96" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C95" s="173">
+      <c r="C96" s="173">
         <v>44917</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="188" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="188" t="s">
         <v>586</v>
       </c>
-      <c r="B96" s="70" t="s">
+      <c r="B97" s="70" t="s">
         <v>764</v>
       </c>
-      <c r="C96" s="196">
+      <c r="C97" s="196">
         <v>44918</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="B97" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="195">
-        <v>44937</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
-        <v>300</v>
-      </c>
-      <c r="B98" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="197">
+      <c r="C98" s="218">
+        <v>44919</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="187" t="s">
+        <v>53</v>
+      </c>
+      <c r="B99" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C99" s="195">
         <v>44937</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="184" t="s">
-        <v>231</v>
-      </c>
-      <c r="B99" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="203">
-        <v>44940</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C100" s="197">
+        <v>44937</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="184" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="203">
+        <v>44940</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="B100" s="70" t="s">
+      <c r="B102" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C100" s="173">
+      <c r="C102" s="173">
         <v>44943</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="70" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="70" t="s">
         <v>389</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="B103" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C101" s="173">
+      <c r="C103" s="173">
         <v>44943</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="184" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="184" t="s">
         <v>222</v>
       </c>
-      <c r="B102" s="200" t="s">
+      <c r="B104" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C102" s="203">
+      <c r="C104" s="203">
         <v>44946</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="184" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="184" t="s">
         <v>82</v>
-      </c>
-      <c r="B103" s="70" t="s">
-        <v>764</v>
-      </c>
-      <c r="C103" s="173">
-        <v>44949</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="189" t="s">
-        <v>768</v>
-      </c>
-      <c r="B104" s="200" t="s">
-        <v>15</v>
-      </c>
-      <c r="C104" s="203">
-        <v>44950</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="189" t="s">
-        <v>262</v>
       </c>
       <c r="B105" s="70" t="s">
         <v>764</v>
       </c>
       <c r="C105" s="173">
+        <v>44949</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="189" t="s">
+        <v>768</v>
+      </c>
+      <c r="B106" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C106" s="203">
+        <v>44950</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="189" t="s">
+        <v>262</v>
+      </c>
+      <c r="B107" s="70" t="s">
+        <v>764</v>
+      </c>
+      <c r="C107" s="173">
         <v>44953</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="70" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="70" t="s">
         <v>173</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B108" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="C106" s="197">
+      <c r="C108" s="197">
         <v>44958</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="184" t="s">
-        <v>117</v>
-      </c>
-      <c r="B107" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="203">
-        <v>44966</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="184" t="s">
-        <v>323</v>
-      </c>
-      <c r="B108" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="203">
-        <v>44966</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="184" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="B109" s="200" t="s">
         <v>33</v>
       </c>
       <c r="C109" s="203">
-        <v>44969</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="184" t="s">
-        <v>245</v>
+        <v>323</v>
       </c>
       <c r="B110" s="200" t="s">
         <v>33</v>
       </c>
       <c r="C110" s="203">
-        <v>44971</v>
+        <v>44966</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="184" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="B111" s="200" t="s">
         <v>33</v>
       </c>
       <c r="C111" s="203">
-        <v>44976</v>
+        <v>44969</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="184" t="s">
-        <v>292</v>
-      </c>
-      <c r="B112" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="C112" s="195">
-        <v>44977</v>
+        <v>245</v>
+      </c>
+      <c r="B112" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="203">
+        <v>44971</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="184" t="s">
-        <v>586</v>
-      </c>
-      <c r="B113" s="191" t="s">
-        <v>81</v>
-      </c>
-      <c r="C113" s="195">
-        <v>44978</v>
+        <v>9</v>
+      </c>
+      <c r="B113" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="203">
+        <v>44976</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="184" t="s">
+        <v>292</v>
+      </c>
+      <c r="B114" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C114" s="195">
+        <v>44977</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="184" t="s">
+        <v>586</v>
+      </c>
+      <c r="B115" s="191" t="s">
+        <v>81</v>
+      </c>
+      <c r="C115" s="195">
+        <v>44978</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="184" t="s">
         <v>324</v>
-      </c>
-      <c r="B114" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="203">
-        <v>44978</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="189" t="s">
-        <v>430</v>
-      </c>
-      <c r="B115" s="200" t="s">
-        <v>15</v>
-      </c>
-      <c r="C115" s="203">
-        <v>44992</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="189" t="s">
-        <v>557</v>
       </c>
       <c r="B116" s="200" t="s">
         <v>33</v>
       </c>
       <c r="C116" s="203">
-        <v>44994</v>
+        <v>44978</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="189" t="s">
-        <v>174</v>
-      </c>
-      <c r="B117" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C117" s="173">
+        <v>430</v>
+      </c>
+      <c r="B117" s="200" t="s">
+        <v>15</v>
+      </c>
+      <c r="C117" s="203">
+        <v>44992</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="189" t="s">
+        <v>557</v>
+      </c>
+      <c r="B118" s="200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="203">
         <v>44994</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="184" t="s">
-        <v>282</v>
-      </c>
-      <c r="B118" s="202" t="s">
-        <v>33</v>
-      </c>
-      <c r="C118" s="203">
-        <v>44995</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="189" t="s">
-        <v>8</v>
-      </c>
-      <c r="B119" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" s="203">
-        <v>44997</v>
+        <v>174</v>
+      </c>
+      <c r="B119" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="C119" s="173">
+        <v>44994</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="184" t="s">
+        <v>282</v>
+      </c>
+      <c r="B120" s="202" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="203">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="189" t="s">
+        <v>8</v>
+      </c>
+      <c r="B121" s="201" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="203">
+        <v>44997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="200" t="s">
+      <c r="B122" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="C120" s="203">
+      <c r="C122" s="203">
         <v>44999</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="70" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="70" t="s">
         <v>303</v>
       </c>
-      <c r="B121" s="70" t="s">
+      <c r="B123" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C121" s="173">
+      <c r="C123" s="173">
         <v>45000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="189" t="s">
-        <v>93</v>
-      </c>
-      <c r="B122" s="201" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="203">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="189" t="s">
-        <v>763</v>
-      </c>
-      <c r="B123" s="70" t="s">
-        <v>764</v>
-      </c>
-      <c r="C123" s="173">
-        <v>45002</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="189" t="s">
-        <v>287</v>
-      </c>
-      <c r="B124" s="200" t="s">
-        <v>81</v>
+        <v>93</v>
+      </c>
+      <c r="B124" s="201" t="s">
+        <v>33</v>
       </c>
       <c r="C124" s="203">
-        <v>45004</v>
+        <v>45001</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="184" t="s">
-        <v>345</v>
-      </c>
-      <c r="B125" s="200" t="s">
-        <v>33</v>
-      </c>
-      <c r="C125" s="203">
-        <v>45005</v>
+      <c r="A125" s="189" t="s">
+        <v>763</v>
+      </c>
+      <c r="B125" s="70" t="s">
+        <v>764</v>
+      </c>
+      <c r="C125" s="173">
+        <v>45002</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="189" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="B126" s="200" t="s">
         <v>81</v>
       </c>
       <c r="C126" s="203">
-        <v>45021</v>
+        <v>45004</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="170" t="s">
-        <v>373</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C127" s="174">
-        <v>45021</v>
+        <v>345</v>
+      </c>
+      <c r="B127" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="194">
+        <v>45005</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="170" t="s">
-        <v>82</v>
+      <c r="A128" s="180" t="s">
+        <v>262</v>
       </c>
       <c r="B128" s="190" t="s">
         <v>81</v>
       </c>
       <c r="C128" s="194">
-        <v>45024</v>
+        <v>45021</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="180" t="s">
-        <v>289</v>
-      </c>
-      <c r="B129" s="190" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="194">
-        <v>45029</v>
+      <c r="A129" s="170" t="s">
+        <v>373</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C129" s="174">
+        <v>45021</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="170" t="s">
+        <v>82</v>
+      </c>
+      <c r="B130" s="190" t="s">
+        <v>81</v>
+      </c>
+      <c r="C130" s="194">
+        <v>45024</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="180" t="s">
+        <v>289</v>
+      </c>
+      <c r="B131" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="194">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="215" t="s">
         <v>389</v>
       </c>
-      <c r="B130" s="190" t="s">
+      <c r="B132" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="C130" s="194">
+      <c r="C132" s="194">
         <v>45040</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="170" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="215" t="s">
         <v>173</v>
       </c>
-      <c r="B131" s="192" t="s">
+      <c r="B133" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="C131" s="194">
+      <c r="C133" s="194">
         <v>45043</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="189" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="180" t="s">
         <v>300</v>
       </c>
-      <c r="B132" s="193" t="s">
+      <c r="B134" s="193" t="s">
         <v>33</v>
       </c>
-      <c r="C132" s="194">
+      <c r="C134" s="194">
         <v>45046</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="184" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="170" t="s">
         <v>83</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B135" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="C133" s="175">
+      <c r="C135" s="175">
         <v>45048</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="170" t="s">
-        <v>189</v>
-      </c>
-      <c r="B134" s="192" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="194">
-        <v>45062</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="180" t="s">
-        <v>303</v>
-      </c>
-      <c r="B135" s="190" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" s="194">
-        <v>45067</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="170" t="s">
-        <v>292</v>
-      </c>
-      <c r="B136" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="B136" s="192" t="s">
         <v>33</v>
       </c>
       <c r="C136" s="194">
-        <v>45068</v>
+        <v>45062</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="180" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B137" s="190" t="s">
         <v>33</v>
       </c>
       <c r="C137" s="194">
-        <v>45072</v>
+        <v>45067</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="180" t="s">
-        <v>174</v>
+      <c r="A138" s="170" t="s">
+        <v>292</v>
       </c>
       <c r="B138" s="190" t="s">
         <v>33</v>
       </c>
       <c r="C138" s="194">
-        <v>45080</v>
+        <v>45068</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="184" t="s">
-        <v>231</v>
+      <c r="A139" s="216" t="s">
+        <v>312</v>
       </c>
       <c r="B139" s="190" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C139" s="194">
-        <v>45085</v>
+        <v>45072</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="180" t="s">
-        <v>763</v>
+        <v>174</v>
       </c>
       <c r="B140" s="190" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C140" s="194">
-        <v>45087</v>
+        <v>45080</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="184" t="s">
-        <v>792</v>
-      </c>
-      <c r="B141" s="192" t="s">
-        <v>15</v>
+        <v>231</v>
+      </c>
+      <c r="B141" s="190" t="s">
+        <v>10</v>
       </c>
       <c r="C141" s="194">
-        <v>45090</v>
+        <v>45085</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="189" t="s">
-        <v>393</v>
+      <c r="A142" s="216" t="s">
+        <v>763</v>
       </c>
       <c r="B142" s="190" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C142" s="194">
-        <v>45091</v>
+        <v>45087</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
+        <v>792</v>
+      </c>
+      <c r="B143" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143" s="194">
+        <v>45090</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="189" t="s">
+        <v>393</v>
+      </c>
+      <c r="B144" s="190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="194">
+        <v>45091</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="215" t="s">
         <v>373</v>
       </c>
-      <c r="B143" s="192" t="s">
+      <c r="B145" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="C143" s="194">
+      <c r="C145" s="194">
         <v>45093</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="184" t="s">
-        <v>793</v>
-      </c>
-      <c r="B144" s="192" t="s">
-        <v>15</v>
-      </c>
-      <c r="C144" s="194">
-        <v>45095</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="184" t="s">
-        <v>53</v>
-      </c>
-      <c r="B145" s="190" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145" s="194">
-        <v>45112</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="170" t="s">
-        <v>71</v>
+        <v>793</v>
       </c>
       <c r="B146" s="192" t="s">
         <v>15</v>
       </c>
       <c r="C146" s="194">
-        <v>45113</v>
+        <v>45095</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="170" t="s">
+        <v>53</v>
+      </c>
+      <c r="B147" s="190" t="s">
+        <v>179</v>
+      </c>
+      <c r="C147" s="194">
+        <v>45112</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="215" t="s">
+        <v>71</v>
+      </c>
+      <c r="B148" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148" s="194">
+        <v>45113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="215" t="s">
         <v>221</v>
-      </c>
-      <c r="B147" s="190" t="s">
-        <v>10</v>
-      </c>
-      <c r="C147" s="194">
-        <v>45113</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="184" t="s">
-        <v>586</v>
-      </c>
-      <c r="B148" s="190" t="s">
-        <v>179</v>
-      </c>
-      <c r="C148" s="194">
-        <v>45117</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="184" t="s">
-        <v>245</v>
       </c>
       <c r="B149" s="190" t="s">
         <v>10</v>
       </c>
       <c r="C149" s="194">
-        <v>45118</v>
+        <v>45113</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="184" t="s">
-        <v>323</v>
+        <v>586</v>
       </c>
       <c r="B150" s="190" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="C150" s="194">
-        <v>45122</v>
+        <v>45117</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="184" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B151" s="190" t="s">
         <v>10</v>
       </c>
       <c r="C151" s="194">
-        <v>45123</v>
+        <v>45118</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="180" t="s">
-        <v>768</v>
+      <c r="A152" s="170" t="s">
+        <v>323</v>
       </c>
       <c r="B152" s="190" t="s">
-        <v>764</v>
+        <v>10</v>
       </c>
       <c r="C152" s="194">
-        <v>45126</v>
+        <v>45122</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="184" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="B153" s="190" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="194">
+        <v>45123</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="216" t="s">
+        <v>768</v>
+      </c>
+      <c r="B154" s="190" t="s">
+        <v>764</v>
+      </c>
+      <c r="C154" s="194">
+        <v>45126</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B155" s="190" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="194">
         <v>45139</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="70" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="B154" s="169" t="s">
+      <c r="B156" s="169" t="s">
         <v>15</v>
       </c>
-      <c r="C154" s="179">
+      <c r="C156" s="179">
         <v>45139</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="180" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="180" t="s">
         <v>162</v>
       </c>
-      <c r="B155" s="190" t="s">
+      <c r="B157" s="190" t="s">
         <v>33</v>
       </c>
-      <c r="C155" s="194">
+      <c r="C157" s="194">
         <v>45144</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="170" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="215" t="s">
         <v>222</v>
       </c>
-      <c r="B156" s="190" t="s">
+      <c r="B158" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="C156" s="194">
+      <c r="C158" s="194">
         <v>45144</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="170" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="B157" s="190" t="s">
+      <c r="B159" s="190" t="s">
         <v>10</v>
       </c>
-      <c r="C157" s="194">
+      <c r="C159" s="194">
         <v>45150</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="70" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B160" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="C158" s="174">
+      <c r="C160" s="218">
         <v>45151</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="14" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="217" t="s">
         <v>8</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B161" s="217" t="s">
         <v>10</v>
       </c>
-      <c r="C159" s="174">
+      <c r="C161" s="174">
         <v>45151</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="1" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B162" s="169" t="s">
         <v>10</v>
       </c>
-      <c r="C160" s="173">
+      <c r="C162" s="174">
         <v>45158</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="70" t="s">
-        <v>189</v>
-      </c>
-      <c r="B161" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="C161" s="174" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="180" t="s">
-        <v>174</v>
-      </c>
-      <c r="B162" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C162" s="174" t="s">
-        <v>795</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A1:C160" xr:uid="{00000000-0009-0000-0000-000004000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
-      <sortCondition ref="C1:C162"/>
+      <sortCondition ref="C1:C160"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -29574,13 +29580,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -29589,10 +29595,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -29600,7 +29606,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C2" s="181">
         <v>1</v>
@@ -29623,7 +29629,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
@@ -29646,7 +29652,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
@@ -29669,7 +29675,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C5" s="169">
         <v>1</v>
@@ -29692,7 +29698,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C6" s="169">
         <v>2</v>
@@ -29715,7 +29721,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C7" s="169">
         <v>3</v>
@@ -29724,7 +29730,7 @@
         <v>768</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F7" s="179">
         <v>45149</v>
@@ -29738,7 +29744,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C8" s="169">
         <v>4</v>
@@ -29761,7 +29767,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C9" s="169">
         <v>1</v>
@@ -29784,7 +29790,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C10" s="169">
         <v>2</v>
@@ -29807,7 +29813,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C11" s="169">
         <v>1</v>
@@ -29816,7 +29822,7 @@
         <v>430</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F11" s="179">
         <v>45139</v>
@@ -29830,16 +29836,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C12" s="169">
         <v>2</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E12" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F12" s="179">
         <v>45141</v>
@@ -29853,7 +29859,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C13" s="169">
         <v>3</v>
@@ -29862,7 +29868,7 @@
         <v>287</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F13" s="179">
         <v>45154</v>
@@ -29876,7 +29882,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C14" s="169">
         <v>4</v>
@@ -29885,7 +29891,7 @@
         <v>312</v>
       </c>
       <c r="E14" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F14" s="179">
         <v>45156</v>
@@ -29899,7 +29905,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C15" s="169">
         <v>5</v>
@@ -29908,7 +29914,7 @@
         <v>93</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F15" s="179">
         <v>45158</v>
@@ -29922,7 +29928,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C16" s="169">
         <v>6</v>
@@ -29931,7 +29937,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F16" s="179">
         <v>45160</v>
@@ -29945,7 +29951,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C17" s="169">
         <v>7</v>
@@ -29954,7 +29960,7 @@
         <v>389</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F17" s="179">
         <v>45163</v>
@@ -29968,7 +29974,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C18" s="169">
         <v>1</v>
@@ -29977,7 +29983,7 @@
         <v>189</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F18" s="179">
         <v>45148</v>
@@ -29991,7 +29997,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C19" s="169">
         <v>2</v>
@@ -30000,7 +30006,7 @@
         <v>221</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F19" s="179">
         <v>45152</v>
@@ -30014,7 +30020,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C20" s="169">
         <v>3</v>
@@ -30023,7 +30029,7 @@
         <v>222</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F20" s="179">
         <v>45155</v>
@@ -30037,7 +30043,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C21" s="169">
         <v>4</v>
@@ -30046,7 +30052,7 @@
         <v>231</v>
       </c>
       <c r="E21" s="179" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F21" s="179">
         <v>45158</v>
@@ -30060,7 +30066,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C22" s="169">
         <v>5</v>
@@ -30069,7 +30075,7 @@
         <v>289</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F22" s="179">
         <v>45161</v>
@@ -30083,7 +30089,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C23" s="169">
         <v>6</v>
@@ -30092,7 +30098,7 @@
         <v>143</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F23" s="179">
         <v>45163</v>
@@ -30106,7 +30112,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C24" s="169">
         <v>7</v>
@@ -30115,7 +30121,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F24" s="179">
         <v>45164</v>
@@ -30129,7 +30135,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C25" s="169">
         <v>1</v>
@@ -30138,7 +30144,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F25" s="179">
         <v>45142</v>
@@ -30152,7 +30158,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C26" s="169">
         <v>2</v>
@@ -30161,7 +30167,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F26" s="179">
         <v>45152</v>
@@ -30175,7 +30181,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C27" s="169">
         <v>3</v>
@@ -30184,7 +30190,7 @@
         <v>173</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F27" s="179">
         <v>45154</v>
@@ -30198,7 +30204,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C28" s="169">
         <v>4</v>
@@ -30207,7 +30213,7 @@
         <v>245</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F28" s="179">
         <v>45157</v>
@@ -30221,7 +30227,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C29" s="169">
         <v>5</v>
@@ -30230,7 +30236,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F29" s="179">
         <v>45160</v>
@@ -30244,7 +30250,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="169" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C30" s="169">
         <v>6</v>
@@ -30253,7 +30259,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F30" s="179">
         <v>45163</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5524E-624F-4545-91EE-21D598346004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E872F9-36A6-406C-BA3E-0AF34BE3A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Team_Management!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="841">
   <si>
     <t>Team No.</t>
   </si>
@@ -2793,9 +2793,6 @@
   </si>
   <si>
     <t>SDF-01</t>
-  </si>
-  <si>
-    <t>DASCO 31</t>
   </si>
   <si>
     <t>Audit/Drops</t>
@@ -3430,7 +3427,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4174,18 +4171,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -14680,10 +14665,10 @@
         <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>819</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>820</v>
       </c>
       <c r="F2" s="5">
         <v>45158</v>
@@ -14779,7 +14764,7 @@
         <v>221</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D2" s="5">
         <v>45080</v>
@@ -14788,13 +14773,13 @@
         <v>27</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>824</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -14805,22 +14790,22 @@
         <v>763</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="D3" s="5">
         <v>45090</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="F3" s="214" t="s">
         <v>840</v>
       </c>
-      <c r="F3" s="214" t="s">
-        <v>841</v>
-      </c>
       <c r="G3" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>822</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -22035,13 +22020,13 @@
         <v>19</v>
       </c>
       <c r="B251" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C251" s="69" t="s">
         <v>318</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E251" s="69" t="s">
         <v>31</v>
@@ -22064,19 +22049,19 @@
         <v>19</v>
       </c>
       <c r="B252" s="69" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C252" s="69">
         <v>0</v>
       </c>
       <c r="D252" s="69" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E252" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G252" s="69" t="s">
         <v>50</v>
@@ -22099,13 +22084,13 @@
         <v>0</v>
       </c>
       <c r="D253" s="69" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E253" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G253" s="69" t="s">
         <v>50</v>
@@ -22128,13 +22113,13 @@
         <v>0</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="E254" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G254" s="69" t="s">
         <v>50</v>
@@ -22151,19 +22136,19 @@
         <v>19</v>
       </c>
       <c r="B255" s="69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C255" s="69">
         <v>0</v>
       </c>
       <c r="D255" s="69" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E255" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G255" s="69" t="s">
         <v>50</v>
@@ -22186,13 +22171,13 @@
         <v>0</v>
       </c>
       <c r="D256" s="69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E256" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G256" s="69" t="s">
         <v>50</v>
@@ -22215,13 +22200,13 @@
         <v>0</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E257" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G257" s="69" t="s">
         <v>50</v>
@@ -22267,19 +22252,19 @@
         <v>19</v>
       </c>
       <c r="B259" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C259" s="69">
         <v>0</v>
       </c>
       <c r="D259" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="E259" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G259" s="69" t="s">
         <v>50</v>
@@ -22296,19 +22281,19 @@
         <v>19</v>
       </c>
       <c r="B260" s="69" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C260" s="69">
         <v>0</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E260" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G260" s="69" t="s">
         <v>50</v>
@@ -22325,13 +22310,13 @@
         <v>93</v>
       </c>
       <c r="B261" s="205" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C261" s="206" t="s">
         <v>124</v>
       </c>
       <c r="D261" s="207" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E261" s="208" t="s">
         <v>31</v>
@@ -22354,19 +22339,19 @@
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
+        <v>835</v>
+      </c>
+      <c r="C262" s="210" t="s">
+        <v>838</v>
+      </c>
+      <c r="D262" s="211" t="s">
         <v>836</v>
-      </c>
-      <c r="C262" s="210" t="s">
-        <v>839</v>
-      </c>
-      <c r="D262" s="211" t="s">
-        <v>837</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -27744,10 +27729,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="K170" activeCellId="1" sqref="C176 K170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27771,7 +27757,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>345</v>
       </c>
@@ -27782,7 +27768,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>324</v>
       </c>
@@ -27793,7 +27779,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="170" t="s">
         <v>231</v>
       </c>
@@ -27804,7 +27790,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
@@ -27815,7 +27801,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
@@ -27826,7 +27812,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="170" t="s">
         <v>222</v>
       </c>
@@ -27837,7 +27823,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>393</v>
       </c>
@@ -27848,7 +27834,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>221</v>
       </c>
@@ -27859,7 +27845,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>373</v>
       </c>
@@ -27870,7 +27856,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
         <v>303</v>
       </c>
@@ -27881,7 +27867,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
         <v>117</v>
       </c>
@@ -27892,7 +27878,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>389</v>
       </c>
@@ -27903,7 +27889,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>312</v>
       </c>
@@ -27914,7 +27900,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>245</v>
       </c>
@@ -27925,7 +27911,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>189</v>
       </c>
@@ -27936,7 +27922,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>143</v>
       </c>
@@ -27947,7 +27933,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
         <v>323</v>
       </c>
@@ -27958,7 +27944,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="170" t="s">
         <v>300</v>
       </c>
@@ -27969,7 +27955,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="170" t="s">
         <v>557</v>
       </c>
@@ -27980,7 +27966,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="170" t="s">
         <v>292</v>
       </c>
@@ -27991,7 +27977,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>289</v>
       </c>
@@ -28002,7 +27988,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="170" t="s">
         <v>162</v>
       </c>
@@ -28013,7 +27999,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
         <v>174</v>
       </c>
@@ -28024,7 +28010,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
         <v>8</v>
       </c>
@@ -28035,7 +28021,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
@@ -28046,7 +28032,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
         <v>393</v>
       </c>
@@ -28057,7 +28043,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
         <v>221</v>
       </c>
@@ -28068,7 +28054,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
         <v>117</v>
       </c>
@@ -28079,7 +28065,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
         <v>245</v>
       </c>
@@ -28090,7 +28076,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
         <v>222</v>
       </c>
@@ -28101,7 +28087,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
         <v>231</v>
       </c>
@@ -28112,7 +28098,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
         <v>389</v>
       </c>
@@ -28123,7 +28109,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
         <v>345</v>
       </c>
@@ -28134,7 +28120,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
         <v>312</v>
       </c>
@@ -28145,7 +28131,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
         <v>323</v>
       </c>
@@ -28156,7 +28142,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
         <v>189</v>
       </c>
@@ -28167,7 +28153,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
         <v>300</v>
       </c>
@@ -28178,7 +28164,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
         <v>303</v>
       </c>
@@ -28189,7 +28175,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
         <v>324</v>
       </c>
@@ -28200,7 +28186,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
         <v>9</v>
       </c>
@@ -28211,7 +28197,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
         <v>143</v>
       </c>
@@ -28222,7 +28208,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="170" t="s">
         <v>373</v>
       </c>
@@ -28233,7 +28219,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>345</v>
       </c>
@@ -28244,7 +28230,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>324</v>
       </c>
@@ -28255,7 +28241,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="185" t="s">
         <v>53</v>
       </c>
@@ -28266,7 +28252,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="170" t="s">
         <v>11</v>
       </c>
@@ -28277,7 +28263,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="172" t="s">
         <v>300</v>
       </c>
@@ -28288,7 +28274,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>289</v>
       </c>
@@ -28299,7 +28285,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="172" t="s">
         <v>231</v>
       </c>
@@ -28310,7 +28296,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="170" t="s">
         <v>162</v>
       </c>
@@ -28321,7 +28307,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="186" t="s">
         <v>93</v>
       </c>
@@ -28332,7 +28318,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
@@ -28343,7 +28329,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="172" t="s">
         <v>245</v>
       </c>
@@ -28354,7 +28340,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="172" t="s">
         <v>222</v>
       </c>
@@ -28365,7 +28351,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="172" t="s">
         <v>221</v>
       </c>
@@ -28376,7 +28362,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="172" t="s">
         <v>389</v>
       </c>
@@ -28387,7 +28373,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>287</v>
       </c>
@@ -28398,7 +28384,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="180" t="s">
         <v>174</v>
       </c>
@@ -28409,7 +28395,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
         <v>586</v>
       </c>
@@ -28420,7 +28406,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="170" t="s">
         <v>83</v>
       </c>
@@ -28431,7 +28417,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="180" t="s">
         <v>763</v>
       </c>
@@ -28442,7 +28428,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="170" t="s">
         <v>117</v>
       </c>
@@ -28453,7 +28439,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="171" t="s">
         <v>557</v>
       </c>
@@ -28464,7 +28450,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="170" t="s">
         <v>303</v>
       </c>
@@ -28475,7 +28461,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="169" t="s">
         <v>262</v>
       </c>
@@ -28486,7 +28472,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="170" t="s">
         <v>189</v>
       </c>
@@ -28497,7 +28483,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="170" t="s">
         <v>11</v>
       </c>
@@ -28508,7 +28494,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="199" t="s">
         <v>53</v>
       </c>
@@ -28519,7 +28505,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
         <v>393</v>
       </c>
@@ -28530,7 +28516,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="170" t="s">
         <v>162</v>
       </c>
@@ -28541,7 +28527,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="170" t="s">
         <v>557</v>
       </c>
@@ -28552,7 +28538,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="171" t="s">
         <v>292</v>
       </c>
@@ -28563,7 +28549,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="171" t="s">
         <v>8</v>
       </c>
@@ -28574,7 +28560,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
         <v>373</v>
       </c>
@@ -28585,7 +28571,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
         <v>143</v>
       </c>
@@ -28596,7 +28582,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="170" t="s">
         <v>312</v>
       </c>
@@ -28607,7 +28593,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="198" t="s">
         <v>345</v>
       </c>
@@ -28618,7 +28604,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="170" t="s">
         <v>323</v>
       </c>
@@ -28629,18 +28615,18 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="217" t="s">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="70" t="s">
         <v>323</v>
       </c>
-      <c r="B80" s="217" t="s">
+      <c r="B80" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C80" s="218">
+      <c r="C80" s="173">
         <v>44847</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="184" t="s">
         <v>93</v>
       </c>
@@ -28651,7 +28637,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="184" t="s">
         <v>245</v>
       </c>
@@ -28662,7 +28648,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="188" t="s">
         <v>83</v>
       </c>
@@ -28673,7 +28659,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>9</v>
       </c>
@@ -28684,7 +28670,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>221</v>
       </c>
@@ -28695,7 +28681,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="184" t="s">
         <v>9</v>
       </c>
@@ -28706,7 +28692,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="184" t="s">
         <v>8</v>
       </c>
@@ -28717,7 +28703,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="189" t="s">
         <v>393</v>
       </c>
@@ -28728,7 +28714,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
         <v>117</v>
       </c>
@@ -28739,7 +28725,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="184" t="s">
         <v>324</v>
       </c>
@@ -28750,7 +28736,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
         <v>287</v>
       </c>
@@ -28761,7 +28747,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="189" t="s">
         <v>174</v>
       </c>
@@ -28772,7 +28758,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="189" t="s">
         <v>189</v>
       </c>
@@ -28783,7 +28769,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="184" t="s">
         <v>82</v>
       </c>
@@ -28794,7 +28780,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
         <v>557</v>
       </c>
@@ -28805,7 +28791,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
         <v>11</v>
       </c>
@@ -28816,7 +28802,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="188" t="s">
         <v>586</v>
       </c>
@@ -28827,18 +28813,18 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
         <v>189</v>
       </c>
       <c r="B98" s="70" t="s">
         <v>179</v>
       </c>
-      <c r="C98" s="218">
+      <c r="C98" s="173">
         <v>44919</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="187" t="s">
         <v>53</v>
       </c>
@@ -28849,7 +28835,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
         <v>300</v>
       </c>
@@ -28860,7 +28846,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="184" t="s">
         <v>231</v>
       </c>
@@ -28871,7 +28857,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
         <v>162</v>
       </c>
@@ -28882,7 +28868,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
         <v>389</v>
       </c>
@@ -28893,7 +28879,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="184" t="s">
         <v>222</v>
       </c>
@@ -28904,7 +28890,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="184" t="s">
         <v>82</v>
       </c>
@@ -28915,7 +28901,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="189" t="s">
         <v>768</v>
       </c>
@@ -28926,7 +28912,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="189" t="s">
         <v>262</v>
       </c>
@@ -28937,7 +28923,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>173</v>
       </c>
@@ -28948,7 +28934,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="184" t="s">
         <v>117</v>
       </c>
@@ -28959,7 +28945,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="184" t="s">
         <v>323</v>
       </c>
@@ -28970,7 +28956,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="184" t="s">
         <v>221</v>
       </c>
@@ -28981,7 +28967,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="184" t="s">
         <v>245</v>
       </c>
@@ -28992,7 +28978,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="184" t="s">
         <v>9</v>
       </c>
@@ -29003,7 +28989,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="184" t="s">
         <v>292</v>
       </c>
@@ -29014,7 +29000,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="184" t="s">
         <v>586</v>
       </c>
@@ -29025,7 +29011,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="184" t="s">
         <v>324</v>
       </c>
@@ -29036,7 +29022,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="189" t="s">
         <v>430</v>
       </c>
@@ -29047,7 +29033,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="189" t="s">
         <v>557</v>
       </c>
@@ -29058,7 +29044,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="189" t="s">
         <v>174</v>
       </c>
@@ -29069,7 +29055,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="184" t="s">
         <v>282</v>
       </c>
@@ -29080,7 +29066,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="189" t="s">
         <v>8</v>
       </c>
@@ -29091,7 +29077,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="184" t="s">
         <v>11</v>
       </c>
@@ -29102,7 +29088,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
         <v>303</v>
       </c>
@@ -29113,7 +29099,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="189" t="s">
         <v>93</v>
       </c>
@@ -29124,7 +29110,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="189" t="s">
         <v>763</v>
       </c>
@@ -29135,7 +29121,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="189" t="s">
         <v>287</v>
       </c>
@@ -29146,7 +29132,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="170" t="s">
         <v>345</v>
       </c>
@@ -29157,7 +29143,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="180" t="s">
         <v>262</v>
       </c>
@@ -29168,7 +29154,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="170" t="s">
         <v>373</v>
       </c>
@@ -29179,7 +29165,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="170" t="s">
         <v>82</v>
       </c>
@@ -29190,7 +29176,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="180" t="s">
         <v>289</v>
       </c>
@@ -29201,8 +29187,8 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="215" t="s">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="184" t="s">
         <v>389</v>
       </c>
       <c r="B132" s="190" t="s">
@@ -29212,8 +29198,8 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="215" t="s">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="184" t="s">
         <v>173</v>
       </c>
       <c r="B133" s="192" t="s">
@@ -29223,7 +29209,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="180" t="s">
         <v>300</v>
       </c>
@@ -29234,7 +29220,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="170" t="s">
         <v>83</v>
       </c>
@@ -29245,7 +29231,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="170" t="s">
         <v>189</v>
       </c>
@@ -29256,7 +29242,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="180" t="s">
         <v>303</v>
       </c>
@@ -29267,7 +29253,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="170" t="s">
         <v>292</v>
       </c>
@@ -29278,8 +29264,8 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="216" t="s">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="189" t="s">
         <v>312</v>
       </c>
       <c r="B139" s="190" t="s">
@@ -29289,7 +29275,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="180" t="s">
         <v>174</v>
       </c>
@@ -29300,7 +29286,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="184" t="s">
         <v>231</v>
       </c>
@@ -29311,8 +29297,8 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="216" t="s">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="189" t="s">
         <v>763</v>
       </c>
       <c r="B142" s="190" t="s">
@@ -29322,7 +29308,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
         <v>792</v>
       </c>
@@ -29333,7 +29319,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="189" t="s">
         <v>393</v>
       </c>
@@ -29344,8 +29330,8 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="215" t="s">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="184" t="s">
         <v>373</v>
       </c>
       <c r="B145" s="192" t="s">
@@ -29357,7 +29343,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="170" t="s">
-        <v>793</v>
+        <v>703</v>
       </c>
       <c r="B146" s="192" t="s">
         <v>15</v>
@@ -29366,7 +29352,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="170" t="s">
         <v>53</v>
       </c>
@@ -29377,8 +29363,8 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="215" t="s">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="184" t="s">
         <v>71</v>
       </c>
       <c r="B148" s="192" t="s">
@@ -29388,8 +29374,8 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="215" t="s">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="184" t="s">
         <v>221</v>
       </c>
       <c r="B149" s="190" t="s">
@@ -29399,7 +29385,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="184" t="s">
         <v>586</v>
       </c>
@@ -29410,7 +29396,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="184" t="s">
         <v>245</v>
       </c>
@@ -29421,7 +29407,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="170" t="s">
         <v>323</v>
       </c>
@@ -29432,7 +29418,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="184" t="s">
         <v>324</v>
       </c>
@@ -29443,8 +29429,8 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="216" t="s">
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="189" t="s">
         <v>768</v>
       </c>
       <c r="B154" s="190" t="s">
@@ -29454,7 +29440,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="170" t="s">
         <v>117</v>
       </c>
@@ -29465,7 +29451,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>173</v>
       </c>
@@ -29476,7 +29462,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="180" t="s">
         <v>162</v>
       </c>
@@ -29487,8 +29473,8 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="215" t="s">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="184" t="s">
         <v>222</v>
       </c>
       <c r="B158" s="190" t="s">
@@ -29498,7 +29484,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="170" t="s">
         <v>9</v>
       </c>
@@ -29509,29 +29495,29 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B160" s="217" t="s">
+      <c r="B160" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="C160" s="218">
+      <c r="C160" s="173">
         <v>45151</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="217" t="s">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="B161" s="217" t="s">
+      <c r="B161" s="70" t="s">
         <v>10</v>
       </c>
       <c r="C161" s="174">
         <v>45151</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="169" t="s">
         <v>93</v>
       </c>
@@ -29543,7 +29529,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C160" xr:uid="{00000000-0009-0000-0000-000004000000}">
+  <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="DASCO 31"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>
@@ -29580,13 +29571,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -29595,10 +29586,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -29606,7 +29597,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C2" s="181">
         <v>1</v>
@@ -29629,7 +29620,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
@@ -29652,7 +29643,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
@@ -29675,7 +29666,7 @@
         <v>21</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C5" s="169">
         <v>1</v>
@@ -29698,7 +29689,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C6" s="169">
         <v>2</v>
@@ -29721,7 +29712,7 @@
         <v>21</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C7" s="169">
         <v>3</v>
@@ -29730,7 +29721,7 @@
         <v>768</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F7" s="179">
         <v>45149</v>
@@ -29744,7 +29735,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C8" s="169">
         <v>4</v>
@@ -29767,7 +29758,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C9" s="169">
         <v>1</v>
@@ -29790,7 +29781,7 @@
         <v>22</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C10" s="169">
         <v>2</v>
@@ -29813,7 +29804,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C11" s="169">
         <v>1</v>
@@ -29822,7 +29813,7 @@
         <v>430</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F11" s="179">
         <v>45139</v>
@@ -29836,16 +29827,16 @@
         <v>20</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C12" s="169">
         <v>2</v>
       </c>
       <c r="D12" s="169" t="s">
+        <v>831</v>
+      </c>
+      <c r="E12" s="179" t="s">
         <v>832</v>
-      </c>
-      <c r="E12" s="179" t="s">
-        <v>833</v>
       </c>
       <c r="F12" s="179">
         <v>45141</v>
@@ -29859,7 +29850,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C13" s="169">
         <v>3</v>
@@ -29868,7 +29859,7 @@
         <v>287</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F13" s="179">
         <v>45154</v>
@@ -29882,7 +29873,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C14" s="169">
         <v>4</v>
@@ -29891,7 +29882,7 @@
         <v>312</v>
       </c>
       <c r="E14" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F14" s="179">
         <v>45156</v>
@@ -29905,7 +29896,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C15" s="169">
         <v>5</v>
@@ -29914,7 +29905,7 @@
         <v>93</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F15" s="179">
         <v>45158</v>
@@ -29928,7 +29919,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C16" s="169">
         <v>6</v>
@@ -29937,7 +29928,7 @@
         <v>82</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F16" s="179">
         <v>45160</v>
@@ -29951,7 +29942,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C17" s="169">
         <v>7</v>
@@ -29960,7 +29951,7 @@
         <v>389</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F17" s="179">
         <v>45163</v>
@@ -29974,7 +29965,7 @@
         <v>21</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C18" s="169">
         <v>1</v>
@@ -29983,7 +29974,7 @@
         <v>189</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F18" s="179">
         <v>45148</v>
@@ -29997,7 +29988,7 @@
         <v>21</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C19" s="169">
         <v>2</v>
@@ -30006,7 +29997,7 @@
         <v>221</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F19" s="179">
         <v>45152</v>
@@ -30020,7 +30011,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C20" s="169">
         <v>3</v>
@@ -30029,7 +30020,7 @@
         <v>222</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F20" s="179">
         <v>45155</v>
@@ -30043,7 +30034,7 @@
         <v>21</v>
       </c>
       <c r="B21" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C21" s="169">
         <v>4</v>
@@ -30052,7 +30043,7 @@
         <v>231</v>
       </c>
       <c r="E21" s="179" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F21" s="179">
         <v>45158</v>
@@ -30066,7 +30057,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C22" s="169">
         <v>5</v>
@@ -30075,7 +30066,7 @@
         <v>289</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F22" s="179">
         <v>45161</v>
@@ -30089,7 +30080,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C23" s="169">
         <v>6</v>
@@ -30098,7 +30089,7 @@
         <v>143</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F23" s="179">
         <v>45163</v>
@@ -30112,7 +30103,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C24" s="169">
         <v>7</v>
@@ -30121,7 +30112,7 @@
         <v>9</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F24" s="179">
         <v>45164</v>
@@ -30135,7 +30126,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C25" s="169">
         <v>1</v>
@@ -30144,7 +30135,7 @@
         <v>19</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F25" s="179">
         <v>45142</v>
@@ -30158,7 +30149,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C26" s="169">
         <v>2</v>
@@ -30167,7 +30158,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F26" s="179">
         <v>45152</v>
@@ -30181,7 +30172,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C27" s="169">
         <v>3</v>
@@ -30190,7 +30181,7 @@
         <v>173</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F27" s="179">
         <v>45154</v>
@@ -30204,7 +30195,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C28" s="169">
         <v>4</v>
@@ -30213,7 +30204,7 @@
         <v>245</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F28" s="179">
         <v>45157</v>
@@ -30227,7 +30218,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C29" s="169">
         <v>5</v>
@@ -30236,7 +30227,7 @@
         <v>11</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F29" s="179">
         <v>45160</v>
@@ -30250,7 +30241,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="169" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C30" s="169">
         <v>6</v>
@@ -30259,7 +30250,7 @@
         <v>8</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F30" s="179">
         <v>45163</v>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E872F9-36A6-406C-BA3E-0AF34BE3A464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBBAF8C-86A6-4D8E-BCDD-BABA04674E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27729,11 +27729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K170" activeCellId="1" sqref="C176 K170"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27757,7 +27756,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="170" t="s">
         <v>345</v>
       </c>
@@ -27768,7 +27767,7 @@
         <v>44236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="170" t="s">
         <v>324</v>
       </c>
@@ -27779,7 +27778,7 @@
         <v>44272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="170" t="s">
         <v>231</v>
       </c>
@@ -27790,7 +27789,7 @@
         <v>44274</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="170" t="s">
         <v>9</v>
       </c>
@@ -27801,7 +27800,7 @@
         <v>44307</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="170" t="s">
         <v>93</v>
       </c>
@@ -27812,7 +27811,7 @@
         <v>44309</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="170" t="s">
         <v>222</v>
       </c>
@@ -27823,7 +27822,7 @@
         <v>44315</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="170" t="s">
         <v>393</v>
       </c>
@@ -27834,7 +27833,7 @@
         <v>44331</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="170" t="s">
         <v>221</v>
       </c>
@@ -27845,7 +27844,7 @@
         <v>44336</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="170" t="s">
         <v>373</v>
       </c>
@@ -27856,7 +27855,7 @@
         <v>44338</v>
       </c>
     </row>
-    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="170" t="s">
         <v>303</v>
       </c>
@@ -27867,7 +27866,7 @@
         <v>44345</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="170" t="s">
         <v>117</v>
       </c>
@@ -27878,7 +27877,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="170" t="s">
         <v>389</v>
       </c>
@@ -27889,7 +27888,7 @@
         <v>44347</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="170" t="s">
         <v>312</v>
       </c>
@@ -27900,7 +27899,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="170" t="s">
         <v>245</v>
       </c>
@@ -27911,7 +27910,7 @@
         <v>44370</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="170" t="s">
         <v>189</v>
       </c>
@@ -27922,7 +27921,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="170" t="s">
         <v>143</v>
       </c>
@@ -27933,7 +27932,7 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="170" t="s">
         <v>323</v>
       </c>
@@ -27944,7 +27943,7 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="170" t="s">
         <v>300</v>
       </c>
@@ -27955,7 +27954,7 @@
         <v>44392</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="170" t="s">
         <v>557</v>
       </c>
@@ -27966,7 +27965,7 @@
         <v>44426</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="170" t="s">
         <v>292</v>
       </c>
@@ -27977,7 +27976,7 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>289</v>
       </c>
@@ -27988,7 +27987,7 @@
         <v>44461</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="170" t="s">
         <v>162</v>
       </c>
@@ -27999,7 +27998,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="180" t="s">
         <v>174</v>
       </c>
@@ -28010,7 +28009,7 @@
         <v>44483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="170" t="s">
         <v>8</v>
       </c>
@@ -28021,7 +28020,7 @@
         <v>44504</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="186" t="s">
         <v>11</v>
       </c>
@@ -28032,7 +28031,7 @@
         <v>44509</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="170" t="s">
         <v>393</v>
       </c>
@@ -28043,7 +28042,7 @@
         <v>44544</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="170" t="s">
         <v>221</v>
       </c>
@@ -28054,7 +28053,7 @@
         <v>44546</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="170" t="s">
         <v>117</v>
       </c>
@@ -28065,7 +28064,7 @@
         <v>44547</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="170" t="s">
         <v>245</v>
       </c>
@@ -28076,7 +28075,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="170" t="s">
         <v>222</v>
       </c>
@@ -28087,7 +28086,7 @@
         <v>44550</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="170" t="s">
         <v>231</v>
       </c>
@@ -28098,7 +28097,7 @@
         <v>44552</v>
       </c>
     </row>
-    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="170" t="s">
         <v>389</v>
       </c>
@@ -28109,7 +28108,7 @@
         <v>44554</v>
       </c>
     </row>
-    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="170" t="s">
         <v>345</v>
       </c>
@@ -28120,7 +28119,7 @@
         <v>44556</v>
       </c>
     </row>
-    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="170" t="s">
         <v>312</v>
       </c>
@@ -28131,7 +28130,7 @@
         <v>44558</v>
       </c>
     </row>
-    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="170" t="s">
         <v>323</v>
       </c>
@@ -28142,7 +28141,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="170" t="s">
         <v>189</v>
       </c>
@@ -28153,7 +28152,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="170" t="s">
         <v>300</v>
       </c>
@@ -28164,7 +28163,7 @@
         <v>44583</v>
       </c>
     </row>
-    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="170" t="s">
         <v>303</v>
       </c>
@@ -28175,7 +28174,7 @@
         <v>44586</v>
       </c>
     </row>
-    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="170" t="s">
         <v>324</v>
       </c>
@@ -28186,7 +28185,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="170" t="s">
         <v>9</v>
       </c>
@@ -28197,7 +28196,7 @@
         <v>44589</v>
       </c>
     </row>
-    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="170" t="s">
         <v>143</v>
       </c>
@@ -28208,7 +28207,7 @@
         <v>44591</v>
       </c>
     </row>
-    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="170" t="s">
         <v>373</v>
       </c>
@@ -28219,7 +28218,7 @@
         <v>44592</v>
       </c>
     </row>
-    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="172" t="s">
         <v>345</v>
       </c>
@@ -28230,7 +28229,7 @@
         <v>44612</v>
       </c>
     </row>
-    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="172" t="s">
         <v>324</v>
       </c>
@@ -28241,7 +28240,7 @@
         <v>44613</v>
       </c>
     </row>
-    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="185" t="s">
         <v>53</v>
       </c>
@@ -28252,7 +28251,7 @@
         <v>44615</v>
       </c>
     </row>
-    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="170" t="s">
         <v>11</v>
       </c>
@@ -28263,7 +28262,7 @@
         <v>44622</v>
       </c>
     </row>
-    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="172" t="s">
         <v>300</v>
       </c>
@@ -28274,7 +28273,7 @@
         <v>44639</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>289</v>
       </c>
@@ -28285,7 +28284,7 @@
         <v>44640</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="172" t="s">
         <v>231</v>
       </c>
@@ -28296,7 +28295,7 @@
         <v>44652</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="170" t="s">
         <v>162</v>
       </c>
@@ -28307,7 +28306,7 @@
         <v>44666</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="186" t="s">
         <v>93</v>
       </c>
@@ -28318,7 +28317,7 @@
         <v>44669</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
@@ -28329,7 +28328,7 @@
         <v>44672</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="172" t="s">
         <v>245</v>
       </c>
@@ -28340,7 +28339,7 @@
         <v>44673</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="172" t="s">
         <v>222</v>
       </c>
@@ -28351,7 +28350,7 @@
         <v>44678</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="172" t="s">
         <v>221</v>
       </c>
@@ -28362,7 +28361,7 @@
         <v>44680</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="172" t="s">
         <v>389</v>
       </c>
@@ -28373,7 +28372,7 @@
         <v>44697</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>287</v>
       </c>
@@ -28384,7 +28383,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="180" t="s">
         <v>174</v>
       </c>
@@ -28395,7 +28394,7 @@
         <v>44706</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="170" t="s">
         <v>586</v>
       </c>
@@ -28406,7 +28405,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="170" t="s">
         <v>83</v>
       </c>
@@ -28417,7 +28416,7 @@
         <v>44712</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="180" t="s">
         <v>763</v>
       </c>
@@ -28428,7 +28427,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="170" t="s">
         <v>117</v>
       </c>
@@ -28439,7 +28438,7 @@
         <v>44727</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="171" t="s">
         <v>557</v>
       </c>
@@ -28450,7 +28449,7 @@
         <v>44736</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="170" t="s">
         <v>303</v>
       </c>
@@ -28461,7 +28460,7 @@
         <v>44737</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="169" t="s">
         <v>262</v>
       </c>
@@ -28472,7 +28471,7 @@
         <v>44752</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="170" t="s">
         <v>189</v>
       </c>
@@ -28483,7 +28482,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="170" t="s">
         <v>11</v>
       </c>
@@ -28494,7 +28493,7 @@
         <v>44786</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="199" t="s">
         <v>53</v>
       </c>
@@ -28505,7 +28504,7 @@
         <v>44791</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="170" t="s">
         <v>393</v>
       </c>
@@ -28516,7 +28515,7 @@
         <v>44811</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="170" t="s">
         <v>162</v>
       </c>
@@ -28527,7 +28526,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="170" t="s">
         <v>557</v>
       </c>
@@ -28538,7 +28537,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="171" t="s">
         <v>292</v>
       </c>
@@ -28549,7 +28548,7 @@
         <v>44818</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="171" t="s">
         <v>8</v>
       </c>
@@ -28560,7 +28559,7 @@
         <v>44821</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="170" t="s">
         <v>373</v>
       </c>
@@ -28571,7 +28570,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="170" t="s">
         <v>143</v>
       </c>
@@ -28582,7 +28581,7 @@
         <v>44826</v>
       </c>
     </row>
-    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="170" t="s">
         <v>312</v>
       </c>
@@ -28593,7 +28592,7 @@
         <v>44828</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="198" t="s">
         <v>345</v>
       </c>
@@ -28604,7 +28603,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="170" t="s">
         <v>323</v>
       </c>
@@ -28615,7 +28614,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>323</v>
       </c>
@@ -28626,7 +28625,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="184" t="s">
         <v>93</v>
       </c>
@@ -28637,7 +28636,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="184" t="s">
         <v>245</v>
       </c>
@@ -28648,7 +28647,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="188" t="s">
         <v>83</v>
       </c>
@@ -28659,7 +28658,7 @@
         <v>44852</v>
       </c>
     </row>
-    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>9</v>
       </c>
@@ -28670,7 +28669,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>221</v>
       </c>
@@ -28681,7 +28680,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="184" t="s">
         <v>9</v>
       </c>
@@ -28692,7 +28691,7 @@
         <v>44856</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="184" t="s">
         <v>8</v>
       </c>
@@ -28703,7 +28702,7 @@
         <v>44877</v>
       </c>
     </row>
-    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="189" t="s">
         <v>393</v>
       </c>
@@ -28714,7 +28713,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
         <v>117</v>
       </c>
@@ -28725,7 +28724,7 @@
         <v>44878</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="184" t="s">
         <v>324</v>
       </c>
@@ -28736,7 +28735,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
         <v>287</v>
       </c>
@@ -28747,7 +28746,7 @@
         <v>44881</v>
       </c>
     </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="189" t="s">
         <v>174</v>
       </c>
@@ -28758,7 +28757,7 @@
         <v>44882</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="189" t="s">
         <v>189</v>
       </c>
@@ -28769,7 +28768,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="184" t="s">
         <v>82</v>
       </c>
@@ -28780,7 +28779,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
         <v>557</v>
       </c>
@@ -28791,7 +28790,7 @@
         <v>44913</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
         <v>11</v>
       </c>
@@ -28802,7 +28801,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="188" t="s">
         <v>586</v>
       </c>
@@ -28813,7 +28812,7 @@
         <v>44918</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
         <v>189</v>
       </c>
@@ -28824,7 +28823,7 @@
         <v>44919</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="187" t="s">
         <v>53</v>
       </c>
@@ -28835,7 +28834,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
         <v>300</v>
       </c>
@@ -28846,7 +28845,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="184" t="s">
         <v>231</v>
       </c>
@@ -28857,7 +28856,7 @@
         <v>44940</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
         <v>162</v>
       </c>
@@ -28868,7 +28867,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
         <v>389</v>
       </c>
@@ -28879,7 +28878,7 @@
         <v>44943</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="184" t="s">
         <v>222</v>
       </c>
@@ -28890,7 +28889,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="184" t="s">
         <v>82</v>
       </c>
@@ -28901,7 +28900,7 @@
         <v>44949</v>
       </c>
     </row>
-    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="189" t="s">
         <v>768</v>
       </c>
@@ -28912,7 +28911,7 @@
         <v>44950</v>
       </c>
     </row>
-    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="189" t="s">
         <v>262</v>
       </c>
@@ -28923,7 +28922,7 @@
         <v>44953</v>
       </c>
     </row>
-    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>173</v>
       </c>
@@ -28934,7 +28933,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="184" t="s">
         <v>117</v>
       </c>
@@ -28945,7 +28944,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="184" t="s">
         <v>323</v>
       </c>
@@ -28956,7 +28955,7 @@
         <v>44966</v>
       </c>
     </row>
-    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="184" t="s">
         <v>221</v>
       </c>
@@ -28967,7 +28966,7 @@
         <v>44969</v>
       </c>
     </row>
-    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="184" t="s">
         <v>245</v>
       </c>
@@ -28978,7 +28977,7 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="184" t="s">
         <v>9</v>
       </c>
@@ -28989,7 +28988,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="184" t="s">
         <v>292</v>
       </c>
@@ -29000,7 +28999,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="184" t="s">
         <v>586</v>
       </c>
@@ -29011,7 +29010,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="184" t="s">
         <v>324</v>
       </c>
@@ -29022,7 +29021,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="189" t="s">
         <v>430</v>
       </c>
@@ -29033,7 +29032,7 @@
         <v>44992</v>
       </c>
     </row>
-    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="189" t="s">
         <v>557</v>
       </c>
@@ -29044,7 +29043,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="189" t="s">
         <v>174</v>
       </c>
@@ -29055,7 +29054,7 @@
         <v>44994</v>
       </c>
     </row>
-    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="184" t="s">
         <v>282</v>
       </c>
@@ -29066,7 +29065,7 @@
         <v>44995</v>
       </c>
     </row>
-    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="189" t="s">
         <v>8</v>
       </c>
@@ -29077,7 +29076,7 @@
         <v>44997</v>
       </c>
     </row>
-    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="184" t="s">
         <v>11</v>
       </c>
@@ -29088,7 +29087,7 @@
         <v>44999</v>
       </c>
     </row>
-    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
         <v>303</v>
       </c>
@@ -29099,7 +29098,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="189" t="s">
         <v>93</v>
       </c>
@@ -29110,7 +29109,7 @@
         <v>45001</v>
       </c>
     </row>
-    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="189" t="s">
         <v>763</v>
       </c>
@@ -29121,7 +29120,7 @@
         <v>45002</v>
       </c>
     </row>
-    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="189" t="s">
         <v>287</v>
       </c>
@@ -29132,7 +29131,7 @@
         <v>45004</v>
       </c>
     </row>
-    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="170" t="s">
         <v>345</v>
       </c>
@@ -29143,7 +29142,7 @@
         <v>45005</v>
       </c>
     </row>
-    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="180" t="s">
         <v>262</v>
       </c>
@@ -29154,7 +29153,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="170" t="s">
         <v>373</v>
       </c>
@@ -29165,7 +29164,7 @@
         <v>45021</v>
       </c>
     </row>
-    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="170" t="s">
         <v>82</v>
       </c>
@@ -29176,7 +29175,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="180" t="s">
         <v>289</v>
       </c>
@@ -29187,7 +29186,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="184" t="s">
         <v>389</v>
       </c>
@@ -29198,7 +29197,7 @@
         <v>45040</v>
       </c>
     </row>
-    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="184" t="s">
         <v>173</v>
       </c>
@@ -29209,7 +29208,7 @@
         <v>45043</v>
       </c>
     </row>
-    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="180" t="s">
         <v>300</v>
       </c>
@@ -29220,7 +29219,7 @@
         <v>45046</v>
       </c>
     </row>
-    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="170" t="s">
         <v>83</v>
       </c>
@@ -29231,7 +29230,7 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="170" t="s">
         <v>189</v>
       </c>
@@ -29242,7 +29241,7 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="180" t="s">
         <v>303</v>
       </c>
@@ -29253,7 +29252,7 @@
         <v>45067</v>
       </c>
     </row>
-    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="170" t="s">
         <v>292</v>
       </c>
@@ -29264,7 +29263,7 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="189" t="s">
         <v>312</v>
       </c>
@@ -29275,7 +29274,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="180" t="s">
         <v>174</v>
       </c>
@@ -29286,7 +29285,7 @@
         <v>45080</v>
       </c>
     </row>
-    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="184" t="s">
         <v>231</v>
       </c>
@@ -29297,7 +29296,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="189" t="s">
         <v>763</v>
       </c>
@@ -29308,7 +29307,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
         <v>792</v>
       </c>
@@ -29319,7 +29318,7 @@
         <v>45090</v>
       </c>
     </row>
-    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="189" t="s">
         <v>393</v>
       </c>
@@ -29330,7 +29329,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="184" t="s">
         <v>373</v>
       </c>
@@ -29352,7 +29351,7 @@
         <v>45095</v>
       </c>
     </row>
-    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="170" t="s">
         <v>53</v>
       </c>
@@ -29363,7 +29362,7 @@
         <v>45112</v>
       </c>
     </row>
-    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="184" t="s">
         <v>71</v>
       </c>
@@ -29374,7 +29373,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="184" t="s">
         <v>221</v>
       </c>
@@ -29385,7 +29384,7 @@
         <v>45113</v>
       </c>
     </row>
-    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="184" t="s">
         <v>586</v>
       </c>
@@ -29396,7 +29395,7 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="184" t="s">
         <v>245</v>
       </c>
@@ -29407,7 +29406,7 @@
         <v>45118</v>
       </c>
     </row>
-    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="170" t="s">
         <v>323</v>
       </c>
@@ -29418,7 +29417,7 @@
         <v>45122</v>
       </c>
     </row>
-    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="184" t="s">
         <v>324</v>
       </c>
@@ -29429,7 +29428,7 @@
         <v>45123</v>
       </c>
     </row>
-    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="189" t="s">
         <v>768</v>
       </c>
@@ -29440,7 +29439,7 @@
         <v>45126</v>
       </c>
     </row>
-    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="170" t="s">
         <v>117</v>
       </c>
@@ -29451,7 +29450,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="14" t="s">
         <v>173</v>
       </c>
@@ -29462,7 +29461,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="180" t="s">
         <v>162</v>
       </c>
@@ -29473,7 +29472,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="184" t="s">
         <v>222</v>
       </c>
@@ -29484,7 +29483,7 @@
         <v>45144</v>
       </c>
     </row>
-    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="170" t="s">
         <v>9</v>
       </c>
@@ -29495,7 +29494,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="70" t="s">
         <v>19</v>
       </c>
@@ -29506,7 +29505,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="70" t="s">
         <v>8</v>
       </c>
@@ -29517,7 +29516,7 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="169" t="s">
         <v>93</v>
       </c>
@@ -29530,11 +29529,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:C162" xr:uid="{00000000-0009-0000-0000-000004000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="DASCO 31"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C162">
       <sortCondition ref="C1:C160"/>
     </sortState>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBBAF8C-86A6-4D8E-BCDD-BABA04674E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F82A4-22A2-4D52-A913-30296B335050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,12 @@
     <sheet name="All_Critical_Points" sheetId="6" r:id="rId3"/>
     <sheet name="phases" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
-    <sheet name="Team_Management" sheetId="9" r:id="rId6"/>
+    <sheet name="Plan" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Team_Management!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27731,7 +27731,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -29545,8 +29545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3F82A4-22A2-4D52-A913-30296B335050}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA584DB9-593A-41E0-834E-9A62AF13D22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="phases" sheetId="7" state="hidden" r:id="rId4"/>
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
     <sheet name="Plan" sheetId="9" r:id="rId6"/>
+    <sheet name="Team_Management" sheetId="10" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="841">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="847">
   <si>
     <t>Team No.</t>
   </si>
@@ -2948,6 +2950,24 @@
   </si>
   <si>
     <t>Fall Prevention System is not safe for the EPIS drops surveyor</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
   </si>
 </sst>
 </file>
@@ -29545,9 +29565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -30261,4 +30279,516 @@
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="183" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="183" t="s">
+        <v>826</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="181" t="s">
+        <v>794</v>
+      </c>
+      <c r="C2" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E2" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F2" s="182">
+        <v>45162</v>
+      </c>
+      <c r="G2" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C3" s="169">
+        <v>0</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E3" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F3" s="182">
+        <v>45163</v>
+      </c>
+      <c r="G3" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C4" s="169">
+        <v>1</v>
+      </c>
+      <c r="D4" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E4" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F4" s="182">
+        <v>45164</v>
+      </c>
+      <c r="G4" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C5" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D5" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E5" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F5" s="182">
+        <v>45165</v>
+      </c>
+      <c r="G5" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C6" s="169">
+        <v>0</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E6" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F6" s="182">
+        <v>45166</v>
+      </c>
+      <c r="G6" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C7" s="169">
+        <v>1</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F7" s="182">
+        <v>45167</v>
+      </c>
+      <c r="G7" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C8" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D8" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E8" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F8" s="182">
+        <v>45168</v>
+      </c>
+      <c r="G8" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C9" s="169">
+        <v>0</v>
+      </c>
+      <c r="D9" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E9" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F9" s="182">
+        <v>45169</v>
+      </c>
+      <c r="G9" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="169" t="s">
+        <v>794</v>
+      </c>
+      <c r="C10" s="169">
+        <v>1</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F10" s="182">
+        <v>45170</v>
+      </c>
+      <c r="G10" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C11" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D11" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E11" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F11" s="182">
+        <v>45171</v>
+      </c>
+      <c r="G11" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C12" s="169">
+        <v>0</v>
+      </c>
+      <c r="D12" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E12" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F12" s="182">
+        <v>45172</v>
+      </c>
+      <c r="G12" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C13" s="169">
+        <v>1</v>
+      </c>
+      <c r="D13" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F13" s="182">
+        <v>45173</v>
+      </c>
+      <c r="G13" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="169" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C14" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D14" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F14" s="182">
+        <v>45174</v>
+      </c>
+      <c r="G14" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C15" s="169">
+        <v>0</v>
+      </c>
+      <c r="D15" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E15" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F15" s="182">
+        <v>45175</v>
+      </c>
+      <c r="G15" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C16" s="169">
+        <v>1</v>
+      </c>
+      <c r="D16" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E16" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F16" s="182">
+        <v>45176</v>
+      </c>
+      <c r="G16" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C17" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D17" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E17" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F17" s="182">
+        <v>45177</v>
+      </c>
+      <c r="G17" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C18" s="169">
+        <v>0</v>
+      </c>
+      <c r="D18" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E18" s="179" t="s">
+        <v>845</v>
+      </c>
+      <c r="F18" s="182">
+        <v>45178</v>
+      </c>
+      <c r="G18" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C19" s="169">
+        <v>1</v>
+      </c>
+      <c r="D19" s="169" t="s">
+        <v>843</v>
+      </c>
+      <c r="E19" s="179" t="s">
+        <v>846</v>
+      </c>
+      <c r="F19" s="182">
+        <v>45179</v>
+      </c>
+      <c r="G19" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C20" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D20" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" s="182" t="s">
+        <v>844</v>
+      </c>
+      <c r="F20" s="182">
+        <v>45180</v>
+      </c>
+      <c r="G20" s="181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="169" t="s">
+        <v>797</v>
+      </c>
+      <c r="C21" s="169">
+        <v>0</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="F21" s="182">
+        <v>45181</v>
+      </c>
+      <c r="G21" s="181">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G21" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId1"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA584DB9-593A-41E0-834E-9A62AF13D22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2A450-6CCE-4CF9-9626-575768E74C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30286,18 +30286,18 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF2A450-6CCE-4CF9-9626-575768E74C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFC564-3FC4-4C48-B64A-9DBC6B80D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="847">
   <si>
     <t>Team No.</t>
   </si>
@@ -30283,10 +30283,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30532,46 +30532,46 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
-        <v>22</v>
+      <c r="A11" s="181" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C11" s="181">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E11" s="182" t="s">
-        <v>844</v>
+      <c r="C11" s="169">
+        <v>0</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E11" s="179" t="s">
+        <v>845</v>
       </c>
       <c r="F11" s="182">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="G11" s="181">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="181" t="s">
+      <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="169" t="s">
         <v>797</v>
       </c>
       <c r="C12" s="169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E12" s="179" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F12" s="182">
-        <v>45172</v>
+        <v>45173</v>
       </c>
       <c r="G12" s="181">
         <v>6</v>
@@ -30584,17 +30584,17 @@
       <c r="B13" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C13" s="169">
-        <v>1</v>
-      </c>
-      <c r="D13" s="169" t="s">
-        <v>843</v>
-      </c>
-      <c r="E13" s="179" t="s">
-        <v>846</v>
+      <c r="C13" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D13" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E13" s="182" t="s">
+        <v>844</v>
       </c>
       <c r="F13" s="182">
-        <v>45173</v>
+        <v>45174</v>
       </c>
       <c r="G13" s="181">
         <v>6</v>
@@ -30602,22 +30602,22 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C14" s="181">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E14" s="182" t="s">
-        <v>844</v>
+      <c r="C14" s="169">
+        <v>0</v>
+      </c>
+      <c r="D14" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E14" s="179" t="s">
+        <v>845</v>
       </c>
       <c r="F14" s="182">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="G14" s="181">
         <v>6</v>
@@ -30631,16 +30631,16 @@
         <v>797</v>
       </c>
       <c r="C15" s="169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F15" s="182">
-        <v>45175</v>
+        <v>45176</v>
       </c>
       <c r="G15" s="181">
         <v>6</v>
@@ -30653,17 +30653,17 @@
       <c r="B16" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C16" s="169">
-        <v>1</v>
-      </c>
-      <c r="D16" s="169" t="s">
-        <v>843</v>
-      </c>
-      <c r="E16" s="179" t="s">
-        <v>846</v>
+      <c r="C16" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D16" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E16" s="182" t="s">
+        <v>844</v>
       </c>
       <c r="F16" s="182">
-        <v>45176</v>
+        <v>45177</v>
       </c>
       <c r="G16" s="181">
         <v>6</v>
@@ -30676,17 +30676,17 @@
       <c r="B17" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C17" s="181">
-        <v>-1</v>
-      </c>
-      <c r="D17" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E17" s="182" t="s">
-        <v>844</v>
+      <c r="C17" s="169">
+        <v>0</v>
+      </c>
+      <c r="D17" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E17" s="179" t="s">
+        <v>845</v>
       </c>
       <c r="F17" s="182">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="G17" s="181">
         <v>6</v>
@@ -30694,22 +30694,22 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B18" s="169" t="s">
         <v>797</v>
       </c>
       <c r="C18" s="169">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="F18" s="182">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="G18" s="181">
         <v>6</v>
@@ -30722,17 +30722,17 @@
       <c r="B19" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C19" s="169">
-        <v>1</v>
-      </c>
-      <c r="D19" s="169" t="s">
-        <v>843</v>
-      </c>
-      <c r="E19" s="179" t="s">
-        <v>846</v>
+      <c r="C19" s="181">
+        <v>-1</v>
+      </c>
+      <c r="D19" s="181" t="s">
+        <v>841</v>
+      </c>
+      <c r="E19" s="182" t="s">
+        <v>844</v>
       </c>
       <c r="F19" s="182">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="G19" s="181">
         <v>6</v>
@@ -30745,47 +30745,24 @@
       <c r="B20" s="169" t="s">
         <v>797</v>
       </c>
-      <c r="C20" s="181">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E20" s="182" t="s">
-        <v>844</v>
+      <c r="C20" s="169">
+        <v>0</v>
+      </c>
+      <c r="D20" s="169" t="s">
+        <v>842</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>845</v>
       </c>
       <c r="F20" s="182">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="G20" s="181">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="169" t="s">
-        <v>797</v>
-      </c>
-      <c r="C21" s="169">
-        <v>0</v>
-      </c>
-      <c r="D21" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F21" s="182">
-        <v>45181</v>
-      </c>
-      <c r="G21" s="181">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G21" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>
+  <autoFilter ref="A1:G20" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCFC564-3FC4-4C48-B64A-9DBC6B80D43A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F8AB3-ECE4-464D-8EEC-A8FB83EDA1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$262</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="849">
   <si>
     <t>Team No.</t>
   </si>
@@ -2968,6 +2968,12 @@
   </si>
   <si>
     <t>III</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spent Days </t>
   </si>
 </sst>
 </file>
@@ -30283,10 +30289,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30318,10 +30324,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>826</v>
+        <v>847</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -30738,31 +30744,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="169" t="s">
-        <v>797</v>
-      </c>
-      <c r="C20" s="169">
-        <v>0</v>
-      </c>
-      <c r="D20" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="F20" s="182">
-        <v>45181</v>
-      </c>
-      <c r="G20" s="181">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G20" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>
+  <autoFilter ref="A1:G19" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3F8AB3-ECE4-464D-8EEC-A8FB83EDA1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE5CE7-978F-4DB2-9E39-9F31CDC90151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2970,10 +2970,10 @@
     <t>III</t>
   </si>
   <si>
-    <t>Actual</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spent Days </t>
+  </si>
+  <si>
+    <t>Actual Date</t>
   </si>
 </sst>
 </file>
@@ -30292,7 +30292,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30324,10 +30324,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
+        <v>848</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>847</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFE5CE7-978F-4DB2-9E39-9F31CDC90151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B022E8D-4641-4F91-8A4B-25802BF3AD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2817" uniqueCount="844">
   <si>
     <t>Team No.</t>
   </si>
@@ -2952,28 +2952,13 @@
     <t>Fall Prevention System is not safe for the EPIS drops surveyor</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>II</t>
-  </si>
-  <si>
-    <t>III</t>
-  </si>
-  <si>
     <t xml:space="preserve">Spent Days </t>
   </si>
   <si>
     <t>Actual Date</t>
+  </si>
+  <si>
+    <t>Not Determined</t>
   </si>
 </sst>
 </file>
@@ -30292,7 +30277,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30324,10 +30309,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -30341,17 +30326,11 @@
         <v>-1</v>
       </c>
       <c r="D2" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E2" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F2" s="182">
-        <v>45162</v>
-      </c>
-      <c r="G2" s="181">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="181"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
@@ -30364,17 +30343,11 @@
         <v>0</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E3" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F3" s="182">
-        <v>45163</v>
-      </c>
-      <c r="G3" s="181">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E3" s="179"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="181"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
@@ -30389,15 +30362,9 @@
       <c r="D4" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E4" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F4" s="182">
-        <v>45164</v>
-      </c>
-      <c r="G4" s="181">
-        <v>6</v>
-      </c>
+      <c r="E4" s="179"/>
+      <c r="F4" s="182"/>
+      <c r="G4" s="181"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
@@ -30410,17 +30377,11 @@
         <v>-1</v>
       </c>
       <c r="D5" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E5" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F5" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G5" s="181">
-        <v>6</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="181"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
@@ -30433,17 +30394,11 @@
         <v>0</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E6" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F6" s="182">
-        <v>45166</v>
-      </c>
-      <c r="G6" s="181">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E6" s="179"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="181"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
@@ -30458,19 +30413,13 @@
       <c r="D7" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E7" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F7" s="182">
-        <v>45167</v>
-      </c>
-      <c r="G7" s="181">
-        <v>6</v>
-      </c>
+      <c r="E7" s="179"/>
+      <c r="F7" s="182"/>
+      <c r="G7" s="181"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="169" t="s">
         <v>794</v>
@@ -30479,17 +30428,11 @@
         <v>-1</v>
       </c>
       <c r="D8" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E8" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F8" s="182">
-        <v>45168</v>
-      </c>
-      <c r="G8" s="181">
-        <v>6</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E8" s="182"/>
+      <c r="F8" s="182"/>
+      <c r="G8" s="181"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
@@ -30502,17 +30445,11 @@
         <v>0</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E9" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F9" s="182">
-        <v>45169</v>
-      </c>
-      <c r="G9" s="181">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E9" s="179"/>
+      <c r="F9" s="182"/>
+      <c r="G9" s="181"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
@@ -30527,15 +30464,9 @@
       <c r="D10" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E10" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F10" s="182">
-        <v>45170</v>
-      </c>
-      <c r="G10" s="181">
-        <v>6</v>
-      </c>
+      <c r="E10" s="179"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="181"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
@@ -30548,17 +30479,11 @@
         <v>0</v>
       </c>
       <c r="D11" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E11" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F11" s="182">
-        <v>45172</v>
-      </c>
-      <c r="G11" s="181">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E11" s="179"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="181"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
@@ -30573,15 +30498,9 @@
       <c r="D12" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E12" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F12" s="182">
-        <v>45173</v>
-      </c>
-      <c r="G12" s="181">
-        <v>6</v>
-      </c>
+      <c r="E12" s="179"/>
+      <c r="F12" s="182"/>
+      <c r="G12" s="181"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
@@ -30594,17 +30513,11 @@
         <v>-1</v>
       </c>
       <c r="D13" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F13" s="182">
-        <v>45174</v>
-      </c>
-      <c r="G13" s="181">
-        <v>6</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="E13" s="182"/>
+      <c r="F13" s="182"/>
+      <c r="G13" s="181"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
@@ -30617,17 +30530,11 @@
         <v>0</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E14" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F14" s="182">
-        <v>45175</v>
-      </c>
-      <c r="G14" s="181">
-        <v>6</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="E14" s="179"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="181"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
@@ -30640,17 +30547,11 @@
         <v>1</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>843</v>
-      </c>
-      <c r="E15" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F15" s="182">
-        <v>45176</v>
-      </c>
-      <c r="G15" s="181">
-        <v>6</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="E15" s="179"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="181"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
@@ -30663,17 +30564,11 @@
         <v>-1</v>
       </c>
       <c r="D16" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E16" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F16" s="182">
-        <v>45177</v>
-      </c>
-      <c r="G16" s="181">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="E16" s="182"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="181"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
@@ -30686,17 +30581,11 @@
         <v>0</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>842</v>
-      </c>
-      <c r="E17" s="179" t="s">
-        <v>845</v>
-      </c>
-      <c r="F17" s="182">
-        <v>45178</v>
-      </c>
-      <c r="G17" s="181">
-        <v>6</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E17" s="179"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="181"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
@@ -30711,15 +30600,9 @@
       <c r="D18" s="169" t="s">
         <v>843</v>
       </c>
-      <c r="E18" s="179" t="s">
-        <v>846</v>
-      </c>
-      <c r="F18" s="182">
-        <v>45179</v>
-      </c>
-      <c r="G18" s="181">
-        <v>6</v>
-      </c>
+      <c r="E18" s="179"/>
+      <c r="F18" s="182"/>
+      <c r="G18" s="181"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
@@ -30732,17 +30615,11 @@
         <v>-1</v>
       </c>
       <c r="D19" s="181" t="s">
-        <v>841</v>
-      </c>
-      <c r="E19" s="182" t="s">
-        <v>844</v>
-      </c>
-      <c r="F19" s="182">
-        <v>45180</v>
-      </c>
-      <c r="G19" s="181">
-        <v>6</v>
-      </c>
+        <v>763</v>
+      </c>
+      <c r="E19" s="182"/>
+      <c r="F19" s="182"/>
+      <c r="G19" s="181"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G19" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3241FD33-9E5A-42B0-B204-F85CBB8859CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D9976-AF0D-413D-8745-387445E1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,31 +24,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$18</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2855" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="853">
   <si>
     <t>Team No.</t>
   </si>
@@ -2896,19 +2885,10 @@
     <t>Expected Stay On</t>
   </si>
   <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>EDC-76</t>
   </si>
   <si>
     <t>4th</t>
-  </si>
-  <si>
-    <t>3rd</t>
-  </si>
-  <si>
-    <t>New Entry</t>
   </si>
   <si>
     <t>5.9.82</t>
@@ -2925,13 +2905,7 @@
     <t>Kitchen Ventilation</t>
   </si>
   <si>
-    <t xml:space="preserve">Spent Days </t>
-  </si>
-  <si>
     <t>Actual Date</t>
-  </si>
-  <si>
-    <t>Not Determined</t>
   </si>
   <si>
     <t>3.3.17</t>
@@ -2974,10 +2948,37 @@
     <t>Menes</t>
   </si>
   <si>
-    <t>MENES-57</t>
+    <t>UMB-262</t>
+  </si>
+  <si>
+    <t>Umbarka</t>
+  </si>
+  <si>
+    <t>NU-38</t>
   </si>
   <si>
     <t>No Job</t>
+  </si>
+  <si>
+    <t>4th Campaign</t>
+  </si>
+  <si>
+    <t>3rd Campaign</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>QASR-59</t>
+  </si>
+  <si>
+    <t>Salam</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4th </t>
   </si>
 </sst>
 </file>
@@ -4240,8 +4241,8 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -14986,7 +14987,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15028,9 +15029,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -15040,9 +15039,7 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -15052,15 +15049,13 @@
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
   </sheetData>
@@ -15078,7 +15073,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15120,27 +15115,43 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45064</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" s="214" t="s">
+        <v>817</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>825</v>
+        <v>846</v>
       </c>
       <c r="D3" s="5">
-        <v>45082</v>
+        <v>45083</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>27</v>
@@ -15149,21 +15160,37 @@
         <v>817</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>846</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="8">
+        <v>45088</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="225" t="s">
+        <v>817</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>844</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>841</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -15180,11 +15207,11 @@
   <dimension ref="A1:I266"/>
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="70" customWidth="1"/>
@@ -15285,7 +15312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>82</v>
       </c>
@@ -15343,7 +15370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>83</v>
       </c>
@@ -15747,7 +15774,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>143</v>
       </c>
@@ -15776,7 +15803,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>143</v>
       </c>
@@ -15921,7 +15948,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>162</v>
       </c>
@@ -22686,19 +22713,19 @@
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
+        <v>825</v>
+      </c>
+      <c r="C262" s="210" t="s">
         <v>828</v>
       </c>
-      <c r="C262" s="210" t="s">
-        <v>831</v>
-      </c>
       <c r="D262" s="211" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -22715,13 +22742,13 @@
         <v>174</v>
       </c>
       <c r="B263" s="215" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="D263" s="216" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="E263" s="217" t="s">
         <v>31</v>
@@ -22744,19 +22771,19 @@
         <v>174</v>
       </c>
       <c r="B264" s="218" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C264" s="15" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="D264" s="219" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="E264" s="217" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="G264" s="220" t="s">
         <v>12</v>
@@ -22773,19 +22800,19 @@
         <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C265" s="15" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="D265" s="221" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="G265" s="220" t="s">
         <v>12</v>
@@ -28325,11 +28352,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView topLeftCell="A143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C161" sqref="C161"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.140625" style="14" customWidth="1"/>
@@ -30137,13 +30164,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="169" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="169" bestFit="1" customWidth="1"/>
@@ -30180,7 +30208,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30191,246 +30219,246 @@
         <v>1</v>
       </c>
       <c r="D2" s="181" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="E2" s="182" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F2" s="182">
-        <v>45150</v>
+        <v>45176</v>
       </c>
       <c r="G2" s="181">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="169" t="s">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
       </c>
       <c r="D3" s="169" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="F3" s="179">
-        <v>45155</v>
+        <v>45181</v>
       </c>
       <c r="G3" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="169" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
       </c>
       <c r="D4" s="169" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="E4" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="179">
-        <v>45158</v>
+        <v>45186</v>
       </c>
       <c r="G4" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="169" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="169" t="s">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C5" s="169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" s="169" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="E5" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="179">
-        <v>45139</v>
+        <v>45189</v>
       </c>
       <c r="G5" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="169" t="s">
+      <c r="B6" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C6" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>222</v>
+        <v>823</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F6" s="179">
-        <v>45144</v>
+        <v>45170</v>
       </c>
       <c r="G6" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C7" s="169">
+        <v>2</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="179">
+        <v>45177</v>
+      </c>
+      <c r="G7" s="169">
         <v>3</v>
       </c>
-      <c r="D7" s="169" t="s">
-        <v>768</v>
-      </c>
-      <c r="E7" s="179" t="s">
-        <v>823</v>
-      </c>
-      <c r="F7" s="179">
-        <v>45149</v>
-      </c>
-      <c r="G7" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C8" s="169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="169" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="E8" s="179" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="179">
-        <v>45151</v>
+        <v>45180</v>
       </c>
       <c r="G8" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C9" s="169">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>33</v>
+        <v>764</v>
       </c>
       <c r="F9" s="179">
-        <v>45144</v>
+        <v>45183</v>
       </c>
       <c r="G9" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="169" t="s">
+      <c r="B10" s="181" t="s">
         <v>794</v>
       </c>
       <c r="C10" s="169">
+        <v>1</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="179">
+        <v>45174</v>
+      </c>
+      <c r="G10" s="169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="169" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="181" t="s">
+        <v>794</v>
+      </c>
+      <c r="C11" s="169">
         <v>2</v>
       </c>
-      <c r="D10" s="169" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="179" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="179">
-        <v>45151</v>
-      </c>
-      <c r="G10" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="169" t="s">
-        <v>796</v>
-      </c>
-      <c r="C11" s="169">
-        <v>1</v>
-      </c>
       <c r="D11" s="169" t="s">
-        <v>430</v>
+        <v>299</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>825</v>
+        <v>33</v>
       </c>
       <c r="F11" s="179">
-        <v>45139</v>
+        <v>45183</v>
       </c>
       <c r="G11" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="169" t="s">
-        <v>796</v>
+        <v>22</v>
+      </c>
+      <c r="B12" s="181" t="s">
+        <v>794</v>
       </c>
       <c r="C12" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>824</v>
+        <v>173</v>
       </c>
       <c r="E12" s="179" t="s">
-        <v>825</v>
+        <v>179</v>
       </c>
       <c r="F12" s="179">
-        <v>45141</v>
+        <v>45184</v>
       </c>
       <c r="G12" s="169">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -30441,19 +30469,19 @@
         <v>796</v>
       </c>
       <c r="C13" s="169">
+        <v>1</v>
+      </c>
+      <c r="D13" s="169" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>851</v>
+      </c>
+      <c r="F13" s="179">
+        <v>45170</v>
+      </c>
+      <c r="G13" s="169">
         <v>3</v>
-      </c>
-      <c r="D13" s="169" t="s">
-        <v>287</v>
-      </c>
-      <c r="E13" s="179" t="s">
-        <v>826</v>
-      </c>
-      <c r="F13" s="179">
-        <v>45154</v>
-      </c>
-      <c r="G13" s="169">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -30464,16 +30492,16 @@
         <v>796</v>
       </c>
       <c r="C14" s="169">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>312</v>
+        <v>823</v>
       </c>
       <c r="E14" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F14" s="179">
-        <v>45156</v>
+        <v>45176</v>
       </c>
       <c r="G14" s="169">
         <v>2</v>
@@ -30487,16 +30515,16 @@
         <v>796</v>
       </c>
       <c r="C15" s="169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>93</v>
+        <v>300</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F15" s="179">
-        <v>45158</v>
+        <v>45182</v>
       </c>
       <c r="G15" s="169">
         <v>2</v>
@@ -30510,19 +30538,19 @@
         <v>796</v>
       </c>
       <c r="C16" s="169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>82</v>
+        <v>323</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F16" s="179">
-        <v>45160</v>
+        <v>45182</v>
       </c>
       <c r="G16" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -30533,39 +30561,39 @@
         <v>796</v>
       </c>
       <c r="C17" s="169">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>389</v>
+        <v>53</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F17" s="179">
-        <v>45163</v>
+        <v>45184</v>
       </c>
       <c r="G17" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="169" t="s">
         <v>796</v>
       </c>
       <c r="C18" s="169">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F18" s="179">
-        <v>45148</v>
+        <v>45189</v>
       </c>
       <c r="G18" s="169">
         <v>3</v>
@@ -30579,19 +30607,19 @@
         <v>796</v>
       </c>
       <c r="C19" s="169">
+        <v>1</v>
+      </c>
+      <c r="D19" s="169" t="s">
+        <v>303</v>
+      </c>
+      <c r="E19" s="179" t="s">
+        <v>824</v>
+      </c>
+      <c r="F19" s="179">
+        <v>45175</v>
+      </c>
+      <c r="G19" s="169">
         <v>2</v>
-      </c>
-      <c r="D19" s="169" t="s">
-        <v>221</v>
-      </c>
-      <c r="E19" s="179" t="s">
-        <v>826</v>
-      </c>
-      <c r="F19" s="179">
-        <v>45152</v>
-      </c>
-      <c r="G19" s="169">
-        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -30602,19 +30630,19 @@
         <v>796</v>
       </c>
       <c r="C20" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F20" s="179">
-        <v>45155</v>
+        <v>45177</v>
       </c>
       <c r="G20" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -30625,19 +30653,19 @@
         <v>796</v>
       </c>
       <c r="C21" s="169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" s="169" t="s">
-        <v>231</v>
+        <v>373</v>
       </c>
       <c r="E21" s="179" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="F21" s="179">
-        <v>45158</v>
+        <v>45179</v>
       </c>
       <c r="G21" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -30648,19 +30676,19 @@
         <v>796</v>
       </c>
       <c r="C22" s="169">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F22" s="179">
-        <v>45161</v>
+        <v>45181</v>
       </c>
       <c r="G22" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -30671,19 +30699,19 @@
         <v>796</v>
       </c>
       <c r="C23" s="169">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F23" s="179">
-        <v>45163</v>
+        <v>45192</v>
       </c>
       <c r="G23" s="169">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -30694,16 +30722,16 @@
         <v>796</v>
       </c>
       <c r="C24" s="169">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>9</v>
+        <v>83</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F24" s="179">
-        <v>45164</v>
+        <v>45195</v>
       </c>
       <c r="G24" s="169">
         <v>3</v>
@@ -30720,13 +30748,13 @@
         <v>1</v>
       </c>
       <c r="D25" s="169" t="s">
-        <v>19</v>
+        <v>312</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>827</v>
+        <v>851</v>
       </c>
       <c r="F25" s="179">
-        <v>45142</v>
+        <v>45170</v>
       </c>
       <c r="G25" s="169">
         <v>2</v>
@@ -30743,13 +30771,13 @@
         <v>2</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>19</v>
+        <v>289</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="F26" s="179">
-        <v>45152</v>
+        <v>45180</v>
       </c>
       <c r="G26" s="169">
         <v>2</v>
@@ -30766,13 +30794,13 @@
         <v>3</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>173</v>
+        <v>71</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F27" s="179">
-        <v>45154</v>
+        <v>45182</v>
       </c>
       <c r="G27" s="169">
         <v>3</v>
@@ -30789,13 +30817,13 @@
         <v>4</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="F28" s="179">
-        <v>45157</v>
+        <v>45185</v>
       </c>
       <c r="G28" s="169">
         <v>3</v>
@@ -30812,16 +30840,16 @@
         <v>5</v>
       </c>
       <c r="D29" s="169" t="s">
-        <v>11</v>
+        <v>299</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F29" s="179">
-        <v>45160</v>
+        <v>45188</v>
       </c>
       <c r="G29" s="169">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -30835,20 +30863,26 @@
         <v>6</v>
       </c>
       <c r="D30" s="169" t="s">
-        <v>8</v>
+        <v>143</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>825</v>
+        <v>851</v>
       </c>
       <c r="F30" s="179">
-        <v>45163</v>
+        <v>45194</v>
       </c>
       <c r="G30" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G18" xr:uid="{00000000-0001-0000-0500-000000000000}"/>
+  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0000-000005000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Drops"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
@@ -30858,26 +30892,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>795</v>
       </c>
@@ -30894,13 +30927,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>833</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
@@ -30919,11 +30949,8 @@
       <c r="F2" s="174">
         <v>45158</v>
       </c>
-      <c r="G2" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
@@ -30937,17 +30964,13 @@
         <v>18</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F3" s="179">
-        <v>45161</v>
-      </c>
-      <c r="G3" s="169">
-        <f>F4-F3</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
@@ -30957,20 +30980,17 @@
       <c r="C4" s="169">
         <v>1</v>
       </c>
-      <c r="D4" s="169" t="s">
-        <v>834</v>
-      </c>
-      <c r="E4" s="169" t="s">
-        <v>834</v>
+      <c r="D4" s="181" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="182" t="s">
+        <v>179</v>
       </c>
       <c r="F4" s="179">
         <v>45176</v>
       </c>
-      <c r="G4" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
@@ -30989,11 +31009,8 @@
       <c r="F5" s="174">
         <v>45151</v>
       </c>
-      <c r="G5" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
@@ -31007,17 +31024,13 @@
         <v>18</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F6" s="182">
-        <v>45154</v>
-      </c>
-      <c r="G6" s="181">
-        <f>F7-F6</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
@@ -31028,19 +31041,16 @@
         <v>1</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>834</v>
-      </c>
-      <c r="E7" s="169" t="s">
-        <v>834</v>
+        <v>823</v>
+      </c>
+      <c r="E7" s="179" t="s">
+        <v>15</v>
       </c>
       <c r="F7" s="182">
         <v>45170</v>
       </c>
-      <c r="G7" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
@@ -31059,11 +31069,8 @@
       <c r="F8" s="174">
         <v>45151</v>
       </c>
-      <c r="G8" s="181">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
@@ -31077,17 +31084,13 @@
         <v>18</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F9" s="182">
-        <v>45158</v>
-      </c>
-      <c r="G9" s="181">
-        <f>F10-F9</f>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>45165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
@@ -31098,19 +31101,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>834</v>
-      </c>
-      <c r="E10" s="169" t="s">
-        <v>834</v>
+        <v>262</v>
+      </c>
+      <c r="E10" s="179" t="s">
+        <v>179</v>
       </c>
       <c r="F10" s="182">
         <v>45174</v>
       </c>
-      <c r="G10" s="169" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="181" t="s">
         <v>20</v>
       </c>
@@ -31124,16 +31124,13 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
       </c>
-      <c r="G11" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
         <v>20</v>
       </c>
@@ -31144,20 +31141,16 @@
         <v>0</v>
       </c>
       <c r="D12" s="169" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F12" s="182">
-        <v>45160</v>
-      </c>
-      <c r="G12" s="169">
-        <f>F13-F12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
@@ -31167,20 +31160,17 @@
       <c r="C13" s="181">
         <v>1</v>
       </c>
-      <c r="D13" s="181" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="182" t="s">
-        <v>825</v>
+      <c r="D13" s="169" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="179" t="s">
+        <v>851</v>
       </c>
       <c r="F13" s="182">
-        <v>45165</v>
-      </c>
-      <c r="G13" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>21</v>
       </c>
@@ -31191,19 +31181,16 @@
         <v>-1</v>
       </c>
       <c r="D14" s="169" t="s">
-        <v>287</v>
-      </c>
-      <c r="E14" s="179" t="s">
-        <v>826</v>
+        <v>9</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>852</v>
       </c>
       <c r="F14" s="182">
-        <v>45162</v>
-      </c>
-      <c r="G14" s="181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>21</v>
       </c>
@@ -31214,19 +31201,16 @@
         <v>0</v>
       </c>
       <c r="D15" s="181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="F15" s="182">
-        <v>45164</v>
-      </c>
-      <c r="G15" s="181">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>21</v>
       </c>
@@ -31236,20 +31220,17 @@
       <c r="C16" s="181">
         <v>1</v>
       </c>
-      <c r="D16" s="181" t="s">
-        <v>312</v>
-      </c>
-      <c r="E16" s="182" t="s">
-        <v>826</v>
+      <c r="D16" s="169" t="s">
+        <v>303</v>
+      </c>
+      <c r="E16" s="179" t="s">
+        <v>824</v>
       </c>
       <c r="F16" s="182">
-        <v>45167</v>
-      </c>
-      <c r="G16" s="181">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45175</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>22</v>
       </c>
@@ -31262,17 +31243,14 @@
       <c r="D17" s="169" t="s">
         <v>763</v>
       </c>
-      <c r="E17" s="169" t="s">
-        <v>826</v>
+      <c r="E17" s="182" t="s">
+        <v>851</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
       </c>
-      <c r="G17" s="169">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
         <v>22</v>
       </c>
@@ -31283,20 +31261,16 @@
         <v>0</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>18</v>
+        <v>245</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="F18" s="182">
-        <v>45160</v>
-      </c>
-      <c r="G18" s="181">
-        <f>F19-F18</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>45166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>22</v>
       </c>
@@ -31306,21 +31280,18 @@
       <c r="C19" s="181">
         <v>1</v>
       </c>
-      <c r="D19" s="181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="181" t="s">
-        <v>826</v>
-      </c>
-      <c r="F19" s="225">
-        <v>45165</v>
-      </c>
-      <c r="G19" s="181">
-        <v>2</v>
+      <c r="D19" s="169" t="s">
+        <v>312</v>
+      </c>
+      <c r="E19" s="179" t="s">
+        <v>851</v>
+      </c>
+      <c r="F19" s="182">
+        <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G19" xr:uid="{23FD9BCA-82C4-47DD-9AA7-FAFE4BE0BB70}">
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="1">
       <filters>
         <filter val="Drops"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6D9976-AF0D-413D-8745-387445E1A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74375FCC-020F-4D4B-AF0A-E913CFD945DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30897,7 +30897,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="H16" activeCellId="1" sqref="G16 H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74375FCC-020F-4D4B-AF0A-E913CFD945DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868D700-D1CF-450C-8680-48CB7E30ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,15 @@
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
     <sheet name="Plan" sheetId="9" r:id="rId6"/>
     <sheet name="Team_Management" sheetId="10" r:id="rId7"/>
+    <sheet name="Mast_Inspection" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Mast_Inspection!$A$1:$A$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Mast_Inspection!$A$1:$B$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2862" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="864">
   <si>
     <t>Team No.</t>
   </si>
@@ -2980,6 +2983,49 @@
   <si>
     <t xml:space="preserve">4th </t>
   </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t>The Mast fall prevention system was in poor condition, as the climb assist was stuck and the secondary retention of the fall arrestor secured at the same anchor point.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the fall arrestor that was mentioned as a critical item,  fall arrestor installed on the handrail and No  load testthere is no SR pad-eye.
+</t>
+  </si>
+  <si>
+    <t>A complete cut was observed in one of the mast ladder steps above 10 steps from the monkey board, it is recommended to avoid any claiming at the mast till fixing this
+problem</t>
+  </si>
+  <si>
+    <t>The Mast fall arrestor is secured with a not standard pad-eye, as it is welded to the crown block handrail. Besides it has no load test, and the secondary
+retention wire of the fall arrestor secured to the handrail is without a pad-ey</t>
+  </si>
+  <si>
+    <t>fall arrestor is stuck</t>
+  </si>
+  <si>
+    <t>1. Climb assist doesn't have prevention system or even there is no separate fall arrestor. 2. Carabiner has a lot of kinks and completely loose "Not Tensioned at all".
+3. The bottom anchor point at ladder base is locally made "Not Standard"</t>
+  </si>
+  <si>
+    <t>fall arrestor pad eyes has no load test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fall Protection System: The fall protection system used does not match the standard personnel securing requirements, where: fall arrestor device is anchored on the derrick ladder used for climbing the first section of the derrick ladder then the derrick man takes off this system and uses the carbineer system from the 2nd section while standing on the derrick ladder which may lead to personnel falling hazard. The fall protection system should reach the
+Fall Arrestor : There is no fall arrestor at the crown block.  , Fall Protection Wire : Observed the fall protection wire had a lot of kinks so it will make a barrier for anyone who will use it as a securing method.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># The vertical lifeline on the mast ladder has some kinks, so cannot use it due to the stuck of the carabiner.
+# The climb assistant device wire is not smoothly UP/Down while using it due to the wire size not being compatible with its counterweight and the sheave above the crown.
+# ( The wire should be 3/8 inch, To achieve the balance between the weight of the wire and the weight of the counterweight Currently the wire is 5/8’’ inch )
+# There is no fall arrestor at the crown block.
+</t>
+  </si>
+  <si>
+    <t>The Mast could not be inspected because the fall prevention system (Vertical lifeline) is in a very bad condition, it is observed that the wire is very rusted, loosen, and has no hard eye. Also, the anchor point is not standardized, as it is secured with a not coded color shackle to a damaged ladder step.</t>
+  </si>
 </sst>
 </file>
 
@@ -2991,7 +3037,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy"/>
     <numFmt numFmtId="167" formatCode="_-&quot;ج.م.‏&quot;\ * #,##0.00_-;_-&quot;ج.م.‏&quot;\ * #,##0.00\-;_-&quot;ج.م.‏&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3235,8 +3281,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3300,6 +3360,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3458,7 +3524,7 @@
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="226">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4244,6 +4310,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Currency 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -30896,7 +30974,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" activeCellId="1" sqref="G16 H16"/>
     </sheetView>
   </sheetViews>
@@ -31303,4 +31381,126 @@
     <customPr name="LastActive" r:id="rId1"/>
   </customProperties>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2B5B6-CC97-4588-9AE3-E1AB08918446}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="228" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="101.85546875" style="228" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="228" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="228"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="227" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="226" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="228" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="228" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="228" t="s">
+        <v>324</v>
+      </c>
+      <c r="B3" s="228" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="228" t="s">
+        <v>393</v>
+      </c>
+      <c r="B4" s="228" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="228" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" s="228" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="228" t="s">
+        <v>292</v>
+      </c>
+      <c r="B6" s="228" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="228" t="s">
+        <v>763</v>
+      </c>
+      <c r="B7" s="228" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="228" t="s">
+        <v>768</v>
+      </c>
+      <c r="B8" s="229" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="228" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" s="228" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="228" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="228" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+      <c r="A11" s="228" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11" s="229" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="228" t="s">
+        <v>586</v>
+      </c>
+      <c r="B12" s="229" t="s">
+        <v>863</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
+  <customProperties>
+    <customPr name="LastActive" r:id="rId2"/>
+  </customProperties>
+</worksheet>
 </file>
--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E868D700-D1CF-450C-8680-48CB7E30ECEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B11A46-7416-425A-87B9-5A2A1A0102A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,15 @@
     <sheet name="Phase_Dates" sheetId="8" r:id="rId5"/>
     <sheet name="Plan" sheetId="9" r:id="rId6"/>
     <sheet name="Team_Management" sheetId="10" r:id="rId7"/>
-    <sheet name="Mast_Inspection" sheetId="11" r:id="rId8"/>
+    <sheet name="Rig_Mast_Problems_Drops" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">All_Critical_Points!$A$1:$I$265</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Mast_Inspection!$A$1:$A$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Phase_Dates!$A$1:$C$162</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Plan!$A$1:$G$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Team_Management!$A$1:$F$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">Mast_Inspection!$A$1:$B$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">Rig_Mast_Problems_Drops!$A$1:$C$12</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2886" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="868">
   <si>
     <t>Team No.</t>
   </si>
@@ -2768,9 +2768,6 @@
     </r>
   </si>
   <si>
-    <t>Last Visit</t>
-  </si>
-  <si>
     <t>No Critical</t>
   </si>
   <si>
@@ -2948,18 +2945,6 @@
 </t>
   </si>
   <si>
-    <t>Menes</t>
-  </si>
-  <si>
-    <t>UMB-262</t>
-  </si>
-  <si>
-    <t>Umbarka</t>
-  </si>
-  <si>
-    <t>NU-38</t>
-  </si>
-  <si>
     <t>No Job</t>
   </si>
   <si>
@@ -2984,7 +2969,28 @@
     <t xml:space="preserve">4th </t>
   </si>
   <si>
-    <t xml:space="preserve">Comment </t>
+    <t>TAYIM-W8</t>
+  </si>
+  <si>
+    <t>Kalabsha</t>
+  </si>
+  <si>
+    <t>Drops Survey</t>
+  </si>
+  <si>
+    <t>UMB-250</t>
+  </si>
+  <si>
+    <t>UMBARKA</t>
+  </si>
+  <si>
+    <t>Rig_Last Visit</t>
+  </si>
+  <si>
+    <t>Starting_Date</t>
+  </si>
+  <si>
+    <t>Job_Days</t>
   </si>
   <si>
     <t>The Mast fall prevention system was in poor condition, as the climb assist was stuck and the secondary retention of the fall arrestor secured at the same anchor point.</t>
@@ -3025,6 +3031,12 @@
   </si>
   <si>
     <t>The Mast could not be inspected because the fall prevention system (Vertical lifeline) is in a very bad condition, it is observed that the wire is very rusted, loosen, and has no hard eye. Also, the anchor point is not standardized, as it is secured with a not coded color shackle to a damaged ladder step.</t>
+  </si>
+  <si>
+    <t>Mast Problem Description</t>
+  </si>
+  <si>
+    <t>Rig_Type</t>
   </si>
 </sst>
 </file>
@@ -15065,7 +15077,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15148,10 +15160,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15163,10 +15175,11 @@
     <col min="6" max="6" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.85546875" style="1"/>
+    <col min="9" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15177,7 +15190,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>786</v>
+        <v>853</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -15191,8 +15204,14 @@
       <c r="H1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -15200,25 +15219,31 @@
         <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D2" s="5">
         <v>45064</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F2" s="214" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+      <c r="I2" s="5">
+        <v>45167</v>
+      </c>
+      <c r="J2" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -15226,48 +15251,60 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="D3" s="5">
         <v>45083</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>27</v>
+        <v>843</v>
       </c>
       <c r="F3" s="214" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>842</v>
+        <v>851</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+      <c r="I3" s="5">
+        <v>45167</v>
+      </c>
+      <c r="J3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="D4" s="8">
-        <v>45088</v>
+        <v>45044</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="225" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>841</v>
+        <v>849</v>
+      </c>
+      <c r="I4" s="8">
+        <v>45169</v>
+      </c>
+      <c r="J4" s="7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15286,7 +15323,7 @@
   <sheetViews>
     <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15337,25 +15374,25 @@
         <v>53</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I2" s="14" t="s">
         <v>73</v>
@@ -15741,25 +15778,25 @@
         <v>282</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I16" s="14" t="s">
         <v>144</v>
@@ -16087,25 +16124,25 @@
         <v>11</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I28" s="14" t="s">
         <v>73</v>
@@ -16286,25 +16323,25 @@
         <v>189</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I35" s="14" t="s">
         <v>73</v>
@@ -17347,25 +17384,25 @@
         <v>289</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I72" s="14" t="s">
         <v>94</v>
@@ -17459,25 +17496,25 @@
         <v>300</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H76" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I76" s="14" t="s">
         <v>94</v>
@@ -17683,25 +17720,25 @@
         <v>323</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I84" s="14" t="s">
         <v>94</v>
@@ -17724,7 +17761,7 @@
         <v>31</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G85" s="14" t="s">
         <v>16</v>
@@ -17753,7 +17790,7 @@
         <v>31</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G86" s="142" t="s">
         <v>12</v>
@@ -17782,7 +17819,7 @@
         <v>31</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G87" s="142" t="s">
         <v>12</v>
@@ -17811,7 +17848,7 @@
         <v>31</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G88" s="146" t="s">
         <v>12</v>
@@ -17840,7 +17877,7 @@
         <v>31</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G89" s="146" t="s">
         <v>16</v>
@@ -17869,7 +17906,7 @@
         <v>31</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G90" s="14" t="s">
         <v>50</v>
@@ -17896,7 +17933,7 @@
         <v>31</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G91" s="14" t="s">
         <v>50</v>
@@ -17925,7 +17962,7 @@
         <v>31</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G92" s="14" t="s">
         <v>50</v>
@@ -17954,7 +17991,7 @@
         <v>31</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G93" s="14" t="s">
         <v>12</v>
@@ -17983,7 +18020,7 @@
         <v>31</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G94" s="14" t="s">
         <v>12</v>
@@ -18012,7 +18049,7 @@
         <v>48</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G95" s="14" t="s">
         <v>12</v>
@@ -18041,7 +18078,7 @@
         <v>31</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G96" s="149" t="s">
         <v>12</v>
@@ -18070,7 +18107,7 @@
         <v>31</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G97" s="149" t="s">
         <v>12</v>
@@ -18099,7 +18136,7 @@
         <v>31</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G98" s="149" t="s">
         <v>12</v>
@@ -18128,7 +18165,7 @@
         <v>31</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G99" s="150" t="s">
         <v>12</v>
@@ -18155,7 +18192,7 @@
         <v>48</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G100" s="14" t="s">
         <v>12</v>
@@ -18182,7 +18219,7 @@
         <v>48</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G101" s="14" t="s">
         <v>12</v>
@@ -18209,7 +18246,7 @@
         <v>31</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G102" s="14" t="s">
         <v>12</v>
@@ -18236,7 +18273,7 @@
         <v>31</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G103" s="14" t="s">
         <v>12</v>
@@ -18253,25 +18290,25 @@
         <v>8</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="I104" s="14" t="s">
         <v>94</v>
@@ -22472,13 +22509,13 @@
         <v>19</v>
       </c>
       <c r="B251" s="69" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C251" s="69" t="s">
         <v>318</v>
       </c>
       <c r="D251" s="69" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E251" s="69" t="s">
         <v>31</v>
@@ -22501,19 +22538,19 @@
         <v>19</v>
       </c>
       <c r="B252" s="69" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C252" s="69">
         <v>0</v>
       </c>
       <c r="D252" s="69" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E252" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F252" s="69" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G252" s="69" t="s">
         <v>50</v>
@@ -22536,13 +22573,13 @@
         <v>0</v>
       </c>
       <c r="D253" s="69" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="E253" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F253" s="69" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G253" s="69" t="s">
         <v>50</v>
@@ -22565,13 +22602,13 @@
         <v>0</v>
       </c>
       <c r="D254" s="69" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E254" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F254" s="69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G254" s="69" t="s">
         <v>50</v>
@@ -22588,19 +22625,19 @@
         <v>19</v>
       </c>
       <c r="B255" s="69" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C255" s="69">
         <v>0</v>
       </c>
       <c r="D255" s="69" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E255" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F255" s="69" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G255" s="69" t="s">
         <v>50</v>
@@ -22623,13 +22660,13 @@
         <v>0</v>
       </c>
       <c r="D256" s="69" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E256" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F256" s="69" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G256" s="69" t="s">
         <v>50</v>
@@ -22652,13 +22689,13 @@
         <v>0</v>
       </c>
       <c r="D257" s="69" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E257" s="69" t="s">
         <v>31</v>
       </c>
       <c r="F257" s="69" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G257" s="69" t="s">
         <v>50</v>
@@ -22704,19 +22741,19 @@
         <v>19</v>
       </c>
       <c r="B259" s="69" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C259" s="69">
         <v>0</v>
       </c>
       <c r="D259" s="69" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="E259" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F259" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G259" s="69" t="s">
         <v>50</v>
@@ -22733,19 +22770,19 @@
         <v>19</v>
       </c>
       <c r="B260" s="69" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C260" s="69">
         <v>0</v>
       </c>
       <c r="D260" s="69" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="E260" s="69" t="s">
         <v>48</v>
       </c>
       <c r="F260" s="69" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G260" s="69" t="s">
         <v>50</v>
@@ -22762,13 +22799,13 @@
         <v>93</v>
       </c>
       <c r="B261" s="205" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C261" s="206" t="s">
         <v>124</v>
       </c>
       <c r="D261" s="207" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E261" s="208" t="s">
         <v>31</v>
@@ -22791,19 +22828,19 @@
         <v>93</v>
       </c>
       <c r="B262" s="210" t="s">
+        <v>824</v>
+      </c>
+      <c r="C262" s="210" t="s">
+        <v>827</v>
+      </c>
+      <c r="D262" s="211" t="s">
         <v>825</v>
-      </c>
-      <c r="C262" s="210" t="s">
-        <v>828</v>
-      </c>
-      <c r="D262" s="211" t="s">
-        <v>826</v>
       </c>
       <c r="E262" s="212" t="s">
         <v>31</v>
       </c>
       <c r="F262" s="213" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G262" s="209" t="s">
         <v>50</v>
@@ -22820,13 +22857,13 @@
         <v>174</v>
       </c>
       <c r="B263" s="215" t="s">
+        <v>829</v>
+      </c>
+      <c r="C263" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="C263" s="20" t="s">
+      <c r="D263" s="216" t="s">
         <v>831</v>
-      </c>
-      <c r="D263" s="216" t="s">
-        <v>832</v>
       </c>
       <c r="E263" s="217" t="s">
         <v>31</v>
@@ -22849,19 +22886,19 @@
         <v>174</v>
       </c>
       <c r="B264" s="218" t="s">
+        <v>832</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="C264" s="15" t="s">
+      <c r="D264" s="219" t="s">
         <v>834</v>
-      </c>
-      <c r="D264" s="219" t="s">
-        <v>835</v>
       </c>
       <c r="E264" s="217" t="s">
         <v>31</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G264" s="220" t="s">
         <v>12</v>
@@ -22878,19 +22915,19 @@
         <v>174</v>
       </c>
       <c r="B265" s="218" t="s">
+        <v>836</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>837</v>
       </c>
-      <c r="C265" s="15" t="s">
+      <c r="D265" s="221" t="s">
         <v>838</v>
-      </c>
-      <c r="D265" s="221" t="s">
-        <v>839</v>
       </c>
       <c r="E265" s="222" t="s">
         <v>31</v>
       </c>
       <c r="F265" s="10" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G265" s="220" t="s">
         <v>12</v>
@@ -28380,12 +28417,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -28428,10 +28465,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C163"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28452,7 +28489,7 @@
         <v>17</v>
       </c>
       <c r="C1" s="173" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -30008,7 +30045,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="170" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B143" s="192" t="s">
         <v>15</v>
@@ -30224,6 +30261,17 @@
       </c>
       <c r="C162" s="174">
         <v>45158</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="B163" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163" s="174">
+        <v>45170</v>
       </c>
     </row>
   </sheetData>
@@ -30243,10 +30291,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="D19:E19"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30265,13 +30313,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -30280,18 +30328,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" s="181">
         <v>1</v>
@@ -30309,12 +30357,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C3" s="169">
         <v>2</v>
@@ -30332,12 +30380,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="169">
         <v>3</v>
@@ -30355,12 +30403,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="169">
         <v>4</v>
@@ -30378,228 +30426,228 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" s="169">
         <v>1</v>
       </c>
       <c r="D6" s="169" t="s">
-        <v>823</v>
+        <v>262</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F6" s="179">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="G6" s="169">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="169">
         <v>2</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F7" s="179">
-        <v>45177</v>
+        <v>45183</v>
       </c>
       <c r="G7" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" s="169">
         <v>3</v>
       </c>
       <c r="D8" s="169" t="s">
-        <v>300</v>
+        <v>173</v>
       </c>
       <c r="E8" s="179" t="s">
-        <v>10</v>
+        <v>179</v>
       </c>
       <c r="F8" s="179">
-        <v>45180</v>
+        <v>45184</v>
       </c>
       <c r="G8" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="169">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="169" t="s">
-        <v>430</v>
+        <v>822</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>764</v>
+        <v>15</v>
       </c>
       <c r="F9" s="179">
-        <v>45183</v>
+        <v>45170</v>
       </c>
       <c r="G9" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="E10" s="179" t="s">
-        <v>179</v>
+        <v>10</v>
       </c>
       <c r="F10" s="179">
-        <v>45174</v>
+        <v>45177</v>
       </c>
       <c r="G10" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C11" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" s="169" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F11" s="179">
-        <v>45183</v>
+        <v>45180</v>
       </c>
       <c r="G11" s="169">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="169" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B12" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C12" s="169">
+        <v>4</v>
+      </c>
+      <c r="D12" s="169" t="s">
+        <v>430</v>
+      </c>
+      <c r="E12" s="179" t="s">
+        <v>764</v>
+      </c>
+      <c r="F12" s="179">
+        <v>45183</v>
+      </c>
+      <c r="G12" s="169">
         <v>3</v>
       </c>
-      <c r="D12" s="169" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="179" t="s">
-        <v>179</v>
-      </c>
-      <c r="F12" s="179">
-        <v>45184</v>
-      </c>
-      <c r="G12" s="169">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>222</v>
+        <v>822</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="F13" s="179">
-        <v>45170</v>
+        <v>45176</v>
       </c>
       <c r="G13" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" s="169" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="179" t="s">
         <v>823</v>
       </c>
-      <c r="E14" s="179" t="s">
-        <v>824</v>
-      </c>
       <c r="F14" s="179">
-        <v>45176</v>
+        <v>45182</v>
       </c>
       <c r="G14" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C15" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" s="169" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="E15" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F15" s="179">
         <v>45182</v>
@@ -30608,356 +30656,365 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C16" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="169" t="s">
-        <v>323</v>
+        <v>53</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F16" s="179">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="G16" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C17" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17" s="169" t="s">
-        <v>53</v>
+        <v>262</v>
       </c>
       <c r="E17" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F17" s="179">
-        <v>45184</v>
+        <v>45189</v>
       </c>
       <c r="G17" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="169" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C18" s="169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D18" s="169" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="E18" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F18" s="179">
-        <v>45189</v>
+        <v>45175</v>
       </c>
       <c r="G18" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" s="169" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F19" s="179">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="G19" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C20" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="169" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="E20" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F20" s="179">
-        <v>45177</v>
+        <v>45179</v>
       </c>
       <c r="G20" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C21" s="169">
+        <v>4</v>
+      </c>
+      <c r="D21" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="179" t="s">
+        <v>823</v>
+      </c>
+      <c r="F21" s="179">
+        <v>45181</v>
+      </c>
+      <c r="G21" s="169">
         <v>3</v>
       </c>
-      <c r="D21" s="169" t="s">
-        <v>373</v>
-      </c>
-      <c r="E21" s="179" t="s">
-        <v>824</v>
-      </c>
-      <c r="F21" s="179">
-        <v>45179</v>
-      </c>
-      <c r="G21" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C22" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="169" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E22" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F22" s="179">
-        <v>45181</v>
+        <v>45192</v>
       </c>
       <c r="G22" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C23" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23" s="169" t="s">
-        <v>162</v>
+        <v>83</v>
       </c>
       <c r="E23" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F23" s="179">
-        <v>45192</v>
+        <v>45195</v>
       </c>
       <c r="G23" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="169" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C24" s="169">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D24" s="169" t="s">
-        <v>83</v>
+        <v>312</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="F24" s="179">
-        <v>45195</v>
+        <v>45170</v>
       </c>
       <c r="G24" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C25" s="169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25" s="169" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="E25" s="179" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="F25" s="179">
-        <v>45170</v>
+        <v>45180</v>
       </c>
       <c r="G25" s="169">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C26" s="169">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" s="169" t="s">
-        <v>289</v>
+        <v>71</v>
       </c>
       <c r="E26" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F26" s="179">
-        <v>45180</v>
+        <v>45182</v>
       </c>
       <c r="G26" s="169">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C27" s="169">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" s="169" t="s">
-        <v>71</v>
+        <v>231</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="F27" s="179">
-        <v>45182</v>
+        <v>45185</v>
       </c>
       <c r="G27" s="169">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C28" s="169">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" s="169" t="s">
-        <v>231</v>
+        <v>299</v>
       </c>
       <c r="E28" s="179" t="s">
-        <v>851</v>
+        <v>823</v>
       </c>
       <c r="F28" s="179">
-        <v>45185</v>
+        <v>45188</v>
       </c>
       <c r="G28" s="169">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C29" s="169">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29" s="169" t="s">
-        <v>299</v>
+        <v>143</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>824</v>
+        <v>846</v>
       </c>
       <c r="F29" s="179">
-        <v>45188</v>
+        <v>45194</v>
       </c>
       <c r="G29" s="169">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="169" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="169" t="s">
-        <v>796</v>
+      <c r="B30" s="181" t="s">
+        <v>793</v>
       </c>
       <c r="C30" s="169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D30" s="169" t="s">
-        <v>143</v>
+        <v>430</v>
       </c>
       <c r="E30" s="179" t="s">
-        <v>851</v>
+        <v>764</v>
       </c>
       <c r="F30" s="179">
-        <v>45194</v>
+        <v>45183</v>
       </c>
       <c r="G30" s="169">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="181"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="181"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="181"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G30" xr:uid="{00000000-0009-0000-0000-000005000000}">
+  <autoFilter ref="A1:G29" xr:uid="{00000000-0009-0000-0000-000005000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Drops"/>
+        <filter val="Audit"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -30971,11 +31028,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" activeCellId="1" sqref="G16 H16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30990,13 +31046,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>51</v>
@@ -31005,15 +31061,15 @@
         <v>4</v>
       </c>
       <c r="F1" s="183" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="181" t="s">
         <v>20</v>
       </c>
       <c r="B2" s="181" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C2" s="181">
         <v>-1</v>
@@ -31028,12 +31084,12 @@
         <v>45158</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C3" s="169">
         <v>0</v>
@@ -31042,18 +31098,18 @@
         <v>18</v>
       </c>
       <c r="E3" s="179" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F3" s="179">
         <v>45165</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="169" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C4" s="169">
         <v>1</v>
@@ -31068,12 +31124,12 @@
         <v>45176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C5" s="181">
         <v>-1</v>
@@ -31088,12 +31144,12 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B6" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C6" s="169">
         <v>0</v>
@@ -31102,38 +31158,38 @@
         <v>18</v>
       </c>
       <c r="E6" s="179" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F6" s="182">
         <v>45165</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="169" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C7" s="169">
         <v>1</v>
       </c>
       <c r="D7" s="169" t="s">
-        <v>823</v>
+        <v>262</v>
       </c>
       <c r="E7" s="179" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F7" s="182">
-        <v>45170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>45174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C8" s="181">
         <v>-1</v>
@@ -31148,12 +31204,12 @@
         <v>45151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C9" s="169">
         <v>0</v>
@@ -31162,30 +31218,30 @@
         <v>18</v>
       </c>
       <c r="E9" s="179" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F9" s="182">
         <v>45165</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="169" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="169" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C10" s="169">
         <v>1</v>
       </c>
       <c r="D10" s="169" t="s">
-        <v>262</v>
+        <v>822</v>
       </c>
       <c r="E10" s="179" t="s">
-        <v>179</v>
+        <v>15</v>
       </c>
       <c r="F10" s="182">
-        <v>45174</v>
+        <v>45170</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -31193,7 +31249,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C11" s="169">
         <v>-1</v>
@@ -31202,7 +31258,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31213,7 +31269,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C12" s="169">
         <v>0</v>
@@ -31222,7 +31278,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
@@ -31233,16 +31289,16 @@
         <v>20</v>
       </c>
       <c r="B13" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C13" s="181">
         <v>1</v>
       </c>
       <c r="D13" s="169" t="s">
-        <v>222</v>
+        <v>822</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F13" s="182">
         <v>45170</v>
@@ -31253,7 +31309,7 @@
         <v>21</v>
       </c>
       <c r="B14" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C14" s="169">
         <v>-1</v>
@@ -31262,7 +31318,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31273,7 +31329,7 @@
         <v>21</v>
       </c>
       <c r="B15" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C15" s="169">
         <v>0</v>
@@ -31282,7 +31338,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31293,7 +31349,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C16" s="181">
         <v>1</v>
@@ -31302,7 +31358,7 @@
         <v>303</v>
       </c>
       <c r="E16" s="179" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F16" s="182">
         <v>45175</v>
@@ -31313,7 +31369,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C17" s="169">
         <v>-1</v>
@@ -31322,7 +31378,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31333,19 +31389,19 @@
         <v>22</v>
       </c>
       <c r="B18" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C18" s="181">
         <v>0</v>
       </c>
       <c r="D18" s="181" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F18" s="182">
-        <v>45166</v>
+        <v>45169</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -31353,7 +31409,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="169" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C19" s="181">
         <v>1</v>
@@ -31362,20 +31418,14 @@
         <v>312</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Drops"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F19" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="LastActive" r:id="rId1"/>
@@ -31384,119 +31434,156 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2B5B6-CC97-4588-9AE3-E1AB08918446}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" style="228" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="101.85546875" style="228" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="228" customWidth="1"/>
     <col min="3" max="3" width="42.42578125" style="228" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="228"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="227" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="227" customFormat="1" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="226" t="s">
         <v>51</v>
       </c>
       <c r="B1" s="226" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>866</v>
+      </c>
+      <c r="C1" s="226" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="228" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="228" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+      <c r="C2" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A3" s="228" t="s">
         <v>324</v>
       </c>
       <c r="B3" s="228" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="C3" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="63" x14ac:dyDescent="0.25">
       <c r="A4" s="228" t="s">
         <v>393</v>
       </c>
       <c r="B4" s="228" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+      <c r="C4" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A5" s="228" t="s">
         <v>282</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+      <c r="C5" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="228" t="s">
         <v>292</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="C6" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="228" t="s">
         <v>763</v>
       </c>
       <c r="B7" s="228" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+      <c r="C7" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A8" s="228" t="s">
         <v>768</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>861</v>
+      </c>
+      <c r="C8" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="228" t="s">
         <v>430</v>
       </c>
       <c r="B9" s="228" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+      <c r="C9" s="228" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="228" t="s">
         <v>174</v>
       </c>
       <c r="B10" s="228" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="126" x14ac:dyDescent="0.25">
+        <v>863</v>
+      </c>
+      <c r="C10" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A11" s="228" t="s">
         <v>557</v>
       </c>
       <c r="B11" s="229" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+      <c r="C11" s="228" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="228" t="s">
         <v>586</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>863</v>
+        <v>865</v>
+      </c>
+      <c r="C12" s="228" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C12" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
   <customProperties>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B11A46-7416-425A-87B9-5A2A1A0102A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B44B4-80AD-49BC-92DC-FE5644D97267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31439,7 +31439,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5B44B4-80AD-49BC-92DC-FE5644D97267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E00D9C-C699-49AE-9BD7-82F0B29309BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31438,8 +31438,8 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -31502,7 +31502,7 @@
         <v>859</v>
       </c>
       <c r="C5" s="228" t="s">
-        <v>94</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">

--- a/Client_EPIS_Daily_Progress.xlsx
+++ b/Client_EPIS_Daily_Progress.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\EPIS Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E00D9C-C699-49AE-9BD7-82F0B29309BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8766A0EF-E7BE-4EE5-8FC6-FBCC58B147C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Audit_Teams_Follow_Up" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="862">
   <si>
     <t>Team No.</t>
   </si>
@@ -2948,21 +2948,9 @@
     <t>No Job</t>
   </si>
   <si>
-    <t>4th Campaign</t>
-  </si>
-  <si>
     <t>3rd Campaign</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>QASR-59</t>
-  </si>
-  <si>
-    <t>Salam</t>
-  </si>
-  <si>
     <t>3rd</t>
   </si>
   <si>
@@ -2976,12 +2964,6 @@
   </si>
   <si>
     <t>Drops Survey</t>
-  </si>
-  <si>
-    <t>UMB-250</t>
-  </si>
-  <si>
-    <t>UMBARKA</t>
   </si>
   <si>
     <t>Rig_Last Visit</t>
@@ -15162,8 +15144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15190,7 +15172,7 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>25</v>
@@ -15205,75 +15187,35 @@
         <v>3</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="D2" s="5">
-        <v>45064</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F2" s="214" t="s">
-        <v>816</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>844</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>845</v>
-      </c>
-      <c r="I2" s="5">
-        <v>45167</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="3"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="D3" s="5">
-        <v>45083</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="F3" s="214" t="s">
-        <v>816</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I3" s="5">
-        <v>45167</v>
-      </c>
-      <c r="J3" s="3">
-        <v>3</v>
-      </c>
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="214"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -15283,7 +15225,7 @@
         <v>222</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D4" s="8">
         <v>45044</v>
@@ -15295,10 +15237,10 @@
         <v>816</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="I4" s="8">
         <v>45169</v>
@@ -30854,7 +30796,7 @@
         <v>312</v>
       </c>
       <c r="E24" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F24" s="179">
         <v>45170</v>
@@ -30923,7 +30865,7 @@
         <v>231</v>
       </c>
       <c r="E27" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F27" s="179">
         <v>45185</v>
@@ -30969,7 +30911,7 @@
         <v>143</v>
       </c>
       <c r="E29" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F29" s="179">
         <v>45194</v>
@@ -31258,7 +31200,7 @@
         <v>221</v>
       </c>
       <c r="E11" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F11" s="182">
         <v>45157</v>
@@ -31278,7 +31220,7 @@
         <v>173</v>
       </c>
       <c r="E12" s="169" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F12" s="182">
         <v>45167</v>
@@ -31298,7 +31240,7 @@
         <v>822</v>
       </c>
       <c r="E13" s="179" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="F13" s="182">
         <v>45170</v>
@@ -31318,7 +31260,7 @@
         <v>9</v>
       </c>
       <c r="E14" s="182" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F14" s="182">
         <v>45195</v>
@@ -31338,7 +31280,7 @@
         <v>11</v>
       </c>
       <c r="E15" s="182" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="F15" s="182">
         <v>45167</v>
@@ -31378,7 +31320,7 @@
         <v>763</v>
       </c>
       <c r="E17" s="182" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F17" s="182">
         <v>45159</v>
@@ -31398,7 +31340,7 @@
         <v>222</v>
       </c>
       <c r="E18" s="182" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F18" s="182">
         <v>45169</v>
@@ -31418,7 +31360,7 @@
         <v>312</v>
       </c>
       <c r="E19" s="179" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="F19" s="182">
         <v>45169</v>
@@ -31437,7 +31379,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7945326D-7715-4318-B8B9-23419EDC83BA}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
@@ -31455,10 +31397,10 @@
         <v>51</v>
       </c>
       <c r="B1" s="226" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
       <c r="C1" s="226" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
@@ -31466,7 +31408,7 @@
         <v>117</v>
       </c>
       <c r="B2" s="228" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C2" s="228" t="s">
         <v>73</v>
@@ -31477,7 +31419,7 @@
         <v>324</v>
       </c>
       <c r="B3" s="228" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C3" s="228" t="s">
         <v>94</v>
@@ -31488,7 +31430,7 @@
         <v>393</v>
       </c>
       <c r="B4" s="228" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
       <c r="C4" s="228" t="s">
         <v>94</v>
@@ -31499,7 +31441,7 @@
         <v>282</v>
       </c>
       <c r="B5" s="228" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="C5" s="228" t="s">
         <v>144</v>
@@ -31510,7 +31452,7 @@
         <v>292</v>
       </c>
       <c r="B6" s="228" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="C6" s="228" t="s">
         <v>94</v>
@@ -31521,7 +31463,7 @@
         <v>763</v>
       </c>
       <c r="B7" s="228" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
       <c r="C7" s="228" t="s">
         <v>94</v>
@@ -31532,7 +31474,7 @@
         <v>768</v>
       </c>
       <c r="B8" s="229" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="C8" s="228" t="s">
         <v>94</v>
@@ -31543,7 +31485,7 @@
         <v>430</v>
       </c>
       <c r="B9" s="228" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C9" s="228" t="s">
         <v>94</v>
@@ -31554,7 +31496,7 @@
         <v>174</v>
       </c>
       <c r="B10" s="228" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C10" s="228" t="s">
         <v>73</v>
@@ -31565,7 +31507,7 @@
         <v>557</v>
       </c>
       <c r="B11" s="229" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="C11" s="228" t="s">
         <v>73</v>
@@ -31576,7 +31518,7 @@
         <v>586</v>
       </c>
       <c r="B12" s="229" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="C12" s="228" t="s">
         <v>73</v>
